--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Templates" sheetId="8" r:id="rId8"/>
     <sheet name="Accounts" sheetId="9" r:id="rId9"/>
     <sheet name="Transfers" sheetId="10" r:id="rId10"/>
+    <sheet name="FamilyMembers" sheetId="11" r:id="rId11"/>
   </sheets>
 </workbook>
 </file>
@@ -1456,6 +1457,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>relation</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Husna</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Sister</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I257"/>

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -1489,7 +1489,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I257"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1511,15 +1511,18 @@
         <v>account</v>
       </c>
       <c r="F1" t="str">
+        <v>familyMembers</v>
+      </c>
+      <c r="G1" t="str">
         <v>notes</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>recurring</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>recurringFrequency</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>recurringNextDate</v>
       </c>
     </row>
@@ -1539,16 +1542,16 @@
       <c r="E2" t="str">
         <v>Hand Cash</v>
       </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
       <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
         <v/>
       </c>
     </row>
@@ -1568,16 +1571,16 @@
       <c r="E3" t="str">
         <v/>
       </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="str">
-        <v/>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
       <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
         <v/>
       </c>
     </row>
@@ -1597,16 +1600,16 @@
       <c r="E4" t="str">
         <v/>
       </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
       </c>
       <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
         <v/>
       </c>
     </row>
@@ -1626,16 +1629,16 @@
       <c r="E5" t="str">
         <v/>
       </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="str">
-        <v/>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
       </c>
       <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
         <v/>
       </c>
     </row>
@@ -1655,16 +1658,16 @@
       <c r="E6" t="str">
         <v/>
       </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="str">
-        <v/>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
       <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
         <v/>
       </c>
     </row>
@@ -1684,16 +1687,16 @@
       <c r="E7" t="str">
         <v/>
       </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="str">
-        <v/>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
       </c>
       <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
         <v/>
       </c>
     </row>
@@ -1713,16 +1716,16 @@
       <c r="E8" t="str">
         <v/>
       </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="str">
-        <v/>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
       <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
         <v/>
       </c>
     </row>
@@ -1742,16 +1745,16 @@
       <c r="E9" t="str">
         <v/>
       </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="str">
-        <v/>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
       </c>
       <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
         <v/>
       </c>
     </row>
@@ -1771,16 +1774,16 @@
       <c r="E10" t="str">
         <v/>
       </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="str">
-        <v/>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
       </c>
       <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
         <v/>
       </c>
     </row>
@@ -1800,16 +1803,16 @@
       <c r="E11" t="str">
         <v/>
       </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="str">
-        <v/>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
       </c>
       <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
         <v/>
       </c>
     </row>
@@ -1829,16 +1832,16 @@
       <c r="E12" t="str">
         <v/>
       </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="str">
-        <v/>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
       </c>
       <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
         <v/>
       </c>
     </row>
@@ -1858,16 +1861,16 @@
       <c r="E13" t="str">
         <v/>
       </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="str">
-        <v/>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
       </c>
       <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
         <v/>
       </c>
     </row>
@@ -1887,16 +1890,16 @@
       <c r="E14" t="str">
         <v/>
       </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="str">
-        <v/>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
       </c>
       <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
         <v/>
       </c>
     </row>
@@ -1916,16 +1919,16 @@
       <c r="E15" t="str">
         <v/>
       </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="str">
-        <v/>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
       <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
         <v/>
       </c>
     </row>
@@ -1945,16 +1948,16 @@
       <c r="E16" t="str">
         <v/>
       </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="str">
-        <v/>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
       </c>
       <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
         <v/>
       </c>
     </row>
@@ -1974,16 +1977,16 @@
       <c r="E17" t="str">
         <v/>
       </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="str">
-        <v/>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
       </c>
       <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
         <v/>
       </c>
     </row>
@@ -2003,16 +2006,16 @@
       <c r="E18" t="str">
         <v/>
       </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="str">
-        <v/>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
       </c>
       <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
         <v/>
       </c>
     </row>
@@ -2032,16 +2035,16 @@
       <c r="E19" t="str">
         <v/>
       </c>
-      <c r="F19" t="str">
-        <v/>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="str">
-        <v/>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
       </c>
       <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
         <v/>
       </c>
     </row>
@@ -2061,16 +2064,16 @@
       <c r="E20" t="str">
         <v/>
       </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="str">
-        <v/>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
       </c>
       <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
         <v/>
       </c>
     </row>
@@ -2090,16 +2093,16 @@
       <c r="E21" t="str">
         <v/>
       </c>
-      <c r="F21" t="str">
-        <v/>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="str">
-        <v/>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
       </c>
       <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
         <v/>
       </c>
     </row>
@@ -2119,16 +2122,16 @@
       <c r="E22" t="str">
         <v/>
       </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="str">
-        <v/>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
       </c>
       <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
         <v/>
       </c>
     </row>
@@ -2148,16 +2151,16 @@
       <c r="E23" t="str">
         <v/>
       </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="str">
-        <v/>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
       </c>
       <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
         <v/>
       </c>
     </row>
@@ -2177,16 +2180,16 @@
       <c r="E24" t="str">
         <v/>
       </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="str">
-        <v/>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
       </c>
       <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
         <v/>
       </c>
     </row>
@@ -2206,16 +2209,16 @@
       <c r="E25" t="str">
         <v/>
       </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="str">
-        <v/>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
       </c>
       <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
         <v/>
       </c>
     </row>
@@ -2235,16 +2238,16 @@
       <c r="E26" t="str">
         <v/>
       </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="str">
-        <v/>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
       </c>
       <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
         <v/>
       </c>
     </row>
@@ -2264,16 +2267,16 @@
       <c r="E27" t="str">
         <v/>
       </c>
-      <c r="F27" t="str">
-        <v/>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="str">
-        <v/>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
       </c>
       <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
         <v/>
       </c>
     </row>
@@ -2293,16 +2296,16 @@
       <c r="E28" t="str">
         <v/>
       </c>
-      <c r="F28" t="str">
-        <v/>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="str">
-        <v/>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
       </c>
       <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
         <v/>
       </c>
     </row>
@@ -2322,16 +2325,16 @@
       <c r="E29" t="str">
         <v/>
       </c>
-      <c r="F29" t="str">
-        <v/>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="str">
-        <v/>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
       </c>
       <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
         <v/>
       </c>
     </row>
@@ -2351,16 +2354,16 @@
       <c r="E30" t="str">
         <v/>
       </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="str">
-        <v/>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
       </c>
       <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
         <v/>
       </c>
     </row>
@@ -2380,16 +2383,16 @@
       <c r="E31" t="str">
         <v/>
       </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="str">
-        <v/>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
       </c>
       <c r="I31" t="str">
+        <v/>
+      </c>
+      <c r="J31" t="str">
         <v/>
       </c>
     </row>
@@ -2409,16 +2412,16 @@
       <c r="E32" t="str">
         <v/>
       </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="str">
-        <v/>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
       </c>
       <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
         <v/>
       </c>
     </row>
@@ -2438,16 +2441,16 @@
       <c r="E33" t="str">
         <v/>
       </c>
-      <c r="F33" t="str">
-        <v/>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="str">
-        <v/>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
       </c>
       <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
         <v/>
       </c>
     </row>
@@ -2467,16 +2470,16 @@
       <c r="E34" t="str">
         <v/>
       </c>
-      <c r="F34" t="str">
-        <v/>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="str">
-        <v/>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
       </c>
       <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
         <v/>
       </c>
     </row>
@@ -2496,16 +2499,16 @@
       <c r="E35" t="str">
         <v/>
       </c>
-      <c r="F35" t="str">
-        <v/>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="str">
-        <v/>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
       </c>
       <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
         <v/>
       </c>
     </row>
@@ -2525,16 +2528,16 @@
       <c r="E36" t="str">
         <v/>
       </c>
-      <c r="F36" t="str">
-        <v/>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="str">
-        <v/>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
       </c>
       <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
         <v/>
       </c>
     </row>
@@ -2554,16 +2557,16 @@
       <c r="E37" t="str">
         <v/>
       </c>
-      <c r="F37" t="str">
-        <v/>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="str">
-        <v/>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
       </c>
       <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
         <v/>
       </c>
     </row>
@@ -2583,16 +2586,16 @@
       <c r="E38" t="str">
         <v/>
       </c>
-      <c r="F38" t="str">
-        <v/>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="str">
-        <v/>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
       </c>
       <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
         <v/>
       </c>
     </row>
@@ -2612,16 +2615,16 @@
       <c r="E39" t="str">
         <v/>
       </c>
-      <c r="F39" t="str">
-        <v/>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="str">
-        <v/>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
       </c>
       <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
         <v/>
       </c>
     </row>
@@ -2641,16 +2644,16 @@
       <c r="E40" t="str">
         <v/>
       </c>
-      <c r="F40" t="str">
-        <v/>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="str">
-        <v/>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
       </c>
       <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
         <v/>
       </c>
     </row>
@@ -2670,16 +2673,16 @@
       <c r="E41" t="str">
         <v/>
       </c>
-      <c r="F41" t="str">
-        <v/>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="str">
-        <v/>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
       </c>
       <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
         <v/>
       </c>
     </row>
@@ -2699,16 +2702,16 @@
       <c r="E42" t="str">
         <v/>
       </c>
-      <c r="F42" t="str">
-        <v/>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="str">
-        <v/>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
       </c>
       <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
         <v/>
       </c>
     </row>
@@ -2728,16 +2731,16 @@
       <c r="E43" t="str">
         <v/>
       </c>
-      <c r="F43" t="str">
-        <v/>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="str">
-        <v/>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
       </c>
       <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
         <v/>
       </c>
     </row>
@@ -2757,16 +2760,16 @@
       <c r="E44" t="str">
         <v/>
       </c>
-      <c r="F44" t="str">
-        <v/>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="str">
-        <v/>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
       </c>
       <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
         <v/>
       </c>
     </row>
@@ -2786,16 +2789,16 @@
       <c r="E45" t="str">
         <v/>
       </c>
-      <c r="F45" t="str">
-        <v/>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="str">
-        <v/>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
       </c>
       <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
         <v/>
       </c>
     </row>
@@ -2815,16 +2818,16 @@
       <c r="E46" t="str">
         <v/>
       </c>
-      <c r="F46" t="str">
-        <v/>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="str">
-        <v/>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
       </c>
       <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
         <v/>
       </c>
     </row>
@@ -2844,16 +2847,16 @@
       <c r="E47" t="str">
         <v/>
       </c>
-      <c r="F47" t="str">
-        <v/>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="str">
-        <v/>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
       </c>
       <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
         <v/>
       </c>
     </row>
@@ -2873,16 +2876,16 @@
       <c r="E48" t="str">
         <v/>
       </c>
-      <c r="F48" t="str">
-        <v/>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="str">
-        <v/>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
       </c>
       <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
         <v/>
       </c>
     </row>
@@ -2902,16 +2905,16 @@
       <c r="E49" t="str">
         <v/>
       </c>
-      <c r="F49" t="str">
-        <v/>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="str">
-        <v/>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
       </c>
       <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
         <v/>
       </c>
     </row>
@@ -2931,16 +2934,16 @@
       <c r="E50" t="str">
         <v/>
       </c>
-      <c r="F50" t="str">
-        <v/>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="str">
-        <v/>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
       </c>
       <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
         <v/>
       </c>
     </row>
@@ -2960,16 +2963,16 @@
       <c r="E51" t="str">
         <v/>
       </c>
-      <c r="F51" t="str">
-        <v/>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="str">
-        <v/>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
       </c>
       <c r="I51" t="str">
+        <v/>
+      </c>
+      <c r="J51" t="str">
         <v/>
       </c>
     </row>
@@ -2989,16 +2992,16 @@
       <c r="E52" t="str">
         <v/>
       </c>
-      <c r="F52" t="str">
-        <v/>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="str">
-        <v/>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
       </c>
       <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
         <v/>
       </c>
     </row>
@@ -3018,16 +3021,16 @@
       <c r="E53" t="str">
         <v/>
       </c>
-      <c r="F53" t="str">
-        <v/>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="str">
-        <v/>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
       </c>
       <c r="I53" t="str">
+        <v/>
+      </c>
+      <c r="J53" t="str">
         <v/>
       </c>
     </row>
@@ -3047,16 +3050,16 @@
       <c r="E54" t="str">
         <v/>
       </c>
-      <c r="F54" t="str">
-        <v/>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="str">
-        <v/>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
       </c>
       <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
         <v/>
       </c>
     </row>
@@ -3076,16 +3079,16 @@
       <c r="E55" t="str">
         <v/>
       </c>
-      <c r="F55" t="str">
-        <v/>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="str">
-        <v/>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
       </c>
       <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
         <v/>
       </c>
     </row>
@@ -3105,16 +3108,16 @@
       <c r="E56" t="str">
         <v/>
       </c>
-      <c r="F56" t="str">
-        <v/>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="str">
-        <v/>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
       </c>
       <c r="I56" t="str">
+        <v/>
+      </c>
+      <c r="J56" t="str">
         <v/>
       </c>
     </row>
@@ -3134,16 +3137,16 @@
       <c r="E57" t="str">
         <v/>
       </c>
-      <c r="F57" t="str">
-        <v/>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="str">
-        <v/>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
       </c>
       <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
         <v/>
       </c>
     </row>
@@ -3163,16 +3166,16 @@
       <c r="E58" t="str">
         <v/>
       </c>
-      <c r="F58" t="str">
-        <v/>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="str">
-        <v/>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
       </c>
       <c r="I58" t="str">
+        <v/>
+      </c>
+      <c r="J58" t="str">
         <v/>
       </c>
     </row>
@@ -3192,16 +3195,16 @@
       <c r="E59" t="str">
         <v/>
       </c>
-      <c r="F59" t="str">
-        <v/>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="str">
-        <v/>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
       </c>
       <c r="I59" t="str">
+        <v/>
+      </c>
+      <c r="J59" t="str">
         <v/>
       </c>
     </row>
@@ -3221,16 +3224,16 @@
       <c r="E60" t="str">
         <v/>
       </c>
-      <c r="F60" t="str">
-        <v/>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="str">
-        <v/>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
       </c>
       <c r="I60" t="str">
+        <v/>
+      </c>
+      <c r="J60" t="str">
         <v/>
       </c>
     </row>
@@ -3250,16 +3253,16 @@
       <c r="E61" t="str">
         <v/>
       </c>
-      <c r="F61" t="str">
-        <v/>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="str">
-        <v/>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
       </c>
       <c r="I61" t="str">
+        <v/>
+      </c>
+      <c r="J61" t="str">
         <v/>
       </c>
     </row>
@@ -3279,16 +3282,16 @@
       <c r="E62" t="str">
         <v/>
       </c>
-      <c r="F62" t="str">
-        <v/>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="str">
-        <v/>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
       </c>
       <c r="I62" t="str">
+        <v/>
+      </c>
+      <c r="J62" t="str">
         <v/>
       </c>
     </row>
@@ -3308,16 +3311,16 @@
       <c r="E63" t="str">
         <v/>
       </c>
-      <c r="F63" t="str">
-        <v/>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="str">
-        <v/>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
       </c>
       <c r="I63" t="str">
+        <v/>
+      </c>
+      <c r="J63" t="str">
         <v/>
       </c>
     </row>
@@ -3337,16 +3340,16 @@
       <c r="E64" t="str">
         <v/>
       </c>
-      <c r="F64" t="str">
-        <v/>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="str">
-        <v/>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
       </c>
       <c r="I64" t="str">
+        <v/>
+      </c>
+      <c r="J64" t="str">
         <v/>
       </c>
     </row>
@@ -3366,16 +3369,16 @@
       <c r="E65" t="str">
         <v/>
       </c>
-      <c r="F65" t="str">
-        <v/>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="str">
-        <v/>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
       </c>
       <c r="I65" t="str">
+        <v/>
+      </c>
+      <c r="J65" t="str">
         <v/>
       </c>
     </row>
@@ -3395,16 +3398,16 @@
       <c r="E66" t="str">
         <v/>
       </c>
-      <c r="F66" t="str">
-        <v/>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="str">
-        <v/>
+      <c r="G66" t="str">
+        <v/>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
       </c>
       <c r="I66" t="str">
+        <v/>
+      </c>
+      <c r="J66" t="str">
         <v/>
       </c>
     </row>
@@ -3424,16 +3427,16 @@
       <c r="E67" t="str">
         <v/>
       </c>
-      <c r="F67" t="str">
-        <v/>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="str">
-        <v/>
+      <c r="G67" t="str">
+        <v/>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
       </c>
       <c r="I67" t="str">
+        <v/>
+      </c>
+      <c r="J67" t="str">
         <v/>
       </c>
     </row>
@@ -3453,16 +3456,16 @@
       <c r="E68" t="str">
         <v/>
       </c>
-      <c r="F68" t="str">
-        <v/>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="str">
-        <v/>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
       </c>
       <c r="I68" t="str">
+        <v/>
+      </c>
+      <c r="J68" t="str">
         <v/>
       </c>
     </row>
@@ -3482,16 +3485,16 @@
       <c r="E69" t="str">
         <v/>
       </c>
-      <c r="F69" t="str">
-        <v/>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="str">
-        <v/>
+      <c r="G69" t="str">
+        <v/>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
       </c>
       <c r="I69" t="str">
+        <v/>
+      </c>
+      <c r="J69" t="str">
         <v/>
       </c>
     </row>
@@ -3511,16 +3514,16 @@
       <c r="E70" t="str">
         <v/>
       </c>
-      <c r="F70" t="str">
-        <v/>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="str">
-        <v/>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
       </c>
       <c r="I70" t="str">
+        <v/>
+      </c>
+      <c r="J70" t="str">
         <v/>
       </c>
     </row>
@@ -3540,16 +3543,16 @@
       <c r="E71" t="str">
         <v/>
       </c>
-      <c r="F71" t="str">
-        <v/>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="str">
-        <v/>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
       </c>
       <c r="I71" t="str">
+        <v/>
+      </c>
+      <c r="J71" t="str">
         <v/>
       </c>
     </row>
@@ -3569,16 +3572,16 @@
       <c r="E72" t="str">
         <v/>
       </c>
-      <c r="F72" t="str">
-        <v/>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="str">
-        <v/>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
       </c>
       <c r="I72" t="str">
+        <v/>
+      </c>
+      <c r="J72" t="str">
         <v/>
       </c>
     </row>
@@ -3598,16 +3601,16 @@
       <c r="E73" t="str">
         <v/>
       </c>
-      <c r="F73" t="str">
-        <v/>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="str">
-        <v/>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
       </c>
       <c r="I73" t="str">
+        <v/>
+      </c>
+      <c r="J73" t="str">
         <v/>
       </c>
     </row>
@@ -3627,16 +3630,16 @@
       <c r="E74" t="str">
         <v/>
       </c>
-      <c r="F74" t="str">
-        <v/>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="str">
-        <v/>
+      <c r="G74" t="str">
+        <v/>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
       </c>
       <c r="I74" t="str">
+        <v/>
+      </c>
+      <c r="J74" t="str">
         <v/>
       </c>
     </row>
@@ -3656,16 +3659,16 @@
       <c r="E75" t="str">
         <v/>
       </c>
-      <c r="F75" t="str">
-        <v/>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="str">
-        <v/>
+      <c r="G75" t="str">
+        <v/>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
       </c>
       <c r="I75" t="str">
+        <v/>
+      </c>
+      <c r="J75" t="str">
         <v/>
       </c>
     </row>
@@ -3685,16 +3688,16 @@
       <c r="E76" t="str">
         <v/>
       </c>
-      <c r="F76" t="str">
-        <v/>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="str">
-        <v/>
+      <c r="G76" t="str">
+        <v/>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
       </c>
       <c r="I76" t="str">
+        <v/>
+      </c>
+      <c r="J76" t="str">
         <v/>
       </c>
     </row>
@@ -3714,16 +3717,16 @@
       <c r="E77" t="str">
         <v/>
       </c>
-      <c r="F77" t="str">
-        <v/>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="str">
-        <v/>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
       </c>
       <c r="I77" t="str">
+        <v/>
+      </c>
+      <c r="J77" t="str">
         <v/>
       </c>
     </row>
@@ -3743,16 +3746,16 @@
       <c r="E78" t="str">
         <v/>
       </c>
-      <c r="F78" t="str">
-        <v/>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="str">
-        <v/>
+      <c r="G78" t="str">
+        <v/>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
       </c>
       <c r="I78" t="str">
+        <v/>
+      </c>
+      <c r="J78" t="str">
         <v/>
       </c>
     </row>
@@ -3772,16 +3775,16 @@
       <c r="E79" t="str">
         <v/>
       </c>
-      <c r="F79" t="str">
-        <v/>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="str">
-        <v/>
+      <c r="G79" t="str">
+        <v/>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
       </c>
       <c r="I79" t="str">
+        <v/>
+      </c>
+      <c r="J79" t="str">
         <v/>
       </c>
     </row>
@@ -3801,16 +3804,16 @@
       <c r="E80" t="str">
         <v/>
       </c>
-      <c r="F80" t="str">
-        <v/>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="str">
-        <v/>
+      <c r="G80" t="str">
+        <v/>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
       </c>
       <c r="I80" t="str">
+        <v/>
+      </c>
+      <c r="J80" t="str">
         <v/>
       </c>
     </row>
@@ -3830,16 +3833,16 @@
       <c r="E81" t="str">
         <v/>
       </c>
-      <c r="F81" t="str">
-        <v/>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="str">
-        <v/>
+      <c r="G81" t="str">
+        <v/>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
       </c>
       <c r="I81" t="str">
+        <v/>
+      </c>
+      <c r="J81" t="str">
         <v/>
       </c>
     </row>
@@ -3859,16 +3862,16 @@
       <c r="E82" t="str">
         <v/>
       </c>
-      <c r="F82" t="str">
-        <v/>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="str">
-        <v/>
+      <c r="G82" t="str">
+        <v/>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
       </c>
       <c r="I82" t="str">
+        <v/>
+      </c>
+      <c r="J82" t="str">
         <v/>
       </c>
     </row>
@@ -3888,16 +3891,16 @@
       <c r="E83" t="str">
         <v/>
       </c>
-      <c r="F83" t="str">
-        <v/>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="str">
-        <v/>
+      <c r="G83" t="str">
+        <v/>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
       </c>
       <c r="I83" t="str">
+        <v/>
+      </c>
+      <c r="J83" t="str">
         <v/>
       </c>
     </row>
@@ -3917,16 +3920,16 @@
       <c r="E84" t="str">
         <v/>
       </c>
-      <c r="F84" t="str">
-        <v/>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="str">
-        <v/>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
       </c>
       <c r="I84" t="str">
+        <v/>
+      </c>
+      <c r="J84" t="str">
         <v/>
       </c>
     </row>
@@ -3946,16 +3949,16 @@
       <c r="E85" t="str">
         <v/>
       </c>
-      <c r="F85" t="str">
-        <v/>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="str">
-        <v/>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
       </c>
       <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85" t="str">
         <v/>
       </c>
     </row>
@@ -3975,16 +3978,16 @@
       <c r="E86" t="str">
         <v/>
       </c>
-      <c r="F86" t="str">
-        <v/>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="str">
-        <v/>
+      <c r="G86" t="str">
+        <v/>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
       </c>
       <c r="I86" t="str">
+        <v/>
+      </c>
+      <c r="J86" t="str">
         <v/>
       </c>
     </row>
@@ -4004,16 +4007,16 @@
       <c r="E87" t="str">
         <v/>
       </c>
-      <c r="F87" t="str">
-        <v/>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="str">
-        <v/>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
       </c>
       <c r="I87" t="str">
+        <v/>
+      </c>
+      <c r="J87" t="str">
         <v/>
       </c>
     </row>
@@ -4033,16 +4036,16 @@
       <c r="E88" t="str">
         <v/>
       </c>
-      <c r="F88" t="str">
-        <v/>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="str">
-        <v/>
+      <c r="G88" t="str">
+        <v/>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
       </c>
       <c r="I88" t="str">
+        <v/>
+      </c>
+      <c r="J88" t="str">
         <v/>
       </c>
     </row>
@@ -4062,16 +4065,16 @@
       <c r="E89" t="str">
         <v/>
       </c>
-      <c r="F89" t="str">
-        <v/>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="str">
-        <v/>
+      <c r="G89" t="str">
+        <v/>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
       </c>
       <c r="I89" t="str">
+        <v/>
+      </c>
+      <c r="J89" t="str">
         <v/>
       </c>
     </row>
@@ -4091,16 +4094,16 @@
       <c r="E90" t="str">
         <v/>
       </c>
-      <c r="F90" t="str">
-        <v/>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="str">
-        <v/>
+      <c r="G90" t="str">
+        <v/>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
       </c>
       <c r="I90" t="str">
+        <v/>
+      </c>
+      <c r="J90" t="str">
         <v/>
       </c>
     </row>
@@ -4120,16 +4123,16 @@
       <c r="E91" t="str">
         <v/>
       </c>
-      <c r="F91" t="str">
-        <v/>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="str">
-        <v/>
+      <c r="G91" t="str">
+        <v/>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
       </c>
       <c r="I91" t="str">
+        <v/>
+      </c>
+      <c r="J91" t="str">
         <v/>
       </c>
     </row>
@@ -4149,16 +4152,16 @@
       <c r="E92" t="str">
         <v/>
       </c>
-      <c r="F92" t="str">
-        <v/>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="str">
-        <v/>
+      <c r="G92" t="str">
+        <v/>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
       </c>
       <c r="I92" t="str">
+        <v/>
+      </c>
+      <c r="J92" t="str">
         <v/>
       </c>
     </row>
@@ -4178,16 +4181,16 @@
       <c r="E93" t="str">
         <v/>
       </c>
-      <c r="F93" t="str">
-        <v/>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="str">
-        <v/>
+      <c r="G93" t="str">
+        <v/>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
       </c>
       <c r="I93" t="str">
+        <v/>
+      </c>
+      <c r="J93" t="str">
         <v/>
       </c>
     </row>
@@ -4207,16 +4210,16 @@
       <c r="E94" t="str">
         <v/>
       </c>
-      <c r="F94" t="str">
-        <v/>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="str">
-        <v/>
+      <c r="G94" t="str">
+        <v/>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
       </c>
       <c r="I94" t="str">
+        <v/>
+      </c>
+      <c r="J94" t="str">
         <v/>
       </c>
     </row>
@@ -4236,16 +4239,16 @@
       <c r="E95" t="str">
         <v/>
       </c>
-      <c r="F95" t="str">
-        <v/>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="str">
-        <v/>
+      <c r="G95" t="str">
+        <v/>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
       </c>
       <c r="I95" t="str">
+        <v/>
+      </c>
+      <c r="J95" t="str">
         <v/>
       </c>
     </row>
@@ -4265,16 +4268,16 @@
       <c r="E96" t="str">
         <v/>
       </c>
-      <c r="F96" t="str">
-        <v/>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="str">
-        <v/>
+      <c r="G96" t="str">
+        <v/>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
       </c>
       <c r="I96" t="str">
+        <v/>
+      </c>
+      <c r="J96" t="str">
         <v/>
       </c>
     </row>
@@ -4294,16 +4297,16 @@
       <c r="E97" t="str">
         <v/>
       </c>
-      <c r="F97" t="str">
-        <v/>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="str">
-        <v/>
+      <c r="G97" t="str">
+        <v/>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
       </c>
       <c r="I97" t="str">
+        <v/>
+      </c>
+      <c r="J97" t="str">
         <v/>
       </c>
     </row>
@@ -4323,16 +4326,16 @@
       <c r="E98" t="str">
         <v/>
       </c>
-      <c r="F98" t="str">
-        <v/>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="str">
-        <v/>
+      <c r="G98" t="str">
+        <v/>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
       </c>
       <c r="I98" t="str">
+        <v/>
+      </c>
+      <c r="J98" t="str">
         <v/>
       </c>
     </row>
@@ -4352,16 +4355,16 @@
       <c r="E99" t="str">
         <v/>
       </c>
-      <c r="F99" t="str">
-        <v/>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="str">
-        <v/>
+      <c r="G99" t="str">
+        <v/>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
       </c>
       <c r="I99" t="str">
+        <v/>
+      </c>
+      <c r="J99" t="str">
         <v/>
       </c>
     </row>
@@ -4381,16 +4384,16 @@
       <c r="E100" t="str">
         <v/>
       </c>
-      <c r="F100" t="str">
-        <v/>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="str">
-        <v/>
+      <c r="G100" t="str">
+        <v/>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
       </c>
       <c r="I100" t="str">
+        <v/>
+      </c>
+      <c r="J100" t="str">
         <v/>
       </c>
     </row>
@@ -4410,16 +4413,16 @@
       <c r="E101" t="str">
         <v/>
       </c>
-      <c r="F101" t="str">
-        <v/>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="str">
-        <v/>
+      <c r="G101" t="str">
+        <v/>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
       </c>
       <c r="I101" t="str">
+        <v/>
+      </c>
+      <c r="J101" t="str">
         <v/>
       </c>
     </row>
@@ -4439,16 +4442,16 @@
       <c r="E102" t="str">
         <v/>
       </c>
-      <c r="F102" t="str">
-        <v/>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" t="str">
-        <v/>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
       </c>
       <c r="I102" t="str">
+        <v/>
+      </c>
+      <c r="J102" t="str">
         <v/>
       </c>
     </row>
@@ -4468,16 +4471,16 @@
       <c r="E103" t="str">
         <v/>
       </c>
-      <c r="F103" t="str">
-        <v/>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" t="str">
-        <v/>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
       </c>
       <c r="I103" t="str">
+        <v/>
+      </c>
+      <c r="J103" t="str">
         <v/>
       </c>
     </row>
@@ -4497,16 +4500,16 @@
       <c r="E104" t="str">
         <v/>
       </c>
-      <c r="F104" t="str">
-        <v/>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" t="str">
-        <v/>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
       </c>
       <c r="I104" t="str">
+        <v/>
+      </c>
+      <c r="J104" t="str">
         <v/>
       </c>
     </row>
@@ -4526,16 +4529,16 @@
       <c r="E105" t="str">
         <v/>
       </c>
-      <c r="F105" t="str">
-        <v/>
-      </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" t="str">
-        <v/>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
       </c>
       <c r="I105" t="str">
+        <v/>
+      </c>
+      <c r="J105" t="str">
         <v/>
       </c>
     </row>
@@ -4555,16 +4558,16 @@
       <c r="E106" t="str">
         <v/>
       </c>
-      <c r="F106" t="str">
-        <v/>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" t="str">
-        <v/>
+      <c r="G106" t="str">
+        <v/>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
       </c>
       <c r="I106" t="str">
+        <v/>
+      </c>
+      <c r="J106" t="str">
         <v/>
       </c>
     </row>
@@ -4584,16 +4587,16 @@
       <c r="E107" t="str">
         <v/>
       </c>
-      <c r="F107" t="str">
-        <v/>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" t="str">
-        <v/>
+      <c r="G107" t="str">
+        <v/>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
       </c>
       <c r="I107" t="str">
+        <v/>
+      </c>
+      <c r="J107" t="str">
         <v/>
       </c>
     </row>
@@ -4613,16 +4616,16 @@
       <c r="E108" t="str">
         <v/>
       </c>
-      <c r="F108" t="str">
-        <v/>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108" t="str">
-        <v/>
+      <c r="G108" t="str">
+        <v/>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
       </c>
       <c r="I108" t="str">
+        <v/>
+      </c>
+      <c r="J108" t="str">
         <v/>
       </c>
     </row>
@@ -4642,16 +4645,16 @@
       <c r="E109" t="str">
         <v/>
       </c>
-      <c r="F109" t="str">
-        <v/>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" t="str">
-        <v/>
+      <c r="G109" t="str">
+        <v/>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
       </c>
       <c r="I109" t="str">
+        <v/>
+      </c>
+      <c r="J109" t="str">
         <v/>
       </c>
     </row>
@@ -4671,16 +4674,16 @@
       <c r="E110" t="str">
         <v/>
       </c>
-      <c r="F110" t="str">
-        <v/>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110" t="str">
-        <v/>
+      <c r="G110" t="str">
+        <v/>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
       </c>
       <c r="I110" t="str">
+        <v/>
+      </c>
+      <c r="J110" t="str">
         <v/>
       </c>
     </row>
@@ -4700,16 +4703,16 @@
       <c r="E111" t="str">
         <v/>
       </c>
-      <c r="F111" t="str">
-        <v/>
-      </c>
-      <c r="G111" t="b">
-        <v>0</v>
-      </c>
-      <c r="H111" t="str">
-        <v/>
+      <c r="G111" t="str">
+        <v/>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
       </c>
       <c r="I111" t="str">
+        <v/>
+      </c>
+      <c r="J111" t="str">
         <v/>
       </c>
     </row>
@@ -4729,16 +4732,16 @@
       <c r="E112" t="str">
         <v/>
       </c>
-      <c r="F112" t="str">
-        <v/>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" t="str">
-        <v/>
+      <c r="G112" t="str">
+        <v/>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
       </c>
       <c r="I112" t="str">
+        <v/>
+      </c>
+      <c r="J112" t="str">
         <v/>
       </c>
     </row>
@@ -4758,16 +4761,16 @@
       <c r="E113" t="str">
         <v/>
       </c>
-      <c r="F113" t="str">
-        <v/>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" t="str">
-        <v/>
+      <c r="G113" t="str">
+        <v/>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
       </c>
       <c r="I113" t="str">
+        <v/>
+      </c>
+      <c r="J113" t="str">
         <v/>
       </c>
     </row>
@@ -4787,16 +4790,16 @@
       <c r="E114" t="str">
         <v/>
       </c>
-      <c r="F114" t="str">
-        <v/>
-      </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
-      <c r="H114" t="str">
-        <v/>
+      <c r="G114" t="str">
+        <v/>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
       </c>
       <c r="I114" t="str">
+        <v/>
+      </c>
+      <c r="J114" t="str">
         <v/>
       </c>
     </row>
@@ -4816,16 +4819,16 @@
       <c r="E115" t="str">
         <v/>
       </c>
-      <c r="F115" t="str">
-        <v/>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
-      <c r="H115" t="str">
-        <v/>
+      <c r="G115" t="str">
+        <v/>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
       </c>
       <c r="I115" t="str">
+        <v/>
+      </c>
+      <c r="J115" t="str">
         <v/>
       </c>
     </row>
@@ -4845,16 +4848,16 @@
       <c r="E116" t="str">
         <v/>
       </c>
-      <c r="F116" t="str">
-        <v/>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" t="str">
-        <v/>
+      <c r="G116" t="str">
+        <v/>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
       </c>
       <c r="I116" t="str">
+        <v/>
+      </c>
+      <c r="J116" t="str">
         <v/>
       </c>
     </row>
@@ -4874,16 +4877,16 @@
       <c r="E117" t="str">
         <v/>
       </c>
-      <c r="F117" t="str">
-        <v/>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="str">
-        <v/>
+      <c r="G117" t="str">
+        <v/>
+      </c>
+      <c r="H117" t="b">
+        <v>0</v>
       </c>
       <c r="I117" t="str">
+        <v/>
+      </c>
+      <c r="J117" t="str">
         <v/>
       </c>
     </row>
@@ -4903,16 +4906,16 @@
       <c r="E118" t="str">
         <v/>
       </c>
-      <c r="F118" t="str">
-        <v/>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118" t="str">
-        <v/>
+      <c r="G118" t="str">
+        <v/>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
       </c>
       <c r="I118" t="str">
+        <v/>
+      </c>
+      <c r="J118" t="str">
         <v/>
       </c>
     </row>
@@ -4932,16 +4935,16 @@
       <c r="E119" t="str">
         <v/>
       </c>
-      <c r="F119" t="str">
-        <v/>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" t="str">
-        <v/>
+      <c r="G119" t="str">
+        <v/>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
       </c>
       <c r="I119" t="str">
+        <v/>
+      </c>
+      <c r="J119" t="str">
         <v/>
       </c>
     </row>
@@ -4961,16 +4964,16 @@
       <c r="E120" t="str">
         <v/>
       </c>
-      <c r="F120" t="str">
-        <v/>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" t="str">
-        <v/>
+      <c r="G120" t="str">
+        <v/>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
       </c>
       <c r="I120" t="str">
+        <v/>
+      </c>
+      <c r="J120" t="str">
         <v/>
       </c>
     </row>
@@ -4990,16 +4993,16 @@
       <c r="E121" t="str">
         <v/>
       </c>
-      <c r="F121" t="str">
-        <v/>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121" t="str">
-        <v/>
+      <c r="G121" t="str">
+        <v/>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
       </c>
       <c r="I121" t="str">
+        <v/>
+      </c>
+      <c r="J121" t="str">
         <v/>
       </c>
     </row>
@@ -5019,16 +5022,16 @@
       <c r="E122" t="str">
         <v/>
       </c>
-      <c r="F122" t="str">
-        <v/>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122" t="str">
-        <v/>
+      <c r="G122" t="str">
+        <v/>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
       </c>
       <c r="I122" t="str">
+        <v/>
+      </c>
+      <c r="J122" t="str">
         <v/>
       </c>
     </row>
@@ -5048,16 +5051,16 @@
       <c r="E123" t="str">
         <v/>
       </c>
-      <c r="F123" t="str">
-        <v/>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="str">
-        <v/>
+      <c r="G123" t="str">
+        <v/>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
       </c>
       <c r="I123" t="str">
+        <v/>
+      </c>
+      <c r="J123" t="str">
         <v/>
       </c>
     </row>
@@ -5077,16 +5080,16 @@
       <c r="E124" t="str">
         <v/>
       </c>
-      <c r="F124" t="str">
-        <v/>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="str">
-        <v/>
+      <c r="G124" t="str">
+        <v/>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
       </c>
       <c r="I124" t="str">
+        <v/>
+      </c>
+      <c r="J124" t="str">
         <v/>
       </c>
     </row>
@@ -5106,16 +5109,16 @@
       <c r="E125" t="str">
         <v/>
       </c>
-      <c r="F125" t="str">
-        <v/>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="str">
-        <v/>
+      <c r="G125" t="str">
+        <v/>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
       </c>
       <c r="I125" t="str">
+        <v/>
+      </c>
+      <c r="J125" t="str">
         <v/>
       </c>
     </row>
@@ -5135,16 +5138,16 @@
       <c r="E126" t="str">
         <v/>
       </c>
-      <c r="F126" t="str">
-        <v/>
-      </c>
-      <c r="G126" t="b">
-        <v>0</v>
-      </c>
-      <c r="H126" t="str">
-        <v/>
+      <c r="G126" t="str">
+        <v/>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
       </c>
       <c r="I126" t="str">
+        <v/>
+      </c>
+      <c r="J126" t="str">
         <v/>
       </c>
     </row>
@@ -5164,16 +5167,16 @@
       <c r="E127" t="str">
         <v/>
       </c>
-      <c r="F127" t="str">
-        <v/>
-      </c>
-      <c r="G127" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" t="str">
-        <v/>
+      <c r="G127" t="str">
+        <v/>
+      </c>
+      <c r="H127" t="b">
+        <v>0</v>
       </c>
       <c r="I127" t="str">
+        <v/>
+      </c>
+      <c r="J127" t="str">
         <v/>
       </c>
     </row>
@@ -5193,16 +5196,16 @@
       <c r="E128" t="str">
         <v/>
       </c>
-      <c r="F128" t="str">
-        <v/>
-      </c>
-      <c r="G128" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" t="str">
-        <v/>
+      <c r="G128" t="str">
+        <v/>
+      </c>
+      <c r="H128" t="b">
+        <v>0</v>
       </c>
       <c r="I128" t="str">
+        <v/>
+      </c>
+      <c r="J128" t="str">
         <v/>
       </c>
     </row>
@@ -5222,16 +5225,16 @@
       <c r="E129" t="str">
         <v/>
       </c>
-      <c r="F129" t="str">
-        <v/>
-      </c>
-      <c r="G129" t="b">
-        <v>0</v>
-      </c>
-      <c r="H129" t="str">
-        <v/>
+      <c r="G129" t="str">
+        <v/>
+      </c>
+      <c r="H129" t="b">
+        <v>0</v>
       </c>
       <c r="I129" t="str">
+        <v/>
+      </c>
+      <c r="J129" t="str">
         <v/>
       </c>
     </row>
@@ -5251,16 +5254,16 @@
       <c r="E130" t="str">
         <v/>
       </c>
-      <c r="F130" t="str">
-        <v/>
-      </c>
-      <c r="G130" t="b">
-        <v>0</v>
-      </c>
-      <c r="H130" t="str">
-        <v/>
+      <c r="G130" t="str">
+        <v/>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
       </c>
       <c r="I130" t="str">
+        <v/>
+      </c>
+      <c r="J130" t="str">
         <v/>
       </c>
     </row>
@@ -5280,16 +5283,16 @@
       <c r="E131" t="str">
         <v/>
       </c>
-      <c r="F131" t="str">
-        <v/>
-      </c>
-      <c r="G131" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" t="str">
-        <v/>
+      <c r="G131" t="str">
+        <v/>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
       </c>
       <c r="I131" t="str">
+        <v/>
+      </c>
+      <c r="J131" t="str">
         <v/>
       </c>
     </row>
@@ -5309,16 +5312,16 @@
       <c r="E132" t="str">
         <v/>
       </c>
-      <c r="F132" t="str">
-        <v/>
-      </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" t="str">
-        <v/>
+      <c r="G132" t="str">
+        <v/>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
       </c>
       <c r="I132" t="str">
+        <v/>
+      </c>
+      <c r="J132" t="str">
         <v/>
       </c>
     </row>
@@ -5338,16 +5341,16 @@
       <c r="E133" t="str">
         <v/>
       </c>
-      <c r="F133" t="str">
-        <v/>
-      </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" t="str">
-        <v/>
+      <c r="G133" t="str">
+        <v/>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
       </c>
       <c r="I133" t="str">
+        <v/>
+      </c>
+      <c r="J133" t="str">
         <v/>
       </c>
     </row>
@@ -5367,16 +5370,16 @@
       <c r="E134" t="str">
         <v/>
       </c>
-      <c r="F134" t="str">
-        <v/>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" t="str">
-        <v/>
+      <c r="G134" t="str">
+        <v/>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
       </c>
       <c r="I134" t="str">
+        <v/>
+      </c>
+      <c r="J134" t="str">
         <v/>
       </c>
     </row>
@@ -5396,16 +5399,16 @@
       <c r="E135" t="str">
         <v/>
       </c>
-      <c r="F135" t="str">
-        <v/>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" t="str">
-        <v/>
+      <c r="G135" t="str">
+        <v/>
+      </c>
+      <c r="H135" t="b">
+        <v>0</v>
       </c>
       <c r="I135" t="str">
+        <v/>
+      </c>
+      <c r="J135" t="str">
         <v/>
       </c>
     </row>
@@ -5425,16 +5428,16 @@
       <c r="E136" t="str">
         <v/>
       </c>
-      <c r="F136" t="str">
-        <v/>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136" t="str">
-        <v/>
+      <c r="G136" t="str">
+        <v/>
+      </c>
+      <c r="H136" t="b">
+        <v>0</v>
       </c>
       <c r="I136" t="str">
+        <v/>
+      </c>
+      <c r="J136" t="str">
         <v/>
       </c>
     </row>
@@ -5454,16 +5457,16 @@
       <c r="E137" t="str">
         <v/>
       </c>
-      <c r="F137" t="str">
-        <v/>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" t="str">
-        <v/>
+      <c r="G137" t="str">
+        <v/>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
       </c>
       <c r="I137" t="str">
+        <v/>
+      </c>
+      <c r="J137" t="str">
         <v/>
       </c>
     </row>
@@ -5483,16 +5486,16 @@
       <c r="E138" t="str">
         <v/>
       </c>
-      <c r="F138" t="str">
-        <v/>
-      </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" t="str">
-        <v/>
+      <c r="G138" t="str">
+        <v/>
+      </c>
+      <c r="H138" t="b">
+        <v>0</v>
       </c>
       <c r="I138" t="str">
+        <v/>
+      </c>
+      <c r="J138" t="str">
         <v/>
       </c>
     </row>
@@ -5512,16 +5515,16 @@
       <c r="E139" t="str">
         <v/>
       </c>
-      <c r="F139" t="str">
-        <v/>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139" t="str">
-        <v/>
+      <c r="G139" t="str">
+        <v/>
+      </c>
+      <c r="H139" t="b">
+        <v>0</v>
       </c>
       <c r="I139" t="str">
+        <v/>
+      </c>
+      <c r="J139" t="str">
         <v/>
       </c>
     </row>
@@ -5541,16 +5544,16 @@
       <c r="E140" t="str">
         <v/>
       </c>
-      <c r="F140" t="str">
-        <v/>
-      </c>
-      <c r="G140" t="b">
-        <v>0</v>
-      </c>
-      <c r="H140" t="str">
-        <v/>
+      <c r="G140" t="str">
+        <v/>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
       </c>
       <c r="I140" t="str">
+        <v/>
+      </c>
+      <c r="J140" t="str">
         <v/>
       </c>
     </row>
@@ -5570,16 +5573,16 @@
       <c r="E141" t="str">
         <v/>
       </c>
-      <c r="F141" t="str">
-        <v/>
-      </c>
-      <c r="G141" t="b">
-        <v>0</v>
-      </c>
-      <c r="H141" t="str">
-        <v/>
+      <c r="G141" t="str">
+        <v/>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
       </c>
       <c r="I141" t="str">
+        <v/>
+      </c>
+      <c r="J141" t="str">
         <v/>
       </c>
     </row>
@@ -5599,16 +5602,16 @@
       <c r="E142" t="str">
         <v/>
       </c>
-      <c r="F142" t="str">
-        <v/>
-      </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
-      <c r="H142" t="str">
-        <v/>
+      <c r="G142" t="str">
+        <v/>
+      </c>
+      <c r="H142" t="b">
+        <v>0</v>
       </c>
       <c r="I142" t="str">
+        <v/>
+      </c>
+      <c r="J142" t="str">
         <v/>
       </c>
     </row>
@@ -5628,16 +5631,16 @@
       <c r="E143" t="str">
         <v/>
       </c>
-      <c r="F143" t="str">
-        <v/>
-      </c>
-      <c r="G143" t="b">
-        <v>0</v>
-      </c>
-      <c r="H143" t="str">
-        <v/>
+      <c r="G143" t="str">
+        <v/>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
       </c>
       <c r="I143" t="str">
+        <v/>
+      </c>
+      <c r="J143" t="str">
         <v/>
       </c>
     </row>
@@ -5657,16 +5660,16 @@
       <c r="E144" t="str">
         <v/>
       </c>
-      <c r="F144" t="str">
-        <v/>
-      </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144" t="str">
-        <v/>
+      <c r="G144" t="str">
+        <v/>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
       </c>
       <c r="I144" t="str">
+        <v/>
+      </c>
+      <c r="J144" t="str">
         <v/>
       </c>
     </row>
@@ -5686,16 +5689,16 @@
       <c r="E145" t="str">
         <v/>
       </c>
-      <c r="F145" t="str">
-        <v/>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145" t="str">
-        <v/>
+      <c r="G145" t="str">
+        <v/>
+      </c>
+      <c r="H145" t="b">
+        <v>0</v>
       </c>
       <c r="I145" t="str">
+        <v/>
+      </c>
+      <c r="J145" t="str">
         <v/>
       </c>
     </row>
@@ -5715,16 +5718,16 @@
       <c r="E146" t="str">
         <v/>
       </c>
-      <c r="F146" t="str">
-        <v/>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146" t="str">
-        <v/>
+      <c r="G146" t="str">
+        <v/>
+      </c>
+      <c r="H146" t="b">
+        <v>0</v>
       </c>
       <c r="I146" t="str">
+        <v/>
+      </c>
+      <c r="J146" t="str">
         <v/>
       </c>
     </row>
@@ -5744,16 +5747,16 @@
       <c r="E147" t="str">
         <v/>
       </c>
-      <c r="F147" t="str">
-        <v/>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147" t="str">
-        <v/>
+      <c r="G147" t="str">
+        <v/>
+      </c>
+      <c r="H147" t="b">
+        <v>0</v>
       </c>
       <c r="I147" t="str">
+        <v/>
+      </c>
+      <c r="J147" t="str">
         <v/>
       </c>
     </row>
@@ -5773,16 +5776,16 @@
       <c r="E148" t="str">
         <v/>
       </c>
-      <c r="F148" t="str">
-        <v/>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148" t="str">
-        <v/>
+      <c r="G148" t="str">
+        <v/>
+      </c>
+      <c r="H148" t="b">
+        <v>0</v>
       </c>
       <c r="I148" t="str">
+        <v/>
+      </c>
+      <c r="J148" t="str">
         <v/>
       </c>
     </row>
@@ -5802,16 +5805,16 @@
       <c r="E149" t="str">
         <v/>
       </c>
-      <c r="F149" t="str">
-        <v/>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149" t="str">
-        <v/>
+      <c r="G149" t="str">
+        <v/>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
       </c>
       <c r="I149" t="str">
+        <v/>
+      </c>
+      <c r="J149" t="str">
         <v/>
       </c>
     </row>
@@ -5831,16 +5834,16 @@
       <c r="E150" t="str">
         <v/>
       </c>
-      <c r="F150" t="str">
-        <v/>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150" t="str">
-        <v/>
+      <c r="G150" t="str">
+        <v/>
+      </c>
+      <c r="H150" t="b">
+        <v>0</v>
       </c>
       <c r="I150" t="str">
+        <v/>
+      </c>
+      <c r="J150" t="str">
         <v/>
       </c>
     </row>
@@ -5860,16 +5863,16 @@
       <c r="E151" t="str">
         <v/>
       </c>
-      <c r="F151" t="str">
-        <v/>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
-      <c r="H151" t="str">
-        <v/>
+      <c r="G151" t="str">
+        <v/>
+      </c>
+      <c r="H151" t="b">
+        <v>0</v>
       </c>
       <c r="I151" t="str">
+        <v/>
+      </c>
+      <c r="J151" t="str">
         <v/>
       </c>
     </row>
@@ -5889,16 +5892,16 @@
       <c r="E152" t="str">
         <v/>
       </c>
-      <c r="F152" t="str">
-        <v/>
-      </c>
-      <c r="G152" t="b">
-        <v>0</v>
-      </c>
-      <c r="H152" t="str">
-        <v/>
+      <c r="G152" t="str">
+        <v/>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
       </c>
       <c r="I152" t="str">
+        <v/>
+      </c>
+      <c r="J152" t="str">
         <v/>
       </c>
     </row>
@@ -5918,16 +5921,16 @@
       <c r="E153" t="str">
         <v/>
       </c>
-      <c r="F153" t="str">
-        <v/>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
-      </c>
-      <c r="H153" t="str">
-        <v/>
+      <c r="G153" t="str">
+        <v/>
+      </c>
+      <c r="H153" t="b">
+        <v>0</v>
       </c>
       <c r="I153" t="str">
+        <v/>
+      </c>
+      <c r="J153" t="str">
         <v/>
       </c>
     </row>
@@ -5947,16 +5950,16 @@
       <c r="E154" t="str">
         <v/>
       </c>
-      <c r="F154" t="str">
-        <v/>
-      </c>
-      <c r="G154" t="b">
-        <v>0</v>
-      </c>
-      <c r="H154" t="str">
-        <v/>
+      <c r="G154" t="str">
+        <v/>
+      </c>
+      <c r="H154" t="b">
+        <v>0</v>
       </c>
       <c r="I154" t="str">
+        <v/>
+      </c>
+      <c r="J154" t="str">
         <v/>
       </c>
     </row>
@@ -5976,16 +5979,16 @@
       <c r="E155" t="str">
         <v/>
       </c>
-      <c r="F155" t="str">
-        <v/>
-      </c>
-      <c r="G155" t="b">
-        <v>0</v>
-      </c>
-      <c r="H155" t="str">
-        <v/>
+      <c r="G155" t="str">
+        <v/>
+      </c>
+      <c r="H155" t="b">
+        <v>0</v>
       </c>
       <c r="I155" t="str">
+        <v/>
+      </c>
+      <c r="J155" t="str">
         <v/>
       </c>
     </row>
@@ -6005,16 +6008,16 @@
       <c r="E156" t="str">
         <v/>
       </c>
-      <c r="F156" t="str">
-        <v/>
-      </c>
-      <c r="G156" t="b">
-        <v>0</v>
-      </c>
-      <c r="H156" t="str">
-        <v/>
+      <c r="G156" t="str">
+        <v/>
+      </c>
+      <c r="H156" t="b">
+        <v>0</v>
       </c>
       <c r="I156" t="str">
+        <v/>
+      </c>
+      <c r="J156" t="str">
         <v/>
       </c>
     </row>
@@ -6034,16 +6037,16 @@
       <c r="E157" t="str">
         <v/>
       </c>
-      <c r="F157" t="str">
-        <v/>
-      </c>
-      <c r="G157" t="b">
-        <v>0</v>
-      </c>
-      <c r="H157" t="str">
-        <v/>
+      <c r="G157" t="str">
+        <v/>
+      </c>
+      <c r="H157" t="b">
+        <v>0</v>
       </c>
       <c r="I157" t="str">
+        <v/>
+      </c>
+      <c r="J157" t="str">
         <v/>
       </c>
     </row>
@@ -6063,16 +6066,16 @@
       <c r="E158" t="str">
         <v/>
       </c>
-      <c r="F158" t="str">
-        <v/>
-      </c>
-      <c r="G158" t="b">
-        <v>0</v>
-      </c>
-      <c r="H158" t="str">
-        <v/>
+      <c r="G158" t="str">
+        <v/>
+      </c>
+      <c r="H158" t="b">
+        <v>0</v>
       </c>
       <c r="I158" t="str">
+        <v/>
+      </c>
+      <c r="J158" t="str">
         <v/>
       </c>
     </row>
@@ -6092,16 +6095,16 @@
       <c r="E159" t="str">
         <v/>
       </c>
-      <c r="F159" t="str">
-        <v/>
-      </c>
-      <c r="G159" t="b">
-        <v>0</v>
-      </c>
-      <c r="H159" t="str">
-        <v/>
+      <c r="G159" t="str">
+        <v/>
+      </c>
+      <c r="H159" t="b">
+        <v>0</v>
       </c>
       <c r="I159" t="str">
+        <v/>
+      </c>
+      <c r="J159" t="str">
         <v/>
       </c>
     </row>
@@ -6121,16 +6124,16 @@
       <c r="E160" t="str">
         <v/>
       </c>
-      <c r="F160" t="str">
-        <v/>
-      </c>
-      <c r="G160" t="b">
-        <v>0</v>
-      </c>
-      <c r="H160" t="str">
-        <v/>
+      <c r="G160" t="str">
+        <v/>
+      </c>
+      <c r="H160" t="b">
+        <v>0</v>
       </c>
       <c r="I160" t="str">
+        <v/>
+      </c>
+      <c r="J160" t="str">
         <v/>
       </c>
     </row>
@@ -6150,16 +6153,16 @@
       <c r="E161" t="str">
         <v/>
       </c>
-      <c r="F161" t="str">
-        <v/>
-      </c>
-      <c r="G161" t="b">
-        <v>0</v>
-      </c>
-      <c r="H161" t="str">
-        <v/>
+      <c r="G161" t="str">
+        <v/>
+      </c>
+      <c r="H161" t="b">
+        <v>0</v>
       </c>
       <c r="I161" t="str">
+        <v/>
+      </c>
+      <c r="J161" t="str">
         <v/>
       </c>
     </row>
@@ -6179,16 +6182,16 @@
       <c r="E162" t="str">
         <v/>
       </c>
-      <c r="F162" t="str">
-        <v/>
-      </c>
-      <c r="G162" t="b">
-        <v>0</v>
-      </c>
-      <c r="H162" t="str">
-        <v/>
+      <c r="G162" t="str">
+        <v/>
+      </c>
+      <c r="H162" t="b">
+        <v>0</v>
       </c>
       <c r="I162" t="str">
+        <v/>
+      </c>
+      <c r="J162" t="str">
         <v/>
       </c>
     </row>
@@ -6208,16 +6211,16 @@
       <c r="E163" t="str">
         <v/>
       </c>
-      <c r="F163" t="str">
-        <v/>
-      </c>
-      <c r="G163" t="b">
-        <v>0</v>
-      </c>
-      <c r="H163" t="str">
-        <v/>
+      <c r="G163" t="str">
+        <v/>
+      </c>
+      <c r="H163" t="b">
+        <v>0</v>
       </c>
       <c r="I163" t="str">
+        <v/>
+      </c>
+      <c r="J163" t="str">
         <v/>
       </c>
     </row>
@@ -6237,16 +6240,16 @@
       <c r="E164" t="str">
         <v/>
       </c>
-      <c r="F164" t="str">
-        <v/>
-      </c>
-      <c r="G164" t="b">
-        <v>0</v>
-      </c>
-      <c r="H164" t="str">
-        <v/>
+      <c r="G164" t="str">
+        <v/>
+      </c>
+      <c r="H164" t="b">
+        <v>0</v>
       </c>
       <c r="I164" t="str">
+        <v/>
+      </c>
+      <c r="J164" t="str">
         <v/>
       </c>
     </row>
@@ -6266,16 +6269,16 @@
       <c r="E165" t="str">
         <v/>
       </c>
-      <c r="F165" t="str">
-        <v/>
-      </c>
-      <c r="G165" t="b">
-        <v>0</v>
-      </c>
-      <c r="H165" t="str">
-        <v/>
+      <c r="G165" t="str">
+        <v/>
+      </c>
+      <c r="H165" t="b">
+        <v>0</v>
       </c>
       <c r="I165" t="str">
+        <v/>
+      </c>
+      <c r="J165" t="str">
         <v/>
       </c>
     </row>
@@ -6295,16 +6298,16 @@
       <c r="E166" t="str">
         <v/>
       </c>
-      <c r="F166" t="str">
-        <v/>
-      </c>
-      <c r="G166" t="b">
-        <v>0</v>
-      </c>
-      <c r="H166" t="str">
-        <v/>
+      <c r="G166" t="str">
+        <v/>
+      </c>
+      <c r="H166" t="b">
+        <v>0</v>
       </c>
       <c r="I166" t="str">
+        <v/>
+      </c>
+      <c r="J166" t="str">
         <v/>
       </c>
     </row>
@@ -6324,16 +6327,16 @@
       <c r="E167" t="str">
         <v/>
       </c>
-      <c r="F167" t="str">
-        <v/>
-      </c>
-      <c r="G167" t="b">
-        <v>0</v>
-      </c>
-      <c r="H167" t="str">
-        <v/>
+      <c r="G167" t="str">
+        <v/>
+      </c>
+      <c r="H167" t="b">
+        <v>0</v>
       </c>
       <c r="I167" t="str">
+        <v/>
+      </c>
+      <c r="J167" t="str">
         <v/>
       </c>
     </row>
@@ -6353,16 +6356,16 @@
       <c r="E168" t="str">
         <v/>
       </c>
-      <c r="F168" t="str">
-        <v/>
-      </c>
-      <c r="G168" t="b">
-        <v>0</v>
-      </c>
-      <c r="H168" t="str">
-        <v/>
+      <c r="G168" t="str">
+        <v/>
+      </c>
+      <c r="H168" t="b">
+        <v>0</v>
       </c>
       <c r="I168" t="str">
+        <v/>
+      </c>
+      <c r="J168" t="str">
         <v/>
       </c>
     </row>
@@ -6382,16 +6385,16 @@
       <c r="E169" t="str">
         <v/>
       </c>
-      <c r="F169" t="str">
-        <v/>
-      </c>
-      <c r="G169" t="b">
-        <v>0</v>
-      </c>
-      <c r="H169" t="str">
-        <v/>
+      <c r="G169" t="str">
+        <v/>
+      </c>
+      <c r="H169" t="b">
+        <v>0</v>
       </c>
       <c r="I169" t="str">
+        <v/>
+      </c>
+      <c r="J169" t="str">
         <v/>
       </c>
     </row>
@@ -6411,16 +6414,16 @@
       <c r="E170" t="str">
         <v/>
       </c>
-      <c r="F170" t="str">
-        <v/>
-      </c>
-      <c r="G170" t="b">
-        <v>0</v>
-      </c>
-      <c r="H170" t="str">
-        <v/>
+      <c r="G170" t="str">
+        <v/>
+      </c>
+      <c r="H170" t="b">
+        <v>0</v>
       </c>
       <c r="I170" t="str">
+        <v/>
+      </c>
+      <c r="J170" t="str">
         <v/>
       </c>
     </row>
@@ -6440,16 +6443,16 @@
       <c r="E171" t="str">
         <v/>
       </c>
-      <c r="F171" t="str">
-        <v/>
-      </c>
-      <c r="G171" t="b">
-        <v>0</v>
-      </c>
-      <c r="H171" t="str">
-        <v/>
+      <c r="G171" t="str">
+        <v/>
+      </c>
+      <c r="H171" t="b">
+        <v>0</v>
       </c>
       <c r="I171" t="str">
+        <v/>
+      </c>
+      <c r="J171" t="str">
         <v/>
       </c>
     </row>
@@ -6469,16 +6472,16 @@
       <c r="E172" t="str">
         <v/>
       </c>
-      <c r="F172" t="str">
-        <v/>
-      </c>
-      <c r="G172" t="b">
-        <v>0</v>
-      </c>
-      <c r="H172" t="str">
-        <v/>
+      <c r="G172" t="str">
+        <v/>
+      </c>
+      <c r="H172" t="b">
+        <v>0</v>
       </c>
       <c r="I172" t="str">
+        <v/>
+      </c>
+      <c r="J172" t="str">
         <v/>
       </c>
     </row>
@@ -6498,16 +6501,16 @@
       <c r="E173" t="str">
         <v/>
       </c>
-      <c r="F173" t="str">
-        <v/>
-      </c>
-      <c r="G173" t="b">
-        <v>0</v>
-      </c>
-      <c r="H173" t="str">
-        <v/>
+      <c r="G173" t="str">
+        <v/>
+      </c>
+      <c r="H173" t="b">
+        <v>0</v>
       </c>
       <c r="I173" t="str">
+        <v/>
+      </c>
+      <c r="J173" t="str">
         <v/>
       </c>
     </row>
@@ -6527,16 +6530,16 @@
       <c r="E174" t="str">
         <v/>
       </c>
-      <c r="F174" t="str">
-        <v/>
-      </c>
-      <c r="G174" t="b">
-        <v>0</v>
-      </c>
-      <c r="H174" t="str">
-        <v/>
+      <c r="G174" t="str">
+        <v/>
+      </c>
+      <c r="H174" t="b">
+        <v>0</v>
       </c>
       <c r="I174" t="str">
+        <v/>
+      </c>
+      <c r="J174" t="str">
         <v/>
       </c>
     </row>
@@ -6556,16 +6559,16 @@
       <c r="E175" t="str">
         <v/>
       </c>
-      <c r="F175" t="str">
-        <v/>
-      </c>
-      <c r="G175" t="b">
-        <v>0</v>
-      </c>
-      <c r="H175" t="str">
-        <v/>
+      <c r="G175" t="str">
+        <v/>
+      </c>
+      <c r="H175" t="b">
+        <v>0</v>
       </c>
       <c r="I175" t="str">
+        <v/>
+      </c>
+      <c r="J175" t="str">
         <v/>
       </c>
     </row>
@@ -6585,16 +6588,16 @@
       <c r="E176" t="str">
         <v/>
       </c>
-      <c r="F176" t="str">
-        <v/>
-      </c>
-      <c r="G176" t="b">
-        <v>0</v>
-      </c>
-      <c r="H176" t="str">
-        <v/>
+      <c r="G176" t="str">
+        <v/>
+      </c>
+      <c r="H176" t="b">
+        <v>0</v>
       </c>
       <c r="I176" t="str">
+        <v/>
+      </c>
+      <c r="J176" t="str">
         <v/>
       </c>
     </row>
@@ -6614,16 +6617,16 @@
       <c r="E177" t="str">
         <v/>
       </c>
-      <c r="F177" t="str">
-        <v/>
-      </c>
-      <c r="G177" t="b">
-        <v>0</v>
-      </c>
-      <c r="H177" t="str">
-        <v/>
+      <c r="G177" t="str">
+        <v/>
+      </c>
+      <c r="H177" t="b">
+        <v>0</v>
       </c>
       <c r="I177" t="str">
+        <v/>
+      </c>
+      <c r="J177" t="str">
         <v/>
       </c>
     </row>
@@ -6643,16 +6646,16 @@
       <c r="E178" t="str">
         <v/>
       </c>
-      <c r="F178" t="str">
-        <v/>
-      </c>
-      <c r="G178" t="b">
-        <v>0</v>
-      </c>
-      <c r="H178" t="str">
-        <v/>
+      <c r="G178" t="str">
+        <v/>
+      </c>
+      <c r="H178" t="b">
+        <v>0</v>
       </c>
       <c r="I178" t="str">
+        <v/>
+      </c>
+      <c r="J178" t="str">
         <v/>
       </c>
     </row>
@@ -6672,16 +6675,16 @@
       <c r="E179" t="str">
         <v/>
       </c>
-      <c r="F179" t="str">
-        <v/>
-      </c>
-      <c r="G179" t="b">
-        <v>0</v>
-      </c>
-      <c r="H179" t="str">
-        <v/>
+      <c r="G179" t="str">
+        <v/>
+      </c>
+      <c r="H179" t="b">
+        <v>0</v>
       </c>
       <c r="I179" t="str">
+        <v/>
+      </c>
+      <c r="J179" t="str">
         <v/>
       </c>
     </row>
@@ -6701,16 +6704,16 @@
       <c r="E180" t="str">
         <v/>
       </c>
-      <c r="F180" t="str">
-        <v/>
-      </c>
-      <c r="G180" t="b">
-        <v>0</v>
-      </c>
-      <c r="H180" t="str">
-        <v/>
+      <c r="G180" t="str">
+        <v/>
+      </c>
+      <c r="H180" t="b">
+        <v>0</v>
       </c>
       <c r="I180" t="str">
+        <v/>
+      </c>
+      <c r="J180" t="str">
         <v/>
       </c>
     </row>
@@ -6730,16 +6733,16 @@
       <c r="E181" t="str">
         <v/>
       </c>
-      <c r="F181" t="str">
-        <v/>
-      </c>
-      <c r="G181" t="b">
-        <v>0</v>
-      </c>
-      <c r="H181" t="str">
-        <v/>
+      <c r="G181" t="str">
+        <v/>
+      </c>
+      <c r="H181" t="b">
+        <v>0</v>
       </c>
       <c r="I181" t="str">
+        <v/>
+      </c>
+      <c r="J181" t="str">
         <v/>
       </c>
     </row>
@@ -6759,16 +6762,16 @@
       <c r="E182" t="str">
         <v/>
       </c>
-      <c r="F182" t="str">
-        <v/>
-      </c>
-      <c r="G182" t="b">
-        <v>0</v>
-      </c>
-      <c r="H182" t="str">
-        <v/>
+      <c r="G182" t="str">
+        <v/>
+      </c>
+      <c r="H182" t="b">
+        <v>0</v>
       </c>
       <c r="I182" t="str">
+        <v/>
+      </c>
+      <c r="J182" t="str">
         <v/>
       </c>
     </row>
@@ -6788,16 +6791,16 @@
       <c r="E183" t="str">
         <v/>
       </c>
-      <c r="F183" t="str">
-        <v/>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="str">
-        <v/>
+      <c r="G183" t="str">
+        <v/>
+      </c>
+      <c r="H183" t="b">
+        <v>0</v>
       </c>
       <c r="I183" t="str">
+        <v/>
+      </c>
+      <c r="J183" t="str">
         <v/>
       </c>
     </row>
@@ -6817,16 +6820,16 @@
       <c r="E184" t="str">
         <v/>
       </c>
-      <c r="F184" t="str">
-        <v/>
-      </c>
-      <c r="G184" t="b">
-        <v>0</v>
-      </c>
-      <c r="H184" t="str">
-        <v/>
+      <c r="G184" t="str">
+        <v/>
+      </c>
+      <c r="H184" t="b">
+        <v>0</v>
       </c>
       <c r="I184" t="str">
+        <v/>
+      </c>
+      <c r="J184" t="str">
         <v/>
       </c>
     </row>
@@ -6846,16 +6849,16 @@
       <c r="E185" t="str">
         <v/>
       </c>
-      <c r="F185" t="str">
-        <v/>
-      </c>
-      <c r="G185" t="b">
-        <v>0</v>
-      </c>
-      <c r="H185" t="str">
-        <v/>
+      <c r="G185" t="str">
+        <v/>
+      </c>
+      <c r="H185" t="b">
+        <v>0</v>
       </c>
       <c r="I185" t="str">
+        <v/>
+      </c>
+      <c r="J185" t="str">
         <v/>
       </c>
     </row>
@@ -6875,16 +6878,16 @@
       <c r="E186" t="str">
         <v/>
       </c>
-      <c r="F186" t="str">
-        <v/>
-      </c>
-      <c r="G186" t="b">
-        <v>0</v>
-      </c>
-      <c r="H186" t="str">
-        <v/>
+      <c r="G186" t="str">
+        <v/>
+      </c>
+      <c r="H186" t="b">
+        <v>0</v>
       </c>
       <c r="I186" t="str">
+        <v/>
+      </c>
+      <c r="J186" t="str">
         <v/>
       </c>
     </row>
@@ -6904,16 +6907,16 @@
       <c r="E187" t="str">
         <v/>
       </c>
-      <c r="F187" t="str">
-        <v/>
-      </c>
-      <c r="G187" t="b">
-        <v>0</v>
-      </c>
-      <c r="H187" t="str">
-        <v/>
+      <c r="G187" t="str">
+        <v/>
+      </c>
+      <c r="H187" t="b">
+        <v>0</v>
       </c>
       <c r="I187" t="str">
+        <v/>
+      </c>
+      <c r="J187" t="str">
         <v/>
       </c>
     </row>
@@ -6933,16 +6936,16 @@
       <c r="E188" t="str">
         <v/>
       </c>
-      <c r="F188" t="str">
-        <v/>
-      </c>
-      <c r="G188" t="b">
-        <v>0</v>
-      </c>
-      <c r="H188" t="str">
-        <v/>
+      <c r="G188" t="str">
+        <v/>
+      </c>
+      <c r="H188" t="b">
+        <v>0</v>
       </c>
       <c r="I188" t="str">
+        <v/>
+      </c>
+      <c r="J188" t="str">
         <v/>
       </c>
     </row>
@@ -6962,16 +6965,16 @@
       <c r="E189" t="str">
         <v/>
       </c>
-      <c r="F189" t="str">
-        <v/>
-      </c>
-      <c r="G189" t="b">
-        <v>0</v>
-      </c>
-      <c r="H189" t="str">
-        <v/>
+      <c r="G189" t="str">
+        <v/>
+      </c>
+      <c r="H189" t="b">
+        <v>0</v>
       </c>
       <c r="I189" t="str">
+        <v/>
+      </c>
+      <c r="J189" t="str">
         <v/>
       </c>
     </row>
@@ -6991,16 +6994,16 @@
       <c r="E190" t="str">
         <v/>
       </c>
-      <c r="F190" t="str">
-        <v/>
-      </c>
-      <c r="G190" t="b">
-        <v>0</v>
-      </c>
-      <c r="H190" t="str">
-        <v/>
+      <c r="G190" t="str">
+        <v/>
+      </c>
+      <c r="H190" t="b">
+        <v>0</v>
       </c>
       <c r="I190" t="str">
+        <v/>
+      </c>
+      <c r="J190" t="str">
         <v/>
       </c>
     </row>
@@ -7020,16 +7023,16 @@
       <c r="E191" t="str">
         <v/>
       </c>
-      <c r="F191" t="str">
-        <v/>
-      </c>
-      <c r="G191" t="b">
-        <v>0</v>
-      </c>
-      <c r="H191" t="str">
-        <v/>
+      <c r="G191" t="str">
+        <v/>
+      </c>
+      <c r="H191" t="b">
+        <v>0</v>
       </c>
       <c r="I191" t="str">
+        <v/>
+      </c>
+      <c r="J191" t="str">
         <v/>
       </c>
     </row>
@@ -7049,16 +7052,16 @@
       <c r="E192" t="str">
         <v/>
       </c>
-      <c r="F192" t="str">
-        <v/>
-      </c>
-      <c r="G192" t="b">
-        <v>0</v>
-      </c>
-      <c r="H192" t="str">
-        <v/>
+      <c r="G192" t="str">
+        <v/>
+      </c>
+      <c r="H192" t="b">
+        <v>0</v>
       </c>
       <c r="I192" t="str">
+        <v/>
+      </c>
+      <c r="J192" t="str">
         <v/>
       </c>
     </row>
@@ -7078,16 +7081,16 @@
       <c r="E193" t="str">
         <v/>
       </c>
-      <c r="F193" t="str">
-        <v/>
-      </c>
-      <c r="G193" t="b">
-        <v>0</v>
-      </c>
-      <c r="H193" t="str">
-        <v/>
+      <c r="G193" t="str">
+        <v/>
+      </c>
+      <c r="H193" t="b">
+        <v>0</v>
       </c>
       <c r="I193" t="str">
+        <v/>
+      </c>
+      <c r="J193" t="str">
         <v/>
       </c>
     </row>
@@ -7107,16 +7110,16 @@
       <c r="E194" t="str">
         <v/>
       </c>
-      <c r="F194" t="str">
-        <v/>
-      </c>
-      <c r="G194" t="b">
-        <v>0</v>
-      </c>
-      <c r="H194" t="str">
-        <v/>
+      <c r="G194" t="str">
+        <v/>
+      </c>
+      <c r="H194" t="b">
+        <v>0</v>
       </c>
       <c r="I194" t="str">
+        <v/>
+      </c>
+      <c r="J194" t="str">
         <v/>
       </c>
     </row>
@@ -7136,16 +7139,16 @@
       <c r="E195" t="str">
         <v/>
       </c>
-      <c r="F195" t="str">
-        <v/>
-      </c>
-      <c r="G195" t="b">
-        <v>0</v>
-      </c>
-      <c r="H195" t="str">
-        <v/>
+      <c r="G195" t="str">
+        <v/>
+      </c>
+      <c r="H195" t="b">
+        <v>0</v>
       </c>
       <c r="I195" t="str">
+        <v/>
+      </c>
+      <c r="J195" t="str">
         <v/>
       </c>
     </row>
@@ -7165,16 +7168,16 @@
       <c r="E196" t="str">
         <v/>
       </c>
-      <c r="F196" t="str">
-        <v/>
-      </c>
-      <c r="G196" t="b">
-        <v>0</v>
-      </c>
-      <c r="H196" t="str">
-        <v/>
+      <c r="G196" t="str">
+        <v/>
+      </c>
+      <c r="H196" t="b">
+        <v>0</v>
       </c>
       <c r="I196" t="str">
+        <v/>
+      </c>
+      <c r="J196" t="str">
         <v/>
       </c>
     </row>
@@ -7194,16 +7197,16 @@
       <c r="E197" t="str">
         <v/>
       </c>
-      <c r="F197" t="str">
-        <v/>
-      </c>
-      <c r="G197" t="b">
-        <v>0</v>
-      </c>
-      <c r="H197" t="str">
-        <v/>
+      <c r="G197" t="str">
+        <v/>
+      </c>
+      <c r="H197" t="b">
+        <v>0</v>
       </c>
       <c r="I197" t="str">
+        <v/>
+      </c>
+      <c r="J197" t="str">
         <v/>
       </c>
     </row>
@@ -7223,16 +7226,16 @@
       <c r="E198" t="str">
         <v/>
       </c>
-      <c r="F198" t="str">
-        <v/>
-      </c>
-      <c r="G198" t="b">
-        <v>0</v>
-      </c>
-      <c r="H198" t="str">
-        <v/>
+      <c r="G198" t="str">
+        <v/>
+      </c>
+      <c r="H198" t="b">
+        <v>0</v>
       </c>
       <c r="I198" t="str">
+        <v/>
+      </c>
+      <c r="J198" t="str">
         <v/>
       </c>
     </row>
@@ -7252,16 +7255,16 @@
       <c r="E199" t="str">
         <v/>
       </c>
-      <c r="F199" t="str">
-        <v/>
-      </c>
-      <c r="G199" t="b">
-        <v>0</v>
-      </c>
-      <c r="H199" t="str">
-        <v/>
+      <c r="G199" t="str">
+        <v/>
+      </c>
+      <c r="H199" t="b">
+        <v>0</v>
       </c>
       <c r="I199" t="str">
+        <v/>
+      </c>
+      <c r="J199" t="str">
         <v/>
       </c>
     </row>
@@ -7281,16 +7284,16 @@
       <c r="E200" t="str">
         <v/>
       </c>
-      <c r="F200" t="str">
-        <v/>
-      </c>
-      <c r="G200" t="b">
-        <v>0</v>
-      </c>
-      <c r="H200" t="str">
-        <v/>
+      <c r="G200" t="str">
+        <v/>
+      </c>
+      <c r="H200" t="b">
+        <v>0</v>
       </c>
       <c r="I200" t="str">
+        <v/>
+      </c>
+      <c r="J200" t="str">
         <v/>
       </c>
     </row>
@@ -7310,16 +7313,16 @@
       <c r="E201" t="str">
         <v/>
       </c>
-      <c r="F201" t="str">
-        <v/>
-      </c>
-      <c r="G201" t="b">
-        <v>0</v>
-      </c>
-      <c r="H201" t="str">
-        <v/>
+      <c r="G201" t="str">
+        <v/>
+      </c>
+      <c r="H201" t="b">
+        <v>0</v>
       </c>
       <c r="I201" t="str">
+        <v/>
+      </c>
+      <c r="J201" t="str">
         <v/>
       </c>
     </row>
@@ -7339,16 +7342,16 @@
       <c r="E202" t="str">
         <v/>
       </c>
-      <c r="F202" t="str">
-        <v/>
-      </c>
-      <c r="G202" t="b">
-        <v>0</v>
-      </c>
-      <c r="H202" t="str">
-        <v/>
+      <c r="G202" t="str">
+        <v/>
+      </c>
+      <c r="H202" t="b">
+        <v>0</v>
       </c>
       <c r="I202" t="str">
+        <v/>
+      </c>
+      <c r="J202" t="str">
         <v/>
       </c>
     </row>
@@ -7368,16 +7371,16 @@
       <c r="E203" t="str">
         <v/>
       </c>
-      <c r="F203" t="str">
-        <v/>
-      </c>
-      <c r="G203" t="b">
-        <v>0</v>
-      </c>
-      <c r="H203" t="str">
-        <v/>
+      <c r="G203" t="str">
+        <v/>
+      </c>
+      <c r="H203" t="b">
+        <v>0</v>
       </c>
       <c r="I203" t="str">
+        <v/>
+      </c>
+      <c r="J203" t="str">
         <v/>
       </c>
     </row>
@@ -7397,16 +7400,16 @@
       <c r="E204" t="str">
         <v/>
       </c>
-      <c r="F204" t="str">
-        <v/>
-      </c>
-      <c r="G204" t="b">
-        <v>0</v>
-      </c>
-      <c r="H204" t="str">
-        <v/>
+      <c r="G204" t="str">
+        <v/>
+      </c>
+      <c r="H204" t="b">
+        <v>0</v>
       </c>
       <c r="I204" t="str">
+        <v/>
+      </c>
+      <c r="J204" t="str">
         <v/>
       </c>
     </row>
@@ -7426,16 +7429,16 @@
       <c r="E205" t="str">
         <v/>
       </c>
-      <c r="F205" t="str">
-        <v/>
-      </c>
-      <c r="G205" t="b">
-        <v>0</v>
-      </c>
-      <c r="H205" t="str">
-        <v/>
+      <c r="G205" t="str">
+        <v/>
+      </c>
+      <c r="H205" t="b">
+        <v>0</v>
       </c>
       <c r="I205" t="str">
+        <v/>
+      </c>
+      <c r="J205" t="str">
         <v/>
       </c>
     </row>
@@ -7455,16 +7458,16 @@
       <c r="E206" t="str">
         <v/>
       </c>
-      <c r="F206" t="str">
-        <v/>
-      </c>
-      <c r="G206" t="b">
-        <v>0</v>
-      </c>
-      <c r="H206" t="str">
-        <v/>
+      <c r="G206" t="str">
+        <v/>
+      </c>
+      <c r="H206" t="b">
+        <v>0</v>
       </c>
       <c r="I206" t="str">
+        <v/>
+      </c>
+      <c r="J206" t="str">
         <v/>
       </c>
     </row>
@@ -7484,16 +7487,16 @@
       <c r="E207" t="str">
         <v/>
       </c>
-      <c r="F207" t="str">
-        <v/>
-      </c>
-      <c r="G207" t="b">
-        <v>0</v>
-      </c>
-      <c r="H207" t="str">
-        <v/>
+      <c r="G207" t="str">
+        <v/>
+      </c>
+      <c r="H207" t="b">
+        <v>0</v>
       </c>
       <c r="I207" t="str">
+        <v/>
+      </c>
+      <c r="J207" t="str">
         <v/>
       </c>
     </row>
@@ -7513,16 +7516,16 @@
       <c r="E208" t="str">
         <v/>
       </c>
-      <c r="F208" t="str">
-        <v/>
-      </c>
-      <c r="G208" t="b">
-        <v>0</v>
-      </c>
-      <c r="H208" t="str">
-        <v/>
+      <c r="G208" t="str">
+        <v/>
+      </c>
+      <c r="H208" t="b">
+        <v>0</v>
       </c>
       <c r="I208" t="str">
+        <v/>
+      </c>
+      <c r="J208" t="str">
         <v/>
       </c>
     </row>
@@ -7542,16 +7545,16 @@
       <c r="E209" t="str">
         <v/>
       </c>
-      <c r="F209" t="str">
-        <v/>
-      </c>
-      <c r="G209" t="b">
-        <v>0</v>
-      </c>
-      <c r="H209" t="str">
-        <v/>
+      <c r="G209" t="str">
+        <v/>
+      </c>
+      <c r="H209" t="b">
+        <v>0</v>
       </c>
       <c r="I209" t="str">
+        <v/>
+      </c>
+      <c r="J209" t="str">
         <v/>
       </c>
     </row>
@@ -7571,16 +7574,16 @@
       <c r="E210" t="str">
         <v/>
       </c>
-      <c r="F210" t="str">
-        <v/>
-      </c>
-      <c r="G210" t="b">
-        <v>0</v>
-      </c>
-      <c r="H210" t="str">
-        <v/>
+      <c r="G210" t="str">
+        <v/>
+      </c>
+      <c r="H210" t="b">
+        <v>0</v>
       </c>
       <c r="I210" t="str">
+        <v/>
+      </c>
+      <c r="J210" t="str">
         <v/>
       </c>
     </row>
@@ -7600,16 +7603,16 @@
       <c r="E211" t="str">
         <v/>
       </c>
-      <c r="F211" t="str">
-        <v/>
-      </c>
-      <c r="G211" t="b">
-        <v>0</v>
-      </c>
-      <c r="H211" t="str">
-        <v/>
+      <c r="G211" t="str">
+        <v/>
+      </c>
+      <c r="H211" t="b">
+        <v>0</v>
       </c>
       <c r="I211" t="str">
+        <v/>
+      </c>
+      <c r="J211" t="str">
         <v/>
       </c>
     </row>
@@ -7629,16 +7632,16 @@
       <c r="E212" t="str">
         <v/>
       </c>
-      <c r="F212" t="str">
-        <v/>
-      </c>
-      <c r="G212" t="b">
-        <v>0</v>
-      </c>
-      <c r="H212" t="str">
-        <v/>
+      <c r="G212" t="str">
+        <v/>
+      </c>
+      <c r="H212" t="b">
+        <v>0</v>
       </c>
       <c r="I212" t="str">
+        <v/>
+      </c>
+      <c r="J212" t="str">
         <v/>
       </c>
     </row>
@@ -7658,16 +7661,16 @@
       <c r="E213" t="str">
         <v/>
       </c>
-      <c r="F213" t="str">
-        <v/>
-      </c>
-      <c r="G213" t="b">
-        <v>0</v>
-      </c>
-      <c r="H213" t="str">
-        <v/>
+      <c r="G213" t="str">
+        <v/>
+      </c>
+      <c r="H213" t="b">
+        <v>0</v>
       </c>
       <c r="I213" t="str">
+        <v/>
+      </c>
+      <c r="J213" t="str">
         <v/>
       </c>
     </row>
@@ -7687,16 +7690,16 @@
       <c r="E214" t="str">
         <v/>
       </c>
-      <c r="F214" t="str">
-        <v/>
-      </c>
-      <c r="G214" t="b">
-        <v>0</v>
-      </c>
-      <c r="H214" t="str">
-        <v/>
+      <c r="G214" t="str">
+        <v/>
+      </c>
+      <c r="H214" t="b">
+        <v>0</v>
       </c>
       <c r="I214" t="str">
+        <v/>
+      </c>
+      <c r="J214" t="str">
         <v/>
       </c>
     </row>
@@ -7716,16 +7719,16 @@
       <c r="E215" t="str">
         <v/>
       </c>
-      <c r="F215" t="str">
-        <v/>
-      </c>
-      <c r="G215" t="b">
-        <v>0</v>
-      </c>
-      <c r="H215" t="str">
-        <v/>
+      <c r="G215" t="str">
+        <v/>
+      </c>
+      <c r="H215" t="b">
+        <v>0</v>
       </c>
       <c r="I215" t="str">
+        <v/>
+      </c>
+      <c r="J215" t="str">
         <v/>
       </c>
     </row>
@@ -7745,16 +7748,16 @@
       <c r="E216" t="str">
         <v/>
       </c>
-      <c r="F216" t="str">
-        <v/>
-      </c>
-      <c r="G216" t="b">
-        <v>0</v>
-      </c>
-      <c r="H216" t="str">
-        <v/>
+      <c r="G216" t="str">
+        <v/>
+      </c>
+      <c r="H216" t="b">
+        <v>0</v>
       </c>
       <c r="I216" t="str">
+        <v/>
+      </c>
+      <c r="J216" t="str">
         <v/>
       </c>
     </row>
@@ -7774,16 +7777,16 @@
       <c r="E217" t="str">
         <v/>
       </c>
-      <c r="F217" t="str">
-        <v/>
-      </c>
-      <c r="G217" t="b">
-        <v>0</v>
-      </c>
-      <c r="H217" t="str">
-        <v/>
+      <c r="G217" t="str">
+        <v/>
+      </c>
+      <c r="H217" t="b">
+        <v>0</v>
       </c>
       <c r="I217" t="str">
+        <v/>
+      </c>
+      <c r="J217" t="str">
         <v/>
       </c>
     </row>
@@ -7803,16 +7806,16 @@
       <c r="E218" t="str">
         <v/>
       </c>
-      <c r="F218" t="str">
-        <v/>
-      </c>
-      <c r="G218" t="b">
-        <v>0</v>
-      </c>
-      <c r="H218" t="str">
-        <v/>
+      <c r="G218" t="str">
+        <v/>
+      </c>
+      <c r="H218" t="b">
+        <v>0</v>
       </c>
       <c r="I218" t="str">
+        <v/>
+      </c>
+      <c r="J218" t="str">
         <v/>
       </c>
     </row>
@@ -7832,16 +7835,16 @@
       <c r="E219" t="str">
         <v/>
       </c>
-      <c r="F219" t="str">
-        <v/>
-      </c>
-      <c r="G219" t="b">
-        <v>0</v>
-      </c>
-      <c r="H219" t="str">
-        <v/>
+      <c r="G219" t="str">
+        <v/>
+      </c>
+      <c r="H219" t="b">
+        <v>0</v>
       </c>
       <c r="I219" t="str">
+        <v/>
+      </c>
+      <c r="J219" t="str">
         <v/>
       </c>
     </row>
@@ -7861,16 +7864,16 @@
       <c r="E220" t="str">
         <v/>
       </c>
-      <c r="F220" t="str">
-        <v/>
-      </c>
-      <c r="G220" t="b">
-        <v>0</v>
-      </c>
-      <c r="H220" t="str">
-        <v/>
+      <c r="G220" t="str">
+        <v/>
+      </c>
+      <c r="H220" t="b">
+        <v>0</v>
       </c>
       <c r="I220" t="str">
+        <v/>
+      </c>
+      <c r="J220" t="str">
         <v/>
       </c>
     </row>
@@ -7890,16 +7893,16 @@
       <c r="E221" t="str">
         <v/>
       </c>
-      <c r="F221" t="str">
-        <v/>
-      </c>
-      <c r="G221" t="b">
-        <v>0</v>
-      </c>
-      <c r="H221" t="str">
-        <v/>
+      <c r="G221" t="str">
+        <v/>
+      </c>
+      <c r="H221" t="b">
+        <v>0</v>
       </c>
       <c r="I221" t="str">
+        <v/>
+      </c>
+      <c r="J221" t="str">
         <v/>
       </c>
     </row>
@@ -7919,16 +7922,16 @@
       <c r="E222" t="str">
         <v/>
       </c>
-      <c r="F222" t="str">
-        <v/>
-      </c>
-      <c r="G222" t="b">
-        <v>0</v>
-      </c>
-      <c r="H222" t="str">
-        <v/>
+      <c r="G222" t="str">
+        <v/>
+      </c>
+      <c r="H222" t="b">
+        <v>0</v>
       </c>
       <c r="I222" t="str">
+        <v/>
+      </c>
+      <c r="J222" t="str">
         <v/>
       </c>
     </row>
@@ -7948,16 +7951,16 @@
       <c r="E223" t="str">
         <v/>
       </c>
-      <c r="F223" t="str">
-        <v/>
-      </c>
-      <c r="G223" t="b">
-        <v>0</v>
-      </c>
-      <c r="H223" t="str">
-        <v/>
+      <c r="G223" t="str">
+        <v/>
+      </c>
+      <c r="H223" t="b">
+        <v>0</v>
       </c>
       <c r="I223" t="str">
+        <v/>
+      </c>
+      <c r="J223" t="str">
         <v/>
       </c>
     </row>
@@ -7977,16 +7980,16 @@
       <c r="E224" t="str">
         <v/>
       </c>
-      <c r="F224" t="str">
-        <v/>
-      </c>
-      <c r="G224" t="b">
-        <v>0</v>
-      </c>
-      <c r="H224" t="str">
-        <v/>
+      <c r="G224" t="str">
+        <v/>
+      </c>
+      <c r="H224" t="b">
+        <v>0</v>
       </c>
       <c r="I224" t="str">
+        <v/>
+      </c>
+      <c r="J224" t="str">
         <v/>
       </c>
     </row>
@@ -8006,16 +8009,16 @@
       <c r="E225" t="str">
         <v/>
       </c>
-      <c r="F225" t="str">
-        <v/>
-      </c>
-      <c r="G225" t="b">
-        <v>0</v>
-      </c>
-      <c r="H225" t="str">
-        <v/>
+      <c r="G225" t="str">
+        <v/>
+      </c>
+      <c r="H225" t="b">
+        <v>0</v>
       </c>
       <c r="I225" t="str">
+        <v/>
+      </c>
+      <c r="J225" t="str">
         <v/>
       </c>
     </row>
@@ -8035,16 +8038,16 @@
       <c r="E226" t="str">
         <v/>
       </c>
-      <c r="F226" t="str">
-        <v/>
-      </c>
-      <c r="G226" t="b">
-        <v>0</v>
-      </c>
-      <c r="H226" t="str">
-        <v/>
+      <c r="G226" t="str">
+        <v/>
+      </c>
+      <c r="H226" t="b">
+        <v>0</v>
       </c>
       <c r="I226" t="str">
+        <v/>
+      </c>
+      <c r="J226" t="str">
         <v/>
       </c>
     </row>
@@ -8064,16 +8067,16 @@
       <c r="E227" t="str">
         <v/>
       </c>
-      <c r="F227" t="str">
-        <v/>
-      </c>
-      <c r="G227" t="b">
-        <v>0</v>
-      </c>
-      <c r="H227" t="str">
-        <v/>
+      <c r="G227" t="str">
+        <v/>
+      </c>
+      <c r="H227" t="b">
+        <v>0</v>
       </c>
       <c r="I227" t="str">
+        <v/>
+      </c>
+      <c r="J227" t="str">
         <v/>
       </c>
     </row>
@@ -8093,16 +8096,16 @@
       <c r="E228" t="str">
         <v/>
       </c>
-      <c r="F228" t="str">
-        <v/>
-      </c>
-      <c r="G228" t="b">
-        <v>0</v>
-      </c>
-      <c r="H228" t="str">
-        <v/>
+      <c r="G228" t="str">
+        <v/>
+      </c>
+      <c r="H228" t="b">
+        <v>0</v>
       </c>
       <c r="I228" t="str">
+        <v/>
+      </c>
+      <c r="J228" t="str">
         <v/>
       </c>
     </row>
@@ -8122,16 +8125,16 @@
       <c r="E229" t="str">
         <v/>
       </c>
-      <c r="F229" t="str">
-        <v/>
-      </c>
-      <c r="G229" t="b">
-        <v>0</v>
-      </c>
-      <c r="H229" t="str">
-        <v/>
+      <c r="G229" t="str">
+        <v/>
+      </c>
+      <c r="H229" t="b">
+        <v>0</v>
       </c>
       <c r="I229" t="str">
+        <v/>
+      </c>
+      <c r="J229" t="str">
         <v/>
       </c>
     </row>
@@ -8151,16 +8154,16 @@
       <c r="E230" t="str">
         <v/>
       </c>
-      <c r="F230" t="str">
-        <v/>
-      </c>
-      <c r="G230" t="b">
-        <v>0</v>
-      </c>
-      <c r="H230" t="str">
-        <v/>
+      <c r="G230" t="str">
+        <v/>
+      </c>
+      <c r="H230" t="b">
+        <v>0</v>
       </c>
       <c r="I230" t="str">
+        <v/>
+      </c>
+      <c r="J230" t="str">
         <v/>
       </c>
     </row>
@@ -8180,16 +8183,16 @@
       <c r="E231" t="str">
         <v/>
       </c>
-      <c r="F231" t="str">
-        <v/>
-      </c>
-      <c r="G231" t="b">
-        <v>0</v>
-      </c>
-      <c r="H231" t="str">
-        <v/>
+      <c r="G231" t="str">
+        <v/>
+      </c>
+      <c r="H231" t="b">
+        <v>0</v>
       </c>
       <c r="I231" t="str">
+        <v/>
+      </c>
+      <c r="J231" t="str">
         <v/>
       </c>
     </row>
@@ -8209,16 +8212,16 @@
       <c r="E232" t="str">
         <v/>
       </c>
-      <c r="F232" t="str">
-        <v/>
-      </c>
-      <c r="G232" t="b">
-        <v>0</v>
-      </c>
-      <c r="H232" t="str">
-        <v/>
+      <c r="G232" t="str">
+        <v/>
+      </c>
+      <c r="H232" t="b">
+        <v>0</v>
       </c>
       <c r="I232" t="str">
+        <v/>
+      </c>
+      <c r="J232" t="str">
         <v/>
       </c>
     </row>
@@ -8238,16 +8241,16 @@
       <c r="E233" t="str">
         <v/>
       </c>
-      <c r="F233" t="str">
-        <v/>
-      </c>
-      <c r="G233" t="b">
-        <v>0</v>
-      </c>
-      <c r="H233" t="str">
-        <v/>
+      <c r="G233" t="str">
+        <v/>
+      </c>
+      <c r="H233" t="b">
+        <v>0</v>
       </c>
       <c r="I233" t="str">
+        <v/>
+      </c>
+      <c r="J233" t="str">
         <v/>
       </c>
     </row>
@@ -8267,16 +8270,16 @@
       <c r="E234" t="str">
         <v/>
       </c>
-      <c r="F234" t="str">
-        <v/>
-      </c>
-      <c r="G234" t="b">
-        <v>0</v>
-      </c>
-      <c r="H234" t="str">
-        <v/>
+      <c r="G234" t="str">
+        <v/>
+      </c>
+      <c r="H234" t="b">
+        <v>0</v>
       </c>
       <c r="I234" t="str">
+        <v/>
+      </c>
+      <c r="J234" t="str">
         <v/>
       </c>
     </row>
@@ -8296,16 +8299,16 @@
       <c r="E235" t="str">
         <v/>
       </c>
-      <c r="F235" t="str">
-        <v/>
-      </c>
-      <c r="G235" t="b">
-        <v>0</v>
-      </c>
-      <c r="H235" t="str">
-        <v/>
+      <c r="G235" t="str">
+        <v/>
+      </c>
+      <c r="H235" t="b">
+        <v>0</v>
       </c>
       <c r="I235" t="str">
+        <v/>
+      </c>
+      <c r="J235" t="str">
         <v/>
       </c>
     </row>
@@ -8325,16 +8328,16 @@
       <c r="E236" t="str">
         <v/>
       </c>
-      <c r="F236" t="str">
-        <v/>
-      </c>
-      <c r="G236" t="b">
-        <v>0</v>
-      </c>
-      <c r="H236" t="str">
-        <v/>
+      <c r="G236" t="str">
+        <v/>
+      </c>
+      <c r="H236" t="b">
+        <v>0</v>
       </c>
       <c r="I236" t="str">
+        <v/>
+      </c>
+      <c r="J236" t="str">
         <v/>
       </c>
     </row>
@@ -8354,16 +8357,16 @@
       <c r="E237" t="str">
         <v/>
       </c>
-      <c r="F237" t="str">
-        <v/>
-      </c>
-      <c r="G237" t="b">
-        <v>0</v>
-      </c>
-      <c r="H237" t="str">
-        <v/>
+      <c r="G237" t="str">
+        <v/>
+      </c>
+      <c r="H237" t="b">
+        <v>0</v>
       </c>
       <c r="I237" t="str">
+        <v/>
+      </c>
+      <c r="J237" t="str">
         <v/>
       </c>
     </row>
@@ -8383,16 +8386,16 @@
       <c r="E238" t="str">
         <v/>
       </c>
-      <c r="F238" t="str">
-        <v/>
-      </c>
-      <c r="G238" t="b">
-        <v>0</v>
-      </c>
-      <c r="H238" t="str">
-        <v/>
+      <c r="G238" t="str">
+        <v/>
+      </c>
+      <c r="H238" t="b">
+        <v>0</v>
       </c>
       <c r="I238" t="str">
+        <v/>
+      </c>
+      <c r="J238" t="str">
         <v/>
       </c>
     </row>
@@ -8412,16 +8415,16 @@
       <c r="E239" t="str">
         <v/>
       </c>
-      <c r="F239" t="str">
-        <v/>
-      </c>
-      <c r="G239" t="b">
-        <v>0</v>
-      </c>
-      <c r="H239" t="str">
-        <v/>
+      <c r="G239" t="str">
+        <v/>
+      </c>
+      <c r="H239" t="b">
+        <v>0</v>
       </c>
       <c r="I239" t="str">
+        <v/>
+      </c>
+      <c r="J239" t="str">
         <v/>
       </c>
     </row>
@@ -8441,16 +8444,16 @@
       <c r="E240" t="str">
         <v/>
       </c>
-      <c r="F240" t="str">
-        <v/>
-      </c>
-      <c r="G240" t="b">
-        <v>0</v>
-      </c>
-      <c r="H240" t="str">
-        <v/>
+      <c r="G240" t="str">
+        <v/>
+      </c>
+      <c r="H240" t="b">
+        <v>0</v>
       </c>
       <c r="I240" t="str">
+        <v/>
+      </c>
+      <c r="J240" t="str">
         <v/>
       </c>
     </row>
@@ -8470,16 +8473,16 @@
       <c r="E241" t="str">
         <v/>
       </c>
-      <c r="F241" t="str">
-        <v/>
-      </c>
-      <c r="G241" t="b">
-        <v>0</v>
-      </c>
-      <c r="H241" t="str">
-        <v/>
+      <c r="G241" t="str">
+        <v/>
+      </c>
+      <c r="H241" t="b">
+        <v>0</v>
       </c>
       <c r="I241" t="str">
+        <v/>
+      </c>
+      <c r="J241" t="str">
         <v/>
       </c>
     </row>
@@ -8499,16 +8502,16 @@
       <c r="E242" t="str">
         <v/>
       </c>
-      <c r="F242" t="str">
-        <v/>
-      </c>
-      <c r="G242" t="b">
-        <v>0</v>
-      </c>
-      <c r="H242" t="str">
-        <v/>
+      <c r="G242" t="str">
+        <v/>
+      </c>
+      <c r="H242" t="b">
+        <v>0</v>
       </c>
       <c r="I242" t="str">
+        <v/>
+      </c>
+      <c r="J242" t="str">
         <v/>
       </c>
     </row>
@@ -8528,16 +8531,16 @@
       <c r="E243" t="str">
         <v/>
       </c>
-      <c r="F243" t="str">
-        <v/>
-      </c>
-      <c r="G243" t="b">
-        <v>0</v>
-      </c>
-      <c r="H243" t="str">
-        <v/>
+      <c r="G243" t="str">
+        <v/>
+      </c>
+      <c r="H243" t="b">
+        <v>0</v>
       </c>
       <c r="I243" t="str">
+        <v/>
+      </c>
+      <c r="J243" t="str">
         <v/>
       </c>
     </row>
@@ -8557,16 +8560,16 @@
       <c r="E244" t="str">
         <v/>
       </c>
-      <c r="F244" t="str">
-        <v/>
-      </c>
-      <c r="G244" t="b">
-        <v>0</v>
-      </c>
-      <c r="H244" t="str">
-        <v/>
+      <c r="G244" t="str">
+        <v/>
+      </c>
+      <c r="H244" t="b">
+        <v>0</v>
       </c>
       <c r="I244" t="str">
+        <v/>
+      </c>
+      <c r="J244" t="str">
         <v/>
       </c>
     </row>
@@ -8586,16 +8589,16 @@
       <c r="E245" t="str">
         <v/>
       </c>
-      <c r="F245" t="str">
-        <v/>
-      </c>
-      <c r="G245" t="b">
-        <v>0</v>
-      </c>
-      <c r="H245" t="str">
-        <v/>
+      <c r="G245" t="str">
+        <v/>
+      </c>
+      <c r="H245" t="b">
+        <v>0</v>
       </c>
       <c r="I245" t="str">
+        <v/>
+      </c>
+      <c r="J245" t="str">
         <v/>
       </c>
     </row>
@@ -8615,16 +8618,16 @@
       <c r="E246" t="str">
         <v/>
       </c>
-      <c r="F246" t="str">
-        <v/>
-      </c>
-      <c r="G246" t="b">
-        <v>0</v>
-      </c>
-      <c r="H246" t="str">
-        <v/>
+      <c r="G246" t="str">
+        <v/>
+      </c>
+      <c r="H246" t="b">
+        <v>0</v>
       </c>
       <c r="I246" t="str">
+        <v/>
+      </c>
+      <c r="J246" t="str">
         <v/>
       </c>
     </row>
@@ -8644,16 +8647,16 @@
       <c r="E247" t="str">
         <v/>
       </c>
-      <c r="F247" t="str">
-        <v/>
-      </c>
-      <c r="G247" t="b">
-        <v>0</v>
-      </c>
-      <c r="H247" t="str">
-        <v/>
+      <c r="G247" t="str">
+        <v/>
+      </c>
+      <c r="H247" t="b">
+        <v>0</v>
       </c>
       <c r="I247" t="str">
+        <v/>
+      </c>
+      <c r="J247" t="str">
         <v/>
       </c>
     </row>
@@ -8673,16 +8676,16 @@
       <c r="E248" t="str">
         <v/>
       </c>
-      <c r="F248" t="str">
-        <v/>
-      </c>
-      <c r="G248" t="b">
-        <v>0</v>
-      </c>
-      <c r="H248" t="str">
-        <v/>
+      <c r="G248" t="str">
+        <v/>
+      </c>
+      <c r="H248" t="b">
+        <v>0</v>
       </c>
       <c r="I248" t="str">
+        <v/>
+      </c>
+      <c r="J248" t="str">
         <v/>
       </c>
     </row>
@@ -8702,16 +8705,16 @@
       <c r="E249" t="str">
         <v/>
       </c>
-      <c r="F249" t="str">
-        <v/>
-      </c>
-      <c r="G249" t="b">
-        <v>0</v>
-      </c>
-      <c r="H249" t="str">
-        <v/>
+      <c r="G249" t="str">
+        <v/>
+      </c>
+      <c r="H249" t="b">
+        <v>0</v>
       </c>
       <c r="I249" t="str">
+        <v/>
+      </c>
+      <c r="J249" t="str">
         <v/>
       </c>
     </row>
@@ -8731,16 +8734,16 @@
       <c r="E250" t="str">
         <v/>
       </c>
-      <c r="F250" t="str">
-        <v/>
-      </c>
-      <c r="G250" t="b">
-        <v>0</v>
-      </c>
-      <c r="H250" t="str">
-        <v/>
+      <c r="G250" t="str">
+        <v/>
+      </c>
+      <c r="H250" t="b">
+        <v>0</v>
       </c>
       <c r="I250" t="str">
+        <v/>
+      </c>
+      <c r="J250" t="str">
         <v/>
       </c>
     </row>
@@ -8760,16 +8763,16 @@
       <c r="E251" t="str">
         <v/>
       </c>
-      <c r="F251" t="str">
-        <v/>
-      </c>
-      <c r="G251" t="b">
-        <v>0</v>
-      </c>
-      <c r="H251" t="str">
-        <v/>
+      <c r="G251" t="str">
+        <v/>
+      </c>
+      <c r="H251" t="b">
+        <v>0</v>
       </c>
       <c r="I251" t="str">
+        <v/>
+      </c>
+      <c r="J251" t="str">
         <v/>
       </c>
     </row>
@@ -8789,16 +8792,16 @@
       <c r="E252" t="str">
         <v/>
       </c>
-      <c r="F252" t="str">
-        <v/>
-      </c>
-      <c r="G252" t="b">
-        <v>0</v>
-      </c>
-      <c r="H252" t="str">
-        <v/>
+      <c r="G252" t="str">
+        <v/>
+      </c>
+      <c r="H252" t="b">
+        <v>0</v>
       </c>
       <c r="I252" t="str">
+        <v/>
+      </c>
+      <c r="J252" t="str">
         <v/>
       </c>
     </row>
@@ -8818,16 +8821,16 @@
       <c r="E253" t="str">
         <v/>
       </c>
-      <c r="F253" t="str">
-        <v/>
-      </c>
-      <c r="G253" t="b">
-        <v>0</v>
-      </c>
-      <c r="H253" t="str">
-        <v/>
+      <c r="G253" t="str">
+        <v/>
+      </c>
+      <c r="H253" t="b">
+        <v>0</v>
       </c>
       <c r="I253" t="str">
+        <v/>
+      </c>
+      <c r="J253" t="str">
         <v/>
       </c>
     </row>
@@ -8847,16 +8850,16 @@
       <c r="E254" t="str">
         <v/>
       </c>
-      <c r="F254" t="str">
-        <v/>
-      </c>
-      <c r="G254" t="b">
-        <v>0</v>
-      </c>
-      <c r="H254" t="str">
-        <v/>
+      <c r="G254" t="str">
+        <v/>
+      </c>
+      <c r="H254" t="b">
+        <v>0</v>
       </c>
       <c r="I254" t="str">
+        <v/>
+      </c>
+      <c r="J254" t="str">
         <v/>
       </c>
     </row>
@@ -8876,16 +8879,16 @@
       <c r="E255" t="str">
         <v/>
       </c>
-      <c r="F255" t="str">
-        <v/>
-      </c>
-      <c r="G255" t="b">
-        <v>0</v>
-      </c>
-      <c r="H255" t="str">
-        <v/>
+      <c r="G255" t="str">
+        <v/>
+      </c>
+      <c r="H255" t="b">
+        <v>0</v>
       </c>
       <c r="I255" t="str">
+        <v/>
+      </c>
+      <c r="J255" t="str">
         <v/>
       </c>
     </row>
@@ -8905,16 +8908,16 @@
       <c r="E256" t="str">
         <v/>
       </c>
-      <c r="F256" t="str">
-        <v/>
-      </c>
-      <c r="G256" t="b">
-        <v>0</v>
-      </c>
-      <c r="H256" t="str">
-        <v/>
+      <c r="G256" t="str">
+        <v/>
+      </c>
+      <c r="H256" t="b">
+        <v>0</v>
       </c>
       <c r="I256" t="str">
+        <v/>
+      </c>
+      <c r="J256" t="str">
         <v/>
       </c>
     </row>
@@ -8934,22 +8937,22 @@
       <c r="E257" t="str">
         <v>Hand Cash</v>
       </c>
-      <c r="F257" t="str">
-        <v/>
-      </c>
-      <c r="G257" t="b">
-        <v>0</v>
-      </c>
-      <c r="H257" t="str">
-        <v/>
+      <c r="G257" t="str">
+        <v/>
+      </c>
+      <c r="H257" t="b">
+        <v>0</v>
       </c>
       <c r="I257" t="str">
+        <v/>
+      </c>
+      <c r="J257" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I257"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J257"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,18 +430,21 @@
         <v>account</v>
       </c>
       <c r="F1" t="str">
+        <v>familyMember</v>
+      </c>
+      <c r="G1" t="str">
         <v>notes</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>recurring</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>recurringFrequency</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>recurringNextDate</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>paymentMethod</v>
       </c>
     </row>
@@ -461,14 +464,11 @@
       <c r="E2" t="str">
         <v>Hand Cash</v>
       </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -493,19 +493,19 @@
       <c r="E3" t="str">
         <v>Dutch Bangla Bank</v>
       </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="str">
-        <v/>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
       <c r="I3" t="str">
         <v/>
       </c>
       <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
         <v/>
       </c>
     </row>
@@ -525,19 +525,19 @@
       <c r="E4" t="str">
         <v/>
       </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="str">
-        <v/>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
       </c>
       <c r="I4" t="str">
         <v/>
       </c>
       <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="str">
         <v/>
       </c>
     </row>
@@ -557,19 +557,19 @@
       <c r="E5" t="str">
         <v/>
       </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="str">
-        <v/>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
       </c>
       <c r="I5" t="str">
         <v/>
       </c>
       <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
         <v/>
       </c>
     </row>
@@ -589,19 +589,19 @@
       <c r="E6" t="str">
         <v/>
       </c>
-      <c r="F6" t="str">
-        <v/>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="str">
-        <v/>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
       <c r="I6" t="str">
         <v/>
       </c>
       <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="str">
         <v/>
       </c>
     </row>
@@ -621,19 +621,19 @@
       <c r="E7" t="str">
         <v/>
       </c>
-      <c r="F7" t="str">
-        <v/>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="str">
-        <v/>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
       </c>
       <c r="I7" t="str">
         <v/>
       </c>
       <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
         <v/>
       </c>
     </row>
@@ -653,19 +653,19 @@
       <c r="E8" t="str">
         <v/>
       </c>
-      <c r="F8" t="str">
-        <v/>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="str">
-        <v/>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
       </c>
       <c r="I8" t="str">
         <v/>
       </c>
       <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
         <v/>
       </c>
     </row>
@@ -685,19 +685,19 @@
       <c r="E9" t="str">
         <v/>
       </c>
-      <c r="F9" t="str">
-        <v/>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="str">
-        <v/>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
       </c>
       <c r="I9" t="str">
         <v/>
       </c>
       <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
         <v/>
       </c>
     </row>
@@ -717,19 +717,19 @@
       <c r="E10" t="str">
         <v/>
       </c>
-      <c r="F10" t="str">
-        <v/>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="str">
-        <v/>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
       </c>
       <c r="I10" t="str">
         <v/>
       </c>
       <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
         <v/>
       </c>
     </row>
@@ -749,19 +749,19 @@
       <c r="E11" t="str">
         <v/>
       </c>
-      <c r="F11" t="str">
-        <v/>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="str">
-        <v/>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
       </c>
       <c r="I11" t="str">
         <v/>
       </c>
       <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
         <v/>
       </c>
     </row>
@@ -781,19 +781,19 @@
       <c r="E12" t="str">
         <v/>
       </c>
-      <c r="F12" t="str">
-        <v/>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="str">
-        <v/>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
       </c>
       <c r="I12" t="str">
         <v/>
       </c>
       <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
         <v/>
       </c>
     </row>
@@ -813,19 +813,19 @@
       <c r="E13" t="str">
         <v/>
       </c>
-      <c r="F13" t="str">
-        <v/>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="str">
-        <v/>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
       </c>
       <c r="I13" t="str">
         <v/>
       </c>
       <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
         <v/>
       </c>
     </row>
@@ -845,19 +845,19 @@
       <c r="E14" t="str">
         <v/>
       </c>
-      <c r="F14" t="str">
-        <v/>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="str">
-        <v/>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
       </c>
       <c r="I14" t="str">
         <v/>
       </c>
       <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
         <v/>
       </c>
     </row>
@@ -877,19 +877,19 @@
       <c r="E15" t="str">
         <v/>
       </c>
-      <c r="F15" t="str">
-        <v/>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="str">
-        <v/>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
       </c>
       <c r="I15" t="str">
         <v/>
       </c>
       <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="str">
         <v/>
       </c>
     </row>
@@ -909,19 +909,19 @@
       <c r="E16" t="str">
         <v/>
       </c>
-      <c r="F16" t="str">
-        <v/>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="str">
-        <v/>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
       </c>
       <c r="I16" t="str">
         <v/>
       </c>
       <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
         <v/>
       </c>
     </row>
@@ -941,19 +941,19 @@
       <c r="E17" t="str">
         <v/>
       </c>
-      <c r="F17" t="str">
-        <v/>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="str">
-        <v/>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
       </c>
       <c r="I17" t="str">
         <v/>
       </c>
       <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
         <v/>
       </c>
     </row>
@@ -973,19 +973,19 @@
       <c r="E18" t="str">
         <v/>
       </c>
-      <c r="F18" t="str">
-        <v/>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="str">
-        <v/>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
       </c>
       <c r="I18" t="str">
         <v/>
       </c>
       <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
         <v/>
       </c>
     </row>
@@ -1005,19 +1005,19 @@
       <c r="E19" t="str">
         <v/>
       </c>
-      <c r="F19" t="str">
-        <v/>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="str">
-        <v/>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
       </c>
       <c r="I19" t="str">
         <v/>
       </c>
       <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
         <v/>
       </c>
     </row>
@@ -1037,19 +1037,19 @@
       <c r="E20" t="str">
         <v/>
       </c>
-      <c r="F20" t="str">
-        <v/>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="str">
-        <v/>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
       </c>
       <c r="I20" t="str">
         <v/>
       </c>
       <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
         <v/>
       </c>
     </row>
@@ -1069,19 +1069,19 @@
       <c r="E21" t="str">
         <v/>
       </c>
-      <c r="F21" t="str">
-        <v/>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="str">
-        <v/>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
       </c>
       <c r="I21" t="str">
         <v/>
       </c>
       <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
         <v/>
       </c>
     </row>
@@ -1101,19 +1101,19 @@
       <c r="E22" t="str">
         <v/>
       </c>
-      <c r="F22" t="str">
-        <v/>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="str">
-        <v/>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
       </c>
       <c r="I22" t="str">
         <v/>
       </c>
       <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
         <v/>
       </c>
     </row>
@@ -1133,19 +1133,19 @@
       <c r="E23" t="str">
         <v/>
       </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="str">
-        <v/>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
       </c>
       <c r="I23" t="str">
         <v/>
       </c>
       <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
         <v/>
       </c>
     </row>
@@ -1165,19 +1165,19 @@
       <c r="E24" t="str">
         <v/>
       </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="str">
-        <v/>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
       </c>
       <c r="I24" t="str">
         <v/>
       </c>
       <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
         <v/>
       </c>
     </row>
@@ -1197,19 +1197,19 @@
       <c r="E25" t="str">
         <v/>
       </c>
-      <c r="F25" t="str">
-        <v/>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="str">
-        <v/>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
       </c>
       <c r="I25" t="str">
         <v/>
       </c>
       <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
         <v/>
       </c>
     </row>
@@ -1229,19 +1229,19 @@
       <c r="E26" t="str">
         <v/>
       </c>
-      <c r="F26" t="str">
-        <v/>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="str">
-        <v/>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
       </c>
       <c r="I26" t="str">
         <v/>
       </c>
       <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
         <v/>
       </c>
     </row>
@@ -1261,19 +1261,19 @@
       <c r="E27" t="str">
         <v/>
       </c>
-      <c r="F27" t="str">
-        <v/>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="str">
-        <v/>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
       </c>
       <c r="I27" t="str">
         <v/>
       </c>
       <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="str">
         <v/>
       </c>
     </row>
@@ -1293,19 +1293,19 @@
       <c r="E28" t="str">
         <v/>
       </c>
-      <c r="F28" t="str">
-        <v/>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="str">
-        <v/>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
       </c>
       <c r="I28" t="str">
         <v/>
       </c>
       <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
         <v/>
       </c>
     </row>
@@ -1325,19 +1325,19 @@
       <c r="E29" t="str">
         <v/>
       </c>
-      <c r="F29" t="str">
-        <v/>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="str">
-        <v/>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
       </c>
       <c r="I29" t="str">
         <v/>
       </c>
       <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
         <v/>
       </c>
     </row>
@@ -1357,19 +1357,19 @@
       <c r="E30" t="str">
         <v/>
       </c>
-      <c r="F30" t="str">
-        <v/>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="str">
-        <v/>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
       </c>
       <c r="I30" t="str">
         <v/>
       </c>
       <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
         <v/>
       </c>
     </row>
@@ -1389,19 +1389,19 @@
       <c r="E31" t="str">
         <v/>
       </c>
-      <c r="F31" t="str">
-        <v/>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="str">
-        <v/>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
       </c>
       <c r="I31" t="str">
         <v/>
       </c>
       <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
         <v/>
       </c>
     </row>
@@ -1421,25 +1421,25 @@
       <c r="E32" t="str">
         <v/>
       </c>
-      <c r="F32" t="str">
-        <v/>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="str">
-        <v/>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
       </c>
       <c r="I32" t="str">
         <v/>
       </c>
       <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K32"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1542,6 +1542,9 @@
       <c r="E2" t="str">
         <v>Hand Cash</v>
       </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
       <c r="G2" t="str">
         <v/>
       </c>
@@ -1571,6 +1574,9 @@
       <c r="E3" t="str">
         <v/>
       </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
       <c r="G3" t="str">
         <v/>
       </c>
@@ -1600,6 +1606,9 @@
       <c r="E4" t="str">
         <v/>
       </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
       <c r="G4" t="str">
         <v/>
       </c>
@@ -1629,6 +1638,9 @@
       <c r="E5" t="str">
         <v/>
       </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
       <c r="G5" t="str">
         <v/>
       </c>
@@ -1658,6 +1670,9 @@
       <c r="E6" t="str">
         <v/>
       </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
       <c r="G6" t="str">
         <v/>
       </c>
@@ -1687,6 +1702,9 @@
       <c r="E7" t="str">
         <v/>
       </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
       <c r="G7" t="str">
         <v/>
       </c>
@@ -1716,6 +1734,9 @@
       <c r="E8" t="str">
         <v/>
       </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
       <c r="G8" t="str">
         <v/>
       </c>
@@ -1745,6 +1766,9 @@
       <c r="E9" t="str">
         <v/>
       </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
       <c r="G9" t="str">
         <v/>
       </c>
@@ -1774,6 +1798,9 @@
       <c r="E10" t="str">
         <v/>
       </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
       <c r="G10" t="str">
         <v/>
       </c>
@@ -1803,6 +1830,9 @@
       <c r="E11" t="str">
         <v/>
       </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
       <c r="G11" t="str">
         <v/>
       </c>
@@ -1832,6 +1862,9 @@
       <c r="E12" t="str">
         <v/>
       </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
       <c r="G12" t="str">
         <v/>
       </c>
@@ -1861,6 +1894,9 @@
       <c r="E13" t="str">
         <v/>
       </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
       <c r="G13" t="str">
         <v/>
       </c>
@@ -1890,6 +1926,9 @@
       <c r="E14" t="str">
         <v/>
       </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
       <c r="G14" t="str">
         <v/>
       </c>
@@ -1919,6 +1958,9 @@
       <c r="E15" t="str">
         <v/>
       </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
       <c r="G15" t="str">
         <v/>
       </c>
@@ -1948,6 +1990,9 @@
       <c r="E16" t="str">
         <v/>
       </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
       <c r="G16" t="str">
         <v/>
       </c>
@@ -1977,6 +2022,9 @@
       <c r="E17" t="str">
         <v/>
       </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
       <c r="G17" t="str">
         <v/>
       </c>
@@ -2006,6 +2054,9 @@
       <c r="E18" t="str">
         <v/>
       </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
       <c r="G18" t="str">
         <v/>
       </c>
@@ -2035,6 +2086,9 @@
       <c r="E19" t="str">
         <v/>
       </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
       <c r="G19" t="str">
         <v/>
       </c>
@@ -2064,6 +2118,9 @@
       <c r="E20" t="str">
         <v/>
       </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
       <c r="G20" t="str">
         <v/>
       </c>
@@ -2093,6 +2150,9 @@
       <c r="E21" t="str">
         <v/>
       </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
       <c r="G21" t="str">
         <v/>
       </c>
@@ -2122,6 +2182,9 @@
       <c r="E22" t="str">
         <v/>
       </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
       <c r="G22" t="str">
         <v/>
       </c>
@@ -2151,6 +2214,9 @@
       <c r="E23" t="str">
         <v/>
       </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
       <c r="G23" t="str">
         <v/>
       </c>
@@ -2180,6 +2246,9 @@
       <c r="E24" t="str">
         <v/>
       </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
       <c r="G24" t="str">
         <v/>
       </c>
@@ -2209,6 +2278,9 @@
       <c r="E25" t="str">
         <v/>
       </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
       <c r="G25" t="str">
         <v/>
       </c>
@@ -2238,6 +2310,9 @@
       <c r="E26" t="str">
         <v/>
       </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
       <c r="G26" t="str">
         <v/>
       </c>
@@ -2267,6 +2342,9 @@
       <c r="E27" t="str">
         <v/>
       </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
       <c r="G27" t="str">
         <v/>
       </c>
@@ -2296,6 +2374,9 @@
       <c r="E28" t="str">
         <v/>
       </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
       <c r="G28" t="str">
         <v/>
       </c>
@@ -2325,6 +2406,9 @@
       <c r="E29" t="str">
         <v/>
       </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
       <c r="G29" t="str">
         <v/>
       </c>
@@ -2354,6 +2438,9 @@
       <c r="E30" t="str">
         <v/>
       </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
       <c r="G30" t="str">
         <v/>
       </c>
@@ -2383,6 +2470,9 @@
       <c r="E31" t="str">
         <v/>
       </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
       <c r="G31" t="str">
         <v/>
       </c>
@@ -2412,6 +2502,9 @@
       <c r="E32" t="str">
         <v/>
       </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
       <c r="G32" t="str">
         <v/>
       </c>
@@ -2441,6 +2534,9 @@
       <c r="E33" t="str">
         <v/>
       </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
       <c r="G33" t="str">
         <v/>
       </c>
@@ -2470,6 +2566,9 @@
       <c r="E34" t="str">
         <v/>
       </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
       <c r="G34" t="str">
         <v/>
       </c>
@@ -2499,6 +2598,9 @@
       <c r="E35" t="str">
         <v/>
       </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
       <c r="G35" t="str">
         <v/>
       </c>
@@ -2528,6 +2630,9 @@
       <c r="E36" t="str">
         <v/>
       </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
       <c r="G36" t="str">
         <v/>
       </c>
@@ -2557,6 +2662,9 @@
       <c r="E37" t="str">
         <v/>
       </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
       <c r="G37" t="str">
         <v/>
       </c>
@@ -2586,6 +2694,9 @@
       <c r="E38" t="str">
         <v/>
       </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
       <c r="G38" t="str">
         <v/>
       </c>
@@ -2615,6 +2726,9 @@
       <c r="E39" t="str">
         <v/>
       </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
       <c r="G39" t="str">
         <v/>
       </c>
@@ -2644,6 +2758,9 @@
       <c r="E40" t="str">
         <v/>
       </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
       <c r="G40" t="str">
         <v/>
       </c>
@@ -2673,6 +2790,9 @@
       <c r="E41" t="str">
         <v/>
       </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
       <c r="G41" t="str">
         <v/>
       </c>
@@ -2702,6 +2822,9 @@
       <c r="E42" t="str">
         <v/>
       </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
       <c r="G42" t="str">
         <v/>
       </c>
@@ -2731,6 +2854,9 @@
       <c r="E43" t="str">
         <v/>
       </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
       <c r="G43" t="str">
         <v/>
       </c>
@@ -2760,6 +2886,9 @@
       <c r="E44" t="str">
         <v/>
       </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
       <c r="G44" t="str">
         <v/>
       </c>
@@ -2789,6 +2918,9 @@
       <c r="E45" t="str">
         <v/>
       </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
       <c r="G45" t="str">
         <v/>
       </c>
@@ -2818,6 +2950,9 @@
       <c r="E46" t="str">
         <v/>
       </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
       <c r="G46" t="str">
         <v/>
       </c>
@@ -2847,6 +2982,9 @@
       <c r="E47" t="str">
         <v/>
       </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
       <c r="G47" t="str">
         <v/>
       </c>
@@ -2876,6 +3014,9 @@
       <c r="E48" t="str">
         <v/>
       </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
       <c r="G48" t="str">
         <v/>
       </c>
@@ -2905,6 +3046,9 @@
       <c r="E49" t="str">
         <v/>
       </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
       <c r="G49" t="str">
         <v/>
       </c>
@@ -2934,6 +3078,9 @@
       <c r="E50" t="str">
         <v/>
       </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
       <c r="G50" t="str">
         <v/>
       </c>
@@ -2963,6 +3110,9 @@
       <c r="E51" t="str">
         <v/>
       </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
       <c r="G51" t="str">
         <v/>
       </c>
@@ -2992,6 +3142,9 @@
       <c r="E52" t="str">
         <v/>
       </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
       <c r="G52" t="str">
         <v/>
       </c>
@@ -3021,6 +3174,9 @@
       <c r="E53" t="str">
         <v/>
       </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
       <c r="G53" t="str">
         <v/>
       </c>
@@ -3050,6 +3206,9 @@
       <c r="E54" t="str">
         <v/>
       </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
       <c r="G54" t="str">
         <v/>
       </c>
@@ -3079,6 +3238,9 @@
       <c r="E55" t="str">
         <v/>
       </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
       <c r="G55" t="str">
         <v/>
       </c>
@@ -3108,6 +3270,9 @@
       <c r="E56" t="str">
         <v/>
       </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
       <c r="G56" t="str">
         <v/>
       </c>
@@ -3137,6 +3302,9 @@
       <c r="E57" t="str">
         <v/>
       </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
       <c r="G57" t="str">
         <v/>
       </c>
@@ -3166,6 +3334,9 @@
       <c r="E58" t="str">
         <v/>
       </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
       <c r="G58" t="str">
         <v/>
       </c>
@@ -3195,6 +3366,9 @@
       <c r="E59" t="str">
         <v/>
       </c>
+      <c r="F59" t="str">
+        <v/>
+      </c>
       <c r="G59" t="str">
         <v/>
       </c>
@@ -3224,6 +3398,9 @@
       <c r="E60" t="str">
         <v/>
       </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
       <c r="G60" t="str">
         <v/>
       </c>
@@ -3253,6 +3430,9 @@
       <c r="E61" t="str">
         <v/>
       </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
       <c r="G61" t="str">
         <v/>
       </c>
@@ -3282,6 +3462,9 @@
       <c r="E62" t="str">
         <v/>
       </c>
+      <c r="F62" t="str">
+        <v/>
+      </c>
       <c r="G62" t="str">
         <v/>
       </c>
@@ -3311,6 +3494,9 @@
       <c r="E63" t="str">
         <v/>
       </c>
+      <c r="F63" t="str">
+        <v/>
+      </c>
       <c r="G63" t="str">
         <v/>
       </c>
@@ -3340,6 +3526,9 @@
       <c r="E64" t="str">
         <v/>
       </c>
+      <c r="F64" t="str">
+        <v/>
+      </c>
       <c r="G64" t="str">
         <v/>
       </c>
@@ -3369,6 +3558,9 @@
       <c r="E65" t="str">
         <v/>
       </c>
+      <c r="F65" t="str">
+        <v/>
+      </c>
       <c r="G65" t="str">
         <v/>
       </c>
@@ -3398,6 +3590,9 @@
       <c r="E66" t="str">
         <v/>
       </c>
+      <c r="F66" t="str">
+        <v/>
+      </c>
       <c r="G66" t="str">
         <v/>
       </c>
@@ -3427,6 +3622,9 @@
       <c r="E67" t="str">
         <v/>
       </c>
+      <c r="F67" t="str">
+        <v/>
+      </c>
       <c r="G67" t="str">
         <v/>
       </c>
@@ -3456,6 +3654,9 @@
       <c r="E68" t="str">
         <v/>
       </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
       <c r="G68" t="str">
         <v/>
       </c>
@@ -3485,6 +3686,9 @@
       <c r="E69" t="str">
         <v/>
       </c>
+      <c r="F69" t="str">
+        <v/>
+      </c>
       <c r="G69" t="str">
         <v/>
       </c>
@@ -3514,6 +3718,9 @@
       <c r="E70" t="str">
         <v/>
       </c>
+      <c r="F70" t="str">
+        <v/>
+      </c>
       <c r="G70" t="str">
         <v/>
       </c>
@@ -3543,6 +3750,9 @@
       <c r="E71" t="str">
         <v/>
       </c>
+      <c r="F71" t="str">
+        <v/>
+      </c>
       <c r="G71" t="str">
         <v/>
       </c>
@@ -3572,6 +3782,9 @@
       <c r="E72" t="str">
         <v/>
       </c>
+      <c r="F72" t="str">
+        <v/>
+      </c>
       <c r="G72" t="str">
         <v/>
       </c>
@@ -3601,6 +3814,9 @@
       <c r="E73" t="str">
         <v/>
       </c>
+      <c r="F73" t="str">
+        <v/>
+      </c>
       <c r="G73" t="str">
         <v/>
       </c>
@@ -3630,6 +3846,9 @@
       <c r="E74" t="str">
         <v/>
       </c>
+      <c r="F74" t="str">
+        <v/>
+      </c>
       <c r="G74" t="str">
         <v/>
       </c>
@@ -3659,6 +3878,9 @@
       <c r="E75" t="str">
         <v/>
       </c>
+      <c r="F75" t="str">
+        <v/>
+      </c>
       <c r="G75" t="str">
         <v/>
       </c>
@@ -3688,6 +3910,9 @@
       <c r="E76" t="str">
         <v/>
       </c>
+      <c r="F76" t="str">
+        <v/>
+      </c>
       <c r="G76" t="str">
         <v/>
       </c>
@@ -3717,6 +3942,9 @@
       <c r="E77" t="str">
         <v/>
       </c>
+      <c r="F77" t="str">
+        <v/>
+      </c>
       <c r="G77" t="str">
         <v/>
       </c>
@@ -3746,6 +3974,9 @@
       <c r="E78" t="str">
         <v/>
       </c>
+      <c r="F78" t="str">
+        <v/>
+      </c>
       <c r="G78" t="str">
         <v/>
       </c>
@@ -3775,6 +4006,9 @@
       <c r="E79" t="str">
         <v/>
       </c>
+      <c r="F79" t="str">
+        <v/>
+      </c>
       <c r="G79" t="str">
         <v/>
       </c>
@@ -3804,6 +4038,9 @@
       <c r="E80" t="str">
         <v/>
       </c>
+      <c r="F80" t="str">
+        <v/>
+      </c>
       <c r="G80" t="str">
         <v/>
       </c>
@@ -3833,6 +4070,9 @@
       <c r="E81" t="str">
         <v/>
       </c>
+      <c r="F81" t="str">
+        <v/>
+      </c>
       <c r="G81" t="str">
         <v/>
       </c>
@@ -3862,6 +4102,9 @@
       <c r="E82" t="str">
         <v/>
       </c>
+      <c r="F82" t="str">
+        <v/>
+      </c>
       <c r="G82" t="str">
         <v/>
       </c>
@@ -3891,6 +4134,9 @@
       <c r="E83" t="str">
         <v/>
       </c>
+      <c r="F83" t="str">
+        <v/>
+      </c>
       <c r="G83" t="str">
         <v/>
       </c>
@@ -3920,6 +4166,9 @@
       <c r="E84" t="str">
         <v/>
       </c>
+      <c r="F84" t="str">
+        <v/>
+      </c>
       <c r="G84" t="str">
         <v/>
       </c>
@@ -3949,6 +4198,9 @@
       <c r="E85" t="str">
         <v/>
       </c>
+      <c r="F85" t="str">
+        <v/>
+      </c>
       <c r="G85" t="str">
         <v/>
       </c>
@@ -3978,6 +4230,9 @@
       <c r="E86" t="str">
         <v/>
       </c>
+      <c r="F86" t="str">
+        <v/>
+      </c>
       <c r="G86" t="str">
         <v/>
       </c>
@@ -4007,6 +4262,9 @@
       <c r="E87" t="str">
         <v/>
       </c>
+      <c r="F87" t="str">
+        <v/>
+      </c>
       <c r="G87" t="str">
         <v/>
       </c>
@@ -4036,6 +4294,9 @@
       <c r="E88" t="str">
         <v/>
       </c>
+      <c r="F88" t="str">
+        <v/>
+      </c>
       <c r="G88" t="str">
         <v/>
       </c>
@@ -4065,6 +4326,9 @@
       <c r="E89" t="str">
         <v/>
       </c>
+      <c r="F89" t="str">
+        <v/>
+      </c>
       <c r="G89" t="str">
         <v/>
       </c>
@@ -4094,6 +4358,9 @@
       <c r="E90" t="str">
         <v/>
       </c>
+      <c r="F90" t="str">
+        <v/>
+      </c>
       <c r="G90" t="str">
         <v/>
       </c>
@@ -4123,6 +4390,9 @@
       <c r="E91" t="str">
         <v/>
       </c>
+      <c r="F91" t="str">
+        <v/>
+      </c>
       <c r="G91" t="str">
         <v/>
       </c>
@@ -4152,6 +4422,9 @@
       <c r="E92" t="str">
         <v/>
       </c>
+      <c r="F92" t="str">
+        <v/>
+      </c>
       <c r="G92" t="str">
         <v/>
       </c>
@@ -4181,6 +4454,9 @@
       <c r="E93" t="str">
         <v/>
       </c>
+      <c r="F93" t="str">
+        <v/>
+      </c>
       <c r="G93" t="str">
         <v/>
       </c>
@@ -4210,6 +4486,9 @@
       <c r="E94" t="str">
         <v/>
       </c>
+      <c r="F94" t="str">
+        <v/>
+      </c>
       <c r="G94" t="str">
         <v/>
       </c>
@@ -4239,6 +4518,9 @@
       <c r="E95" t="str">
         <v/>
       </c>
+      <c r="F95" t="str">
+        <v/>
+      </c>
       <c r="G95" t="str">
         <v/>
       </c>
@@ -4268,6 +4550,9 @@
       <c r="E96" t="str">
         <v/>
       </c>
+      <c r="F96" t="str">
+        <v/>
+      </c>
       <c r="G96" t="str">
         <v/>
       </c>
@@ -4297,6 +4582,9 @@
       <c r="E97" t="str">
         <v/>
       </c>
+      <c r="F97" t="str">
+        <v/>
+      </c>
       <c r="G97" t="str">
         <v/>
       </c>
@@ -4326,6 +4614,9 @@
       <c r="E98" t="str">
         <v/>
       </c>
+      <c r="F98" t="str">
+        <v/>
+      </c>
       <c r="G98" t="str">
         <v/>
       </c>
@@ -4355,6 +4646,9 @@
       <c r="E99" t="str">
         <v/>
       </c>
+      <c r="F99" t="str">
+        <v/>
+      </c>
       <c r="G99" t="str">
         <v/>
       </c>
@@ -4384,6 +4678,9 @@
       <c r="E100" t="str">
         <v/>
       </c>
+      <c r="F100" t="str">
+        <v/>
+      </c>
       <c r="G100" t="str">
         <v/>
       </c>
@@ -4413,6 +4710,9 @@
       <c r="E101" t="str">
         <v/>
       </c>
+      <c r="F101" t="str">
+        <v/>
+      </c>
       <c r="G101" t="str">
         <v/>
       </c>
@@ -4442,6 +4742,9 @@
       <c r="E102" t="str">
         <v/>
       </c>
+      <c r="F102" t="str">
+        <v/>
+      </c>
       <c r="G102" t="str">
         <v/>
       </c>
@@ -4471,6 +4774,9 @@
       <c r="E103" t="str">
         <v/>
       </c>
+      <c r="F103" t="str">
+        <v/>
+      </c>
       <c r="G103" t="str">
         <v/>
       </c>
@@ -4500,6 +4806,9 @@
       <c r="E104" t="str">
         <v/>
       </c>
+      <c r="F104" t="str">
+        <v/>
+      </c>
       <c r="G104" t="str">
         <v/>
       </c>
@@ -4529,6 +4838,9 @@
       <c r="E105" t="str">
         <v/>
       </c>
+      <c r="F105" t="str">
+        <v/>
+      </c>
       <c r="G105" t="str">
         <v/>
       </c>
@@ -4558,6 +4870,9 @@
       <c r="E106" t="str">
         <v/>
       </c>
+      <c r="F106" t="str">
+        <v/>
+      </c>
       <c r="G106" t="str">
         <v/>
       </c>
@@ -4587,6 +4902,9 @@
       <c r="E107" t="str">
         <v/>
       </c>
+      <c r="F107" t="str">
+        <v/>
+      </c>
       <c r="G107" t="str">
         <v/>
       </c>
@@ -4616,6 +4934,9 @@
       <c r="E108" t="str">
         <v/>
       </c>
+      <c r="F108" t="str">
+        <v/>
+      </c>
       <c r="G108" t="str">
         <v/>
       </c>
@@ -4645,6 +4966,9 @@
       <c r="E109" t="str">
         <v/>
       </c>
+      <c r="F109" t="str">
+        <v/>
+      </c>
       <c r="G109" t="str">
         <v/>
       </c>
@@ -4674,6 +4998,9 @@
       <c r="E110" t="str">
         <v/>
       </c>
+      <c r="F110" t="str">
+        <v/>
+      </c>
       <c r="G110" t="str">
         <v/>
       </c>
@@ -4703,6 +5030,9 @@
       <c r="E111" t="str">
         <v/>
       </c>
+      <c r="F111" t="str">
+        <v/>
+      </c>
       <c r="G111" t="str">
         <v/>
       </c>
@@ -4732,6 +5062,9 @@
       <c r="E112" t="str">
         <v/>
       </c>
+      <c r="F112" t="str">
+        <v/>
+      </c>
       <c r="G112" t="str">
         <v/>
       </c>
@@ -4761,6 +5094,9 @@
       <c r="E113" t="str">
         <v/>
       </c>
+      <c r="F113" t="str">
+        <v/>
+      </c>
       <c r="G113" t="str">
         <v/>
       </c>
@@ -4790,6 +5126,9 @@
       <c r="E114" t="str">
         <v/>
       </c>
+      <c r="F114" t="str">
+        <v/>
+      </c>
       <c r="G114" t="str">
         <v/>
       </c>
@@ -4819,6 +5158,9 @@
       <c r="E115" t="str">
         <v/>
       </c>
+      <c r="F115" t="str">
+        <v/>
+      </c>
       <c r="G115" t="str">
         <v/>
       </c>
@@ -4848,6 +5190,9 @@
       <c r="E116" t="str">
         <v/>
       </c>
+      <c r="F116" t="str">
+        <v/>
+      </c>
       <c r="G116" t="str">
         <v/>
       </c>
@@ -4877,6 +5222,9 @@
       <c r="E117" t="str">
         <v/>
       </c>
+      <c r="F117" t="str">
+        <v/>
+      </c>
       <c r="G117" t="str">
         <v/>
       </c>
@@ -4906,6 +5254,9 @@
       <c r="E118" t="str">
         <v/>
       </c>
+      <c r="F118" t="str">
+        <v/>
+      </c>
       <c r="G118" t="str">
         <v/>
       </c>
@@ -4935,6 +5286,9 @@
       <c r="E119" t="str">
         <v/>
       </c>
+      <c r="F119" t="str">
+        <v/>
+      </c>
       <c r="G119" t="str">
         <v/>
       </c>
@@ -4964,6 +5318,9 @@
       <c r="E120" t="str">
         <v/>
       </c>
+      <c r="F120" t="str">
+        <v/>
+      </c>
       <c r="G120" t="str">
         <v/>
       </c>
@@ -4993,6 +5350,9 @@
       <c r="E121" t="str">
         <v/>
       </c>
+      <c r="F121" t="str">
+        <v/>
+      </c>
       <c r="G121" t="str">
         <v/>
       </c>
@@ -5022,6 +5382,9 @@
       <c r="E122" t="str">
         <v/>
       </c>
+      <c r="F122" t="str">
+        <v/>
+      </c>
       <c r="G122" t="str">
         <v/>
       </c>
@@ -5051,6 +5414,9 @@
       <c r="E123" t="str">
         <v/>
       </c>
+      <c r="F123" t="str">
+        <v/>
+      </c>
       <c r="G123" t="str">
         <v/>
       </c>
@@ -5080,6 +5446,9 @@
       <c r="E124" t="str">
         <v/>
       </c>
+      <c r="F124" t="str">
+        <v/>
+      </c>
       <c r="G124" t="str">
         <v/>
       </c>
@@ -5109,6 +5478,9 @@
       <c r="E125" t="str">
         <v/>
       </c>
+      <c r="F125" t="str">
+        <v/>
+      </c>
       <c r="G125" t="str">
         <v/>
       </c>
@@ -5138,6 +5510,9 @@
       <c r="E126" t="str">
         <v/>
       </c>
+      <c r="F126" t="str">
+        <v/>
+      </c>
       <c r="G126" t="str">
         <v/>
       </c>
@@ -5167,6 +5542,9 @@
       <c r="E127" t="str">
         <v/>
       </c>
+      <c r="F127" t="str">
+        <v/>
+      </c>
       <c r="G127" t="str">
         <v/>
       </c>
@@ -5196,6 +5574,9 @@
       <c r="E128" t="str">
         <v/>
       </c>
+      <c r="F128" t="str">
+        <v/>
+      </c>
       <c r="G128" t="str">
         <v/>
       </c>
@@ -5225,6 +5606,9 @@
       <c r="E129" t="str">
         <v/>
       </c>
+      <c r="F129" t="str">
+        <v/>
+      </c>
       <c r="G129" t="str">
         <v/>
       </c>
@@ -5254,6 +5638,9 @@
       <c r="E130" t="str">
         <v/>
       </c>
+      <c r="F130" t="str">
+        <v/>
+      </c>
       <c r="G130" t="str">
         <v/>
       </c>
@@ -5283,6 +5670,9 @@
       <c r="E131" t="str">
         <v/>
       </c>
+      <c r="F131" t="str">
+        <v/>
+      </c>
       <c r="G131" t="str">
         <v/>
       </c>
@@ -5312,6 +5702,9 @@
       <c r="E132" t="str">
         <v/>
       </c>
+      <c r="F132" t="str">
+        <v/>
+      </c>
       <c r="G132" t="str">
         <v/>
       </c>
@@ -5341,6 +5734,9 @@
       <c r="E133" t="str">
         <v/>
       </c>
+      <c r="F133" t="str">
+        <v/>
+      </c>
       <c r="G133" t="str">
         <v/>
       </c>
@@ -5370,6 +5766,9 @@
       <c r="E134" t="str">
         <v/>
       </c>
+      <c r="F134" t="str">
+        <v/>
+      </c>
       <c r="G134" t="str">
         <v/>
       </c>
@@ -5399,6 +5798,9 @@
       <c r="E135" t="str">
         <v/>
       </c>
+      <c r="F135" t="str">
+        <v/>
+      </c>
       <c r="G135" t="str">
         <v/>
       </c>
@@ -5428,6 +5830,9 @@
       <c r="E136" t="str">
         <v/>
       </c>
+      <c r="F136" t="str">
+        <v/>
+      </c>
       <c r="G136" t="str">
         <v/>
       </c>
@@ -5457,6 +5862,9 @@
       <c r="E137" t="str">
         <v/>
       </c>
+      <c r="F137" t="str">
+        <v/>
+      </c>
       <c r="G137" t="str">
         <v/>
       </c>
@@ -5486,6 +5894,9 @@
       <c r="E138" t="str">
         <v/>
       </c>
+      <c r="F138" t="str">
+        <v/>
+      </c>
       <c r="G138" t="str">
         <v/>
       </c>
@@ -5515,6 +5926,9 @@
       <c r="E139" t="str">
         <v/>
       </c>
+      <c r="F139" t="str">
+        <v/>
+      </c>
       <c r="G139" t="str">
         <v/>
       </c>
@@ -5544,6 +5958,9 @@
       <c r="E140" t="str">
         <v/>
       </c>
+      <c r="F140" t="str">
+        <v/>
+      </c>
       <c r="G140" t="str">
         <v/>
       </c>
@@ -5573,6 +5990,9 @@
       <c r="E141" t="str">
         <v/>
       </c>
+      <c r="F141" t="str">
+        <v/>
+      </c>
       <c r="G141" t="str">
         <v/>
       </c>
@@ -5602,6 +6022,9 @@
       <c r="E142" t="str">
         <v/>
       </c>
+      <c r="F142" t="str">
+        <v/>
+      </c>
       <c r="G142" t="str">
         <v/>
       </c>
@@ -5631,6 +6054,9 @@
       <c r="E143" t="str">
         <v/>
       </c>
+      <c r="F143" t="str">
+        <v/>
+      </c>
       <c r="G143" t="str">
         <v/>
       </c>
@@ -5660,6 +6086,9 @@
       <c r="E144" t="str">
         <v/>
       </c>
+      <c r="F144" t="str">
+        <v/>
+      </c>
       <c r="G144" t="str">
         <v/>
       </c>
@@ -5689,6 +6118,9 @@
       <c r="E145" t="str">
         <v/>
       </c>
+      <c r="F145" t="str">
+        <v/>
+      </c>
       <c r="G145" t="str">
         <v/>
       </c>
@@ -5718,6 +6150,9 @@
       <c r="E146" t="str">
         <v/>
       </c>
+      <c r="F146" t="str">
+        <v/>
+      </c>
       <c r="G146" t="str">
         <v/>
       </c>
@@ -5747,6 +6182,9 @@
       <c r="E147" t="str">
         <v/>
       </c>
+      <c r="F147" t="str">
+        <v/>
+      </c>
       <c r="G147" t="str">
         <v/>
       </c>
@@ -5776,6 +6214,9 @@
       <c r="E148" t="str">
         <v/>
       </c>
+      <c r="F148" t="str">
+        <v/>
+      </c>
       <c r="G148" t="str">
         <v/>
       </c>
@@ -5805,6 +6246,9 @@
       <c r="E149" t="str">
         <v/>
       </c>
+      <c r="F149" t="str">
+        <v/>
+      </c>
       <c r="G149" t="str">
         <v/>
       </c>
@@ -5834,6 +6278,9 @@
       <c r="E150" t="str">
         <v/>
       </c>
+      <c r="F150" t="str">
+        <v/>
+      </c>
       <c r="G150" t="str">
         <v/>
       </c>
@@ -5863,6 +6310,9 @@
       <c r="E151" t="str">
         <v/>
       </c>
+      <c r="F151" t="str">
+        <v/>
+      </c>
       <c r="G151" t="str">
         <v/>
       </c>
@@ -5892,6 +6342,9 @@
       <c r="E152" t="str">
         <v/>
       </c>
+      <c r="F152" t="str">
+        <v/>
+      </c>
       <c r="G152" t="str">
         <v/>
       </c>
@@ -5921,6 +6374,9 @@
       <c r="E153" t="str">
         <v/>
       </c>
+      <c r="F153" t="str">
+        <v/>
+      </c>
       <c r="G153" t="str">
         <v/>
       </c>
@@ -5950,6 +6406,9 @@
       <c r="E154" t="str">
         <v/>
       </c>
+      <c r="F154" t="str">
+        <v/>
+      </c>
       <c r="G154" t="str">
         <v/>
       </c>
@@ -5979,6 +6438,9 @@
       <c r="E155" t="str">
         <v/>
       </c>
+      <c r="F155" t="str">
+        <v/>
+      </c>
       <c r="G155" t="str">
         <v/>
       </c>
@@ -6008,6 +6470,9 @@
       <c r="E156" t="str">
         <v/>
       </c>
+      <c r="F156" t="str">
+        <v/>
+      </c>
       <c r="G156" t="str">
         <v/>
       </c>
@@ -6037,6 +6502,9 @@
       <c r="E157" t="str">
         <v/>
       </c>
+      <c r="F157" t="str">
+        <v/>
+      </c>
       <c r="G157" t="str">
         <v/>
       </c>
@@ -6066,6 +6534,9 @@
       <c r="E158" t="str">
         <v/>
       </c>
+      <c r="F158" t="str">
+        <v/>
+      </c>
       <c r="G158" t="str">
         <v/>
       </c>
@@ -6095,6 +6566,9 @@
       <c r="E159" t="str">
         <v/>
       </c>
+      <c r="F159" t="str">
+        <v/>
+      </c>
       <c r="G159" t="str">
         <v/>
       </c>
@@ -6124,6 +6598,9 @@
       <c r="E160" t="str">
         <v/>
       </c>
+      <c r="F160" t="str">
+        <v/>
+      </c>
       <c r="G160" t="str">
         <v/>
       </c>
@@ -6153,6 +6630,9 @@
       <c r="E161" t="str">
         <v/>
       </c>
+      <c r="F161" t="str">
+        <v/>
+      </c>
       <c r="G161" t="str">
         <v/>
       </c>
@@ -6182,6 +6662,9 @@
       <c r="E162" t="str">
         <v/>
       </c>
+      <c r="F162" t="str">
+        <v/>
+      </c>
       <c r="G162" t="str">
         <v/>
       </c>
@@ -6211,6 +6694,9 @@
       <c r="E163" t="str">
         <v/>
       </c>
+      <c r="F163" t="str">
+        <v/>
+      </c>
       <c r="G163" t="str">
         <v/>
       </c>
@@ -6240,6 +6726,9 @@
       <c r="E164" t="str">
         <v/>
       </c>
+      <c r="F164" t="str">
+        <v/>
+      </c>
       <c r="G164" t="str">
         <v/>
       </c>
@@ -6269,6 +6758,9 @@
       <c r="E165" t="str">
         <v/>
       </c>
+      <c r="F165" t="str">
+        <v/>
+      </c>
       <c r="G165" t="str">
         <v/>
       </c>
@@ -6298,6 +6790,9 @@
       <c r="E166" t="str">
         <v/>
       </c>
+      <c r="F166" t="str">
+        <v/>
+      </c>
       <c r="G166" t="str">
         <v/>
       </c>
@@ -6327,6 +6822,9 @@
       <c r="E167" t="str">
         <v/>
       </c>
+      <c r="F167" t="str">
+        <v/>
+      </c>
       <c r="G167" t="str">
         <v/>
       </c>
@@ -6356,6 +6854,9 @@
       <c r="E168" t="str">
         <v/>
       </c>
+      <c r="F168" t="str">
+        <v/>
+      </c>
       <c r="G168" t="str">
         <v/>
       </c>
@@ -6385,6 +6886,9 @@
       <c r="E169" t="str">
         <v/>
       </c>
+      <c r="F169" t="str">
+        <v/>
+      </c>
       <c r="G169" t="str">
         <v/>
       </c>
@@ -6414,6 +6918,9 @@
       <c r="E170" t="str">
         <v/>
       </c>
+      <c r="F170" t="str">
+        <v/>
+      </c>
       <c r="G170" t="str">
         <v/>
       </c>
@@ -6443,6 +6950,9 @@
       <c r="E171" t="str">
         <v/>
       </c>
+      <c r="F171" t="str">
+        <v/>
+      </c>
       <c r="G171" t="str">
         <v/>
       </c>
@@ -6472,6 +6982,9 @@
       <c r="E172" t="str">
         <v/>
       </c>
+      <c r="F172" t="str">
+        <v/>
+      </c>
       <c r="G172" t="str">
         <v/>
       </c>
@@ -6501,6 +7014,9 @@
       <c r="E173" t="str">
         <v/>
       </c>
+      <c r="F173" t="str">
+        <v/>
+      </c>
       <c r="G173" t="str">
         <v/>
       </c>
@@ -6530,6 +7046,9 @@
       <c r="E174" t="str">
         <v/>
       </c>
+      <c r="F174" t="str">
+        <v/>
+      </c>
       <c r="G174" t="str">
         <v/>
       </c>
@@ -6559,6 +7078,9 @@
       <c r="E175" t="str">
         <v/>
       </c>
+      <c r="F175" t="str">
+        <v/>
+      </c>
       <c r="G175" t="str">
         <v/>
       </c>
@@ -6588,6 +7110,9 @@
       <c r="E176" t="str">
         <v/>
       </c>
+      <c r="F176" t="str">
+        <v/>
+      </c>
       <c r="G176" t="str">
         <v/>
       </c>
@@ -6617,6 +7142,9 @@
       <c r="E177" t="str">
         <v/>
       </c>
+      <c r="F177" t="str">
+        <v/>
+      </c>
       <c r="G177" t="str">
         <v/>
       </c>
@@ -6646,6 +7174,9 @@
       <c r="E178" t="str">
         <v/>
       </c>
+      <c r="F178" t="str">
+        <v/>
+      </c>
       <c r="G178" t="str">
         <v/>
       </c>
@@ -6675,6 +7206,9 @@
       <c r="E179" t="str">
         <v/>
       </c>
+      <c r="F179" t="str">
+        <v/>
+      </c>
       <c r="G179" t="str">
         <v/>
       </c>
@@ -6704,6 +7238,9 @@
       <c r="E180" t="str">
         <v/>
       </c>
+      <c r="F180" t="str">
+        <v/>
+      </c>
       <c r="G180" t="str">
         <v/>
       </c>
@@ -6733,6 +7270,9 @@
       <c r="E181" t="str">
         <v/>
       </c>
+      <c r="F181" t="str">
+        <v/>
+      </c>
       <c r="G181" t="str">
         <v/>
       </c>
@@ -6762,6 +7302,9 @@
       <c r="E182" t="str">
         <v/>
       </c>
+      <c r="F182" t="str">
+        <v/>
+      </c>
       <c r="G182" t="str">
         <v/>
       </c>
@@ -6791,6 +7334,9 @@
       <c r="E183" t="str">
         <v/>
       </c>
+      <c r="F183" t="str">
+        <v/>
+      </c>
       <c r="G183" t="str">
         <v/>
       </c>
@@ -6820,6 +7366,9 @@
       <c r="E184" t="str">
         <v/>
       </c>
+      <c r="F184" t="str">
+        <v/>
+      </c>
       <c r="G184" t="str">
         <v/>
       </c>
@@ -6849,6 +7398,9 @@
       <c r="E185" t="str">
         <v/>
       </c>
+      <c r="F185" t="str">
+        <v/>
+      </c>
       <c r="G185" t="str">
         <v/>
       </c>
@@ -6878,6 +7430,9 @@
       <c r="E186" t="str">
         <v/>
       </c>
+      <c r="F186" t="str">
+        <v/>
+      </c>
       <c r="G186" t="str">
         <v/>
       </c>
@@ -6907,6 +7462,9 @@
       <c r="E187" t="str">
         <v/>
       </c>
+      <c r="F187" t="str">
+        <v/>
+      </c>
       <c r="G187" t="str">
         <v/>
       </c>
@@ -6936,6 +7494,9 @@
       <c r="E188" t="str">
         <v/>
       </c>
+      <c r="F188" t="str">
+        <v/>
+      </c>
       <c r="G188" t="str">
         <v/>
       </c>
@@ -6965,6 +7526,9 @@
       <c r="E189" t="str">
         <v/>
       </c>
+      <c r="F189" t="str">
+        <v/>
+      </c>
       <c r="G189" t="str">
         <v/>
       </c>
@@ -6994,6 +7558,9 @@
       <c r="E190" t="str">
         <v/>
       </c>
+      <c r="F190" t="str">
+        <v/>
+      </c>
       <c r="G190" t="str">
         <v/>
       </c>
@@ -7023,6 +7590,9 @@
       <c r="E191" t="str">
         <v/>
       </c>
+      <c r="F191" t="str">
+        <v/>
+      </c>
       <c r="G191" t="str">
         <v/>
       </c>
@@ -7052,6 +7622,9 @@
       <c r="E192" t="str">
         <v/>
       </c>
+      <c r="F192" t="str">
+        <v/>
+      </c>
       <c r="G192" t="str">
         <v/>
       </c>
@@ -7081,6 +7654,9 @@
       <c r="E193" t="str">
         <v/>
       </c>
+      <c r="F193" t="str">
+        <v/>
+      </c>
       <c r="G193" t="str">
         <v/>
       </c>
@@ -7110,6 +7686,9 @@
       <c r="E194" t="str">
         <v/>
       </c>
+      <c r="F194" t="str">
+        <v/>
+      </c>
       <c r="G194" t="str">
         <v/>
       </c>
@@ -7139,6 +7718,9 @@
       <c r="E195" t="str">
         <v/>
       </c>
+      <c r="F195" t="str">
+        <v/>
+      </c>
       <c r="G195" t="str">
         <v/>
       </c>
@@ -7168,6 +7750,9 @@
       <c r="E196" t="str">
         <v/>
       </c>
+      <c r="F196" t="str">
+        <v/>
+      </c>
       <c r="G196" t="str">
         <v/>
       </c>
@@ -7197,6 +7782,9 @@
       <c r="E197" t="str">
         <v/>
       </c>
+      <c r="F197" t="str">
+        <v/>
+      </c>
       <c r="G197" t="str">
         <v/>
       </c>
@@ -7226,6 +7814,9 @@
       <c r="E198" t="str">
         <v/>
       </c>
+      <c r="F198" t="str">
+        <v/>
+      </c>
       <c r="G198" t="str">
         <v/>
       </c>
@@ -7255,6 +7846,9 @@
       <c r="E199" t="str">
         <v/>
       </c>
+      <c r="F199" t="str">
+        <v/>
+      </c>
       <c r="G199" t="str">
         <v/>
       </c>
@@ -7284,6 +7878,9 @@
       <c r="E200" t="str">
         <v/>
       </c>
+      <c r="F200" t="str">
+        <v/>
+      </c>
       <c r="G200" t="str">
         <v/>
       </c>
@@ -7313,6 +7910,9 @@
       <c r="E201" t="str">
         <v/>
       </c>
+      <c r="F201" t="str">
+        <v/>
+      </c>
       <c r="G201" t="str">
         <v/>
       </c>
@@ -7342,6 +7942,9 @@
       <c r="E202" t="str">
         <v/>
       </c>
+      <c r="F202" t="str">
+        <v/>
+      </c>
       <c r="G202" t="str">
         <v/>
       </c>
@@ -7371,6 +7974,9 @@
       <c r="E203" t="str">
         <v/>
       </c>
+      <c r="F203" t="str">
+        <v/>
+      </c>
       <c r="G203" t="str">
         <v/>
       </c>
@@ -7400,6 +8006,9 @@
       <c r="E204" t="str">
         <v/>
       </c>
+      <c r="F204" t="str">
+        <v/>
+      </c>
       <c r="G204" t="str">
         <v/>
       </c>
@@ -7429,6 +8038,9 @@
       <c r="E205" t="str">
         <v/>
       </c>
+      <c r="F205" t="str">
+        <v/>
+      </c>
       <c r="G205" t="str">
         <v/>
       </c>
@@ -7458,6 +8070,9 @@
       <c r="E206" t="str">
         <v/>
       </c>
+      <c r="F206" t="str">
+        <v/>
+      </c>
       <c r="G206" t="str">
         <v/>
       </c>
@@ -7487,6 +8102,9 @@
       <c r="E207" t="str">
         <v/>
       </c>
+      <c r="F207" t="str">
+        <v/>
+      </c>
       <c r="G207" t="str">
         <v/>
       </c>
@@ -7516,6 +8134,9 @@
       <c r="E208" t="str">
         <v/>
       </c>
+      <c r="F208" t="str">
+        <v/>
+      </c>
       <c r="G208" t="str">
         <v/>
       </c>
@@ -7545,6 +8166,9 @@
       <c r="E209" t="str">
         <v/>
       </c>
+      <c r="F209" t="str">
+        <v/>
+      </c>
       <c r="G209" t="str">
         <v/>
       </c>
@@ -7574,6 +8198,9 @@
       <c r="E210" t="str">
         <v/>
       </c>
+      <c r="F210" t="str">
+        <v/>
+      </c>
       <c r="G210" t="str">
         <v/>
       </c>
@@ -7603,6 +8230,9 @@
       <c r="E211" t="str">
         <v/>
       </c>
+      <c r="F211" t="str">
+        <v/>
+      </c>
       <c r="G211" t="str">
         <v/>
       </c>
@@ -7632,6 +8262,9 @@
       <c r="E212" t="str">
         <v/>
       </c>
+      <c r="F212" t="str">
+        <v/>
+      </c>
       <c r="G212" t="str">
         <v/>
       </c>
@@ -7661,6 +8294,9 @@
       <c r="E213" t="str">
         <v/>
       </c>
+      <c r="F213" t="str">
+        <v/>
+      </c>
       <c r="G213" t="str">
         <v/>
       </c>
@@ -7690,6 +8326,9 @@
       <c r="E214" t="str">
         <v/>
       </c>
+      <c r="F214" t="str">
+        <v/>
+      </c>
       <c r="G214" t="str">
         <v/>
       </c>
@@ -7719,6 +8358,9 @@
       <c r="E215" t="str">
         <v/>
       </c>
+      <c r="F215" t="str">
+        <v/>
+      </c>
       <c r="G215" t="str">
         <v/>
       </c>
@@ -7748,6 +8390,9 @@
       <c r="E216" t="str">
         <v/>
       </c>
+      <c r="F216" t="str">
+        <v/>
+      </c>
       <c r="G216" t="str">
         <v/>
       </c>
@@ -7777,6 +8422,9 @@
       <c r="E217" t="str">
         <v/>
       </c>
+      <c r="F217" t="str">
+        <v/>
+      </c>
       <c r="G217" t="str">
         <v/>
       </c>
@@ -7806,6 +8454,9 @@
       <c r="E218" t="str">
         <v/>
       </c>
+      <c r="F218" t="str">
+        <v/>
+      </c>
       <c r="G218" t="str">
         <v/>
       </c>
@@ -7835,6 +8486,9 @@
       <c r="E219" t="str">
         <v/>
       </c>
+      <c r="F219" t="str">
+        <v/>
+      </c>
       <c r="G219" t="str">
         <v/>
       </c>
@@ -7864,6 +8518,9 @@
       <c r="E220" t="str">
         <v/>
       </c>
+      <c r="F220" t="str">
+        <v/>
+      </c>
       <c r="G220" t="str">
         <v/>
       </c>
@@ -7893,6 +8550,9 @@
       <c r="E221" t="str">
         <v/>
       </c>
+      <c r="F221" t="str">
+        <v/>
+      </c>
       <c r="G221" t="str">
         <v/>
       </c>
@@ -7922,6 +8582,9 @@
       <c r="E222" t="str">
         <v/>
       </c>
+      <c r="F222" t="str">
+        <v/>
+      </c>
       <c r="G222" t="str">
         <v/>
       </c>
@@ -7951,6 +8614,9 @@
       <c r="E223" t="str">
         <v/>
       </c>
+      <c r="F223" t="str">
+        <v/>
+      </c>
       <c r="G223" t="str">
         <v/>
       </c>
@@ -7980,6 +8646,9 @@
       <c r="E224" t="str">
         <v/>
       </c>
+      <c r="F224" t="str">
+        <v/>
+      </c>
       <c r="G224" t="str">
         <v/>
       </c>
@@ -8009,6 +8678,9 @@
       <c r="E225" t="str">
         <v/>
       </c>
+      <c r="F225" t="str">
+        <v/>
+      </c>
       <c r="G225" t="str">
         <v/>
       </c>
@@ -8038,6 +8710,9 @@
       <c r="E226" t="str">
         <v/>
       </c>
+      <c r="F226" t="str">
+        <v/>
+      </c>
       <c r="G226" t="str">
         <v/>
       </c>
@@ -8067,6 +8742,9 @@
       <c r="E227" t="str">
         <v/>
       </c>
+      <c r="F227" t="str">
+        <v/>
+      </c>
       <c r="G227" t="str">
         <v/>
       </c>
@@ -8096,6 +8774,9 @@
       <c r="E228" t="str">
         <v/>
       </c>
+      <c r="F228" t="str">
+        <v/>
+      </c>
       <c r="G228" t="str">
         <v/>
       </c>
@@ -8125,6 +8806,9 @@
       <c r="E229" t="str">
         <v/>
       </c>
+      <c r="F229" t="str">
+        <v/>
+      </c>
       <c r="G229" t="str">
         <v/>
       </c>
@@ -8154,6 +8838,9 @@
       <c r="E230" t="str">
         <v/>
       </c>
+      <c r="F230" t="str">
+        <v/>
+      </c>
       <c r="G230" t="str">
         <v/>
       </c>
@@ -8183,6 +8870,9 @@
       <c r="E231" t="str">
         <v/>
       </c>
+      <c r="F231" t="str">
+        <v/>
+      </c>
       <c r="G231" t="str">
         <v/>
       </c>
@@ -8212,6 +8902,9 @@
       <c r="E232" t="str">
         <v/>
       </c>
+      <c r="F232" t="str">
+        <v/>
+      </c>
       <c r="G232" t="str">
         <v/>
       </c>
@@ -8241,6 +8934,9 @@
       <c r="E233" t="str">
         <v/>
       </c>
+      <c r="F233" t="str">
+        <v/>
+      </c>
       <c r="G233" t="str">
         <v/>
       </c>
@@ -8270,6 +8966,9 @@
       <c r="E234" t="str">
         <v/>
       </c>
+      <c r="F234" t="str">
+        <v/>
+      </c>
       <c r="G234" t="str">
         <v/>
       </c>
@@ -8299,6 +8998,9 @@
       <c r="E235" t="str">
         <v/>
       </c>
+      <c r="F235" t="str">
+        <v/>
+      </c>
       <c r="G235" t="str">
         <v/>
       </c>
@@ -8328,6 +9030,9 @@
       <c r="E236" t="str">
         <v/>
       </c>
+      <c r="F236" t="str">
+        <v/>
+      </c>
       <c r="G236" t="str">
         <v/>
       </c>
@@ -8357,6 +9062,9 @@
       <c r="E237" t="str">
         <v/>
       </c>
+      <c r="F237" t="str">
+        <v/>
+      </c>
       <c r="G237" t="str">
         <v/>
       </c>
@@ -8386,6 +9094,9 @@
       <c r="E238" t="str">
         <v/>
       </c>
+      <c r="F238" t="str">
+        <v/>
+      </c>
       <c r="G238" t="str">
         <v/>
       </c>
@@ -8415,6 +9126,9 @@
       <c r="E239" t="str">
         <v/>
       </c>
+      <c r="F239" t="str">
+        <v/>
+      </c>
       <c r="G239" t="str">
         <v/>
       </c>
@@ -8444,6 +9158,9 @@
       <c r="E240" t="str">
         <v/>
       </c>
+      <c r="F240" t="str">
+        <v/>
+      </c>
       <c r="G240" t="str">
         <v/>
       </c>
@@ -8473,6 +9190,9 @@
       <c r="E241" t="str">
         <v/>
       </c>
+      <c r="F241" t="str">
+        <v/>
+      </c>
       <c r="G241" t="str">
         <v/>
       </c>
@@ -8502,6 +9222,9 @@
       <c r="E242" t="str">
         <v/>
       </c>
+      <c r="F242" t="str">
+        <v/>
+      </c>
       <c r="G242" t="str">
         <v/>
       </c>
@@ -8531,6 +9254,9 @@
       <c r="E243" t="str">
         <v/>
       </c>
+      <c r="F243" t="str">
+        <v/>
+      </c>
       <c r="G243" t="str">
         <v/>
       </c>
@@ -8560,6 +9286,9 @@
       <c r="E244" t="str">
         <v/>
       </c>
+      <c r="F244" t="str">
+        <v/>
+      </c>
       <c r="G244" t="str">
         <v/>
       </c>
@@ -8589,6 +9318,9 @@
       <c r="E245" t="str">
         <v/>
       </c>
+      <c r="F245" t="str">
+        <v/>
+      </c>
       <c r="G245" t="str">
         <v/>
       </c>
@@ -8618,6 +9350,9 @@
       <c r="E246" t="str">
         <v/>
       </c>
+      <c r="F246" t="str">
+        <v/>
+      </c>
       <c r="G246" t="str">
         <v/>
       </c>
@@ -8647,6 +9382,9 @@
       <c r="E247" t="str">
         <v/>
       </c>
+      <c r="F247" t="str">
+        <v/>
+      </c>
       <c r="G247" t="str">
         <v/>
       </c>
@@ -8676,6 +9414,9 @@
       <c r="E248" t="str">
         <v/>
       </c>
+      <c r="F248" t="str">
+        <v/>
+      </c>
       <c r="G248" t="str">
         <v/>
       </c>
@@ -8705,6 +9446,9 @@
       <c r="E249" t="str">
         <v/>
       </c>
+      <c r="F249" t="str">
+        <v/>
+      </c>
       <c r="G249" t="str">
         <v/>
       </c>
@@ -8734,6 +9478,9 @@
       <c r="E250" t="str">
         <v/>
       </c>
+      <c r="F250" t="str">
+        <v/>
+      </c>
       <c r="G250" t="str">
         <v/>
       </c>
@@ -8763,6 +9510,9 @@
       <c r="E251" t="str">
         <v/>
       </c>
+      <c r="F251" t="str">
+        <v/>
+      </c>
       <c r="G251" t="str">
         <v/>
       </c>
@@ -8792,6 +9542,9 @@
       <c r="E252" t="str">
         <v/>
       </c>
+      <c r="F252" t="str">
+        <v/>
+      </c>
       <c r="G252" t="str">
         <v/>
       </c>
@@ -8821,6 +9574,9 @@
       <c r="E253" t="str">
         <v/>
       </c>
+      <c r="F253" t="str">
+        <v/>
+      </c>
       <c r="G253" t="str">
         <v/>
       </c>
@@ -8850,6 +9606,9 @@
       <c r="E254" t="str">
         <v/>
       </c>
+      <c r="F254" t="str">
+        <v/>
+      </c>
       <c r="G254" t="str">
         <v/>
       </c>
@@ -8879,6 +9638,9 @@
       <c r="E255" t="str">
         <v/>
       </c>
+      <c r="F255" t="str">
+        <v/>
+      </c>
       <c r="G255" t="str">
         <v/>
       </c>
@@ -8908,6 +9670,9 @@
       <c r="E256" t="str">
         <v/>
       </c>
+      <c r="F256" t="str">
+        <v/>
+      </c>
       <c r="G256" t="str">
         <v/>
       </c>
@@ -8936,6 +9701,9 @@
       </c>
       <c r="E257" t="str">
         <v>Hand Cash</v>
+      </c>
+      <c r="F257" t="str">
+        <v/>
       </c>
       <c r="G257" t="str">
         <v/>

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -464,6 +464,9 @@
       <c r="E2" t="str">
         <v>Hand Cash</v>
       </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
       <c r="G2" t="str">
         <v/>
       </c>
@@ -474,6 +477,9 @@
         <v/>
       </c>
       <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
         <v/>
       </c>
     </row>
@@ -493,6 +499,9 @@
       <c r="E3" t="str">
         <v>Dutch Bangla Bank</v>
       </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
       <c r="G3" t="str">
         <v/>
       </c>
@@ -525,6 +534,9 @@
       <c r="E4" t="str">
         <v/>
       </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
       <c r="G4" t="str">
         <v/>
       </c>
@@ -557,6 +569,9 @@
       <c r="E5" t="str">
         <v/>
       </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
       <c r="G5" t="str">
         <v/>
       </c>
@@ -589,6 +604,9 @@
       <c r="E6" t="str">
         <v/>
       </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
       <c r="G6" t="str">
         <v/>
       </c>
@@ -621,6 +639,9 @@
       <c r="E7" t="str">
         <v/>
       </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
       <c r="G7" t="str">
         <v/>
       </c>
@@ -653,6 +674,9 @@
       <c r="E8" t="str">
         <v/>
       </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
       <c r="G8" t="str">
         <v/>
       </c>
@@ -685,6 +709,9 @@
       <c r="E9" t="str">
         <v/>
       </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
       <c r="G9" t="str">
         <v/>
       </c>
@@ -717,6 +744,9 @@
       <c r="E10" t="str">
         <v/>
       </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
       <c r="G10" t="str">
         <v/>
       </c>
@@ -749,6 +779,9 @@
       <c r="E11" t="str">
         <v/>
       </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
       <c r="G11" t="str">
         <v/>
       </c>
@@ -781,6 +814,9 @@
       <c r="E12" t="str">
         <v/>
       </c>
+      <c r="F12" t="str">
+        <v/>
+      </c>
       <c r="G12" t="str">
         <v/>
       </c>
@@ -813,6 +849,9 @@
       <c r="E13" t="str">
         <v/>
       </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
       <c r="G13" t="str">
         <v/>
       </c>
@@ -845,6 +884,9 @@
       <c r="E14" t="str">
         <v/>
       </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
       <c r="G14" t="str">
         <v/>
       </c>
@@ -877,6 +919,9 @@
       <c r="E15" t="str">
         <v/>
       </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
       <c r="G15" t="str">
         <v/>
       </c>
@@ -909,6 +954,9 @@
       <c r="E16" t="str">
         <v/>
       </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
       <c r="G16" t="str">
         <v/>
       </c>
@@ -941,6 +989,9 @@
       <c r="E17" t="str">
         <v/>
       </c>
+      <c r="F17" t="str">
+        <v/>
+      </c>
       <c r="G17" t="str">
         <v/>
       </c>
@@ -973,6 +1024,9 @@
       <c r="E18" t="str">
         <v/>
       </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
       <c r="G18" t="str">
         <v/>
       </c>
@@ -1005,6 +1059,9 @@
       <c r="E19" t="str">
         <v/>
       </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
       <c r="G19" t="str">
         <v/>
       </c>
@@ -1037,6 +1094,9 @@
       <c r="E20" t="str">
         <v/>
       </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
       <c r="G20" t="str">
         <v/>
       </c>
@@ -1069,6 +1129,9 @@
       <c r="E21" t="str">
         <v/>
       </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
       <c r="G21" t="str">
         <v/>
       </c>
@@ -1101,6 +1164,9 @@
       <c r="E22" t="str">
         <v/>
       </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
       <c r="G22" t="str">
         <v/>
       </c>
@@ -1133,6 +1199,9 @@
       <c r="E23" t="str">
         <v/>
       </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
       <c r="G23" t="str">
         <v/>
       </c>
@@ -1165,6 +1234,9 @@
       <c r="E24" t="str">
         <v/>
       </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
       <c r="G24" t="str">
         <v/>
       </c>
@@ -1197,6 +1269,9 @@
       <c r="E25" t="str">
         <v/>
       </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
       <c r="G25" t="str">
         <v/>
       </c>
@@ -1229,6 +1304,9 @@
       <c r="E26" t="str">
         <v/>
       </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
       <c r="G26" t="str">
         <v/>
       </c>
@@ -1261,6 +1339,9 @@
       <c r="E27" t="str">
         <v/>
       </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
       <c r="G27" t="str">
         <v/>
       </c>
@@ -1293,6 +1374,9 @@
       <c r="E28" t="str">
         <v/>
       </c>
+      <c r="F28" t="str">
+        <v/>
+      </c>
       <c r="G28" t="str">
         <v/>
       </c>
@@ -1325,6 +1409,9 @@
       <c r="E29" t="str">
         <v/>
       </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
       <c r="G29" t="str">
         <v/>
       </c>
@@ -1357,6 +1444,9 @@
       <c r="E30" t="str">
         <v/>
       </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
       <c r="G30" t="str">
         <v/>
       </c>
@@ -1389,6 +1479,9 @@
       <c r="E31" t="str">
         <v/>
       </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
       <c r="G31" t="str">
         <v/>
       </c>
@@ -1419,6 +1512,9 @@
         <v>2025-12-01</v>
       </c>
       <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
@@ -1459,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1471,6 +1567,15 @@
       <c r="B1" t="str">
         <v>relation</v>
       </c>
+      <c r="C1" t="str">
+        <v>email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>phone</v>
+      </c>
+      <c r="E1" t="str">
+        <v>notes</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1479,10 +1584,19 @@
       <c r="B2" t="str">
         <v>Sister</v>
       </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -1555,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1576,6 +1576,9 @@
       <c r="E1" t="str">
         <v>notes</v>
       </c>
+      <c r="F1" t="str">
+        <v>active</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -1593,17 +1596,20 @@
       <c r="E2" t="str">
         <v/>
       </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J257"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1628,15 +1634,21 @@
         <v>familyMembers</v>
       </c>
       <c r="G1" t="str">
+        <v>contributionType</v>
+      </c>
+      <c r="H1" t="str">
+        <v>contributions</v>
+      </c>
+      <c r="I1" t="str">
         <v>notes</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>recurring</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>recurringFrequency</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>recurringNextDate</v>
       </c>
     </row>
@@ -1657,18 +1669,21 @@
         <v>Hand Cash</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>["Husna"]</v>
       </c>
       <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>equal</v>
       </c>
       <c r="I2" t="str">
         <v/>
       </c>
-      <c r="J2" t="str">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2" t="str">
         <v/>
       </c>
     </row>
@@ -1691,16 +1706,16 @@
       <c r="F3" t="str">
         <v/>
       </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
       <c r="I3" t="str">
         <v/>
       </c>
-      <c r="J3" t="str">
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
         <v/>
       </c>
     </row>
@@ -1723,16 +1738,16 @@
       <c r="F4" t="str">
         <v/>
       </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
       <c r="I4" t="str">
         <v/>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
         <v/>
       </c>
     </row>
@@ -1755,16 +1770,16 @@
       <c r="F5" t="str">
         <v/>
       </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
       <c r="I5" t="str">
         <v/>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
         <v/>
       </c>
     </row>
@@ -1787,16 +1802,16 @@
       <c r="F6" t="str">
         <v/>
       </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
       <c r="I6" t="str">
         <v/>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
         <v/>
       </c>
     </row>
@@ -1819,16 +1834,16 @@
       <c r="F7" t="str">
         <v/>
       </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
       <c r="I7" t="str">
         <v/>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
         <v/>
       </c>
     </row>
@@ -1851,16 +1866,16 @@
       <c r="F8" t="str">
         <v/>
       </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
       <c r="I8" t="str">
         <v/>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
         <v/>
       </c>
     </row>
@@ -1883,16 +1898,16 @@
       <c r="F9" t="str">
         <v/>
       </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
       <c r="I9" t="str">
         <v/>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
         <v/>
       </c>
     </row>
@@ -1915,16 +1930,16 @@
       <c r="F10" t="str">
         <v/>
       </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
       <c r="I10" t="str">
         <v/>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
         <v/>
       </c>
     </row>
@@ -1947,16 +1962,16 @@
       <c r="F11" t="str">
         <v/>
       </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
       <c r="I11" t="str">
         <v/>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
         <v/>
       </c>
     </row>
@@ -1979,16 +1994,16 @@
       <c r="F12" t="str">
         <v/>
       </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
       <c r="I12" t="str">
         <v/>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
         <v/>
       </c>
     </row>
@@ -2011,16 +2026,16 @@
       <c r="F13" t="str">
         <v/>
       </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
       <c r="I13" t="str">
         <v/>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
         <v/>
       </c>
     </row>
@@ -2043,16 +2058,16 @@
       <c r="F14" t="str">
         <v/>
       </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
       <c r="I14" t="str">
         <v/>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14" t="str">
         <v/>
       </c>
     </row>
@@ -2075,16 +2090,16 @@
       <c r="F15" t="str">
         <v/>
       </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
       <c r="I15" t="str">
         <v/>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15" t="str">
         <v/>
       </c>
     </row>
@@ -2107,16 +2122,16 @@
       <c r="F16" t="str">
         <v/>
       </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
       <c r="I16" t="str">
         <v/>
       </c>
-      <c r="J16" t="str">
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
         <v/>
       </c>
     </row>
@@ -2139,16 +2154,16 @@
       <c r="F17" t="str">
         <v/>
       </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
       <c r="I17" t="str">
         <v/>
       </c>
-      <c r="J17" t="str">
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
         <v/>
       </c>
     </row>
@@ -2171,16 +2186,16 @@
       <c r="F18" t="str">
         <v/>
       </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
       <c r="I18" t="str">
         <v/>
       </c>
-      <c r="J18" t="str">
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
         <v/>
       </c>
     </row>
@@ -2203,16 +2218,16 @@
       <c r="F19" t="str">
         <v/>
       </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
       <c r="I19" t="str">
         <v/>
       </c>
-      <c r="J19" t="str">
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
         <v/>
       </c>
     </row>
@@ -2235,16 +2250,16 @@
       <c r="F20" t="str">
         <v/>
       </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
       <c r="I20" t="str">
         <v/>
       </c>
-      <c r="J20" t="str">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20" t="str">
         <v/>
       </c>
     </row>
@@ -2267,16 +2282,16 @@
       <c r="F21" t="str">
         <v/>
       </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
       <c r="I21" t="str">
         <v/>
       </c>
-      <c r="J21" t="str">
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21" t="str">
         <v/>
       </c>
     </row>
@@ -2299,16 +2314,16 @@
       <c r="F22" t="str">
         <v/>
       </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
       <c r="I22" t="str">
         <v/>
       </c>
-      <c r="J22" t="str">
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
         <v/>
       </c>
     </row>
@@ -2331,16 +2346,16 @@
       <c r="F23" t="str">
         <v/>
       </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
       <c r="I23" t="str">
         <v/>
       </c>
-      <c r="J23" t="str">
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
         <v/>
       </c>
     </row>
@@ -2363,16 +2378,16 @@
       <c r="F24" t="str">
         <v/>
       </c>
-      <c r="G24" t="str">
-        <v/>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
       <c r="I24" t="str">
         <v/>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
         <v/>
       </c>
     </row>
@@ -2395,16 +2410,16 @@
       <c r="F25" t="str">
         <v/>
       </c>
-      <c r="G25" t="str">
-        <v/>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
       <c r="I25" t="str">
         <v/>
       </c>
-      <c r="J25" t="str">
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
         <v/>
       </c>
     </row>
@@ -2427,16 +2442,16 @@
       <c r="F26" t="str">
         <v/>
       </c>
-      <c r="G26" t="str">
-        <v/>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
       <c r="I26" t="str">
         <v/>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
         <v/>
       </c>
     </row>
@@ -2459,16 +2474,16 @@
       <c r="F27" t="str">
         <v/>
       </c>
-      <c r="G27" t="str">
-        <v/>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
       <c r="I27" t="str">
         <v/>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
         <v/>
       </c>
     </row>
@@ -2491,16 +2506,16 @@
       <c r="F28" t="str">
         <v/>
       </c>
-      <c r="G28" t="str">
-        <v/>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
       <c r="I28" t="str">
         <v/>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
         <v/>
       </c>
     </row>
@@ -2523,16 +2538,16 @@
       <c r="F29" t="str">
         <v/>
       </c>
-      <c r="G29" t="str">
-        <v/>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
       <c r="I29" t="str">
         <v/>
       </c>
-      <c r="J29" t="str">
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
         <v/>
       </c>
     </row>
@@ -2555,16 +2570,16 @@
       <c r="F30" t="str">
         <v/>
       </c>
-      <c r="G30" t="str">
-        <v/>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
       <c r="I30" t="str">
         <v/>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
         <v/>
       </c>
     </row>
@@ -2587,16 +2602,16 @@
       <c r="F31" t="str">
         <v/>
       </c>
-      <c r="G31" t="str">
-        <v/>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
       <c r="I31" t="str">
         <v/>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
         <v/>
       </c>
     </row>
@@ -2619,16 +2634,16 @@
       <c r="F32" t="str">
         <v/>
       </c>
-      <c r="G32" t="str">
-        <v/>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
       <c r="I32" t="str">
         <v/>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32" t="str">
         <v/>
       </c>
     </row>
@@ -2651,16 +2666,16 @@
       <c r="F33" t="str">
         <v/>
       </c>
-      <c r="G33" t="str">
-        <v/>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
       <c r="I33" t="str">
         <v/>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="str">
+        <v/>
+      </c>
+      <c r="L33" t="str">
         <v/>
       </c>
     </row>
@@ -2683,16 +2698,16 @@
       <c r="F34" t="str">
         <v/>
       </c>
-      <c r="G34" t="str">
-        <v/>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
       <c r="I34" t="str">
         <v/>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="str">
+        <v/>
+      </c>
+      <c r="L34" t="str">
         <v/>
       </c>
     </row>
@@ -2715,16 +2730,16 @@
       <c r="F35" t="str">
         <v/>
       </c>
-      <c r="G35" t="str">
-        <v/>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
       <c r="I35" t="str">
         <v/>
       </c>
-      <c r="J35" t="str">
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
         <v/>
       </c>
     </row>
@@ -2747,16 +2762,16 @@
       <c r="F36" t="str">
         <v/>
       </c>
-      <c r="G36" t="str">
-        <v/>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
       <c r="I36" t="str">
         <v/>
       </c>
-      <c r="J36" t="str">
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
         <v/>
       </c>
     </row>
@@ -2779,16 +2794,16 @@
       <c r="F37" t="str">
         <v/>
       </c>
-      <c r="G37" t="str">
-        <v/>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
       <c r="I37" t="str">
         <v/>
       </c>
-      <c r="J37" t="str">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str">
         <v/>
       </c>
     </row>
@@ -2811,16 +2826,16 @@
       <c r="F38" t="str">
         <v/>
       </c>
-      <c r="G38" t="str">
-        <v/>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
       <c r="I38" t="str">
         <v/>
       </c>
-      <c r="J38" t="str">
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
         <v/>
       </c>
     </row>
@@ -2843,16 +2858,16 @@
       <c r="F39" t="str">
         <v/>
       </c>
-      <c r="G39" t="str">
-        <v/>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
       <c r="I39" t="str">
         <v/>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
         <v/>
       </c>
     </row>
@@ -2875,16 +2890,16 @@
       <c r="F40" t="str">
         <v/>
       </c>
-      <c r="G40" t="str">
-        <v/>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
       <c r="I40" t="str">
         <v/>
       </c>
-      <c r="J40" t="str">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
         <v/>
       </c>
     </row>
@@ -2907,16 +2922,16 @@
       <c r="F41" t="str">
         <v/>
       </c>
-      <c r="G41" t="str">
-        <v/>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
       <c r="I41" t="str">
         <v/>
       </c>
-      <c r="J41" t="str">
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41" t="str">
         <v/>
       </c>
     </row>
@@ -2939,16 +2954,16 @@
       <c r="F42" t="str">
         <v/>
       </c>
-      <c r="G42" t="str">
-        <v/>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
       <c r="I42" t="str">
         <v/>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
         <v/>
       </c>
     </row>
@@ -2971,16 +2986,16 @@
       <c r="F43" t="str">
         <v/>
       </c>
-      <c r="G43" t="str">
-        <v/>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
       <c r="I43" t="str">
         <v/>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="str">
+        <v/>
+      </c>
+      <c r="L43" t="str">
         <v/>
       </c>
     </row>
@@ -3003,16 +3018,16 @@
       <c r="F44" t="str">
         <v/>
       </c>
-      <c r="G44" t="str">
-        <v/>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
       <c r="I44" t="str">
         <v/>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="str">
+        <v/>
+      </c>
+      <c r="L44" t="str">
         <v/>
       </c>
     </row>
@@ -3035,16 +3050,16 @@
       <c r="F45" t="str">
         <v/>
       </c>
-      <c r="G45" t="str">
-        <v/>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
       <c r="I45" t="str">
         <v/>
       </c>
-      <c r="J45" t="str">
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
         <v/>
       </c>
     </row>
@@ -3067,16 +3082,16 @@
       <c r="F46" t="str">
         <v/>
       </c>
-      <c r="G46" t="str">
-        <v/>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
       <c r="I46" t="str">
         <v/>
       </c>
-      <c r="J46" t="str">
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="str">
+        <v/>
+      </c>
+      <c r="L46" t="str">
         <v/>
       </c>
     </row>
@@ -3099,16 +3114,16 @@
       <c r="F47" t="str">
         <v/>
       </c>
-      <c r="G47" t="str">
-        <v/>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
       <c r="I47" t="str">
         <v/>
       </c>
-      <c r="J47" t="str">
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47" t="str">
         <v/>
       </c>
     </row>
@@ -3131,16 +3146,16 @@
       <c r="F48" t="str">
         <v/>
       </c>
-      <c r="G48" t="str">
-        <v/>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
       <c r="I48" t="str">
         <v/>
       </c>
-      <c r="J48" t="str">
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48" t="str">
         <v/>
       </c>
     </row>
@@ -3163,16 +3178,16 @@
       <c r="F49" t="str">
         <v/>
       </c>
-      <c r="G49" t="str">
-        <v/>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
       <c r="I49" t="str">
         <v/>
       </c>
-      <c r="J49" t="str">
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="str">
+        <v/>
+      </c>
+      <c r="L49" t="str">
         <v/>
       </c>
     </row>
@@ -3195,16 +3210,16 @@
       <c r="F50" t="str">
         <v/>
       </c>
-      <c r="G50" t="str">
-        <v/>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
       <c r="I50" t="str">
         <v/>
       </c>
-      <c r="J50" t="str">
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+      <c r="L50" t="str">
         <v/>
       </c>
     </row>
@@ -3227,16 +3242,16 @@
       <c r="F51" t="str">
         <v/>
       </c>
-      <c r="G51" t="str">
-        <v/>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
       <c r="I51" t="str">
         <v/>
       </c>
-      <c r="J51" t="str">
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="str">
+        <v/>
+      </c>
+      <c r="L51" t="str">
         <v/>
       </c>
     </row>
@@ -3259,16 +3274,16 @@
       <c r="F52" t="str">
         <v/>
       </c>
-      <c r="G52" t="str">
-        <v/>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
       <c r="I52" t="str">
         <v/>
       </c>
-      <c r="J52" t="str">
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="str">
+        <v/>
+      </c>
+      <c r="L52" t="str">
         <v/>
       </c>
     </row>
@@ -3291,16 +3306,16 @@
       <c r="F53" t="str">
         <v/>
       </c>
-      <c r="G53" t="str">
-        <v/>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
       <c r="I53" t="str">
         <v/>
       </c>
-      <c r="J53" t="str">
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="str">
+        <v/>
+      </c>
+      <c r="L53" t="str">
         <v/>
       </c>
     </row>
@@ -3323,16 +3338,16 @@
       <c r="F54" t="str">
         <v/>
       </c>
-      <c r="G54" t="str">
-        <v/>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
       <c r="I54" t="str">
         <v/>
       </c>
-      <c r="J54" t="str">
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="str">
+        <v/>
+      </c>
+      <c r="L54" t="str">
         <v/>
       </c>
     </row>
@@ -3355,16 +3370,16 @@
       <c r="F55" t="str">
         <v/>
       </c>
-      <c r="G55" t="str">
-        <v/>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
       <c r="I55" t="str">
         <v/>
       </c>
-      <c r="J55" t="str">
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="str">
+        <v/>
+      </c>
+      <c r="L55" t="str">
         <v/>
       </c>
     </row>
@@ -3387,16 +3402,16 @@
       <c r="F56" t="str">
         <v/>
       </c>
-      <c r="G56" t="str">
-        <v/>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
       <c r="I56" t="str">
         <v/>
       </c>
-      <c r="J56" t="str">
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="str">
+        <v/>
+      </c>
+      <c r="L56" t="str">
         <v/>
       </c>
     </row>
@@ -3419,16 +3434,16 @@
       <c r="F57" t="str">
         <v/>
       </c>
-      <c r="G57" t="str">
-        <v/>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
       <c r="I57" t="str">
         <v/>
       </c>
-      <c r="J57" t="str">
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="str">
+        <v/>
+      </c>
+      <c r="L57" t="str">
         <v/>
       </c>
     </row>
@@ -3451,16 +3466,16 @@
       <c r="F58" t="str">
         <v/>
       </c>
-      <c r="G58" t="str">
-        <v/>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
       <c r="I58" t="str">
         <v/>
       </c>
-      <c r="J58" t="str">
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="str">
+        <v/>
+      </c>
+      <c r="L58" t="str">
         <v/>
       </c>
     </row>
@@ -3483,16 +3498,16 @@
       <c r="F59" t="str">
         <v/>
       </c>
-      <c r="G59" t="str">
-        <v/>
-      </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
       <c r="I59" t="str">
         <v/>
       </c>
-      <c r="J59" t="str">
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="str">
+        <v/>
+      </c>
+      <c r="L59" t="str">
         <v/>
       </c>
     </row>
@@ -3515,16 +3530,16 @@
       <c r="F60" t="str">
         <v/>
       </c>
-      <c r="G60" t="str">
-        <v/>
-      </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
       <c r="I60" t="str">
         <v/>
       </c>
-      <c r="J60" t="str">
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="str">
+        <v/>
+      </c>
+      <c r="L60" t="str">
         <v/>
       </c>
     </row>
@@ -3547,16 +3562,16 @@
       <c r="F61" t="str">
         <v/>
       </c>
-      <c r="G61" t="str">
-        <v/>
-      </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
       <c r="I61" t="str">
         <v/>
       </c>
-      <c r="J61" t="str">
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="str">
+        <v/>
+      </c>
+      <c r="L61" t="str">
         <v/>
       </c>
     </row>
@@ -3579,16 +3594,16 @@
       <c r="F62" t="str">
         <v/>
       </c>
-      <c r="G62" t="str">
-        <v/>
-      </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
       <c r="I62" t="str">
         <v/>
       </c>
-      <c r="J62" t="str">
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="str">
+        <v/>
+      </c>
+      <c r="L62" t="str">
         <v/>
       </c>
     </row>
@@ -3611,16 +3626,16 @@
       <c r="F63" t="str">
         <v/>
       </c>
-      <c r="G63" t="str">
-        <v/>
-      </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
       <c r="I63" t="str">
         <v/>
       </c>
-      <c r="J63" t="str">
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="str">
+        <v/>
+      </c>
+      <c r="L63" t="str">
         <v/>
       </c>
     </row>
@@ -3643,16 +3658,16 @@
       <c r="F64" t="str">
         <v/>
       </c>
-      <c r="G64" t="str">
-        <v/>
-      </c>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
       <c r="I64" t="str">
         <v/>
       </c>
-      <c r="J64" t="str">
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="str">
+        <v/>
+      </c>
+      <c r="L64" t="str">
         <v/>
       </c>
     </row>
@@ -3675,16 +3690,16 @@
       <c r="F65" t="str">
         <v/>
       </c>
-      <c r="G65" t="str">
-        <v/>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
       <c r="I65" t="str">
         <v/>
       </c>
-      <c r="J65" t="str">
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="str">
+        <v/>
+      </c>
+      <c r="L65" t="str">
         <v/>
       </c>
     </row>
@@ -3707,16 +3722,16 @@
       <c r="F66" t="str">
         <v/>
       </c>
-      <c r="G66" t="str">
-        <v/>
-      </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
       <c r="I66" t="str">
         <v/>
       </c>
-      <c r="J66" t="str">
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="str">
+        <v/>
+      </c>
+      <c r="L66" t="str">
         <v/>
       </c>
     </row>
@@ -3739,16 +3754,16 @@
       <c r="F67" t="str">
         <v/>
       </c>
-      <c r="G67" t="str">
-        <v/>
-      </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
       <c r="I67" t="str">
         <v/>
       </c>
-      <c r="J67" t="str">
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="str">
+        <v/>
+      </c>
+      <c r="L67" t="str">
         <v/>
       </c>
     </row>
@@ -3771,16 +3786,16 @@
       <c r="F68" t="str">
         <v/>
       </c>
-      <c r="G68" t="str">
-        <v/>
-      </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
       <c r="I68" t="str">
         <v/>
       </c>
-      <c r="J68" t="str">
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="str">
+        <v/>
+      </c>
+      <c r="L68" t="str">
         <v/>
       </c>
     </row>
@@ -3803,16 +3818,16 @@
       <c r="F69" t="str">
         <v/>
       </c>
-      <c r="G69" t="str">
-        <v/>
-      </c>
-      <c r="H69" t="b">
-        <v>0</v>
-      </c>
       <c r="I69" t="str">
         <v/>
       </c>
-      <c r="J69" t="str">
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="str">
+        <v/>
+      </c>
+      <c r="L69" t="str">
         <v/>
       </c>
     </row>
@@ -3835,16 +3850,16 @@
       <c r="F70" t="str">
         <v/>
       </c>
-      <c r="G70" t="str">
-        <v/>
-      </c>
-      <c r="H70" t="b">
-        <v>0</v>
-      </c>
       <c r="I70" t="str">
         <v/>
       </c>
-      <c r="J70" t="str">
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="str">
+        <v/>
+      </c>
+      <c r="L70" t="str">
         <v/>
       </c>
     </row>
@@ -3867,16 +3882,16 @@
       <c r="F71" t="str">
         <v/>
       </c>
-      <c r="G71" t="str">
-        <v/>
-      </c>
-      <c r="H71" t="b">
-        <v>0</v>
-      </c>
       <c r="I71" t="str">
         <v/>
       </c>
-      <c r="J71" t="str">
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="str">
+        <v/>
+      </c>
+      <c r="L71" t="str">
         <v/>
       </c>
     </row>
@@ -3899,16 +3914,16 @@
       <c r="F72" t="str">
         <v/>
       </c>
-      <c r="G72" t="str">
-        <v/>
-      </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
       <c r="I72" t="str">
         <v/>
       </c>
-      <c r="J72" t="str">
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="str">
+        <v/>
+      </c>
+      <c r="L72" t="str">
         <v/>
       </c>
     </row>
@@ -3931,16 +3946,16 @@
       <c r="F73" t="str">
         <v/>
       </c>
-      <c r="G73" t="str">
-        <v/>
-      </c>
-      <c r="H73" t="b">
-        <v>0</v>
-      </c>
       <c r="I73" t="str">
         <v/>
       </c>
-      <c r="J73" t="str">
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="str">
+        <v/>
+      </c>
+      <c r="L73" t="str">
         <v/>
       </c>
     </row>
@@ -3963,16 +3978,16 @@
       <c r="F74" t="str">
         <v/>
       </c>
-      <c r="G74" t="str">
-        <v/>
-      </c>
-      <c r="H74" t="b">
-        <v>0</v>
-      </c>
       <c r="I74" t="str">
         <v/>
       </c>
-      <c r="J74" t="str">
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="str">
+        <v/>
+      </c>
+      <c r="L74" t="str">
         <v/>
       </c>
     </row>
@@ -3995,16 +4010,16 @@
       <c r="F75" t="str">
         <v/>
       </c>
-      <c r="G75" t="str">
-        <v/>
-      </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
       <c r="I75" t="str">
         <v/>
       </c>
-      <c r="J75" t="str">
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="str">
+        <v/>
+      </c>
+      <c r="L75" t="str">
         <v/>
       </c>
     </row>
@@ -4027,16 +4042,16 @@
       <c r="F76" t="str">
         <v/>
       </c>
-      <c r="G76" t="str">
-        <v/>
-      </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
       <c r="I76" t="str">
         <v/>
       </c>
-      <c r="J76" t="str">
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="str">
+        <v/>
+      </c>
+      <c r="L76" t="str">
         <v/>
       </c>
     </row>
@@ -4059,16 +4074,16 @@
       <c r="F77" t="str">
         <v/>
       </c>
-      <c r="G77" t="str">
-        <v/>
-      </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
       <c r="I77" t="str">
         <v/>
       </c>
-      <c r="J77" t="str">
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="str">
+        <v/>
+      </c>
+      <c r="L77" t="str">
         <v/>
       </c>
     </row>
@@ -4091,16 +4106,16 @@
       <c r="F78" t="str">
         <v/>
       </c>
-      <c r="G78" t="str">
-        <v/>
-      </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
       <c r="I78" t="str">
         <v/>
       </c>
-      <c r="J78" t="str">
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="str">
+        <v/>
+      </c>
+      <c r="L78" t="str">
         <v/>
       </c>
     </row>
@@ -4123,16 +4138,16 @@
       <c r="F79" t="str">
         <v/>
       </c>
-      <c r="G79" t="str">
-        <v/>
-      </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
       <c r="I79" t="str">
         <v/>
       </c>
-      <c r="J79" t="str">
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="str">
+        <v/>
+      </c>
+      <c r="L79" t="str">
         <v/>
       </c>
     </row>
@@ -4155,16 +4170,16 @@
       <c r="F80" t="str">
         <v/>
       </c>
-      <c r="G80" t="str">
-        <v/>
-      </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
       <c r="I80" t="str">
         <v/>
       </c>
-      <c r="J80" t="str">
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="str">
+        <v/>
+      </c>
+      <c r="L80" t="str">
         <v/>
       </c>
     </row>
@@ -4187,16 +4202,16 @@
       <c r="F81" t="str">
         <v/>
       </c>
-      <c r="G81" t="str">
-        <v/>
-      </c>
-      <c r="H81" t="b">
-        <v>0</v>
-      </c>
       <c r="I81" t="str">
         <v/>
       </c>
-      <c r="J81" t="str">
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="str">
+        <v/>
+      </c>
+      <c r="L81" t="str">
         <v/>
       </c>
     </row>
@@ -4219,16 +4234,16 @@
       <c r="F82" t="str">
         <v/>
       </c>
-      <c r="G82" t="str">
-        <v/>
-      </c>
-      <c r="H82" t="b">
-        <v>0</v>
-      </c>
       <c r="I82" t="str">
         <v/>
       </c>
-      <c r="J82" t="str">
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="str">
+        <v/>
+      </c>
+      <c r="L82" t="str">
         <v/>
       </c>
     </row>
@@ -4251,16 +4266,16 @@
       <c r="F83" t="str">
         <v/>
       </c>
-      <c r="G83" t="str">
-        <v/>
-      </c>
-      <c r="H83" t="b">
-        <v>0</v>
-      </c>
       <c r="I83" t="str">
         <v/>
       </c>
-      <c r="J83" t="str">
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="str">
+        <v/>
+      </c>
+      <c r="L83" t="str">
         <v/>
       </c>
     </row>
@@ -4283,16 +4298,16 @@
       <c r="F84" t="str">
         <v/>
       </c>
-      <c r="G84" t="str">
-        <v/>
-      </c>
-      <c r="H84" t="b">
-        <v>0</v>
-      </c>
       <c r="I84" t="str">
         <v/>
       </c>
-      <c r="J84" t="str">
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="str">
+        <v/>
+      </c>
+      <c r="L84" t="str">
         <v/>
       </c>
     </row>
@@ -4315,16 +4330,16 @@
       <c r="F85" t="str">
         <v/>
       </c>
-      <c r="G85" t="str">
-        <v/>
-      </c>
-      <c r="H85" t="b">
-        <v>0</v>
-      </c>
       <c r="I85" t="str">
         <v/>
       </c>
-      <c r="J85" t="str">
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="str">
+        <v/>
+      </c>
+      <c r="L85" t="str">
         <v/>
       </c>
     </row>
@@ -4347,16 +4362,16 @@
       <c r="F86" t="str">
         <v/>
       </c>
-      <c r="G86" t="str">
-        <v/>
-      </c>
-      <c r="H86" t="b">
-        <v>0</v>
-      </c>
       <c r="I86" t="str">
         <v/>
       </c>
-      <c r="J86" t="str">
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="str">
+        <v/>
+      </c>
+      <c r="L86" t="str">
         <v/>
       </c>
     </row>
@@ -4379,16 +4394,16 @@
       <c r="F87" t="str">
         <v/>
       </c>
-      <c r="G87" t="str">
-        <v/>
-      </c>
-      <c r="H87" t="b">
-        <v>0</v>
-      </c>
       <c r="I87" t="str">
         <v/>
       </c>
-      <c r="J87" t="str">
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="str">
+        <v/>
+      </c>
+      <c r="L87" t="str">
         <v/>
       </c>
     </row>
@@ -4411,16 +4426,16 @@
       <c r="F88" t="str">
         <v/>
       </c>
-      <c r="G88" t="str">
-        <v/>
-      </c>
-      <c r="H88" t="b">
-        <v>0</v>
-      </c>
       <c r="I88" t="str">
         <v/>
       </c>
-      <c r="J88" t="str">
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="str">
+        <v/>
+      </c>
+      <c r="L88" t="str">
         <v/>
       </c>
     </row>
@@ -4443,16 +4458,16 @@
       <c r="F89" t="str">
         <v/>
       </c>
-      <c r="G89" t="str">
-        <v/>
-      </c>
-      <c r="H89" t="b">
-        <v>0</v>
-      </c>
       <c r="I89" t="str">
         <v/>
       </c>
-      <c r="J89" t="str">
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="str">
+        <v/>
+      </c>
+      <c r="L89" t="str">
         <v/>
       </c>
     </row>
@@ -4475,16 +4490,16 @@
       <c r="F90" t="str">
         <v/>
       </c>
-      <c r="G90" t="str">
-        <v/>
-      </c>
-      <c r="H90" t="b">
-        <v>0</v>
-      </c>
       <c r="I90" t="str">
         <v/>
       </c>
-      <c r="J90" t="str">
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="str">
+        <v/>
+      </c>
+      <c r="L90" t="str">
         <v/>
       </c>
     </row>
@@ -4507,16 +4522,16 @@
       <c r="F91" t="str">
         <v/>
       </c>
-      <c r="G91" t="str">
-        <v/>
-      </c>
-      <c r="H91" t="b">
-        <v>0</v>
-      </c>
       <c r="I91" t="str">
         <v/>
       </c>
-      <c r="J91" t="str">
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="str">
+        <v/>
+      </c>
+      <c r="L91" t="str">
         <v/>
       </c>
     </row>
@@ -4539,16 +4554,16 @@
       <c r="F92" t="str">
         <v/>
       </c>
-      <c r="G92" t="str">
-        <v/>
-      </c>
-      <c r="H92" t="b">
-        <v>0</v>
-      </c>
       <c r="I92" t="str">
         <v/>
       </c>
-      <c r="J92" t="str">
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="str">
+        <v/>
+      </c>
+      <c r="L92" t="str">
         <v/>
       </c>
     </row>
@@ -4571,16 +4586,16 @@
       <c r="F93" t="str">
         <v/>
       </c>
-      <c r="G93" t="str">
-        <v/>
-      </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
       <c r="I93" t="str">
         <v/>
       </c>
-      <c r="J93" t="str">
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="str">
+        <v/>
+      </c>
+      <c r="L93" t="str">
         <v/>
       </c>
     </row>
@@ -4603,16 +4618,16 @@
       <c r="F94" t="str">
         <v/>
       </c>
-      <c r="G94" t="str">
-        <v/>
-      </c>
-      <c r="H94" t="b">
-        <v>0</v>
-      </c>
       <c r="I94" t="str">
         <v/>
       </c>
-      <c r="J94" t="str">
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+      <c r="K94" t="str">
+        <v/>
+      </c>
+      <c r="L94" t="str">
         <v/>
       </c>
     </row>
@@ -4635,16 +4650,16 @@
       <c r="F95" t="str">
         <v/>
       </c>
-      <c r="G95" t="str">
-        <v/>
-      </c>
-      <c r="H95" t="b">
-        <v>0</v>
-      </c>
       <c r="I95" t="str">
         <v/>
       </c>
-      <c r="J95" t="str">
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+      <c r="K95" t="str">
+        <v/>
+      </c>
+      <c r="L95" t="str">
         <v/>
       </c>
     </row>
@@ -4667,16 +4682,16 @@
       <c r="F96" t="str">
         <v/>
       </c>
-      <c r="G96" t="str">
-        <v/>
-      </c>
-      <c r="H96" t="b">
-        <v>0</v>
-      </c>
       <c r="I96" t="str">
         <v/>
       </c>
-      <c r="J96" t="str">
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" t="str">
+        <v/>
+      </c>
+      <c r="L96" t="str">
         <v/>
       </c>
     </row>
@@ -4699,16 +4714,16 @@
       <c r="F97" t="str">
         <v/>
       </c>
-      <c r="G97" t="str">
-        <v/>
-      </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
       <c r="I97" t="str">
         <v/>
       </c>
-      <c r="J97" t="str">
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+      <c r="K97" t="str">
+        <v/>
+      </c>
+      <c r="L97" t="str">
         <v/>
       </c>
     </row>
@@ -4731,16 +4746,16 @@
       <c r="F98" t="str">
         <v/>
       </c>
-      <c r="G98" t="str">
-        <v/>
-      </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
       <c r="I98" t="str">
         <v/>
       </c>
-      <c r="J98" t="str">
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+      <c r="K98" t="str">
+        <v/>
+      </c>
+      <c r="L98" t="str">
         <v/>
       </c>
     </row>
@@ -4763,16 +4778,16 @@
       <c r="F99" t="str">
         <v/>
       </c>
-      <c r="G99" t="str">
-        <v/>
-      </c>
-      <c r="H99" t="b">
-        <v>0</v>
-      </c>
       <c r="I99" t="str">
         <v/>
       </c>
-      <c r="J99" t="str">
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+      <c r="K99" t="str">
+        <v/>
+      </c>
+      <c r="L99" t="str">
         <v/>
       </c>
     </row>
@@ -4795,16 +4810,16 @@
       <c r="F100" t="str">
         <v/>
       </c>
-      <c r="G100" t="str">
-        <v/>
-      </c>
-      <c r="H100" t="b">
-        <v>0</v>
-      </c>
       <c r="I100" t="str">
         <v/>
       </c>
-      <c r="J100" t="str">
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+      <c r="K100" t="str">
+        <v/>
+      </c>
+      <c r="L100" t="str">
         <v/>
       </c>
     </row>
@@ -4827,16 +4842,16 @@
       <c r="F101" t="str">
         <v/>
       </c>
-      <c r="G101" t="str">
-        <v/>
-      </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
       <c r="I101" t="str">
         <v/>
       </c>
-      <c r="J101" t="str">
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+      <c r="K101" t="str">
+        <v/>
+      </c>
+      <c r="L101" t="str">
         <v/>
       </c>
     </row>
@@ -4859,16 +4874,16 @@
       <c r="F102" t="str">
         <v/>
       </c>
-      <c r="G102" t="str">
-        <v/>
-      </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
       <c r="I102" t="str">
         <v/>
       </c>
-      <c r="J102" t="str">
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="K102" t="str">
+        <v/>
+      </c>
+      <c r="L102" t="str">
         <v/>
       </c>
     </row>
@@ -4891,16 +4906,16 @@
       <c r="F103" t="str">
         <v/>
       </c>
-      <c r="G103" t="str">
-        <v/>
-      </c>
-      <c r="H103" t="b">
-        <v>0</v>
-      </c>
       <c r="I103" t="str">
         <v/>
       </c>
-      <c r="J103" t="str">
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+      <c r="K103" t="str">
+        <v/>
+      </c>
+      <c r="L103" t="str">
         <v/>
       </c>
     </row>
@@ -4923,16 +4938,16 @@
       <c r="F104" t="str">
         <v/>
       </c>
-      <c r="G104" t="str">
-        <v/>
-      </c>
-      <c r="H104" t="b">
-        <v>0</v>
-      </c>
       <c r="I104" t="str">
         <v/>
       </c>
-      <c r="J104" t="str">
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+      <c r="K104" t="str">
+        <v/>
+      </c>
+      <c r="L104" t="str">
         <v/>
       </c>
     </row>
@@ -4955,16 +4970,16 @@
       <c r="F105" t="str">
         <v/>
       </c>
-      <c r="G105" t="str">
-        <v/>
-      </c>
-      <c r="H105" t="b">
-        <v>0</v>
-      </c>
       <c r="I105" t="str">
         <v/>
       </c>
-      <c r="J105" t="str">
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+      <c r="K105" t="str">
+        <v/>
+      </c>
+      <c r="L105" t="str">
         <v/>
       </c>
     </row>
@@ -4987,16 +5002,16 @@
       <c r="F106" t="str">
         <v/>
       </c>
-      <c r="G106" t="str">
-        <v/>
-      </c>
-      <c r="H106" t="b">
-        <v>0</v>
-      </c>
       <c r="I106" t="str">
         <v/>
       </c>
-      <c r="J106" t="str">
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+      <c r="K106" t="str">
+        <v/>
+      </c>
+      <c r="L106" t="str">
         <v/>
       </c>
     </row>
@@ -5019,16 +5034,16 @@
       <c r="F107" t="str">
         <v/>
       </c>
-      <c r="G107" t="str">
-        <v/>
-      </c>
-      <c r="H107" t="b">
-        <v>0</v>
-      </c>
       <c r="I107" t="str">
         <v/>
       </c>
-      <c r="J107" t="str">
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+      <c r="K107" t="str">
+        <v/>
+      </c>
+      <c r="L107" t="str">
         <v/>
       </c>
     </row>
@@ -5051,16 +5066,16 @@
       <c r="F108" t="str">
         <v/>
       </c>
-      <c r="G108" t="str">
-        <v/>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
       <c r="I108" t="str">
         <v/>
       </c>
-      <c r="J108" t="str">
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+      <c r="K108" t="str">
+        <v/>
+      </c>
+      <c r="L108" t="str">
         <v/>
       </c>
     </row>
@@ -5083,16 +5098,16 @@
       <c r="F109" t="str">
         <v/>
       </c>
-      <c r="G109" t="str">
-        <v/>
-      </c>
-      <c r="H109" t="b">
-        <v>0</v>
-      </c>
       <c r="I109" t="str">
         <v/>
       </c>
-      <c r="J109" t="str">
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" t="str">
+        <v/>
+      </c>
+      <c r="L109" t="str">
         <v/>
       </c>
     </row>
@@ -5115,16 +5130,16 @@
       <c r="F110" t="str">
         <v/>
       </c>
-      <c r="G110" t="str">
-        <v/>
-      </c>
-      <c r="H110" t="b">
-        <v>0</v>
-      </c>
       <c r="I110" t="str">
         <v/>
       </c>
-      <c r="J110" t="str">
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" t="str">
+        <v/>
+      </c>
+      <c r="L110" t="str">
         <v/>
       </c>
     </row>
@@ -5147,16 +5162,16 @@
       <c r="F111" t="str">
         <v/>
       </c>
-      <c r="G111" t="str">
-        <v/>
-      </c>
-      <c r="H111" t="b">
-        <v>0</v>
-      </c>
       <c r="I111" t="str">
         <v/>
       </c>
-      <c r="J111" t="str">
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+      <c r="K111" t="str">
+        <v/>
+      </c>
+      <c r="L111" t="str">
         <v/>
       </c>
     </row>
@@ -5179,16 +5194,16 @@
       <c r="F112" t="str">
         <v/>
       </c>
-      <c r="G112" t="str">
-        <v/>
-      </c>
-      <c r="H112" t="b">
-        <v>0</v>
-      </c>
       <c r="I112" t="str">
         <v/>
       </c>
-      <c r="J112" t="str">
+      <c r="J112" t="b">
+        <v>0</v>
+      </c>
+      <c r="K112" t="str">
+        <v/>
+      </c>
+      <c r="L112" t="str">
         <v/>
       </c>
     </row>
@@ -5211,16 +5226,16 @@
       <c r="F113" t="str">
         <v/>
       </c>
-      <c r="G113" t="str">
-        <v/>
-      </c>
-      <c r="H113" t="b">
-        <v>0</v>
-      </c>
       <c r="I113" t="str">
         <v/>
       </c>
-      <c r="J113" t="str">
+      <c r="J113" t="b">
+        <v>0</v>
+      </c>
+      <c r="K113" t="str">
+        <v/>
+      </c>
+      <c r="L113" t="str">
         <v/>
       </c>
     </row>
@@ -5243,16 +5258,16 @@
       <c r="F114" t="str">
         <v/>
       </c>
-      <c r="G114" t="str">
-        <v/>
-      </c>
-      <c r="H114" t="b">
-        <v>0</v>
-      </c>
       <c r="I114" t="str">
         <v/>
       </c>
-      <c r="J114" t="str">
+      <c r="J114" t="b">
+        <v>0</v>
+      </c>
+      <c r="K114" t="str">
+        <v/>
+      </c>
+      <c r="L114" t="str">
         <v/>
       </c>
     </row>
@@ -5275,16 +5290,16 @@
       <c r="F115" t="str">
         <v/>
       </c>
-      <c r="G115" t="str">
-        <v/>
-      </c>
-      <c r="H115" t="b">
-        <v>0</v>
-      </c>
       <c r="I115" t="str">
         <v/>
       </c>
-      <c r="J115" t="str">
+      <c r="J115" t="b">
+        <v>0</v>
+      </c>
+      <c r="K115" t="str">
+        <v/>
+      </c>
+      <c r="L115" t="str">
         <v/>
       </c>
     </row>
@@ -5307,16 +5322,16 @@
       <c r="F116" t="str">
         <v/>
       </c>
-      <c r="G116" t="str">
-        <v/>
-      </c>
-      <c r="H116" t="b">
-        <v>0</v>
-      </c>
       <c r="I116" t="str">
         <v/>
       </c>
-      <c r="J116" t="str">
+      <c r="J116" t="b">
+        <v>0</v>
+      </c>
+      <c r="K116" t="str">
+        <v/>
+      </c>
+      <c r="L116" t="str">
         <v/>
       </c>
     </row>
@@ -5339,16 +5354,16 @@
       <c r="F117" t="str">
         <v/>
       </c>
-      <c r="G117" t="str">
-        <v/>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
       <c r="I117" t="str">
         <v/>
       </c>
-      <c r="J117" t="str">
+      <c r="J117" t="b">
+        <v>0</v>
+      </c>
+      <c r="K117" t="str">
+        <v/>
+      </c>
+      <c r="L117" t="str">
         <v/>
       </c>
     </row>
@@ -5371,16 +5386,16 @@
       <c r="F118" t="str">
         <v/>
       </c>
-      <c r="G118" t="str">
-        <v/>
-      </c>
-      <c r="H118" t="b">
-        <v>0</v>
-      </c>
       <c r="I118" t="str">
         <v/>
       </c>
-      <c r="J118" t="str">
+      <c r="J118" t="b">
+        <v>0</v>
+      </c>
+      <c r="K118" t="str">
+        <v/>
+      </c>
+      <c r="L118" t="str">
         <v/>
       </c>
     </row>
@@ -5403,16 +5418,16 @@
       <c r="F119" t="str">
         <v/>
       </c>
-      <c r="G119" t="str">
-        <v/>
-      </c>
-      <c r="H119" t="b">
-        <v>0</v>
-      </c>
       <c r="I119" t="str">
         <v/>
       </c>
-      <c r="J119" t="str">
+      <c r="J119" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" t="str">
+        <v/>
+      </c>
+      <c r="L119" t="str">
         <v/>
       </c>
     </row>
@@ -5435,16 +5450,16 @@
       <c r="F120" t="str">
         <v/>
       </c>
-      <c r="G120" t="str">
-        <v/>
-      </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
       <c r="I120" t="str">
         <v/>
       </c>
-      <c r="J120" t="str">
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+      <c r="K120" t="str">
+        <v/>
+      </c>
+      <c r="L120" t="str">
         <v/>
       </c>
     </row>
@@ -5467,16 +5482,16 @@
       <c r="F121" t="str">
         <v/>
       </c>
-      <c r="G121" t="str">
-        <v/>
-      </c>
-      <c r="H121" t="b">
-        <v>0</v>
-      </c>
       <c r="I121" t="str">
         <v/>
       </c>
-      <c r="J121" t="str">
+      <c r="J121" t="b">
+        <v>0</v>
+      </c>
+      <c r="K121" t="str">
+        <v/>
+      </c>
+      <c r="L121" t="str">
         <v/>
       </c>
     </row>
@@ -5499,16 +5514,16 @@
       <c r="F122" t="str">
         <v/>
       </c>
-      <c r="G122" t="str">
-        <v/>
-      </c>
-      <c r="H122" t="b">
-        <v>0</v>
-      </c>
       <c r="I122" t="str">
         <v/>
       </c>
-      <c r="J122" t="str">
+      <c r="J122" t="b">
+        <v>0</v>
+      </c>
+      <c r="K122" t="str">
+        <v/>
+      </c>
+      <c r="L122" t="str">
         <v/>
       </c>
     </row>
@@ -5531,16 +5546,16 @@
       <c r="F123" t="str">
         <v/>
       </c>
-      <c r="G123" t="str">
-        <v/>
-      </c>
-      <c r="H123" t="b">
-        <v>0</v>
-      </c>
       <c r="I123" t="str">
         <v/>
       </c>
-      <c r="J123" t="str">
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+      <c r="K123" t="str">
+        <v/>
+      </c>
+      <c r="L123" t="str">
         <v/>
       </c>
     </row>
@@ -5563,16 +5578,16 @@
       <c r="F124" t="str">
         <v/>
       </c>
-      <c r="G124" t="str">
-        <v/>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
-      </c>
       <c r="I124" t="str">
         <v/>
       </c>
-      <c r="J124" t="str">
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" t="str">
+        <v/>
+      </c>
+      <c r="L124" t="str">
         <v/>
       </c>
     </row>
@@ -5595,16 +5610,16 @@
       <c r="F125" t="str">
         <v/>
       </c>
-      <c r="G125" t="str">
-        <v/>
-      </c>
-      <c r="H125" t="b">
-        <v>0</v>
-      </c>
       <c r="I125" t="str">
         <v/>
       </c>
-      <c r="J125" t="str">
+      <c r="J125" t="b">
+        <v>0</v>
+      </c>
+      <c r="K125" t="str">
+        <v/>
+      </c>
+      <c r="L125" t="str">
         <v/>
       </c>
     </row>
@@ -5627,16 +5642,16 @@
       <c r="F126" t="str">
         <v/>
       </c>
-      <c r="G126" t="str">
-        <v/>
-      </c>
-      <c r="H126" t="b">
-        <v>0</v>
-      </c>
       <c r="I126" t="str">
         <v/>
       </c>
-      <c r="J126" t="str">
+      <c r="J126" t="b">
+        <v>0</v>
+      </c>
+      <c r="K126" t="str">
+        <v/>
+      </c>
+      <c r="L126" t="str">
         <v/>
       </c>
     </row>
@@ -5659,16 +5674,16 @@
       <c r="F127" t="str">
         <v/>
       </c>
-      <c r="G127" t="str">
-        <v/>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
       <c r="I127" t="str">
         <v/>
       </c>
-      <c r="J127" t="str">
+      <c r="J127" t="b">
+        <v>0</v>
+      </c>
+      <c r="K127" t="str">
+        <v/>
+      </c>
+      <c r="L127" t="str">
         <v/>
       </c>
     </row>
@@ -5691,16 +5706,16 @@
       <c r="F128" t="str">
         <v/>
       </c>
-      <c r="G128" t="str">
-        <v/>
-      </c>
-      <c r="H128" t="b">
-        <v>0</v>
-      </c>
       <c r="I128" t="str">
         <v/>
       </c>
-      <c r="J128" t="str">
+      <c r="J128" t="b">
+        <v>0</v>
+      </c>
+      <c r="K128" t="str">
+        <v/>
+      </c>
+      <c r="L128" t="str">
         <v/>
       </c>
     </row>
@@ -5723,16 +5738,16 @@
       <c r="F129" t="str">
         <v/>
       </c>
-      <c r="G129" t="str">
-        <v/>
-      </c>
-      <c r="H129" t="b">
-        <v>0</v>
-      </c>
       <c r="I129" t="str">
         <v/>
       </c>
-      <c r="J129" t="str">
+      <c r="J129" t="b">
+        <v>0</v>
+      </c>
+      <c r="K129" t="str">
+        <v/>
+      </c>
+      <c r="L129" t="str">
         <v/>
       </c>
     </row>
@@ -5755,16 +5770,16 @@
       <c r="F130" t="str">
         <v/>
       </c>
-      <c r="G130" t="str">
-        <v/>
-      </c>
-      <c r="H130" t="b">
-        <v>0</v>
-      </c>
       <c r="I130" t="str">
         <v/>
       </c>
-      <c r="J130" t="str">
+      <c r="J130" t="b">
+        <v>0</v>
+      </c>
+      <c r="K130" t="str">
+        <v/>
+      </c>
+      <c r="L130" t="str">
         <v/>
       </c>
     </row>
@@ -5787,16 +5802,16 @@
       <c r="F131" t="str">
         <v/>
       </c>
-      <c r="G131" t="str">
-        <v/>
-      </c>
-      <c r="H131" t="b">
-        <v>0</v>
-      </c>
       <c r="I131" t="str">
         <v/>
       </c>
-      <c r="J131" t="str">
+      <c r="J131" t="b">
+        <v>0</v>
+      </c>
+      <c r="K131" t="str">
+        <v/>
+      </c>
+      <c r="L131" t="str">
         <v/>
       </c>
     </row>
@@ -5819,16 +5834,16 @@
       <c r="F132" t="str">
         <v/>
       </c>
-      <c r="G132" t="str">
-        <v/>
-      </c>
-      <c r="H132" t="b">
-        <v>0</v>
-      </c>
       <c r="I132" t="str">
         <v/>
       </c>
-      <c r="J132" t="str">
+      <c r="J132" t="b">
+        <v>0</v>
+      </c>
+      <c r="K132" t="str">
+        <v/>
+      </c>
+      <c r="L132" t="str">
         <v/>
       </c>
     </row>
@@ -5851,16 +5866,16 @@
       <c r="F133" t="str">
         <v/>
       </c>
-      <c r="G133" t="str">
-        <v/>
-      </c>
-      <c r="H133" t="b">
-        <v>0</v>
-      </c>
       <c r="I133" t="str">
         <v/>
       </c>
-      <c r="J133" t="str">
+      <c r="J133" t="b">
+        <v>0</v>
+      </c>
+      <c r="K133" t="str">
+        <v/>
+      </c>
+      <c r="L133" t="str">
         <v/>
       </c>
     </row>
@@ -5883,16 +5898,16 @@
       <c r="F134" t="str">
         <v/>
       </c>
-      <c r="G134" t="str">
-        <v/>
-      </c>
-      <c r="H134" t="b">
-        <v>0</v>
-      </c>
       <c r="I134" t="str">
         <v/>
       </c>
-      <c r="J134" t="str">
+      <c r="J134" t="b">
+        <v>0</v>
+      </c>
+      <c r="K134" t="str">
+        <v/>
+      </c>
+      <c r="L134" t="str">
         <v/>
       </c>
     </row>
@@ -5915,16 +5930,16 @@
       <c r="F135" t="str">
         <v/>
       </c>
-      <c r="G135" t="str">
-        <v/>
-      </c>
-      <c r="H135" t="b">
-        <v>0</v>
-      </c>
       <c r="I135" t="str">
         <v/>
       </c>
-      <c r="J135" t="str">
+      <c r="J135" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" t="str">
+        <v/>
+      </c>
+      <c r="L135" t="str">
         <v/>
       </c>
     </row>
@@ -5947,16 +5962,16 @@
       <c r="F136" t="str">
         <v/>
       </c>
-      <c r="G136" t="str">
-        <v/>
-      </c>
-      <c r="H136" t="b">
-        <v>0</v>
-      </c>
       <c r="I136" t="str">
         <v/>
       </c>
-      <c r="J136" t="str">
+      <c r="J136" t="b">
+        <v>0</v>
+      </c>
+      <c r="K136" t="str">
+        <v/>
+      </c>
+      <c r="L136" t="str">
         <v/>
       </c>
     </row>
@@ -5979,16 +5994,16 @@
       <c r="F137" t="str">
         <v/>
       </c>
-      <c r="G137" t="str">
-        <v/>
-      </c>
-      <c r="H137" t="b">
-        <v>0</v>
-      </c>
       <c r="I137" t="str">
         <v/>
       </c>
-      <c r="J137" t="str">
+      <c r="J137" t="b">
+        <v>0</v>
+      </c>
+      <c r="K137" t="str">
+        <v/>
+      </c>
+      <c r="L137" t="str">
         <v/>
       </c>
     </row>
@@ -6011,16 +6026,16 @@
       <c r="F138" t="str">
         <v/>
       </c>
-      <c r="G138" t="str">
-        <v/>
-      </c>
-      <c r="H138" t="b">
-        <v>0</v>
-      </c>
       <c r="I138" t="str">
         <v/>
       </c>
-      <c r="J138" t="str">
+      <c r="J138" t="b">
+        <v>0</v>
+      </c>
+      <c r="K138" t="str">
+        <v/>
+      </c>
+      <c r="L138" t="str">
         <v/>
       </c>
     </row>
@@ -6043,16 +6058,16 @@
       <c r="F139" t="str">
         <v/>
       </c>
-      <c r="G139" t="str">
-        <v/>
-      </c>
-      <c r="H139" t="b">
-        <v>0</v>
-      </c>
       <c r="I139" t="str">
         <v/>
       </c>
-      <c r="J139" t="str">
+      <c r="J139" t="b">
+        <v>0</v>
+      </c>
+      <c r="K139" t="str">
+        <v/>
+      </c>
+      <c r="L139" t="str">
         <v/>
       </c>
     </row>
@@ -6075,16 +6090,16 @@
       <c r="F140" t="str">
         <v/>
       </c>
-      <c r="G140" t="str">
-        <v/>
-      </c>
-      <c r="H140" t="b">
-        <v>0</v>
-      </c>
       <c r="I140" t="str">
         <v/>
       </c>
-      <c r="J140" t="str">
+      <c r="J140" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" t="str">
+        <v/>
+      </c>
+      <c r="L140" t="str">
         <v/>
       </c>
     </row>
@@ -6107,16 +6122,16 @@
       <c r="F141" t="str">
         <v/>
       </c>
-      <c r="G141" t="str">
-        <v/>
-      </c>
-      <c r="H141" t="b">
-        <v>0</v>
-      </c>
       <c r="I141" t="str">
         <v/>
       </c>
-      <c r="J141" t="str">
+      <c r="J141" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" t="str">
+        <v/>
+      </c>
+      <c r="L141" t="str">
         <v/>
       </c>
     </row>
@@ -6139,16 +6154,16 @@
       <c r="F142" t="str">
         <v/>
       </c>
-      <c r="G142" t="str">
-        <v/>
-      </c>
-      <c r="H142" t="b">
-        <v>0</v>
-      </c>
       <c r="I142" t="str">
         <v/>
       </c>
-      <c r="J142" t="str">
+      <c r="J142" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" t="str">
+        <v/>
+      </c>
+      <c r="L142" t="str">
         <v/>
       </c>
     </row>
@@ -6171,16 +6186,16 @@
       <c r="F143" t="str">
         <v/>
       </c>
-      <c r="G143" t="str">
-        <v/>
-      </c>
-      <c r="H143" t="b">
-        <v>0</v>
-      </c>
       <c r="I143" t="str">
         <v/>
       </c>
-      <c r="J143" t="str">
+      <c r="J143" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" t="str">
+        <v/>
+      </c>
+      <c r="L143" t="str">
         <v/>
       </c>
     </row>
@@ -6203,16 +6218,16 @@
       <c r="F144" t="str">
         <v/>
       </c>
-      <c r="G144" t="str">
-        <v/>
-      </c>
-      <c r="H144" t="b">
-        <v>0</v>
-      </c>
       <c r="I144" t="str">
         <v/>
       </c>
-      <c r="J144" t="str">
+      <c r="J144" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" t="str">
+        <v/>
+      </c>
+      <c r="L144" t="str">
         <v/>
       </c>
     </row>
@@ -6235,16 +6250,16 @@
       <c r="F145" t="str">
         <v/>
       </c>
-      <c r="G145" t="str">
-        <v/>
-      </c>
-      <c r="H145" t="b">
-        <v>0</v>
-      </c>
       <c r="I145" t="str">
         <v/>
       </c>
-      <c r="J145" t="str">
+      <c r="J145" t="b">
+        <v>0</v>
+      </c>
+      <c r="K145" t="str">
+        <v/>
+      </c>
+      <c r="L145" t="str">
         <v/>
       </c>
     </row>
@@ -6267,16 +6282,16 @@
       <c r="F146" t="str">
         <v/>
       </c>
-      <c r="G146" t="str">
-        <v/>
-      </c>
-      <c r="H146" t="b">
-        <v>0</v>
-      </c>
       <c r="I146" t="str">
         <v/>
       </c>
-      <c r="J146" t="str">
+      <c r="J146" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" t="str">
+        <v/>
+      </c>
+      <c r="L146" t="str">
         <v/>
       </c>
     </row>
@@ -6299,16 +6314,16 @@
       <c r="F147" t="str">
         <v/>
       </c>
-      <c r="G147" t="str">
-        <v/>
-      </c>
-      <c r="H147" t="b">
-        <v>0</v>
-      </c>
       <c r="I147" t="str">
         <v/>
       </c>
-      <c r="J147" t="str">
+      <c r="J147" t="b">
+        <v>0</v>
+      </c>
+      <c r="K147" t="str">
+        <v/>
+      </c>
+      <c r="L147" t="str">
         <v/>
       </c>
     </row>
@@ -6331,16 +6346,16 @@
       <c r="F148" t="str">
         <v/>
       </c>
-      <c r="G148" t="str">
-        <v/>
-      </c>
-      <c r="H148" t="b">
-        <v>0</v>
-      </c>
       <c r="I148" t="str">
         <v/>
       </c>
-      <c r="J148" t="str">
+      <c r="J148" t="b">
+        <v>0</v>
+      </c>
+      <c r="K148" t="str">
+        <v/>
+      </c>
+      <c r="L148" t="str">
         <v/>
       </c>
     </row>
@@ -6363,16 +6378,16 @@
       <c r="F149" t="str">
         <v/>
       </c>
-      <c r="G149" t="str">
-        <v/>
-      </c>
-      <c r="H149" t="b">
-        <v>0</v>
-      </c>
       <c r="I149" t="str">
         <v/>
       </c>
-      <c r="J149" t="str">
+      <c r="J149" t="b">
+        <v>0</v>
+      </c>
+      <c r="K149" t="str">
+        <v/>
+      </c>
+      <c r="L149" t="str">
         <v/>
       </c>
     </row>
@@ -6395,16 +6410,16 @@
       <c r="F150" t="str">
         <v/>
       </c>
-      <c r="G150" t="str">
-        <v/>
-      </c>
-      <c r="H150" t="b">
-        <v>0</v>
-      </c>
       <c r="I150" t="str">
         <v/>
       </c>
-      <c r="J150" t="str">
+      <c r="J150" t="b">
+        <v>0</v>
+      </c>
+      <c r="K150" t="str">
+        <v/>
+      </c>
+      <c r="L150" t="str">
         <v/>
       </c>
     </row>
@@ -6427,16 +6442,16 @@
       <c r="F151" t="str">
         <v/>
       </c>
-      <c r="G151" t="str">
-        <v/>
-      </c>
-      <c r="H151" t="b">
-        <v>0</v>
-      </c>
       <c r="I151" t="str">
         <v/>
       </c>
-      <c r="J151" t="str">
+      <c r="J151" t="b">
+        <v>0</v>
+      </c>
+      <c r="K151" t="str">
+        <v/>
+      </c>
+      <c r="L151" t="str">
         <v/>
       </c>
     </row>
@@ -6459,16 +6474,16 @@
       <c r="F152" t="str">
         <v/>
       </c>
-      <c r="G152" t="str">
-        <v/>
-      </c>
-      <c r="H152" t="b">
-        <v>0</v>
-      </c>
       <c r="I152" t="str">
         <v/>
       </c>
-      <c r="J152" t="str">
+      <c r="J152" t="b">
+        <v>0</v>
+      </c>
+      <c r="K152" t="str">
+        <v/>
+      </c>
+      <c r="L152" t="str">
         <v/>
       </c>
     </row>
@@ -6491,16 +6506,16 @@
       <c r="F153" t="str">
         <v/>
       </c>
-      <c r="G153" t="str">
-        <v/>
-      </c>
-      <c r="H153" t="b">
-        <v>0</v>
-      </c>
       <c r="I153" t="str">
         <v/>
       </c>
-      <c r="J153" t="str">
+      <c r="J153" t="b">
+        <v>0</v>
+      </c>
+      <c r="K153" t="str">
+        <v/>
+      </c>
+      <c r="L153" t="str">
         <v/>
       </c>
     </row>
@@ -6523,16 +6538,16 @@
       <c r="F154" t="str">
         <v/>
       </c>
-      <c r="G154" t="str">
-        <v/>
-      </c>
-      <c r="H154" t="b">
-        <v>0</v>
-      </c>
       <c r="I154" t="str">
         <v/>
       </c>
-      <c r="J154" t="str">
+      <c r="J154" t="b">
+        <v>0</v>
+      </c>
+      <c r="K154" t="str">
+        <v/>
+      </c>
+      <c r="L154" t="str">
         <v/>
       </c>
     </row>
@@ -6555,16 +6570,16 @@
       <c r="F155" t="str">
         <v/>
       </c>
-      <c r="G155" t="str">
-        <v/>
-      </c>
-      <c r="H155" t="b">
-        <v>0</v>
-      </c>
       <c r="I155" t="str">
         <v/>
       </c>
-      <c r="J155" t="str">
+      <c r="J155" t="b">
+        <v>0</v>
+      </c>
+      <c r="K155" t="str">
+        <v/>
+      </c>
+      <c r="L155" t="str">
         <v/>
       </c>
     </row>
@@ -6587,16 +6602,16 @@
       <c r="F156" t="str">
         <v/>
       </c>
-      <c r="G156" t="str">
-        <v/>
-      </c>
-      <c r="H156" t="b">
-        <v>0</v>
-      </c>
       <c r="I156" t="str">
         <v/>
       </c>
-      <c r="J156" t="str">
+      <c r="J156" t="b">
+        <v>0</v>
+      </c>
+      <c r="K156" t="str">
+        <v/>
+      </c>
+      <c r="L156" t="str">
         <v/>
       </c>
     </row>
@@ -6619,16 +6634,16 @@
       <c r="F157" t="str">
         <v/>
       </c>
-      <c r="G157" t="str">
-        <v/>
-      </c>
-      <c r="H157" t="b">
-        <v>0</v>
-      </c>
       <c r="I157" t="str">
         <v/>
       </c>
-      <c r="J157" t="str">
+      <c r="J157" t="b">
+        <v>0</v>
+      </c>
+      <c r="K157" t="str">
+        <v/>
+      </c>
+      <c r="L157" t="str">
         <v/>
       </c>
     </row>
@@ -6651,16 +6666,16 @@
       <c r="F158" t="str">
         <v/>
       </c>
-      <c r="G158" t="str">
-        <v/>
-      </c>
-      <c r="H158" t="b">
-        <v>0</v>
-      </c>
       <c r="I158" t="str">
         <v/>
       </c>
-      <c r="J158" t="str">
+      <c r="J158" t="b">
+        <v>0</v>
+      </c>
+      <c r="K158" t="str">
+        <v/>
+      </c>
+      <c r="L158" t="str">
         <v/>
       </c>
     </row>
@@ -6683,16 +6698,16 @@
       <c r="F159" t="str">
         <v/>
       </c>
-      <c r="G159" t="str">
-        <v/>
-      </c>
-      <c r="H159" t="b">
-        <v>0</v>
-      </c>
       <c r="I159" t="str">
         <v/>
       </c>
-      <c r="J159" t="str">
+      <c r="J159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K159" t="str">
+        <v/>
+      </c>
+      <c r="L159" t="str">
         <v/>
       </c>
     </row>
@@ -6715,16 +6730,16 @@
       <c r="F160" t="str">
         <v/>
       </c>
-      <c r="G160" t="str">
-        <v/>
-      </c>
-      <c r="H160" t="b">
-        <v>0</v>
-      </c>
       <c r="I160" t="str">
         <v/>
       </c>
-      <c r="J160" t="str">
+      <c r="J160" t="b">
+        <v>0</v>
+      </c>
+      <c r="K160" t="str">
+        <v/>
+      </c>
+      <c r="L160" t="str">
         <v/>
       </c>
     </row>
@@ -6747,16 +6762,16 @@
       <c r="F161" t="str">
         <v/>
       </c>
-      <c r="G161" t="str">
-        <v/>
-      </c>
-      <c r="H161" t="b">
-        <v>0</v>
-      </c>
       <c r="I161" t="str">
         <v/>
       </c>
-      <c r="J161" t="str">
+      <c r="J161" t="b">
+        <v>0</v>
+      </c>
+      <c r="K161" t="str">
+        <v/>
+      </c>
+      <c r="L161" t="str">
         <v/>
       </c>
     </row>
@@ -6779,16 +6794,16 @@
       <c r="F162" t="str">
         <v/>
       </c>
-      <c r="G162" t="str">
-        <v/>
-      </c>
-      <c r="H162" t="b">
-        <v>0</v>
-      </c>
       <c r="I162" t="str">
         <v/>
       </c>
-      <c r="J162" t="str">
+      <c r="J162" t="b">
+        <v>0</v>
+      </c>
+      <c r="K162" t="str">
+        <v/>
+      </c>
+      <c r="L162" t="str">
         <v/>
       </c>
     </row>
@@ -6811,16 +6826,16 @@
       <c r="F163" t="str">
         <v/>
       </c>
-      <c r="G163" t="str">
-        <v/>
-      </c>
-      <c r="H163" t="b">
-        <v>0</v>
-      </c>
       <c r="I163" t="str">
         <v/>
       </c>
-      <c r="J163" t="str">
+      <c r="J163" t="b">
+        <v>0</v>
+      </c>
+      <c r="K163" t="str">
+        <v/>
+      </c>
+      <c r="L163" t="str">
         <v/>
       </c>
     </row>
@@ -6843,16 +6858,16 @@
       <c r="F164" t="str">
         <v/>
       </c>
-      <c r="G164" t="str">
-        <v/>
-      </c>
-      <c r="H164" t="b">
-        <v>0</v>
-      </c>
       <c r="I164" t="str">
         <v/>
       </c>
-      <c r="J164" t="str">
+      <c r="J164" t="b">
+        <v>0</v>
+      </c>
+      <c r="K164" t="str">
+        <v/>
+      </c>
+      <c r="L164" t="str">
         <v/>
       </c>
     </row>
@@ -6875,16 +6890,16 @@
       <c r="F165" t="str">
         <v/>
       </c>
-      <c r="G165" t="str">
-        <v/>
-      </c>
-      <c r="H165" t="b">
-        <v>0</v>
-      </c>
       <c r="I165" t="str">
         <v/>
       </c>
-      <c r="J165" t="str">
+      <c r="J165" t="b">
+        <v>0</v>
+      </c>
+      <c r="K165" t="str">
+        <v/>
+      </c>
+      <c r="L165" t="str">
         <v/>
       </c>
     </row>
@@ -6907,16 +6922,16 @@
       <c r="F166" t="str">
         <v/>
       </c>
-      <c r="G166" t="str">
-        <v/>
-      </c>
-      <c r="H166" t="b">
-        <v>0</v>
-      </c>
       <c r="I166" t="str">
         <v/>
       </c>
-      <c r="J166" t="str">
+      <c r="J166" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" t="str">
+        <v/>
+      </c>
+      <c r="L166" t="str">
         <v/>
       </c>
     </row>
@@ -6939,16 +6954,16 @@
       <c r="F167" t="str">
         <v/>
       </c>
-      <c r="G167" t="str">
-        <v/>
-      </c>
-      <c r="H167" t="b">
-        <v>0</v>
-      </c>
       <c r="I167" t="str">
         <v/>
       </c>
-      <c r="J167" t="str">
+      <c r="J167" t="b">
+        <v>0</v>
+      </c>
+      <c r="K167" t="str">
+        <v/>
+      </c>
+      <c r="L167" t="str">
         <v/>
       </c>
     </row>
@@ -6971,16 +6986,16 @@
       <c r="F168" t="str">
         <v/>
       </c>
-      <c r="G168" t="str">
-        <v/>
-      </c>
-      <c r="H168" t="b">
-        <v>0</v>
-      </c>
       <c r="I168" t="str">
         <v/>
       </c>
-      <c r="J168" t="str">
+      <c r="J168" t="b">
+        <v>0</v>
+      </c>
+      <c r="K168" t="str">
+        <v/>
+      </c>
+      <c r="L168" t="str">
         <v/>
       </c>
     </row>
@@ -7003,16 +7018,16 @@
       <c r="F169" t="str">
         <v/>
       </c>
-      <c r="G169" t="str">
-        <v/>
-      </c>
-      <c r="H169" t="b">
-        <v>0</v>
-      </c>
       <c r="I169" t="str">
         <v/>
       </c>
-      <c r="J169" t="str">
+      <c r="J169" t="b">
+        <v>0</v>
+      </c>
+      <c r="K169" t="str">
+        <v/>
+      </c>
+      <c r="L169" t="str">
         <v/>
       </c>
     </row>
@@ -7035,16 +7050,16 @@
       <c r="F170" t="str">
         <v/>
       </c>
-      <c r="G170" t="str">
-        <v/>
-      </c>
-      <c r="H170" t="b">
-        <v>0</v>
-      </c>
       <c r="I170" t="str">
         <v/>
       </c>
-      <c r="J170" t="str">
+      <c r="J170" t="b">
+        <v>0</v>
+      </c>
+      <c r="K170" t="str">
+        <v/>
+      </c>
+      <c r="L170" t="str">
         <v/>
       </c>
     </row>
@@ -7067,16 +7082,16 @@
       <c r="F171" t="str">
         <v/>
       </c>
-      <c r="G171" t="str">
-        <v/>
-      </c>
-      <c r="H171" t="b">
-        <v>0</v>
-      </c>
       <c r="I171" t="str">
         <v/>
       </c>
-      <c r="J171" t="str">
+      <c r="J171" t="b">
+        <v>0</v>
+      </c>
+      <c r="K171" t="str">
+        <v/>
+      </c>
+      <c r="L171" t="str">
         <v/>
       </c>
     </row>
@@ -7099,16 +7114,16 @@
       <c r="F172" t="str">
         <v/>
       </c>
-      <c r="G172" t="str">
-        <v/>
-      </c>
-      <c r="H172" t="b">
-        <v>0</v>
-      </c>
       <c r="I172" t="str">
         <v/>
       </c>
-      <c r="J172" t="str">
+      <c r="J172" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" t="str">
+        <v/>
+      </c>
+      <c r="L172" t="str">
         <v/>
       </c>
     </row>
@@ -7131,16 +7146,16 @@
       <c r="F173" t="str">
         <v/>
       </c>
-      <c r="G173" t="str">
-        <v/>
-      </c>
-      <c r="H173" t="b">
-        <v>0</v>
-      </c>
       <c r="I173" t="str">
         <v/>
       </c>
-      <c r="J173" t="str">
+      <c r="J173" t="b">
+        <v>0</v>
+      </c>
+      <c r="K173" t="str">
+        <v/>
+      </c>
+      <c r="L173" t="str">
         <v/>
       </c>
     </row>
@@ -7163,16 +7178,16 @@
       <c r="F174" t="str">
         <v/>
       </c>
-      <c r="G174" t="str">
-        <v/>
-      </c>
-      <c r="H174" t="b">
-        <v>0</v>
-      </c>
       <c r="I174" t="str">
         <v/>
       </c>
-      <c r="J174" t="str">
+      <c r="J174" t="b">
+        <v>0</v>
+      </c>
+      <c r="K174" t="str">
+        <v/>
+      </c>
+      <c r="L174" t="str">
         <v/>
       </c>
     </row>
@@ -7195,16 +7210,16 @@
       <c r="F175" t="str">
         <v/>
       </c>
-      <c r="G175" t="str">
-        <v/>
-      </c>
-      <c r="H175" t="b">
-        <v>0</v>
-      </c>
       <c r="I175" t="str">
         <v/>
       </c>
-      <c r="J175" t="str">
+      <c r="J175" t="b">
+        <v>0</v>
+      </c>
+      <c r="K175" t="str">
+        <v/>
+      </c>
+      <c r="L175" t="str">
         <v/>
       </c>
     </row>
@@ -7227,16 +7242,16 @@
       <c r="F176" t="str">
         <v/>
       </c>
-      <c r="G176" t="str">
-        <v/>
-      </c>
-      <c r="H176" t="b">
-        <v>0</v>
-      </c>
       <c r="I176" t="str">
         <v/>
       </c>
-      <c r="J176" t="str">
+      <c r="J176" t="b">
+        <v>0</v>
+      </c>
+      <c r="K176" t="str">
+        <v/>
+      </c>
+      <c r="L176" t="str">
         <v/>
       </c>
     </row>
@@ -7259,16 +7274,16 @@
       <c r="F177" t="str">
         <v/>
       </c>
-      <c r="G177" t="str">
-        <v/>
-      </c>
-      <c r="H177" t="b">
-        <v>0</v>
-      </c>
       <c r="I177" t="str">
         <v/>
       </c>
-      <c r="J177" t="str">
+      <c r="J177" t="b">
+        <v>0</v>
+      </c>
+      <c r="K177" t="str">
+        <v/>
+      </c>
+      <c r="L177" t="str">
         <v/>
       </c>
     </row>
@@ -7291,16 +7306,16 @@
       <c r="F178" t="str">
         <v/>
       </c>
-      <c r="G178" t="str">
-        <v/>
-      </c>
-      <c r="H178" t="b">
-        <v>0</v>
-      </c>
       <c r="I178" t="str">
         <v/>
       </c>
-      <c r="J178" t="str">
+      <c r="J178" t="b">
+        <v>0</v>
+      </c>
+      <c r="K178" t="str">
+        <v/>
+      </c>
+      <c r="L178" t="str">
         <v/>
       </c>
     </row>
@@ -7323,16 +7338,16 @@
       <c r="F179" t="str">
         <v/>
       </c>
-      <c r="G179" t="str">
-        <v/>
-      </c>
-      <c r="H179" t="b">
-        <v>0</v>
-      </c>
       <c r="I179" t="str">
         <v/>
       </c>
-      <c r="J179" t="str">
+      <c r="J179" t="b">
+        <v>0</v>
+      </c>
+      <c r="K179" t="str">
+        <v/>
+      </c>
+      <c r="L179" t="str">
         <v/>
       </c>
     </row>
@@ -7355,16 +7370,16 @@
       <c r="F180" t="str">
         <v/>
       </c>
-      <c r="G180" t="str">
-        <v/>
-      </c>
-      <c r="H180" t="b">
-        <v>0</v>
-      </c>
       <c r="I180" t="str">
         <v/>
       </c>
-      <c r="J180" t="str">
+      <c r="J180" t="b">
+        <v>0</v>
+      </c>
+      <c r="K180" t="str">
+        <v/>
+      </c>
+      <c r="L180" t="str">
         <v/>
       </c>
     </row>
@@ -7387,16 +7402,16 @@
       <c r="F181" t="str">
         <v/>
       </c>
-      <c r="G181" t="str">
-        <v/>
-      </c>
-      <c r="H181" t="b">
-        <v>0</v>
-      </c>
       <c r="I181" t="str">
         <v/>
       </c>
-      <c r="J181" t="str">
+      <c r="J181" t="b">
+        <v>0</v>
+      </c>
+      <c r="K181" t="str">
+        <v/>
+      </c>
+      <c r="L181" t="str">
         <v/>
       </c>
     </row>
@@ -7419,16 +7434,16 @@
       <c r="F182" t="str">
         <v/>
       </c>
-      <c r="G182" t="str">
-        <v/>
-      </c>
-      <c r="H182" t="b">
-        <v>0</v>
-      </c>
       <c r="I182" t="str">
         <v/>
       </c>
-      <c r="J182" t="str">
+      <c r="J182" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" t="str">
+        <v/>
+      </c>
+      <c r="L182" t="str">
         <v/>
       </c>
     </row>
@@ -7451,16 +7466,16 @@
       <c r="F183" t="str">
         <v/>
       </c>
-      <c r="G183" t="str">
-        <v/>
-      </c>
-      <c r="H183" t="b">
-        <v>0</v>
-      </c>
       <c r="I183" t="str">
         <v/>
       </c>
-      <c r="J183" t="str">
+      <c r="J183" t="b">
+        <v>0</v>
+      </c>
+      <c r="K183" t="str">
+        <v/>
+      </c>
+      <c r="L183" t="str">
         <v/>
       </c>
     </row>
@@ -7483,16 +7498,16 @@
       <c r="F184" t="str">
         <v/>
       </c>
-      <c r="G184" t="str">
-        <v/>
-      </c>
-      <c r="H184" t="b">
-        <v>0</v>
-      </c>
       <c r="I184" t="str">
         <v/>
       </c>
-      <c r="J184" t="str">
+      <c r="J184" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" t="str">
+        <v/>
+      </c>
+      <c r="L184" t="str">
         <v/>
       </c>
     </row>
@@ -7515,16 +7530,16 @@
       <c r="F185" t="str">
         <v/>
       </c>
-      <c r="G185" t="str">
-        <v/>
-      </c>
-      <c r="H185" t="b">
-        <v>0</v>
-      </c>
       <c r="I185" t="str">
         <v/>
       </c>
-      <c r="J185" t="str">
+      <c r="J185" t="b">
+        <v>0</v>
+      </c>
+      <c r="K185" t="str">
+        <v/>
+      </c>
+      <c r="L185" t="str">
         <v/>
       </c>
     </row>
@@ -7547,16 +7562,16 @@
       <c r="F186" t="str">
         <v/>
       </c>
-      <c r="G186" t="str">
-        <v/>
-      </c>
-      <c r="H186" t="b">
-        <v>0</v>
-      </c>
       <c r="I186" t="str">
         <v/>
       </c>
-      <c r="J186" t="str">
+      <c r="J186" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" t="str">
+        <v/>
+      </c>
+      <c r="L186" t="str">
         <v/>
       </c>
     </row>
@@ -7579,16 +7594,16 @@
       <c r="F187" t="str">
         <v/>
       </c>
-      <c r="G187" t="str">
-        <v/>
-      </c>
-      <c r="H187" t="b">
-        <v>0</v>
-      </c>
       <c r="I187" t="str">
         <v/>
       </c>
-      <c r="J187" t="str">
+      <c r="J187" t="b">
+        <v>0</v>
+      </c>
+      <c r="K187" t="str">
+        <v/>
+      </c>
+      <c r="L187" t="str">
         <v/>
       </c>
     </row>
@@ -7611,16 +7626,16 @@
       <c r="F188" t="str">
         <v/>
       </c>
-      <c r="G188" t="str">
-        <v/>
-      </c>
-      <c r="H188" t="b">
-        <v>0</v>
-      </c>
       <c r="I188" t="str">
         <v/>
       </c>
-      <c r="J188" t="str">
+      <c r="J188" t="b">
+        <v>0</v>
+      </c>
+      <c r="K188" t="str">
+        <v/>
+      </c>
+      <c r="L188" t="str">
         <v/>
       </c>
     </row>
@@ -7643,16 +7658,16 @@
       <c r="F189" t="str">
         <v/>
       </c>
-      <c r="G189" t="str">
-        <v/>
-      </c>
-      <c r="H189" t="b">
-        <v>0</v>
-      </c>
       <c r="I189" t="str">
         <v/>
       </c>
-      <c r="J189" t="str">
+      <c r="J189" t="b">
+        <v>0</v>
+      </c>
+      <c r="K189" t="str">
+        <v/>
+      </c>
+      <c r="L189" t="str">
         <v/>
       </c>
     </row>
@@ -7675,16 +7690,16 @@
       <c r="F190" t="str">
         <v/>
       </c>
-      <c r="G190" t="str">
-        <v/>
-      </c>
-      <c r="H190" t="b">
-        <v>0</v>
-      </c>
       <c r="I190" t="str">
         <v/>
       </c>
-      <c r="J190" t="str">
+      <c r="J190" t="b">
+        <v>0</v>
+      </c>
+      <c r="K190" t="str">
+        <v/>
+      </c>
+      <c r="L190" t="str">
         <v/>
       </c>
     </row>
@@ -7707,16 +7722,16 @@
       <c r="F191" t="str">
         <v/>
       </c>
-      <c r="G191" t="str">
-        <v/>
-      </c>
-      <c r="H191" t="b">
-        <v>0</v>
-      </c>
       <c r="I191" t="str">
         <v/>
       </c>
-      <c r="J191" t="str">
+      <c r="J191" t="b">
+        <v>0</v>
+      </c>
+      <c r="K191" t="str">
+        <v/>
+      </c>
+      <c r="L191" t="str">
         <v/>
       </c>
     </row>
@@ -7739,16 +7754,16 @@
       <c r="F192" t="str">
         <v/>
       </c>
-      <c r="G192" t="str">
-        <v/>
-      </c>
-      <c r="H192" t="b">
-        <v>0</v>
-      </c>
       <c r="I192" t="str">
         <v/>
       </c>
-      <c r="J192" t="str">
+      <c r="J192" t="b">
+        <v>0</v>
+      </c>
+      <c r="K192" t="str">
+        <v/>
+      </c>
+      <c r="L192" t="str">
         <v/>
       </c>
     </row>
@@ -7771,16 +7786,16 @@
       <c r="F193" t="str">
         <v/>
       </c>
-      <c r="G193" t="str">
-        <v/>
-      </c>
-      <c r="H193" t="b">
-        <v>0</v>
-      </c>
       <c r="I193" t="str">
         <v/>
       </c>
-      <c r="J193" t="str">
+      <c r="J193" t="b">
+        <v>0</v>
+      </c>
+      <c r="K193" t="str">
+        <v/>
+      </c>
+      <c r="L193" t="str">
         <v/>
       </c>
     </row>
@@ -7803,16 +7818,16 @@
       <c r="F194" t="str">
         <v/>
       </c>
-      <c r="G194" t="str">
-        <v/>
-      </c>
-      <c r="H194" t="b">
-        <v>0</v>
-      </c>
       <c r="I194" t="str">
         <v/>
       </c>
-      <c r="J194" t="str">
+      <c r="J194" t="b">
+        <v>0</v>
+      </c>
+      <c r="K194" t="str">
+        <v/>
+      </c>
+      <c r="L194" t="str">
         <v/>
       </c>
     </row>
@@ -7835,16 +7850,16 @@
       <c r="F195" t="str">
         <v/>
       </c>
-      <c r="G195" t="str">
-        <v/>
-      </c>
-      <c r="H195" t="b">
-        <v>0</v>
-      </c>
       <c r="I195" t="str">
         <v/>
       </c>
-      <c r="J195" t="str">
+      <c r="J195" t="b">
+        <v>0</v>
+      </c>
+      <c r="K195" t="str">
+        <v/>
+      </c>
+      <c r="L195" t="str">
         <v/>
       </c>
     </row>
@@ -7867,16 +7882,16 @@
       <c r="F196" t="str">
         <v/>
       </c>
-      <c r="G196" t="str">
-        <v/>
-      </c>
-      <c r="H196" t="b">
-        <v>0</v>
-      </c>
       <c r="I196" t="str">
         <v/>
       </c>
-      <c r="J196" t="str">
+      <c r="J196" t="b">
+        <v>0</v>
+      </c>
+      <c r="K196" t="str">
+        <v/>
+      </c>
+      <c r="L196" t="str">
         <v/>
       </c>
     </row>
@@ -7899,16 +7914,16 @@
       <c r="F197" t="str">
         <v/>
       </c>
-      <c r="G197" t="str">
-        <v/>
-      </c>
-      <c r="H197" t="b">
-        <v>0</v>
-      </c>
       <c r="I197" t="str">
         <v/>
       </c>
-      <c r="J197" t="str">
+      <c r="J197" t="b">
+        <v>0</v>
+      </c>
+      <c r="K197" t="str">
+        <v/>
+      </c>
+      <c r="L197" t="str">
         <v/>
       </c>
     </row>
@@ -7931,16 +7946,16 @@
       <c r="F198" t="str">
         <v/>
       </c>
-      <c r="G198" t="str">
-        <v/>
-      </c>
-      <c r="H198" t="b">
-        <v>0</v>
-      </c>
       <c r="I198" t="str">
         <v/>
       </c>
-      <c r="J198" t="str">
+      <c r="J198" t="b">
+        <v>0</v>
+      </c>
+      <c r="K198" t="str">
+        <v/>
+      </c>
+      <c r="L198" t="str">
         <v/>
       </c>
     </row>
@@ -7963,16 +7978,16 @@
       <c r="F199" t="str">
         <v/>
       </c>
-      <c r="G199" t="str">
-        <v/>
-      </c>
-      <c r="H199" t="b">
-        <v>0</v>
-      </c>
       <c r="I199" t="str">
         <v/>
       </c>
-      <c r="J199" t="str">
+      <c r="J199" t="b">
+        <v>0</v>
+      </c>
+      <c r="K199" t="str">
+        <v/>
+      </c>
+      <c r="L199" t="str">
         <v/>
       </c>
     </row>
@@ -7995,16 +8010,16 @@
       <c r="F200" t="str">
         <v/>
       </c>
-      <c r="G200" t="str">
-        <v/>
-      </c>
-      <c r="H200" t="b">
-        <v>0</v>
-      </c>
       <c r="I200" t="str">
         <v/>
       </c>
-      <c r="J200" t="str">
+      <c r="J200" t="b">
+        <v>0</v>
+      </c>
+      <c r="K200" t="str">
+        <v/>
+      </c>
+      <c r="L200" t="str">
         <v/>
       </c>
     </row>
@@ -8027,16 +8042,16 @@
       <c r="F201" t="str">
         <v/>
       </c>
-      <c r="G201" t="str">
-        <v/>
-      </c>
-      <c r="H201" t="b">
-        <v>0</v>
-      </c>
       <c r="I201" t="str">
         <v/>
       </c>
-      <c r="J201" t="str">
+      <c r="J201" t="b">
+        <v>0</v>
+      </c>
+      <c r="K201" t="str">
+        <v/>
+      </c>
+      <c r="L201" t="str">
         <v/>
       </c>
     </row>
@@ -8059,16 +8074,16 @@
       <c r="F202" t="str">
         <v/>
       </c>
-      <c r="G202" t="str">
-        <v/>
-      </c>
-      <c r="H202" t="b">
-        <v>0</v>
-      </c>
       <c r="I202" t="str">
         <v/>
       </c>
-      <c r="J202" t="str">
+      <c r="J202" t="b">
+        <v>0</v>
+      </c>
+      <c r="K202" t="str">
+        <v/>
+      </c>
+      <c r="L202" t="str">
         <v/>
       </c>
     </row>
@@ -8091,16 +8106,16 @@
       <c r="F203" t="str">
         <v/>
       </c>
-      <c r="G203" t="str">
-        <v/>
-      </c>
-      <c r="H203" t="b">
-        <v>0</v>
-      </c>
       <c r="I203" t="str">
         <v/>
       </c>
-      <c r="J203" t="str">
+      <c r="J203" t="b">
+        <v>0</v>
+      </c>
+      <c r="K203" t="str">
+        <v/>
+      </c>
+      <c r="L203" t="str">
         <v/>
       </c>
     </row>
@@ -8123,16 +8138,16 @@
       <c r="F204" t="str">
         <v/>
       </c>
-      <c r="G204" t="str">
-        <v/>
-      </c>
-      <c r="H204" t="b">
-        <v>0</v>
-      </c>
       <c r="I204" t="str">
         <v/>
       </c>
-      <c r="J204" t="str">
+      <c r="J204" t="b">
+        <v>0</v>
+      </c>
+      <c r="K204" t="str">
+        <v/>
+      </c>
+      <c r="L204" t="str">
         <v/>
       </c>
     </row>
@@ -8155,16 +8170,16 @@
       <c r="F205" t="str">
         <v/>
       </c>
-      <c r="G205" t="str">
-        <v/>
-      </c>
-      <c r="H205" t="b">
-        <v>0</v>
-      </c>
       <c r="I205" t="str">
         <v/>
       </c>
-      <c r="J205" t="str">
+      <c r="J205" t="b">
+        <v>0</v>
+      </c>
+      <c r="K205" t="str">
+        <v/>
+      </c>
+      <c r="L205" t="str">
         <v/>
       </c>
     </row>
@@ -8187,16 +8202,16 @@
       <c r="F206" t="str">
         <v/>
       </c>
-      <c r="G206" t="str">
-        <v/>
-      </c>
-      <c r="H206" t="b">
-        <v>0</v>
-      </c>
       <c r="I206" t="str">
         <v/>
       </c>
-      <c r="J206" t="str">
+      <c r="J206" t="b">
+        <v>0</v>
+      </c>
+      <c r="K206" t="str">
+        <v/>
+      </c>
+      <c r="L206" t="str">
         <v/>
       </c>
     </row>
@@ -8219,16 +8234,16 @@
       <c r="F207" t="str">
         <v/>
       </c>
-      <c r="G207" t="str">
-        <v/>
-      </c>
-      <c r="H207" t="b">
-        <v>0</v>
-      </c>
       <c r="I207" t="str">
         <v/>
       </c>
-      <c r="J207" t="str">
+      <c r="J207" t="b">
+        <v>0</v>
+      </c>
+      <c r="K207" t="str">
+        <v/>
+      </c>
+      <c r="L207" t="str">
         <v/>
       </c>
     </row>
@@ -8251,16 +8266,16 @@
       <c r="F208" t="str">
         <v/>
       </c>
-      <c r="G208" t="str">
-        <v/>
-      </c>
-      <c r="H208" t="b">
-        <v>0</v>
-      </c>
       <c r="I208" t="str">
         <v/>
       </c>
-      <c r="J208" t="str">
+      <c r="J208" t="b">
+        <v>0</v>
+      </c>
+      <c r="K208" t="str">
+        <v/>
+      </c>
+      <c r="L208" t="str">
         <v/>
       </c>
     </row>
@@ -8283,16 +8298,16 @@
       <c r="F209" t="str">
         <v/>
       </c>
-      <c r="G209" t="str">
-        <v/>
-      </c>
-      <c r="H209" t="b">
-        <v>0</v>
-      </c>
       <c r="I209" t="str">
         <v/>
       </c>
-      <c r="J209" t="str">
+      <c r="J209" t="b">
+        <v>0</v>
+      </c>
+      <c r="K209" t="str">
+        <v/>
+      </c>
+      <c r="L209" t="str">
         <v/>
       </c>
     </row>
@@ -8315,16 +8330,16 @@
       <c r="F210" t="str">
         <v/>
       </c>
-      <c r="G210" t="str">
-        <v/>
-      </c>
-      <c r="H210" t="b">
-        <v>0</v>
-      </c>
       <c r="I210" t="str">
         <v/>
       </c>
-      <c r="J210" t="str">
+      <c r="J210" t="b">
+        <v>0</v>
+      </c>
+      <c r="K210" t="str">
+        <v/>
+      </c>
+      <c r="L210" t="str">
         <v/>
       </c>
     </row>
@@ -8347,16 +8362,16 @@
       <c r="F211" t="str">
         <v/>
       </c>
-      <c r="G211" t="str">
-        <v/>
-      </c>
-      <c r="H211" t="b">
-        <v>0</v>
-      </c>
       <c r="I211" t="str">
         <v/>
       </c>
-      <c r="J211" t="str">
+      <c r="J211" t="b">
+        <v>0</v>
+      </c>
+      <c r="K211" t="str">
+        <v/>
+      </c>
+      <c r="L211" t="str">
         <v/>
       </c>
     </row>
@@ -8379,16 +8394,16 @@
       <c r="F212" t="str">
         <v/>
       </c>
-      <c r="G212" t="str">
-        <v/>
-      </c>
-      <c r="H212" t="b">
-        <v>0</v>
-      </c>
       <c r="I212" t="str">
         <v/>
       </c>
-      <c r="J212" t="str">
+      <c r="J212" t="b">
+        <v>0</v>
+      </c>
+      <c r="K212" t="str">
+        <v/>
+      </c>
+      <c r="L212" t="str">
         <v/>
       </c>
     </row>
@@ -8411,16 +8426,16 @@
       <c r="F213" t="str">
         <v/>
       </c>
-      <c r="G213" t="str">
-        <v/>
-      </c>
-      <c r="H213" t="b">
-        <v>0</v>
-      </c>
       <c r="I213" t="str">
         <v/>
       </c>
-      <c r="J213" t="str">
+      <c r="J213" t="b">
+        <v>0</v>
+      </c>
+      <c r="K213" t="str">
+        <v/>
+      </c>
+      <c r="L213" t="str">
         <v/>
       </c>
     </row>
@@ -8443,16 +8458,16 @@
       <c r="F214" t="str">
         <v/>
       </c>
-      <c r="G214" t="str">
-        <v/>
-      </c>
-      <c r="H214" t="b">
-        <v>0</v>
-      </c>
       <c r="I214" t="str">
         <v/>
       </c>
-      <c r="J214" t="str">
+      <c r="J214" t="b">
+        <v>0</v>
+      </c>
+      <c r="K214" t="str">
+        <v/>
+      </c>
+      <c r="L214" t="str">
         <v/>
       </c>
     </row>
@@ -8475,16 +8490,16 @@
       <c r="F215" t="str">
         <v/>
       </c>
-      <c r="G215" t="str">
-        <v/>
-      </c>
-      <c r="H215" t="b">
-        <v>0</v>
-      </c>
       <c r="I215" t="str">
         <v/>
       </c>
-      <c r="J215" t="str">
+      <c r="J215" t="b">
+        <v>0</v>
+      </c>
+      <c r="K215" t="str">
+        <v/>
+      </c>
+      <c r="L215" t="str">
         <v/>
       </c>
     </row>
@@ -8507,16 +8522,16 @@
       <c r="F216" t="str">
         <v/>
       </c>
-      <c r="G216" t="str">
-        <v/>
-      </c>
-      <c r="H216" t="b">
-        <v>0</v>
-      </c>
       <c r="I216" t="str">
         <v/>
       </c>
-      <c r="J216" t="str">
+      <c r="J216" t="b">
+        <v>0</v>
+      </c>
+      <c r="K216" t="str">
+        <v/>
+      </c>
+      <c r="L216" t="str">
         <v/>
       </c>
     </row>
@@ -8539,16 +8554,16 @@
       <c r="F217" t="str">
         <v/>
       </c>
-      <c r="G217" t="str">
-        <v/>
-      </c>
-      <c r="H217" t="b">
-        <v>0</v>
-      </c>
       <c r="I217" t="str">
         <v/>
       </c>
-      <c r="J217" t="str">
+      <c r="J217" t="b">
+        <v>0</v>
+      </c>
+      <c r="K217" t="str">
+        <v/>
+      </c>
+      <c r="L217" t="str">
         <v/>
       </c>
     </row>
@@ -8571,16 +8586,16 @@
       <c r="F218" t="str">
         <v/>
       </c>
-      <c r="G218" t="str">
-        <v/>
-      </c>
-      <c r="H218" t="b">
-        <v>0</v>
-      </c>
       <c r="I218" t="str">
         <v/>
       </c>
-      <c r="J218" t="str">
+      <c r="J218" t="b">
+        <v>0</v>
+      </c>
+      <c r="K218" t="str">
+        <v/>
+      </c>
+      <c r="L218" t="str">
         <v/>
       </c>
     </row>
@@ -8603,16 +8618,16 @@
       <c r="F219" t="str">
         <v/>
       </c>
-      <c r="G219" t="str">
-        <v/>
-      </c>
-      <c r="H219" t="b">
-        <v>0</v>
-      </c>
       <c r="I219" t="str">
         <v/>
       </c>
-      <c r="J219" t="str">
+      <c r="J219" t="b">
+        <v>0</v>
+      </c>
+      <c r="K219" t="str">
+        <v/>
+      </c>
+      <c r="L219" t="str">
         <v/>
       </c>
     </row>
@@ -8635,16 +8650,16 @@
       <c r="F220" t="str">
         <v/>
       </c>
-      <c r="G220" t="str">
-        <v/>
-      </c>
-      <c r="H220" t="b">
-        <v>0</v>
-      </c>
       <c r="I220" t="str">
         <v/>
       </c>
-      <c r="J220" t="str">
+      <c r="J220" t="b">
+        <v>0</v>
+      </c>
+      <c r="K220" t="str">
+        <v/>
+      </c>
+      <c r="L220" t="str">
         <v/>
       </c>
     </row>
@@ -8667,16 +8682,16 @@
       <c r="F221" t="str">
         <v/>
       </c>
-      <c r="G221" t="str">
-        <v/>
-      </c>
-      <c r="H221" t="b">
-        <v>0</v>
-      </c>
       <c r="I221" t="str">
         <v/>
       </c>
-      <c r="J221" t="str">
+      <c r="J221" t="b">
+        <v>0</v>
+      </c>
+      <c r="K221" t="str">
+        <v/>
+      </c>
+      <c r="L221" t="str">
         <v/>
       </c>
     </row>
@@ -8699,16 +8714,16 @@
       <c r="F222" t="str">
         <v/>
       </c>
-      <c r="G222" t="str">
-        <v/>
-      </c>
-      <c r="H222" t="b">
-        <v>0</v>
-      </c>
       <c r="I222" t="str">
         <v/>
       </c>
-      <c r="J222" t="str">
+      <c r="J222" t="b">
+        <v>0</v>
+      </c>
+      <c r="K222" t="str">
+        <v/>
+      </c>
+      <c r="L222" t="str">
         <v/>
       </c>
     </row>
@@ -8731,16 +8746,16 @@
       <c r="F223" t="str">
         <v/>
       </c>
-      <c r="G223" t="str">
-        <v/>
-      </c>
-      <c r="H223" t="b">
-        <v>0</v>
-      </c>
       <c r="I223" t="str">
         <v/>
       </c>
-      <c r="J223" t="str">
+      <c r="J223" t="b">
+        <v>0</v>
+      </c>
+      <c r="K223" t="str">
+        <v/>
+      </c>
+      <c r="L223" t="str">
         <v/>
       </c>
     </row>
@@ -8763,16 +8778,16 @@
       <c r="F224" t="str">
         <v/>
       </c>
-      <c r="G224" t="str">
-        <v/>
-      </c>
-      <c r="H224" t="b">
-        <v>0</v>
-      </c>
       <c r="I224" t="str">
         <v/>
       </c>
-      <c r="J224" t="str">
+      <c r="J224" t="b">
+        <v>0</v>
+      </c>
+      <c r="K224" t="str">
+        <v/>
+      </c>
+      <c r="L224" t="str">
         <v/>
       </c>
     </row>
@@ -8795,16 +8810,16 @@
       <c r="F225" t="str">
         <v/>
       </c>
-      <c r="G225" t="str">
-        <v/>
-      </c>
-      <c r="H225" t="b">
-        <v>0</v>
-      </c>
       <c r="I225" t="str">
         <v/>
       </c>
-      <c r="J225" t="str">
+      <c r="J225" t="b">
+        <v>0</v>
+      </c>
+      <c r="K225" t="str">
+        <v/>
+      </c>
+      <c r="L225" t="str">
         <v/>
       </c>
     </row>
@@ -8827,16 +8842,16 @@
       <c r="F226" t="str">
         <v/>
       </c>
-      <c r="G226" t="str">
-        <v/>
-      </c>
-      <c r="H226" t="b">
-        <v>0</v>
-      </c>
       <c r="I226" t="str">
         <v/>
       </c>
-      <c r="J226" t="str">
+      <c r="J226" t="b">
+        <v>0</v>
+      </c>
+      <c r="K226" t="str">
+        <v/>
+      </c>
+      <c r="L226" t="str">
         <v/>
       </c>
     </row>
@@ -8859,16 +8874,16 @@
       <c r="F227" t="str">
         <v/>
       </c>
-      <c r="G227" t="str">
-        <v/>
-      </c>
-      <c r="H227" t="b">
-        <v>0</v>
-      </c>
       <c r="I227" t="str">
         <v/>
       </c>
-      <c r="J227" t="str">
+      <c r="J227" t="b">
+        <v>0</v>
+      </c>
+      <c r="K227" t="str">
+        <v/>
+      </c>
+      <c r="L227" t="str">
         <v/>
       </c>
     </row>
@@ -8891,16 +8906,16 @@
       <c r="F228" t="str">
         <v/>
       </c>
-      <c r="G228" t="str">
-        <v/>
-      </c>
-      <c r="H228" t="b">
-        <v>0</v>
-      </c>
       <c r="I228" t="str">
         <v/>
       </c>
-      <c r="J228" t="str">
+      <c r="J228" t="b">
+        <v>0</v>
+      </c>
+      <c r="K228" t="str">
+        <v/>
+      </c>
+      <c r="L228" t="str">
         <v/>
       </c>
     </row>
@@ -8923,16 +8938,16 @@
       <c r="F229" t="str">
         <v/>
       </c>
-      <c r="G229" t="str">
-        <v/>
-      </c>
-      <c r="H229" t="b">
-        <v>0</v>
-      </c>
       <c r="I229" t="str">
         <v/>
       </c>
-      <c r="J229" t="str">
+      <c r="J229" t="b">
+        <v>0</v>
+      </c>
+      <c r="K229" t="str">
+        <v/>
+      </c>
+      <c r="L229" t="str">
         <v/>
       </c>
     </row>
@@ -8955,16 +8970,16 @@
       <c r="F230" t="str">
         <v/>
       </c>
-      <c r="G230" t="str">
-        <v/>
-      </c>
-      <c r="H230" t="b">
-        <v>0</v>
-      </c>
       <c r="I230" t="str">
         <v/>
       </c>
-      <c r="J230" t="str">
+      <c r="J230" t="b">
+        <v>0</v>
+      </c>
+      <c r="K230" t="str">
+        <v/>
+      </c>
+      <c r="L230" t="str">
         <v/>
       </c>
     </row>
@@ -8987,16 +9002,16 @@
       <c r="F231" t="str">
         <v/>
       </c>
-      <c r="G231" t="str">
-        <v/>
-      </c>
-      <c r="H231" t="b">
-        <v>0</v>
-      </c>
       <c r="I231" t="str">
         <v/>
       </c>
-      <c r="J231" t="str">
+      <c r="J231" t="b">
+        <v>0</v>
+      </c>
+      <c r="K231" t="str">
+        <v/>
+      </c>
+      <c r="L231" t="str">
         <v/>
       </c>
     </row>
@@ -9019,16 +9034,16 @@
       <c r="F232" t="str">
         <v/>
       </c>
-      <c r="G232" t="str">
-        <v/>
-      </c>
-      <c r="H232" t="b">
-        <v>0</v>
-      </c>
       <c r="I232" t="str">
         <v/>
       </c>
-      <c r="J232" t="str">
+      <c r="J232" t="b">
+        <v>0</v>
+      </c>
+      <c r="K232" t="str">
+        <v/>
+      </c>
+      <c r="L232" t="str">
         <v/>
       </c>
     </row>
@@ -9051,16 +9066,16 @@
       <c r="F233" t="str">
         <v/>
       </c>
-      <c r="G233" t="str">
-        <v/>
-      </c>
-      <c r="H233" t="b">
-        <v>0</v>
-      </c>
       <c r="I233" t="str">
         <v/>
       </c>
-      <c r="J233" t="str">
+      <c r="J233" t="b">
+        <v>0</v>
+      </c>
+      <c r="K233" t="str">
+        <v/>
+      </c>
+      <c r="L233" t="str">
         <v/>
       </c>
     </row>
@@ -9083,16 +9098,16 @@
       <c r="F234" t="str">
         <v/>
       </c>
-      <c r="G234" t="str">
-        <v/>
-      </c>
-      <c r="H234" t="b">
-        <v>0</v>
-      </c>
       <c r="I234" t="str">
         <v/>
       </c>
-      <c r="J234" t="str">
+      <c r="J234" t="b">
+        <v>0</v>
+      </c>
+      <c r="K234" t="str">
+        <v/>
+      </c>
+      <c r="L234" t="str">
         <v/>
       </c>
     </row>
@@ -9115,16 +9130,16 @@
       <c r="F235" t="str">
         <v/>
       </c>
-      <c r="G235" t="str">
-        <v/>
-      </c>
-      <c r="H235" t="b">
-        <v>0</v>
-      </c>
       <c r="I235" t="str">
         <v/>
       </c>
-      <c r="J235" t="str">
+      <c r="J235" t="b">
+        <v>0</v>
+      </c>
+      <c r="K235" t="str">
+        <v/>
+      </c>
+      <c r="L235" t="str">
         <v/>
       </c>
     </row>
@@ -9147,16 +9162,16 @@
       <c r="F236" t="str">
         <v/>
       </c>
-      <c r="G236" t="str">
-        <v/>
-      </c>
-      <c r="H236" t="b">
-        <v>0</v>
-      </c>
       <c r="I236" t="str">
         <v/>
       </c>
-      <c r="J236" t="str">
+      <c r="J236" t="b">
+        <v>0</v>
+      </c>
+      <c r="K236" t="str">
+        <v/>
+      </c>
+      <c r="L236" t="str">
         <v/>
       </c>
     </row>
@@ -9179,16 +9194,16 @@
       <c r="F237" t="str">
         <v/>
       </c>
-      <c r="G237" t="str">
-        <v/>
-      </c>
-      <c r="H237" t="b">
-        <v>0</v>
-      </c>
       <c r="I237" t="str">
         <v/>
       </c>
-      <c r="J237" t="str">
+      <c r="J237" t="b">
+        <v>0</v>
+      </c>
+      <c r="K237" t="str">
+        <v/>
+      </c>
+      <c r="L237" t="str">
         <v/>
       </c>
     </row>
@@ -9211,16 +9226,16 @@
       <c r="F238" t="str">
         <v/>
       </c>
-      <c r="G238" t="str">
-        <v/>
-      </c>
-      <c r="H238" t="b">
-        <v>0</v>
-      </c>
       <c r="I238" t="str">
         <v/>
       </c>
-      <c r="J238" t="str">
+      <c r="J238" t="b">
+        <v>0</v>
+      </c>
+      <c r="K238" t="str">
+        <v/>
+      </c>
+      <c r="L238" t="str">
         <v/>
       </c>
     </row>
@@ -9243,16 +9258,16 @@
       <c r="F239" t="str">
         <v/>
       </c>
-      <c r="G239" t="str">
-        <v/>
-      </c>
-      <c r="H239" t="b">
-        <v>0</v>
-      </c>
       <c r="I239" t="str">
         <v/>
       </c>
-      <c r="J239" t="str">
+      <c r="J239" t="b">
+        <v>0</v>
+      </c>
+      <c r="K239" t="str">
+        <v/>
+      </c>
+      <c r="L239" t="str">
         <v/>
       </c>
     </row>
@@ -9275,16 +9290,16 @@
       <c r="F240" t="str">
         <v/>
       </c>
-      <c r="G240" t="str">
-        <v/>
-      </c>
-      <c r="H240" t="b">
-        <v>0</v>
-      </c>
       <c r="I240" t="str">
         <v/>
       </c>
-      <c r="J240" t="str">
+      <c r="J240" t="b">
+        <v>0</v>
+      </c>
+      <c r="K240" t="str">
+        <v/>
+      </c>
+      <c r="L240" t="str">
         <v/>
       </c>
     </row>
@@ -9307,16 +9322,16 @@
       <c r="F241" t="str">
         <v/>
       </c>
-      <c r="G241" t="str">
-        <v/>
-      </c>
-      <c r="H241" t="b">
-        <v>0</v>
-      </c>
       <c r="I241" t="str">
         <v/>
       </c>
-      <c r="J241" t="str">
+      <c r="J241" t="b">
+        <v>0</v>
+      </c>
+      <c r="K241" t="str">
+        <v/>
+      </c>
+      <c r="L241" t="str">
         <v/>
       </c>
     </row>
@@ -9339,16 +9354,16 @@
       <c r="F242" t="str">
         <v/>
       </c>
-      <c r="G242" t="str">
-        <v/>
-      </c>
-      <c r="H242" t="b">
-        <v>0</v>
-      </c>
       <c r="I242" t="str">
         <v/>
       </c>
-      <c r="J242" t="str">
+      <c r="J242" t="b">
+        <v>0</v>
+      </c>
+      <c r="K242" t="str">
+        <v/>
+      </c>
+      <c r="L242" t="str">
         <v/>
       </c>
     </row>
@@ -9371,16 +9386,16 @@
       <c r="F243" t="str">
         <v/>
       </c>
-      <c r="G243" t="str">
-        <v/>
-      </c>
-      <c r="H243" t="b">
-        <v>0</v>
-      </c>
       <c r="I243" t="str">
         <v/>
       </c>
-      <c r="J243" t="str">
+      <c r="J243" t="b">
+        <v>0</v>
+      </c>
+      <c r="K243" t="str">
+        <v/>
+      </c>
+      <c r="L243" t="str">
         <v/>
       </c>
     </row>
@@ -9403,16 +9418,16 @@
       <c r="F244" t="str">
         <v/>
       </c>
-      <c r="G244" t="str">
-        <v/>
-      </c>
-      <c r="H244" t="b">
-        <v>0</v>
-      </c>
       <c r="I244" t="str">
         <v/>
       </c>
-      <c r="J244" t="str">
+      <c r="J244" t="b">
+        <v>0</v>
+      </c>
+      <c r="K244" t="str">
+        <v/>
+      </c>
+      <c r="L244" t="str">
         <v/>
       </c>
     </row>
@@ -9435,16 +9450,16 @@
       <c r="F245" t="str">
         <v/>
       </c>
-      <c r="G245" t="str">
-        <v/>
-      </c>
-      <c r="H245" t="b">
-        <v>0</v>
-      </c>
       <c r="I245" t="str">
         <v/>
       </c>
-      <c r="J245" t="str">
+      <c r="J245" t="b">
+        <v>0</v>
+      </c>
+      <c r="K245" t="str">
+        <v/>
+      </c>
+      <c r="L245" t="str">
         <v/>
       </c>
     </row>
@@ -9467,16 +9482,16 @@
       <c r="F246" t="str">
         <v/>
       </c>
-      <c r="G246" t="str">
-        <v/>
-      </c>
-      <c r="H246" t="b">
-        <v>0</v>
-      </c>
       <c r="I246" t="str">
         <v/>
       </c>
-      <c r="J246" t="str">
+      <c r="J246" t="b">
+        <v>0</v>
+      </c>
+      <c r="K246" t="str">
+        <v/>
+      </c>
+      <c r="L246" t="str">
         <v/>
       </c>
     </row>
@@ -9499,16 +9514,16 @@
       <c r="F247" t="str">
         <v/>
       </c>
-      <c r="G247" t="str">
-        <v/>
-      </c>
-      <c r="H247" t="b">
-        <v>0</v>
-      </c>
       <c r="I247" t="str">
         <v/>
       </c>
-      <c r="J247" t="str">
+      <c r="J247" t="b">
+        <v>0</v>
+      </c>
+      <c r="K247" t="str">
+        <v/>
+      </c>
+      <c r="L247" t="str">
         <v/>
       </c>
     </row>
@@ -9531,16 +9546,16 @@
       <c r="F248" t="str">
         <v/>
       </c>
-      <c r="G248" t="str">
-        <v/>
-      </c>
-      <c r="H248" t="b">
-        <v>0</v>
-      </c>
       <c r="I248" t="str">
         <v/>
       </c>
-      <c r="J248" t="str">
+      <c r="J248" t="b">
+        <v>0</v>
+      </c>
+      <c r="K248" t="str">
+        <v/>
+      </c>
+      <c r="L248" t="str">
         <v/>
       </c>
     </row>
@@ -9563,16 +9578,16 @@
       <c r="F249" t="str">
         <v/>
       </c>
-      <c r="G249" t="str">
-        <v/>
-      </c>
-      <c r="H249" t="b">
-        <v>0</v>
-      </c>
       <c r="I249" t="str">
         <v/>
       </c>
-      <c r="J249" t="str">
+      <c r="J249" t="b">
+        <v>0</v>
+      </c>
+      <c r="K249" t="str">
+        <v/>
+      </c>
+      <c r="L249" t="str">
         <v/>
       </c>
     </row>
@@ -9595,16 +9610,16 @@
       <c r="F250" t="str">
         <v/>
       </c>
-      <c r="G250" t="str">
-        <v/>
-      </c>
-      <c r="H250" t="b">
-        <v>0</v>
-      </c>
       <c r="I250" t="str">
         <v/>
       </c>
-      <c r="J250" t="str">
+      <c r="J250" t="b">
+        <v>0</v>
+      </c>
+      <c r="K250" t="str">
+        <v/>
+      </c>
+      <c r="L250" t="str">
         <v/>
       </c>
     </row>
@@ -9627,16 +9642,16 @@
       <c r="F251" t="str">
         <v/>
       </c>
-      <c r="G251" t="str">
-        <v/>
-      </c>
-      <c r="H251" t="b">
-        <v>0</v>
-      </c>
       <c r="I251" t="str">
         <v/>
       </c>
-      <c r="J251" t="str">
+      <c r="J251" t="b">
+        <v>0</v>
+      </c>
+      <c r="K251" t="str">
+        <v/>
+      </c>
+      <c r="L251" t="str">
         <v/>
       </c>
     </row>
@@ -9659,16 +9674,16 @@
       <c r="F252" t="str">
         <v/>
       </c>
-      <c r="G252" t="str">
-        <v/>
-      </c>
-      <c r="H252" t="b">
-        <v>0</v>
-      </c>
       <c r="I252" t="str">
         <v/>
       </c>
-      <c r="J252" t="str">
+      <c r="J252" t="b">
+        <v>0</v>
+      </c>
+      <c r="K252" t="str">
+        <v/>
+      </c>
+      <c r="L252" t="str">
         <v/>
       </c>
     </row>
@@ -9691,16 +9706,16 @@
       <c r="F253" t="str">
         <v/>
       </c>
-      <c r="G253" t="str">
-        <v/>
-      </c>
-      <c r="H253" t="b">
-        <v>0</v>
-      </c>
       <c r="I253" t="str">
         <v/>
       </c>
-      <c r="J253" t="str">
+      <c r="J253" t="b">
+        <v>0</v>
+      </c>
+      <c r="K253" t="str">
+        <v/>
+      </c>
+      <c r="L253" t="str">
         <v/>
       </c>
     </row>
@@ -9723,16 +9738,16 @@
       <c r="F254" t="str">
         <v/>
       </c>
-      <c r="G254" t="str">
-        <v/>
-      </c>
-      <c r="H254" t="b">
-        <v>0</v>
-      </c>
       <c r="I254" t="str">
         <v/>
       </c>
-      <c r="J254" t="str">
+      <c r="J254" t="b">
+        <v>0</v>
+      </c>
+      <c r="K254" t="str">
+        <v/>
+      </c>
+      <c r="L254" t="str">
         <v/>
       </c>
     </row>
@@ -9755,16 +9770,16 @@
       <c r="F255" t="str">
         <v/>
       </c>
-      <c r="G255" t="str">
-        <v/>
-      </c>
-      <c r="H255" t="b">
-        <v>0</v>
-      </c>
       <c r="I255" t="str">
         <v/>
       </c>
-      <c r="J255" t="str">
+      <c r="J255" t="b">
+        <v>0</v>
+      </c>
+      <c r="K255" t="str">
+        <v/>
+      </c>
+      <c r="L255" t="str">
         <v/>
       </c>
     </row>
@@ -9787,16 +9802,16 @@
       <c r="F256" t="str">
         <v/>
       </c>
-      <c r="G256" t="str">
-        <v/>
-      </c>
-      <c r="H256" t="b">
-        <v>0</v>
-      </c>
       <c r="I256" t="str">
         <v/>
       </c>
-      <c r="J256" t="str">
+      <c r="J256" t="b">
+        <v>0</v>
+      </c>
+      <c r="K256" t="str">
+        <v/>
+      </c>
+      <c r="L256" t="str">
         <v/>
       </c>
     </row>
@@ -9819,22 +9834,22 @@
       <c r="F257" t="str">
         <v/>
       </c>
-      <c r="G257" t="str">
-        <v/>
-      </c>
-      <c r="H257" t="b">
-        <v>0</v>
-      </c>
       <c r="I257" t="str">
         <v/>
       </c>
-      <c r="J257" t="str">
+      <c r="J257" t="b">
+        <v>0</v>
+      </c>
+      <c r="K257" t="str">
+        <v/>
+      </c>
+      <c r="L257" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J257"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L257"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -1597,7 +1597,7 @@
         <v/>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1674,6 +1674,9 @@
       <c r="G2" t="str">
         <v>equal</v>
       </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
       <c r="I2" t="str">
         <v/>
       </c>
@@ -1706,6 +1709,12 @@
       <c r="F3" t="str">
         <v/>
       </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
       <c r="I3" t="str">
         <v/>
       </c>
@@ -1738,6 +1747,12 @@
       <c r="F4" t="str">
         <v/>
       </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
       <c r="I4" t="str">
         <v/>
       </c>
@@ -1770,6 +1785,12 @@
       <c r="F5" t="str">
         <v/>
       </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
       <c r="I5" t="str">
         <v/>
       </c>
@@ -1802,6 +1823,12 @@
       <c r="F6" t="str">
         <v/>
       </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
       <c r="I6" t="str">
         <v/>
       </c>
@@ -1834,6 +1861,12 @@
       <c r="F7" t="str">
         <v/>
       </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
       <c r="I7" t="str">
         <v/>
       </c>
@@ -1866,6 +1899,12 @@
       <c r="F8" t="str">
         <v/>
       </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
       <c r="I8" t="str">
         <v/>
       </c>
@@ -1898,6 +1937,12 @@
       <c r="F9" t="str">
         <v/>
       </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
       <c r="I9" t="str">
         <v/>
       </c>
@@ -1930,6 +1975,12 @@
       <c r="F10" t="str">
         <v/>
       </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
       <c r="I10" t="str">
         <v/>
       </c>
@@ -1962,6 +2013,12 @@
       <c r="F11" t="str">
         <v/>
       </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
       <c r="I11" t="str">
         <v/>
       </c>
@@ -1994,6 +2051,12 @@
       <c r="F12" t="str">
         <v/>
       </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
       <c r="I12" t="str">
         <v/>
       </c>
@@ -2026,6 +2089,12 @@
       <c r="F13" t="str">
         <v/>
       </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
       <c r="I13" t="str">
         <v/>
       </c>
@@ -2058,6 +2127,12 @@
       <c r="F14" t="str">
         <v/>
       </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
       <c r="I14" t="str">
         <v/>
       </c>
@@ -2090,6 +2165,12 @@
       <c r="F15" t="str">
         <v/>
       </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
       <c r="I15" t="str">
         <v/>
       </c>
@@ -2122,6 +2203,12 @@
       <c r="F16" t="str">
         <v/>
       </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
       <c r="I16" t="str">
         <v/>
       </c>
@@ -2154,6 +2241,12 @@
       <c r="F17" t="str">
         <v/>
       </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
       <c r="I17" t="str">
         <v/>
       </c>
@@ -2186,6 +2279,12 @@
       <c r="F18" t="str">
         <v/>
       </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
       <c r="I18" t="str">
         <v/>
       </c>
@@ -2218,6 +2317,12 @@
       <c r="F19" t="str">
         <v/>
       </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
       <c r="I19" t="str">
         <v/>
       </c>
@@ -2250,6 +2355,12 @@
       <c r="F20" t="str">
         <v/>
       </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
       <c r="I20" t="str">
         <v/>
       </c>
@@ -2282,6 +2393,12 @@
       <c r="F21" t="str">
         <v/>
       </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
       <c r="I21" t="str">
         <v/>
       </c>
@@ -2314,6 +2431,12 @@
       <c r="F22" t="str">
         <v/>
       </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
       <c r="I22" t="str">
         <v/>
       </c>
@@ -2346,6 +2469,12 @@
       <c r="F23" t="str">
         <v/>
       </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
       <c r="I23" t="str">
         <v/>
       </c>
@@ -2378,6 +2507,12 @@
       <c r="F24" t="str">
         <v/>
       </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
       <c r="I24" t="str">
         <v/>
       </c>
@@ -2410,6 +2545,12 @@
       <c r="F25" t="str">
         <v/>
       </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
       <c r="I25" t="str">
         <v/>
       </c>
@@ -2442,6 +2583,12 @@
       <c r="F26" t="str">
         <v/>
       </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
       <c r="I26" t="str">
         <v/>
       </c>
@@ -2474,6 +2621,12 @@
       <c r="F27" t="str">
         <v/>
       </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
       <c r="I27" t="str">
         <v/>
       </c>
@@ -2506,6 +2659,12 @@
       <c r="F28" t="str">
         <v/>
       </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
       <c r="I28" t="str">
         <v/>
       </c>
@@ -2538,6 +2697,12 @@
       <c r="F29" t="str">
         <v/>
       </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
       <c r="I29" t="str">
         <v/>
       </c>
@@ -2570,6 +2735,12 @@
       <c r="F30" t="str">
         <v/>
       </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
       <c r="I30" t="str">
         <v/>
       </c>
@@ -2602,6 +2773,12 @@
       <c r="F31" t="str">
         <v/>
       </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
       <c r="I31" t="str">
         <v/>
       </c>
@@ -2634,6 +2811,12 @@
       <c r="F32" t="str">
         <v/>
       </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
       <c r="I32" t="str">
         <v/>
       </c>
@@ -2666,6 +2849,12 @@
       <c r="F33" t="str">
         <v/>
       </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
       <c r="I33" t="str">
         <v/>
       </c>
@@ -2698,6 +2887,12 @@
       <c r="F34" t="str">
         <v/>
       </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
       <c r="I34" t="str">
         <v/>
       </c>
@@ -2730,6 +2925,12 @@
       <c r="F35" t="str">
         <v/>
       </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
       <c r="I35" t="str">
         <v/>
       </c>
@@ -2762,6 +2963,12 @@
       <c r="F36" t="str">
         <v/>
       </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
       <c r="I36" t="str">
         <v/>
       </c>
@@ -2794,6 +3001,12 @@
       <c r="F37" t="str">
         <v/>
       </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
       <c r="I37" t="str">
         <v/>
       </c>
@@ -2826,6 +3039,12 @@
       <c r="F38" t="str">
         <v/>
       </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
       <c r="I38" t="str">
         <v/>
       </c>
@@ -2858,6 +3077,12 @@
       <c r="F39" t="str">
         <v/>
       </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
       <c r="I39" t="str">
         <v/>
       </c>
@@ -2890,6 +3115,12 @@
       <c r="F40" t="str">
         <v/>
       </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
       <c r="I40" t="str">
         <v/>
       </c>
@@ -2922,6 +3153,12 @@
       <c r="F41" t="str">
         <v/>
       </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
       <c r="I41" t="str">
         <v/>
       </c>
@@ -2954,6 +3191,12 @@
       <c r="F42" t="str">
         <v/>
       </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
       <c r="I42" t="str">
         <v/>
       </c>
@@ -2986,6 +3229,12 @@
       <c r="F43" t="str">
         <v/>
       </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
       <c r="I43" t="str">
         <v/>
       </c>
@@ -3018,6 +3267,12 @@
       <c r="F44" t="str">
         <v/>
       </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
       <c r="I44" t="str">
         <v/>
       </c>
@@ -3050,6 +3305,12 @@
       <c r="F45" t="str">
         <v/>
       </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
       <c r="I45" t="str">
         <v/>
       </c>
@@ -3082,6 +3343,12 @@
       <c r="F46" t="str">
         <v/>
       </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
       <c r="I46" t="str">
         <v/>
       </c>
@@ -3114,6 +3381,12 @@
       <c r="F47" t="str">
         <v/>
       </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
       <c r="I47" t="str">
         <v/>
       </c>
@@ -3146,6 +3419,12 @@
       <c r="F48" t="str">
         <v/>
       </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
       <c r="I48" t="str">
         <v/>
       </c>
@@ -3178,6 +3457,12 @@
       <c r="F49" t="str">
         <v/>
       </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
       <c r="I49" t="str">
         <v/>
       </c>
@@ -3210,6 +3495,12 @@
       <c r="F50" t="str">
         <v/>
       </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
       <c r="I50" t="str">
         <v/>
       </c>
@@ -3242,6 +3533,12 @@
       <c r="F51" t="str">
         <v/>
       </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v/>
+      </c>
       <c r="I51" t="str">
         <v/>
       </c>
@@ -3274,6 +3571,12 @@
       <c r="F52" t="str">
         <v/>
       </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
       <c r="I52" t="str">
         <v/>
       </c>
@@ -3306,6 +3609,12 @@
       <c r="F53" t="str">
         <v/>
       </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
       <c r="I53" t="str">
         <v/>
       </c>
@@ -3338,6 +3647,12 @@
       <c r="F54" t="str">
         <v/>
       </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
       <c r="I54" t="str">
         <v/>
       </c>
@@ -3370,6 +3685,12 @@
       <c r="F55" t="str">
         <v/>
       </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <v/>
+      </c>
       <c r="I55" t="str">
         <v/>
       </c>
@@ -3402,6 +3723,12 @@
       <c r="F56" t="str">
         <v/>
       </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v/>
+      </c>
       <c r="I56" t="str">
         <v/>
       </c>
@@ -3434,6 +3761,12 @@
       <c r="F57" t="str">
         <v/>
       </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
       <c r="I57" t="str">
         <v/>
       </c>
@@ -3466,6 +3799,12 @@
       <c r="F58" t="str">
         <v/>
       </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <v/>
+      </c>
       <c r="I58" t="str">
         <v/>
       </c>
@@ -3498,6 +3837,12 @@
       <c r="F59" t="str">
         <v/>
       </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <v/>
+      </c>
       <c r="I59" t="str">
         <v/>
       </c>
@@ -3530,6 +3875,12 @@
       <c r="F60" t="str">
         <v/>
       </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v/>
+      </c>
       <c r="I60" t="str">
         <v/>
       </c>
@@ -3562,6 +3913,12 @@
       <c r="F61" t="str">
         <v/>
       </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <v/>
+      </c>
       <c r="I61" t="str">
         <v/>
       </c>
@@ -3594,6 +3951,12 @@
       <c r="F62" t="str">
         <v/>
       </c>
+      <c r="G62" t="str">
+        <v/>
+      </c>
+      <c r="H62" t="str">
+        <v/>
+      </c>
       <c r="I62" t="str">
         <v/>
       </c>
@@ -3626,6 +3989,12 @@
       <c r="F63" t="str">
         <v/>
       </c>
+      <c r="G63" t="str">
+        <v/>
+      </c>
+      <c r="H63" t="str">
+        <v/>
+      </c>
       <c r="I63" t="str">
         <v/>
       </c>
@@ -3658,6 +4027,12 @@
       <c r="F64" t="str">
         <v/>
       </c>
+      <c r="G64" t="str">
+        <v/>
+      </c>
+      <c r="H64" t="str">
+        <v/>
+      </c>
       <c r="I64" t="str">
         <v/>
       </c>
@@ -3690,6 +4065,12 @@
       <c r="F65" t="str">
         <v/>
       </c>
+      <c r="G65" t="str">
+        <v/>
+      </c>
+      <c r="H65" t="str">
+        <v/>
+      </c>
       <c r="I65" t="str">
         <v/>
       </c>
@@ -3722,6 +4103,12 @@
       <c r="F66" t="str">
         <v/>
       </c>
+      <c r="G66" t="str">
+        <v/>
+      </c>
+      <c r="H66" t="str">
+        <v/>
+      </c>
       <c r="I66" t="str">
         <v/>
       </c>
@@ -3754,6 +4141,12 @@
       <c r="F67" t="str">
         <v/>
       </c>
+      <c r="G67" t="str">
+        <v/>
+      </c>
+      <c r="H67" t="str">
+        <v/>
+      </c>
       <c r="I67" t="str">
         <v/>
       </c>
@@ -3786,6 +4179,12 @@
       <c r="F68" t="str">
         <v/>
       </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <v/>
+      </c>
       <c r="I68" t="str">
         <v/>
       </c>
@@ -3818,6 +4217,12 @@
       <c r="F69" t="str">
         <v/>
       </c>
+      <c r="G69" t="str">
+        <v/>
+      </c>
+      <c r="H69" t="str">
+        <v/>
+      </c>
       <c r="I69" t="str">
         <v/>
       </c>
@@ -3850,6 +4255,12 @@
       <c r="F70" t="str">
         <v/>
       </c>
+      <c r="G70" t="str">
+        <v/>
+      </c>
+      <c r="H70" t="str">
+        <v/>
+      </c>
       <c r="I70" t="str">
         <v/>
       </c>
@@ -3882,6 +4293,12 @@
       <c r="F71" t="str">
         <v/>
       </c>
+      <c r="G71" t="str">
+        <v/>
+      </c>
+      <c r="H71" t="str">
+        <v/>
+      </c>
       <c r="I71" t="str">
         <v/>
       </c>
@@ -3914,6 +4331,12 @@
       <c r="F72" t="str">
         <v/>
       </c>
+      <c r="G72" t="str">
+        <v/>
+      </c>
+      <c r="H72" t="str">
+        <v/>
+      </c>
       <c r="I72" t="str">
         <v/>
       </c>
@@ -3946,6 +4369,12 @@
       <c r="F73" t="str">
         <v/>
       </c>
+      <c r="G73" t="str">
+        <v/>
+      </c>
+      <c r="H73" t="str">
+        <v/>
+      </c>
       <c r="I73" t="str">
         <v/>
       </c>
@@ -3978,6 +4407,12 @@
       <c r="F74" t="str">
         <v/>
       </c>
+      <c r="G74" t="str">
+        <v/>
+      </c>
+      <c r="H74" t="str">
+        <v/>
+      </c>
       <c r="I74" t="str">
         <v/>
       </c>
@@ -4010,6 +4445,12 @@
       <c r="F75" t="str">
         <v/>
       </c>
+      <c r="G75" t="str">
+        <v/>
+      </c>
+      <c r="H75" t="str">
+        <v/>
+      </c>
       <c r="I75" t="str">
         <v/>
       </c>
@@ -4042,6 +4483,12 @@
       <c r="F76" t="str">
         <v/>
       </c>
+      <c r="G76" t="str">
+        <v/>
+      </c>
+      <c r="H76" t="str">
+        <v/>
+      </c>
       <c r="I76" t="str">
         <v/>
       </c>
@@ -4074,6 +4521,12 @@
       <c r="F77" t="str">
         <v/>
       </c>
+      <c r="G77" t="str">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <v/>
+      </c>
       <c r="I77" t="str">
         <v/>
       </c>
@@ -4106,6 +4559,12 @@
       <c r="F78" t="str">
         <v/>
       </c>
+      <c r="G78" t="str">
+        <v/>
+      </c>
+      <c r="H78" t="str">
+        <v/>
+      </c>
       <c r="I78" t="str">
         <v/>
       </c>
@@ -4138,6 +4597,12 @@
       <c r="F79" t="str">
         <v/>
       </c>
+      <c r="G79" t="str">
+        <v/>
+      </c>
+      <c r="H79" t="str">
+        <v/>
+      </c>
       <c r="I79" t="str">
         <v/>
       </c>
@@ -4170,6 +4635,12 @@
       <c r="F80" t="str">
         <v/>
       </c>
+      <c r="G80" t="str">
+        <v/>
+      </c>
+      <c r="H80" t="str">
+        <v/>
+      </c>
       <c r="I80" t="str">
         <v/>
       </c>
@@ -4202,6 +4673,12 @@
       <c r="F81" t="str">
         <v/>
       </c>
+      <c r="G81" t="str">
+        <v/>
+      </c>
+      <c r="H81" t="str">
+        <v/>
+      </c>
       <c r="I81" t="str">
         <v/>
       </c>
@@ -4234,6 +4711,12 @@
       <c r="F82" t="str">
         <v/>
       </c>
+      <c r="G82" t="str">
+        <v/>
+      </c>
+      <c r="H82" t="str">
+        <v/>
+      </c>
       <c r="I82" t="str">
         <v/>
       </c>
@@ -4266,6 +4749,12 @@
       <c r="F83" t="str">
         <v/>
       </c>
+      <c r="G83" t="str">
+        <v/>
+      </c>
+      <c r="H83" t="str">
+        <v/>
+      </c>
       <c r="I83" t="str">
         <v/>
       </c>
@@ -4298,6 +4787,12 @@
       <c r="F84" t="str">
         <v/>
       </c>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
       <c r="I84" t="str">
         <v/>
       </c>
@@ -4330,6 +4825,12 @@
       <c r="F85" t="str">
         <v/>
       </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <v/>
+      </c>
       <c r="I85" t="str">
         <v/>
       </c>
@@ -4362,6 +4863,12 @@
       <c r="F86" t="str">
         <v/>
       </c>
+      <c r="G86" t="str">
+        <v/>
+      </c>
+      <c r="H86" t="str">
+        <v/>
+      </c>
       <c r="I86" t="str">
         <v/>
       </c>
@@ -4394,6 +4901,12 @@
       <c r="F87" t="str">
         <v/>
       </c>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+      <c r="H87" t="str">
+        <v/>
+      </c>
       <c r="I87" t="str">
         <v/>
       </c>
@@ -4426,6 +4939,12 @@
       <c r="F88" t="str">
         <v/>
       </c>
+      <c r="G88" t="str">
+        <v/>
+      </c>
+      <c r="H88" t="str">
+        <v/>
+      </c>
       <c r="I88" t="str">
         <v/>
       </c>
@@ -4458,6 +4977,12 @@
       <c r="F89" t="str">
         <v/>
       </c>
+      <c r="G89" t="str">
+        <v/>
+      </c>
+      <c r="H89" t="str">
+        <v/>
+      </c>
       <c r="I89" t="str">
         <v/>
       </c>
@@ -4490,6 +5015,12 @@
       <c r="F90" t="str">
         <v/>
       </c>
+      <c r="G90" t="str">
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <v/>
+      </c>
       <c r="I90" t="str">
         <v/>
       </c>
@@ -4522,6 +5053,12 @@
       <c r="F91" t="str">
         <v/>
       </c>
+      <c r="G91" t="str">
+        <v/>
+      </c>
+      <c r="H91" t="str">
+        <v/>
+      </c>
       <c r="I91" t="str">
         <v/>
       </c>
@@ -4554,6 +5091,12 @@
       <c r="F92" t="str">
         <v/>
       </c>
+      <c r="G92" t="str">
+        <v/>
+      </c>
+      <c r="H92" t="str">
+        <v/>
+      </c>
       <c r="I92" t="str">
         <v/>
       </c>
@@ -4586,6 +5129,12 @@
       <c r="F93" t="str">
         <v/>
       </c>
+      <c r="G93" t="str">
+        <v/>
+      </c>
+      <c r="H93" t="str">
+        <v/>
+      </c>
       <c r="I93" t="str">
         <v/>
       </c>
@@ -4618,6 +5167,12 @@
       <c r="F94" t="str">
         <v/>
       </c>
+      <c r="G94" t="str">
+        <v/>
+      </c>
+      <c r="H94" t="str">
+        <v/>
+      </c>
       <c r="I94" t="str">
         <v/>
       </c>
@@ -4650,6 +5205,12 @@
       <c r="F95" t="str">
         <v/>
       </c>
+      <c r="G95" t="str">
+        <v/>
+      </c>
+      <c r="H95" t="str">
+        <v/>
+      </c>
       <c r="I95" t="str">
         <v/>
       </c>
@@ -4682,6 +5243,12 @@
       <c r="F96" t="str">
         <v/>
       </c>
+      <c r="G96" t="str">
+        <v/>
+      </c>
+      <c r="H96" t="str">
+        <v/>
+      </c>
       <c r="I96" t="str">
         <v/>
       </c>
@@ -4714,6 +5281,12 @@
       <c r="F97" t="str">
         <v/>
       </c>
+      <c r="G97" t="str">
+        <v/>
+      </c>
+      <c r="H97" t="str">
+        <v/>
+      </c>
       <c r="I97" t="str">
         <v/>
       </c>
@@ -4746,6 +5319,12 @@
       <c r="F98" t="str">
         <v/>
       </c>
+      <c r="G98" t="str">
+        <v/>
+      </c>
+      <c r="H98" t="str">
+        <v/>
+      </c>
       <c r="I98" t="str">
         <v/>
       </c>
@@ -4778,6 +5357,12 @@
       <c r="F99" t="str">
         <v/>
       </c>
+      <c r="G99" t="str">
+        <v/>
+      </c>
+      <c r="H99" t="str">
+        <v/>
+      </c>
       <c r="I99" t="str">
         <v/>
       </c>
@@ -4810,6 +5395,12 @@
       <c r="F100" t="str">
         <v/>
       </c>
+      <c r="G100" t="str">
+        <v/>
+      </c>
+      <c r="H100" t="str">
+        <v/>
+      </c>
       <c r="I100" t="str">
         <v/>
       </c>
@@ -4842,6 +5433,12 @@
       <c r="F101" t="str">
         <v/>
       </c>
+      <c r="G101" t="str">
+        <v/>
+      </c>
+      <c r="H101" t="str">
+        <v/>
+      </c>
       <c r="I101" t="str">
         <v/>
       </c>
@@ -4874,6 +5471,12 @@
       <c r="F102" t="str">
         <v/>
       </c>
+      <c r="G102" t="str">
+        <v/>
+      </c>
+      <c r="H102" t="str">
+        <v/>
+      </c>
       <c r="I102" t="str">
         <v/>
       </c>
@@ -4906,6 +5509,12 @@
       <c r="F103" t="str">
         <v/>
       </c>
+      <c r="G103" t="str">
+        <v/>
+      </c>
+      <c r="H103" t="str">
+        <v/>
+      </c>
       <c r="I103" t="str">
         <v/>
       </c>
@@ -4938,6 +5547,12 @@
       <c r="F104" t="str">
         <v/>
       </c>
+      <c r="G104" t="str">
+        <v/>
+      </c>
+      <c r="H104" t="str">
+        <v/>
+      </c>
       <c r="I104" t="str">
         <v/>
       </c>
@@ -4970,6 +5585,12 @@
       <c r="F105" t="str">
         <v/>
       </c>
+      <c r="G105" t="str">
+        <v/>
+      </c>
+      <c r="H105" t="str">
+        <v/>
+      </c>
       <c r="I105" t="str">
         <v/>
       </c>
@@ -5002,6 +5623,12 @@
       <c r="F106" t="str">
         <v/>
       </c>
+      <c r="G106" t="str">
+        <v/>
+      </c>
+      <c r="H106" t="str">
+        <v/>
+      </c>
       <c r="I106" t="str">
         <v/>
       </c>
@@ -5034,6 +5661,12 @@
       <c r="F107" t="str">
         <v/>
       </c>
+      <c r="G107" t="str">
+        <v/>
+      </c>
+      <c r="H107" t="str">
+        <v/>
+      </c>
       <c r="I107" t="str">
         <v/>
       </c>
@@ -5066,6 +5699,12 @@
       <c r="F108" t="str">
         <v/>
       </c>
+      <c r="G108" t="str">
+        <v/>
+      </c>
+      <c r="H108" t="str">
+        <v/>
+      </c>
       <c r="I108" t="str">
         <v/>
       </c>
@@ -5098,6 +5737,12 @@
       <c r="F109" t="str">
         <v/>
       </c>
+      <c r="G109" t="str">
+        <v/>
+      </c>
+      <c r="H109" t="str">
+        <v/>
+      </c>
       <c r="I109" t="str">
         <v/>
       </c>
@@ -5130,6 +5775,12 @@
       <c r="F110" t="str">
         <v/>
       </c>
+      <c r="G110" t="str">
+        <v/>
+      </c>
+      <c r="H110" t="str">
+        <v/>
+      </c>
       <c r="I110" t="str">
         <v/>
       </c>
@@ -5162,6 +5813,12 @@
       <c r="F111" t="str">
         <v/>
       </c>
+      <c r="G111" t="str">
+        <v/>
+      </c>
+      <c r="H111" t="str">
+        <v/>
+      </c>
       <c r="I111" t="str">
         <v/>
       </c>
@@ -5194,6 +5851,12 @@
       <c r="F112" t="str">
         <v/>
       </c>
+      <c r="G112" t="str">
+        <v/>
+      </c>
+      <c r="H112" t="str">
+        <v/>
+      </c>
       <c r="I112" t="str">
         <v/>
       </c>
@@ -5226,6 +5889,12 @@
       <c r="F113" t="str">
         <v/>
       </c>
+      <c r="G113" t="str">
+        <v/>
+      </c>
+      <c r="H113" t="str">
+        <v/>
+      </c>
       <c r="I113" t="str">
         <v/>
       </c>
@@ -5258,6 +5927,12 @@
       <c r="F114" t="str">
         <v/>
       </c>
+      <c r="G114" t="str">
+        <v/>
+      </c>
+      <c r="H114" t="str">
+        <v/>
+      </c>
       <c r="I114" t="str">
         <v/>
       </c>
@@ -5290,6 +5965,12 @@
       <c r="F115" t="str">
         <v/>
       </c>
+      <c r="G115" t="str">
+        <v/>
+      </c>
+      <c r="H115" t="str">
+        <v/>
+      </c>
       <c r="I115" t="str">
         <v/>
       </c>
@@ -5322,6 +6003,12 @@
       <c r="F116" t="str">
         <v/>
       </c>
+      <c r="G116" t="str">
+        <v/>
+      </c>
+      <c r="H116" t="str">
+        <v/>
+      </c>
       <c r="I116" t="str">
         <v/>
       </c>
@@ -5354,6 +6041,12 @@
       <c r="F117" t="str">
         <v/>
       </c>
+      <c r="G117" t="str">
+        <v/>
+      </c>
+      <c r="H117" t="str">
+        <v/>
+      </c>
       <c r="I117" t="str">
         <v/>
       </c>
@@ -5386,6 +6079,12 @@
       <c r="F118" t="str">
         <v/>
       </c>
+      <c r="G118" t="str">
+        <v/>
+      </c>
+      <c r="H118" t="str">
+        <v/>
+      </c>
       <c r="I118" t="str">
         <v/>
       </c>
@@ -5418,6 +6117,12 @@
       <c r="F119" t="str">
         <v/>
       </c>
+      <c r="G119" t="str">
+        <v/>
+      </c>
+      <c r="H119" t="str">
+        <v/>
+      </c>
       <c r="I119" t="str">
         <v/>
       </c>
@@ -5450,6 +6155,12 @@
       <c r="F120" t="str">
         <v/>
       </c>
+      <c r="G120" t="str">
+        <v/>
+      </c>
+      <c r="H120" t="str">
+        <v/>
+      </c>
       <c r="I120" t="str">
         <v/>
       </c>
@@ -5482,6 +6193,12 @@
       <c r="F121" t="str">
         <v/>
       </c>
+      <c r="G121" t="str">
+        <v/>
+      </c>
+      <c r="H121" t="str">
+        <v/>
+      </c>
       <c r="I121" t="str">
         <v/>
       </c>
@@ -5514,6 +6231,12 @@
       <c r="F122" t="str">
         <v/>
       </c>
+      <c r="G122" t="str">
+        <v/>
+      </c>
+      <c r="H122" t="str">
+        <v/>
+      </c>
       <c r="I122" t="str">
         <v/>
       </c>
@@ -5546,6 +6269,12 @@
       <c r="F123" t="str">
         <v/>
       </c>
+      <c r="G123" t="str">
+        <v/>
+      </c>
+      <c r="H123" t="str">
+        <v/>
+      </c>
       <c r="I123" t="str">
         <v/>
       </c>
@@ -5578,6 +6307,12 @@
       <c r="F124" t="str">
         <v/>
       </c>
+      <c r="G124" t="str">
+        <v/>
+      </c>
+      <c r="H124" t="str">
+        <v/>
+      </c>
       <c r="I124" t="str">
         <v/>
       </c>
@@ -5610,6 +6345,12 @@
       <c r="F125" t="str">
         <v/>
       </c>
+      <c r="G125" t="str">
+        <v/>
+      </c>
+      <c r="H125" t="str">
+        <v/>
+      </c>
       <c r="I125" t="str">
         <v/>
       </c>
@@ -5642,6 +6383,12 @@
       <c r="F126" t="str">
         <v/>
       </c>
+      <c r="G126" t="str">
+        <v/>
+      </c>
+      <c r="H126" t="str">
+        <v/>
+      </c>
       <c r="I126" t="str">
         <v/>
       </c>
@@ -5674,6 +6421,12 @@
       <c r="F127" t="str">
         <v/>
       </c>
+      <c r="G127" t="str">
+        <v/>
+      </c>
+      <c r="H127" t="str">
+        <v/>
+      </c>
       <c r="I127" t="str">
         <v/>
       </c>
@@ -5706,6 +6459,12 @@
       <c r="F128" t="str">
         <v/>
       </c>
+      <c r="G128" t="str">
+        <v/>
+      </c>
+      <c r="H128" t="str">
+        <v/>
+      </c>
       <c r="I128" t="str">
         <v/>
       </c>
@@ -5738,6 +6497,12 @@
       <c r="F129" t="str">
         <v/>
       </c>
+      <c r="G129" t="str">
+        <v/>
+      </c>
+      <c r="H129" t="str">
+        <v/>
+      </c>
       <c r="I129" t="str">
         <v/>
       </c>
@@ -5770,6 +6535,12 @@
       <c r="F130" t="str">
         <v/>
       </c>
+      <c r="G130" t="str">
+        <v/>
+      </c>
+      <c r="H130" t="str">
+        <v/>
+      </c>
       <c r="I130" t="str">
         <v/>
       </c>
@@ -5802,6 +6573,12 @@
       <c r="F131" t="str">
         <v/>
       </c>
+      <c r="G131" t="str">
+        <v/>
+      </c>
+      <c r="H131" t="str">
+        <v/>
+      </c>
       <c r="I131" t="str">
         <v/>
       </c>
@@ -5834,6 +6611,12 @@
       <c r="F132" t="str">
         <v/>
       </c>
+      <c r="G132" t="str">
+        <v/>
+      </c>
+      <c r="H132" t="str">
+        <v/>
+      </c>
       <c r="I132" t="str">
         <v/>
       </c>
@@ -5866,6 +6649,12 @@
       <c r="F133" t="str">
         <v/>
       </c>
+      <c r="G133" t="str">
+        <v/>
+      </c>
+      <c r="H133" t="str">
+        <v/>
+      </c>
       <c r="I133" t="str">
         <v/>
       </c>
@@ -5898,6 +6687,12 @@
       <c r="F134" t="str">
         <v/>
       </c>
+      <c r="G134" t="str">
+        <v/>
+      </c>
+      <c r="H134" t="str">
+        <v/>
+      </c>
       <c r="I134" t="str">
         <v/>
       </c>
@@ -5930,6 +6725,12 @@
       <c r="F135" t="str">
         <v/>
       </c>
+      <c r="G135" t="str">
+        <v/>
+      </c>
+      <c r="H135" t="str">
+        <v/>
+      </c>
       <c r="I135" t="str">
         <v/>
       </c>
@@ -5962,6 +6763,12 @@
       <c r="F136" t="str">
         <v/>
       </c>
+      <c r="G136" t="str">
+        <v/>
+      </c>
+      <c r="H136" t="str">
+        <v/>
+      </c>
       <c r="I136" t="str">
         <v/>
       </c>
@@ -5994,6 +6801,12 @@
       <c r="F137" t="str">
         <v/>
       </c>
+      <c r="G137" t="str">
+        <v/>
+      </c>
+      <c r="H137" t="str">
+        <v/>
+      </c>
       <c r="I137" t="str">
         <v/>
       </c>
@@ -6026,6 +6839,12 @@
       <c r="F138" t="str">
         <v/>
       </c>
+      <c r="G138" t="str">
+        <v/>
+      </c>
+      <c r="H138" t="str">
+        <v/>
+      </c>
       <c r="I138" t="str">
         <v/>
       </c>
@@ -6058,6 +6877,12 @@
       <c r="F139" t="str">
         <v/>
       </c>
+      <c r="G139" t="str">
+        <v/>
+      </c>
+      <c r="H139" t="str">
+        <v/>
+      </c>
       <c r="I139" t="str">
         <v/>
       </c>
@@ -6090,6 +6915,12 @@
       <c r="F140" t="str">
         <v/>
       </c>
+      <c r="G140" t="str">
+        <v/>
+      </c>
+      <c r="H140" t="str">
+        <v/>
+      </c>
       <c r="I140" t="str">
         <v/>
       </c>
@@ -6122,6 +6953,12 @@
       <c r="F141" t="str">
         <v/>
       </c>
+      <c r="G141" t="str">
+        <v/>
+      </c>
+      <c r="H141" t="str">
+        <v/>
+      </c>
       <c r="I141" t="str">
         <v/>
       </c>
@@ -6154,6 +6991,12 @@
       <c r="F142" t="str">
         <v/>
       </c>
+      <c r="G142" t="str">
+        <v/>
+      </c>
+      <c r="H142" t="str">
+        <v/>
+      </c>
       <c r="I142" t="str">
         <v/>
       </c>
@@ -6186,6 +7029,12 @@
       <c r="F143" t="str">
         <v/>
       </c>
+      <c r="G143" t="str">
+        <v/>
+      </c>
+      <c r="H143" t="str">
+        <v/>
+      </c>
       <c r="I143" t="str">
         <v/>
       </c>
@@ -6218,6 +7067,12 @@
       <c r="F144" t="str">
         <v/>
       </c>
+      <c r="G144" t="str">
+        <v/>
+      </c>
+      <c r="H144" t="str">
+        <v/>
+      </c>
       <c r="I144" t="str">
         <v/>
       </c>
@@ -6250,6 +7105,12 @@
       <c r="F145" t="str">
         <v/>
       </c>
+      <c r="G145" t="str">
+        <v/>
+      </c>
+      <c r="H145" t="str">
+        <v/>
+      </c>
       <c r="I145" t="str">
         <v/>
       </c>
@@ -6282,6 +7143,12 @@
       <c r="F146" t="str">
         <v/>
       </c>
+      <c r="G146" t="str">
+        <v/>
+      </c>
+      <c r="H146" t="str">
+        <v/>
+      </c>
       <c r="I146" t="str">
         <v/>
       </c>
@@ -6314,6 +7181,12 @@
       <c r="F147" t="str">
         <v/>
       </c>
+      <c r="G147" t="str">
+        <v/>
+      </c>
+      <c r="H147" t="str">
+        <v/>
+      </c>
       <c r="I147" t="str">
         <v/>
       </c>
@@ -6346,6 +7219,12 @@
       <c r="F148" t="str">
         <v/>
       </c>
+      <c r="G148" t="str">
+        <v/>
+      </c>
+      <c r="H148" t="str">
+        <v/>
+      </c>
       <c r="I148" t="str">
         <v/>
       </c>
@@ -6378,6 +7257,12 @@
       <c r="F149" t="str">
         <v/>
       </c>
+      <c r="G149" t="str">
+        <v/>
+      </c>
+      <c r="H149" t="str">
+        <v/>
+      </c>
       <c r="I149" t="str">
         <v/>
       </c>
@@ -6410,6 +7295,12 @@
       <c r="F150" t="str">
         <v/>
       </c>
+      <c r="G150" t="str">
+        <v/>
+      </c>
+      <c r="H150" t="str">
+        <v/>
+      </c>
       <c r="I150" t="str">
         <v/>
       </c>
@@ -6442,6 +7333,12 @@
       <c r="F151" t="str">
         <v/>
       </c>
+      <c r="G151" t="str">
+        <v/>
+      </c>
+      <c r="H151" t="str">
+        <v/>
+      </c>
       <c r="I151" t="str">
         <v/>
       </c>
@@ -6474,6 +7371,12 @@
       <c r="F152" t="str">
         <v/>
       </c>
+      <c r="G152" t="str">
+        <v/>
+      </c>
+      <c r="H152" t="str">
+        <v/>
+      </c>
       <c r="I152" t="str">
         <v/>
       </c>
@@ -6506,6 +7409,12 @@
       <c r="F153" t="str">
         <v/>
       </c>
+      <c r="G153" t="str">
+        <v/>
+      </c>
+      <c r="H153" t="str">
+        <v/>
+      </c>
       <c r="I153" t="str">
         <v/>
       </c>
@@ -6538,6 +7447,12 @@
       <c r="F154" t="str">
         <v/>
       </c>
+      <c r="G154" t="str">
+        <v/>
+      </c>
+      <c r="H154" t="str">
+        <v/>
+      </c>
       <c r="I154" t="str">
         <v/>
       </c>
@@ -6570,6 +7485,12 @@
       <c r="F155" t="str">
         <v/>
       </c>
+      <c r="G155" t="str">
+        <v/>
+      </c>
+      <c r="H155" t="str">
+        <v/>
+      </c>
       <c r="I155" t="str">
         <v/>
       </c>
@@ -6602,6 +7523,12 @@
       <c r="F156" t="str">
         <v/>
       </c>
+      <c r="G156" t="str">
+        <v/>
+      </c>
+      <c r="H156" t="str">
+        <v/>
+      </c>
       <c r="I156" t="str">
         <v/>
       </c>
@@ -6634,6 +7561,12 @@
       <c r="F157" t="str">
         <v/>
       </c>
+      <c r="G157" t="str">
+        <v/>
+      </c>
+      <c r="H157" t="str">
+        <v/>
+      </c>
       <c r="I157" t="str">
         <v/>
       </c>
@@ -6666,6 +7599,12 @@
       <c r="F158" t="str">
         <v/>
       </c>
+      <c r="G158" t="str">
+        <v/>
+      </c>
+      <c r="H158" t="str">
+        <v/>
+      </c>
       <c r="I158" t="str">
         <v/>
       </c>
@@ -6698,6 +7637,12 @@
       <c r="F159" t="str">
         <v/>
       </c>
+      <c r="G159" t="str">
+        <v/>
+      </c>
+      <c r="H159" t="str">
+        <v/>
+      </c>
       <c r="I159" t="str">
         <v/>
       </c>
@@ -6730,6 +7675,12 @@
       <c r="F160" t="str">
         <v/>
       </c>
+      <c r="G160" t="str">
+        <v/>
+      </c>
+      <c r="H160" t="str">
+        <v/>
+      </c>
       <c r="I160" t="str">
         <v/>
       </c>
@@ -6762,6 +7713,12 @@
       <c r="F161" t="str">
         <v/>
       </c>
+      <c r="G161" t="str">
+        <v/>
+      </c>
+      <c r="H161" t="str">
+        <v/>
+      </c>
       <c r="I161" t="str">
         <v/>
       </c>
@@ -6794,6 +7751,12 @@
       <c r="F162" t="str">
         <v/>
       </c>
+      <c r="G162" t="str">
+        <v/>
+      </c>
+      <c r="H162" t="str">
+        <v/>
+      </c>
       <c r="I162" t="str">
         <v/>
       </c>
@@ -6826,6 +7789,12 @@
       <c r="F163" t="str">
         <v/>
       </c>
+      <c r="G163" t="str">
+        <v/>
+      </c>
+      <c r="H163" t="str">
+        <v/>
+      </c>
       <c r="I163" t="str">
         <v/>
       </c>
@@ -6858,6 +7827,12 @@
       <c r="F164" t="str">
         <v/>
       </c>
+      <c r="G164" t="str">
+        <v/>
+      </c>
+      <c r="H164" t="str">
+        <v/>
+      </c>
       <c r="I164" t="str">
         <v/>
       </c>
@@ -6890,6 +7865,12 @@
       <c r="F165" t="str">
         <v/>
       </c>
+      <c r="G165" t="str">
+        <v/>
+      </c>
+      <c r="H165" t="str">
+        <v/>
+      </c>
       <c r="I165" t="str">
         <v/>
       </c>
@@ -6922,6 +7903,12 @@
       <c r="F166" t="str">
         <v/>
       </c>
+      <c r="G166" t="str">
+        <v/>
+      </c>
+      <c r="H166" t="str">
+        <v/>
+      </c>
       <c r="I166" t="str">
         <v/>
       </c>
@@ -6954,6 +7941,12 @@
       <c r="F167" t="str">
         <v/>
       </c>
+      <c r="G167" t="str">
+        <v/>
+      </c>
+      <c r="H167" t="str">
+        <v/>
+      </c>
       <c r="I167" t="str">
         <v/>
       </c>
@@ -6986,6 +7979,12 @@
       <c r="F168" t="str">
         <v/>
       </c>
+      <c r="G168" t="str">
+        <v/>
+      </c>
+      <c r="H168" t="str">
+        <v/>
+      </c>
       <c r="I168" t="str">
         <v/>
       </c>
@@ -7018,6 +8017,12 @@
       <c r="F169" t="str">
         <v/>
       </c>
+      <c r="G169" t="str">
+        <v/>
+      </c>
+      <c r="H169" t="str">
+        <v/>
+      </c>
       <c r="I169" t="str">
         <v/>
       </c>
@@ -7050,6 +8055,12 @@
       <c r="F170" t="str">
         <v/>
       </c>
+      <c r="G170" t="str">
+        <v/>
+      </c>
+      <c r="H170" t="str">
+        <v/>
+      </c>
       <c r="I170" t="str">
         <v/>
       </c>
@@ -7082,6 +8093,12 @@
       <c r="F171" t="str">
         <v/>
       </c>
+      <c r="G171" t="str">
+        <v/>
+      </c>
+      <c r="H171" t="str">
+        <v/>
+      </c>
       <c r="I171" t="str">
         <v/>
       </c>
@@ -7114,6 +8131,12 @@
       <c r="F172" t="str">
         <v/>
       </c>
+      <c r="G172" t="str">
+        <v/>
+      </c>
+      <c r="H172" t="str">
+        <v/>
+      </c>
       <c r="I172" t="str">
         <v/>
       </c>
@@ -7146,6 +8169,12 @@
       <c r="F173" t="str">
         <v/>
       </c>
+      <c r="G173" t="str">
+        <v/>
+      </c>
+      <c r="H173" t="str">
+        <v/>
+      </c>
       <c r="I173" t="str">
         <v/>
       </c>
@@ -7178,6 +8207,12 @@
       <c r="F174" t="str">
         <v/>
       </c>
+      <c r="G174" t="str">
+        <v/>
+      </c>
+      <c r="H174" t="str">
+        <v/>
+      </c>
       <c r="I174" t="str">
         <v/>
       </c>
@@ -7210,6 +8245,12 @@
       <c r="F175" t="str">
         <v/>
       </c>
+      <c r="G175" t="str">
+        <v/>
+      </c>
+      <c r="H175" t="str">
+        <v/>
+      </c>
       <c r="I175" t="str">
         <v/>
       </c>
@@ -7242,6 +8283,12 @@
       <c r="F176" t="str">
         <v/>
       </c>
+      <c r="G176" t="str">
+        <v/>
+      </c>
+      <c r="H176" t="str">
+        <v/>
+      </c>
       <c r="I176" t="str">
         <v/>
       </c>
@@ -7274,6 +8321,12 @@
       <c r="F177" t="str">
         <v/>
       </c>
+      <c r="G177" t="str">
+        <v/>
+      </c>
+      <c r="H177" t="str">
+        <v/>
+      </c>
       <c r="I177" t="str">
         <v/>
       </c>
@@ -7306,6 +8359,12 @@
       <c r="F178" t="str">
         <v/>
       </c>
+      <c r="G178" t="str">
+        <v/>
+      </c>
+      <c r="H178" t="str">
+        <v/>
+      </c>
       <c r="I178" t="str">
         <v/>
       </c>
@@ -7338,6 +8397,12 @@
       <c r="F179" t="str">
         <v/>
       </c>
+      <c r="G179" t="str">
+        <v/>
+      </c>
+      <c r="H179" t="str">
+        <v/>
+      </c>
       <c r="I179" t="str">
         <v/>
       </c>
@@ -7370,6 +8435,12 @@
       <c r="F180" t="str">
         <v/>
       </c>
+      <c r="G180" t="str">
+        <v/>
+      </c>
+      <c r="H180" t="str">
+        <v/>
+      </c>
       <c r="I180" t="str">
         <v/>
       </c>
@@ -7402,6 +8473,12 @@
       <c r="F181" t="str">
         <v/>
       </c>
+      <c r="G181" t="str">
+        <v/>
+      </c>
+      <c r="H181" t="str">
+        <v/>
+      </c>
       <c r="I181" t="str">
         <v/>
       </c>
@@ -7434,6 +8511,12 @@
       <c r="F182" t="str">
         <v/>
       </c>
+      <c r="G182" t="str">
+        <v/>
+      </c>
+      <c r="H182" t="str">
+        <v/>
+      </c>
       <c r="I182" t="str">
         <v/>
       </c>
@@ -7466,6 +8549,12 @@
       <c r="F183" t="str">
         <v/>
       </c>
+      <c r="G183" t="str">
+        <v/>
+      </c>
+      <c r="H183" t="str">
+        <v/>
+      </c>
       <c r="I183" t="str">
         <v/>
       </c>
@@ -7498,6 +8587,12 @@
       <c r="F184" t="str">
         <v/>
       </c>
+      <c r="G184" t="str">
+        <v/>
+      </c>
+      <c r="H184" t="str">
+        <v/>
+      </c>
       <c r="I184" t="str">
         <v/>
       </c>
@@ -7530,6 +8625,12 @@
       <c r="F185" t="str">
         <v/>
       </c>
+      <c r="G185" t="str">
+        <v/>
+      </c>
+      <c r="H185" t="str">
+        <v/>
+      </c>
       <c r="I185" t="str">
         <v/>
       </c>
@@ -7562,6 +8663,12 @@
       <c r="F186" t="str">
         <v/>
       </c>
+      <c r="G186" t="str">
+        <v/>
+      </c>
+      <c r="H186" t="str">
+        <v/>
+      </c>
       <c r="I186" t="str">
         <v/>
       </c>
@@ -7594,6 +8701,12 @@
       <c r="F187" t="str">
         <v/>
       </c>
+      <c r="G187" t="str">
+        <v/>
+      </c>
+      <c r="H187" t="str">
+        <v/>
+      </c>
       <c r="I187" t="str">
         <v/>
       </c>
@@ -7626,6 +8739,12 @@
       <c r="F188" t="str">
         <v/>
       </c>
+      <c r="G188" t="str">
+        <v/>
+      </c>
+      <c r="H188" t="str">
+        <v/>
+      </c>
       <c r="I188" t="str">
         <v/>
       </c>
@@ -7658,6 +8777,12 @@
       <c r="F189" t="str">
         <v/>
       </c>
+      <c r="G189" t="str">
+        <v/>
+      </c>
+      <c r="H189" t="str">
+        <v/>
+      </c>
       <c r="I189" t="str">
         <v/>
       </c>
@@ -7690,6 +8815,12 @@
       <c r="F190" t="str">
         <v/>
       </c>
+      <c r="G190" t="str">
+        <v/>
+      </c>
+      <c r="H190" t="str">
+        <v/>
+      </c>
       <c r="I190" t="str">
         <v/>
       </c>
@@ -7722,6 +8853,12 @@
       <c r="F191" t="str">
         <v/>
       </c>
+      <c r="G191" t="str">
+        <v/>
+      </c>
+      <c r="H191" t="str">
+        <v/>
+      </c>
       <c r="I191" t="str">
         <v/>
       </c>
@@ -7754,6 +8891,12 @@
       <c r="F192" t="str">
         <v/>
       </c>
+      <c r="G192" t="str">
+        <v/>
+      </c>
+      <c r="H192" t="str">
+        <v/>
+      </c>
       <c r="I192" t="str">
         <v/>
       </c>
@@ -7786,6 +8929,12 @@
       <c r="F193" t="str">
         <v/>
       </c>
+      <c r="G193" t="str">
+        <v/>
+      </c>
+      <c r="H193" t="str">
+        <v/>
+      </c>
       <c r="I193" t="str">
         <v/>
       </c>
@@ -7818,6 +8967,12 @@
       <c r="F194" t="str">
         <v/>
       </c>
+      <c r="G194" t="str">
+        <v/>
+      </c>
+      <c r="H194" t="str">
+        <v/>
+      </c>
       <c r="I194" t="str">
         <v/>
       </c>
@@ -7850,6 +9005,12 @@
       <c r="F195" t="str">
         <v/>
       </c>
+      <c r="G195" t="str">
+        <v/>
+      </c>
+      <c r="H195" t="str">
+        <v/>
+      </c>
       <c r="I195" t="str">
         <v/>
       </c>
@@ -7882,6 +9043,12 @@
       <c r="F196" t="str">
         <v/>
       </c>
+      <c r="G196" t="str">
+        <v/>
+      </c>
+      <c r="H196" t="str">
+        <v/>
+      </c>
       <c r="I196" t="str">
         <v/>
       </c>
@@ -7914,6 +9081,12 @@
       <c r="F197" t="str">
         <v/>
       </c>
+      <c r="G197" t="str">
+        <v/>
+      </c>
+      <c r="H197" t="str">
+        <v/>
+      </c>
       <c r="I197" t="str">
         <v/>
       </c>
@@ -7946,6 +9119,12 @@
       <c r="F198" t="str">
         <v/>
       </c>
+      <c r="G198" t="str">
+        <v/>
+      </c>
+      <c r="H198" t="str">
+        <v/>
+      </c>
       <c r="I198" t="str">
         <v/>
       </c>
@@ -7978,6 +9157,12 @@
       <c r="F199" t="str">
         <v/>
       </c>
+      <c r="G199" t="str">
+        <v/>
+      </c>
+      <c r="H199" t="str">
+        <v/>
+      </c>
       <c r="I199" t="str">
         <v/>
       </c>
@@ -8010,6 +9195,12 @@
       <c r="F200" t="str">
         <v/>
       </c>
+      <c r="G200" t="str">
+        <v/>
+      </c>
+      <c r="H200" t="str">
+        <v/>
+      </c>
       <c r="I200" t="str">
         <v/>
       </c>
@@ -8042,6 +9233,12 @@
       <c r="F201" t="str">
         <v/>
       </c>
+      <c r="G201" t="str">
+        <v/>
+      </c>
+      <c r="H201" t="str">
+        <v/>
+      </c>
       <c r="I201" t="str">
         <v/>
       </c>
@@ -8074,6 +9271,12 @@
       <c r="F202" t="str">
         <v/>
       </c>
+      <c r="G202" t="str">
+        <v/>
+      </c>
+      <c r="H202" t="str">
+        <v/>
+      </c>
       <c r="I202" t="str">
         <v/>
       </c>
@@ -8106,6 +9309,12 @@
       <c r="F203" t="str">
         <v/>
       </c>
+      <c r="G203" t="str">
+        <v/>
+      </c>
+      <c r="H203" t="str">
+        <v/>
+      </c>
       <c r="I203" t="str">
         <v/>
       </c>
@@ -8138,6 +9347,12 @@
       <c r="F204" t="str">
         <v/>
       </c>
+      <c r="G204" t="str">
+        <v/>
+      </c>
+      <c r="H204" t="str">
+        <v/>
+      </c>
       <c r="I204" t="str">
         <v/>
       </c>
@@ -8170,6 +9385,12 @@
       <c r="F205" t="str">
         <v/>
       </c>
+      <c r="G205" t="str">
+        <v/>
+      </c>
+      <c r="H205" t="str">
+        <v/>
+      </c>
       <c r="I205" t="str">
         <v/>
       </c>
@@ -8202,6 +9423,12 @@
       <c r="F206" t="str">
         <v/>
       </c>
+      <c r="G206" t="str">
+        <v/>
+      </c>
+      <c r="H206" t="str">
+        <v/>
+      </c>
       <c r="I206" t="str">
         <v/>
       </c>
@@ -8234,6 +9461,12 @@
       <c r="F207" t="str">
         <v/>
       </c>
+      <c r="G207" t="str">
+        <v/>
+      </c>
+      <c r="H207" t="str">
+        <v/>
+      </c>
       <c r="I207" t="str">
         <v/>
       </c>
@@ -8266,6 +9499,12 @@
       <c r="F208" t="str">
         <v/>
       </c>
+      <c r="G208" t="str">
+        <v/>
+      </c>
+      <c r="H208" t="str">
+        <v/>
+      </c>
       <c r="I208" t="str">
         <v/>
       </c>
@@ -8298,6 +9537,12 @@
       <c r="F209" t="str">
         <v/>
       </c>
+      <c r="G209" t="str">
+        <v/>
+      </c>
+      <c r="H209" t="str">
+        <v/>
+      </c>
       <c r="I209" t="str">
         <v/>
       </c>
@@ -8330,6 +9575,12 @@
       <c r="F210" t="str">
         <v/>
       </c>
+      <c r="G210" t="str">
+        <v/>
+      </c>
+      <c r="H210" t="str">
+        <v/>
+      </c>
       <c r="I210" t="str">
         <v/>
       </c>
@@ -8362,6 +9613,12 @@
       <c r="F211" t="str">
         <v/>
       </c>
+      <c r="G211" t="str">
+        <v/>
+      </c>
+      <c r="H211" t="str">
+        <v/>
+      </c>
       <c r="I211" t="str">
         <v/>
       </c>
@@ -8394,6 +9651,12 @@
       <c r="F212" t="str">
         <v/>
       </c>
+      <c r="G212" t="str">
+        <v/>
+      </c>
+      <c r="H212" t="str">
+        <v/>
+      </c>
       <c r="I212" t="str">
         <v/>
       </c>
@@ -8426,6 +9689,12 @@
       <c r="F213" t="str">
         <v/>
       </c>
+      <c r="G213" t="str">
+        <v/>
+      </c>
+      <c r="H213" t="str">
+        <v/>
+      </c>
       <c r="I213" t="str">
         <v/>
       </c>
@@ -8458,6 +9727,12 @@
       <c r="F214" t="str">
         <v/>
       </c>
+      <c r="G214" t="str">
+        <v/>
+      </c>
+      <c r="H214" t="str">
+        <v/>
+      </c>
       <c r="I214" t="str">
         <v/>
       </c>
@@ -8490,6 +9765,12 @@
       <c r="F215" t="str">
         <v/>
       </c>
+      <c r="G215" t="str">
+        <v/>
+      </c>
+      <c r="H215" t="str">
+        <v/>
+      </c>
       <c r="I215" t="str">
         <v/>
       </c>
@@ -8522,6 +9803,12 @@
       <c r="F216" t="str">
         <v/>
       </c>
+      <c r="G216" t="str">
+        <v/>
+      </c>
+      <c r="H216" t="str">
+        <v/>
+      </c>
       <c r="I216" t="str">
         <v/>
       </c>
@@ -8554,6 +9841,12 @@
       <c r="F217" t="str">
         <v/>
       </c>
+      <c r="G217" t="str">
+        <v/>
+      </c>
+      <c r="H217" t="str">
+        <v/>
+      </c>
       <c r="I217" t="str">
         <v/>
       </c>
@@ -8586,6 +9879,12 @@
       <c r="F218" t="str">
         <v/>
       </c>
+      <c r="G218" t="str">
+        <v/>
+      </c>
+      <c r="H218" t="str">
+        <v/>
+      </c>
       <c r="I218" t="str">
         <v/>
       </c>
@@ -8618,6 +9917,12 @@
       <c r="F219" t="str">
         <v/>
       </c>
+      <c r="G219" t="str">
+        <v/>
+      </c>
+      <c r="H219" t="str">
+        <v/>
+      </c>
       <c r="I219" t="str">
         <v/>
       </c>
@@ -8650,6 +9955,12 @@
       <c r="F220" t="str">
         <v/>
       </c>
+      <c r="G220" t="str">
+        <v/>
+      </c>
+      <c r="H220" t="str">
+        <v/>
+      </c>
       <c r="I220" t="str">
         <v/>
       </c>
@@ -8682,6 +9993,12 @@
       <c r="F221" t="str">
         <v/>
       </c>
+      <c r="G221" t="str">
+        <v/>
+      </c>
+      <c r="H221" t="str">
+        <v/>
+      </c>
       <c r="I221" t="str">
         <v/>
       </c>
@@ -8714,6 +10031,12 @@
       <c r="F222" t="str">
         <v/>
       </c>
+      <c r="G222" t="str">
+        <v/>
+      </c>
+      <c r="H222" t="str">
+        <v/>
+      </c>
       <c r="I222" t="str">
         <v/>
       </c>
@@ -8746,6 +10069,12 @@
       <c r="F223" t="str">
         <v/>
       </c>
+      <c r="G223" t="str">
+        <v/>
+      </c>
+      <c r="H223" t="str">
+        <v/>
+      </c>
       <c r="I223" t="str">
         <v/>
       </c>
@@ -8778,6 +10107,12 @@
       <c r="F224" t="str">
         <v/>
       </c>
+      <c r="G224" t="str">
+        <v/>
+      </c>
+      <c r="H224" t="str">
+        <v/>
+      </c>
       <c r="I224" t="str">
         <v/>
       </c>
@@ -8810,6 +10145,12 @@
       <c r="F225" t="str">
         <v/>
       </c>
+      <c r="G225" t="str">
+        <v/>
+      </c>
+      <c r="H225" t="str">
+        <v/>
+      </c>
       <c r="I225" t="str">
         <v/>
       </c>
@@ -8842,6 +10183,12 @@
       <c r="F226" t="str">
         <v/>
       </c>
+      <c r="G226" t="str">
+        <v/>
+      </c>
+      <c r="H226" t="str">
+        <v/>
+      </c>
       <c r="I226" t="str">
         <v/>
       </c>
@@ -8874,6 +10221,12 @@
       <c r="F227" t="str">
         <v/>
       </c>
+      <c r="G227" t="str">
+        <v/>
+      </c>
+      <c r="H227" t="str">
+        <v/>
+      </c>
       <c r="I227" t="str">
         <v/>
       </c>
@@ -8906,6 +10259,12 @@
       <c r="F228" t="str">
         <v/>
       </c>
+      <c r="G228" t="str">
+        <v/>
+      </c>
+      <c r="H228" t="str">
+        <v/>
+      </c>
       <c r="I228" t="str">
         <v/>
       </c>
@@ -8938,6 +10297,12 @@
       <c r="F229" t="str">
         <v/>
       </c>
+      <c r="G229" t="str">
+        <v/>
+      </c>
+      <c r="H229" t="str">
+        <v/>
+      </c>
       <c r="I229" t="str">
         <v/>
       </c>
@@ -8970,6 +10335,12 @@
       <c r="F230" t="str">
         <v/>
       </c>
+      <c r="G230" t="str">
+        <v/>
+      </c>
+      <c r="H230" t="str">
+        <v/>
+      </c>
       <c r="I230" t="str">
         <v/>
       </c>
@@ -9002,6 +10373,12 @@
       <c r="F231" t="str">
         <v/>
       </c>
+      <c r="G231" t="str">
+        <v/>
+      </c>
+      <c r="H231" t="str">
+        <v/>
+      </c>
       <c r="I231" t="str">
         <v/>
       </c>
@@ -9034,6 +10411,12 @@
       <c r="F232" t="str">
         <v/>
       </c>
+      <c r="G232" t="str">
+        <v/>
+      </c>
+      <c r="H232" t="str">
+        <v/>
+      </c>
       <c r="I232" t="str">
         <v/>
       </c>
@@ -9066,6 +10449,12 @@
       <c r="F233" t="str">
         <v/>
       </c>
+      <c r="G233" t="str">
+        <v/>
+      </c>
+      <c r="H233" t="str">
+        <v/>
+      </c>
       <c r="I233" t="str">
         <v/>
       </c>
@@ -9098,6 +10487,12 @@
       <c r="F234" t="str">
         <v/>
       </c>
+      <c r="G234" t="str">
+        <v/>
+      </c>
+      <c r="H234" t="str">
+        <v/>
+      </c>
       <c r="I234" t="str">
         <v/>
       </c>
@@ -9130,6 +10525,12 @@
       <c r="F235" t="str">
         <v/>
       </c>
+      <c r="G235" t="str">
+        <v/>
+      </c>
+      <c r="H235" t="str">
+        <v/>
+      </c>
       <c r="I235" t="str">
         <v/>
       </c>
@@ -9162,6 +10563,12 @@
       <c r="F236" t="str">
         <v/>
       </c>
+      <c r="G236" t="str">
+        <v/>
+      </c>
+      <c r="H236" t="str">
+        <v/>
+      </c>
       <c r="I236" t="str">
         <v/>
       </c>
@@ -9194,6 +10601,12 @@
       <c r="F237" t="str">
         <v/>
       </c>
+      <c r="G237" t="str">
+        <v/>
+      </c>
+      <c r="H237" t="str">
+        <v/>
+      </c>
       <c r="I237" t="str">
         <v/>
       </c>
@@ -9226,6 +10639,12 @@
       <c r="F238" t="str">
         <v/>
       </c>
+      <c r="G238" t="str">
+        <v/>
+      </c>
+      <c r="H238" t="str">
+        <v/>
+      </c>
       <c r="I238" t="str">
         <v/>
       </c>
@@ -9258,6 +10677,12 @@
       <c r="F239" t="str">
         <v/>
       </c>
+      <c r="G239" t="str">
+        <v/>
+      </c>
+      <c r="H239" t="str">
+        <v/>
+      </c>
       <c r="I239" t="str">
         <v/>
       </c>
@@ -9290,6 +10715,12 @@
       <c r="F240" t="str">
         <v/>
       </c>
+      <c r="G240" t="str">
+        <v/>
+      </c>
+      <c r="H240" t="str">
+        <v/>
+      </c>
       <c r="I240" t="str">
         <v/>
       </c>
@@ -9322,6 +10753,12 @@
       <c r="F241" t="str">
         <v/>
       </c>
+      <c r="G241" t="str">
+        <v/>
+      </c>
+      <c r="H241" t="str">
+        <v/>
+      </c>
       <c r="I241" t="str">
         <v/>
       </c>
@@ -9354,6 +10791,12 @@
       <c r="F242" t="str">
         <v/>
       </c>
+      <c r="G242" t="str">
+        <v/>
+      </c>
+      <c r="H242" t="str">
+        <v/>
+      </c>
       <c r="I242" t="str">
         <v/>
       </c>
@@ -9386,6 +10829,12 @@
       <c r="F243" t="str">
         <v/>
       </c>
+      <c r="G243" t="str">
+        <v/>
+      </c>
+      <c r="H243" t="str">
+        <v/>
+      </c>
       <c r="I243" t="str">
         <v/>
       </c>
@@ -9418,6 +10867,12 @@
       <c r="F244" t="str">
         <v/>
       </c>
+      <c r="G244" t="str">
+        <v/>
+      </c>
+      <c r="H244" t="str">
+        <v/>
+      </c>
       <c r="I244" t="str">
         <v/>
       </c>
@@ -9450,6 +10905,12 @@
       <c r="F245" t="str">
         <v/>
       </c>
+      <c r="G245" t="str">
+        <v/>
+      </c>
+      <c r="H245" t="str">
+        <v/>
+      </c>
       <c r="I245" t="str">
         <v/>
       </c>
@@ -9482,6 +10943,12 @@
       <c r="F246" t="str">
         <v/>
       </c>
+      <c r="G246" t="str">
+        <v/>
+      </c>
+      <c r="H246" t="str">
+        <v/>
+      </c>
       <c r="I246" t="str">
         <v/>
       </c>
@@ -9514,6 +10981,12 @@
       <c r="F247" t="str">
         <v/>
       </c>
+      <c r="G247" t="str">
+        <v/>
+      </c>
+      <c r="H247" t="str">
+        <v/>
+      </c>
       <c r="I247" t="str">
         <v/>
       </c>
@@ -9546,6 +11019,12 @@
       <c r="F248" t="str">
         <v/>
       </c>
+      <c r="G248" t="str">
+        <v/>
+      </c>
+      <c r="H248" t="str">
+        <v/>
+      </c>
       <c r="I248" t="str">
         <v/>
       </c>
@@ -9578,6 +11057,12 @@
       <c r="F249" t="str">
         <v/>
       </c>
+      <c r="G249" t="str">
+        <v/>
+      </c>
+      <c r="H249" t="str">
+        <v/>
+      </c>
       <c r="I249" t="str">
         <v/>
       </c>
@@ -9610,6 +11095,12 @@
       <c r="F250" t="str">
         <v/>
       </c>
+      <c r="G250" t="str">
+        <v/>
+      </c>
+      <c r="H250" t="str">
+        <v/>
+      </c>
       <c r="I250" t="str">
         <v/>
       </c>
@@ -9642,6 +11133,12 @@
       <c r="F251" t="str">
         <v/>
       </c>
+      <c r="G251" t="str">
+        <v/>
+      </c>
+      <c r="H251" t="str">
+        <v/>
+      </c>
       <c r="I251" t="str">
         <v/>
       </c>
@@ -9674,6 +11171,12 @@
       <c r="F252" t="str">
         <v/>
       </c>
+      <c r="G252" t="str">
+        <v/>
+      </c>
+      <c r="H252" t="str">
+        <v/>
+      </c>
       <c r="I252" t="str">
         <v/>
       </c>
@@ -9706,6 +11209,12 @@
       <c r="F253" t="str">
         <v/>
       </c>
+      <c r="G253" t="str">
+        <v/>
+      </c>
+      <c r="H253" t="str">
+        <v/>
+      </c>
       <c r="I253" t="str">
         <v/>
       </c>
@@ -9738,6 +11247,12 @@
       <c r="F254" t="str">
         <v/>
       </c>
+      <c r="G254" t="str">
+        <v/>
+      </c>
+      <c r="H254" t="str">
+        <v/>
+      </c>
       <c r="I254" t="str">
         <v/>
       </c>
@@ -9770,6 +11285,12 @@
       <c r="F255" t="str">
         <v/>
       </c>
+      <c r="G255" t="str">
+        <v/>
+      </c>
+      <c r="H255" t="str">
+        <v/>
+      </c>
       <c r="I255" t="str">
         <v/>
       </c>
@@ -9802,6 +11323,12 @@
       <c r="F256" t="str">
         <v/>
       </c>
+      <c r="G256" t="str">
+        <v/>
+      </c>
+      <c r="H256" t="str">
+        <v/>
+      </c>
       <c r="I256" t="str">
         <v/>
       </c>
@@ -9832,6 +11359,12 @@
         <v>Hand Cash</v>
       </c>
       <c r="F257" t="str">
+        <v/>
+      </c>
+      <c r="G257" t="str">
+        <v/>
+      </c>
+      <c r="H257" t="str">
         <v/>
       </c>
       <c r="I257" t="str">

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -1597,7 +1597,7 @@
         <v/>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1609,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L257"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1631,24 +1631,27 @@
         <v>account</v>
       </c>
       <c r="F1" t="str">
+        <v>expenseFor</v>
+      </c>
+      <c r="G1" t="str">
         <v>familyMembers</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>contributionType</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>contributions</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>notes</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>recurring</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>recurringFrequency</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>recurringNextDate</v>
       </c>
     </row>
@@ -1669,24 +1672,18 @@
         <v>Hand Cash</v>
       </c>
       <c r="F2" t="str">
-        <v>["Husna"]</v>
-      </c>
-      <c r="G2" t="str">
-        <v>equal</v>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="str">
-        <v/>
+        <v>Husna</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2" t="str">
         <v/>
       </c>
     </row>
@@ -1718,13 +1715,16 @@
       <c r="I3" t="str">
         <v/>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="str">
-        <v/>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
         <v/>
       </c>
     </row>
@@ -1756,13 +1756,16 @@
       <c r="I4" t="str">
         <v/>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="str">
-        <v/>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
       <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
         <v/>
       </c>
     </row>
@@ -1794,13 +1797,16 @@
       <c r="I5" t="str">
         <v/>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="str">
-        <v/>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
       <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
         <v/>
       </c>
     </row>
@@ -1832,13 +1838,16 @@
       <c r="I6" t="str">
         <v/>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="str">
-        <v/>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
       <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
         <v/>
       </c>
     </row>
@@ -1870,13 +1879,16 @@
       <c r="I7" t="str">
         <v/>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="str">
-        <v/>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
       <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
         <v/>
       </c>
     </row>
@@ -1908,13 +1920,16 @@
       <c r="I8" t="str">
         <v/>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="str">
-        <v/>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
       <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
         <v/>
       </c>
     </row>
@@ -1946,13 +1961,16 @@
       <c r="I9" t="str">
         <v/>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="str">
-        <v/>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
       <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
         <v/>
       </c>
     </row>
@@ -1984,13 +2002,16 @@
       <c r="I10" t="str">
         <v/>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="str">
-        <v/>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
       <c r="L10" t="str">
+        <v/>
+      </c>
+      <c r="M10" t="str">
         <v/>
       </c>
     </row>
@@ -2022,13 +2043,16 @@
       <c r="I11" t="str">
         <v/>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="str">
-        <v/>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
       <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11" t="str">
         <v/>
       </c>
     </row>
@@ -2060,13 +2084,16 @@
       <c r="I12" t="str">
         <v/>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="str">
-        <v/>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
       <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12" t="str">
         <v/>
       </c>
     </row>
@@ -2098,13 +2125,16 @@
       <c r="I13" t="str">
         <v/>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="str">
-        <v/>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
       <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
         <v/>
       </c>
     </row>
@@ -2136,13 +2166,16 @@
       <c r="I14" t="str">
         <v/>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="str">
-        <v/>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
       <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14" t="str">
         <v/>
       </c>
     </row>
@@ -2174,13 +2207,16 @@
       <c r="I15" t="str">
         <v/>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="str">
-        <v/>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
       <c r="L15" t="str">
+        <v/>
+      </c>
+      <c r="M15" t="str">
         <v/>
       </c>
     </row>
@@ -2212,13 +2248,16 @@
       <c r="I16" t="str">
         <v/>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="str">
-        <v/>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
       <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16" t="str">
         <v/>
       </c>
     </row>
@@ -2250,13 +2289,16 @@
       <c r="I17" t="str">
         <v/>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="str">
-        <v/>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
       <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17" t="str">
         <v/>
       </c>
     </row>
@@ -2288,13 +2330,16 @@
       <c r="I18" t="str">
         <v/>
       </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="str">
-        <v/>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
       <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
         <v/>
       </c>
     </row>
@@ -2326,13 +2371,16 @@
       <c r="I19" t="str">
         <v/>
       </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="str">
-        <v/>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
       <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
         <v/>
       </c>
     </row>
@@ -2364,13 +2412,16 @@
       <c r="I20" t="str">
         <v/>
       </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="str">
-        <v/>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
       <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20" t="str">
         <v/>
       </c>
     </row>
@@ -2402,13 +2453,16 @@
       <c r="I21" t="str">
         <v/>
       </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="str">
-        <v/>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
       <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21" t="str">
         <v/>
       </c>
     </row>
@@ -2440,13 +2494,16 @@
       <c r="I22" t="str">
         <v/>
       </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="str">
-        <v/>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
       </c>
       <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
         <v/>
       </c>
     </row>
@@ -2478,13 +2535,16 @@
       <c r="I23" t="str">
         <v/>
       </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="str">
-        <v/>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
       </c>
       <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
         <v/>
       </c>
     </row>
@@ -2516,13 +2576,16 @@
       <c r="I24" t="str">
         <v/>
       </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="str">
-        <v/>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
       </c>
       <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
         <v/>
       </c>
     </row>
@@ -2554,13 +2617,16 @@
       <c r="I25" t="str">
         <v/>
       </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="str">
-        <v/>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
       </c>
       <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25" t="str">
         <v/>
       </c>
     </row>
@@ -2592,13 +2658,16 @@
       <c r="I26" t="str">
         <v/>
       </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="str">
-        <v/>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
       </c>
       <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
         <v/>
       </c>
     </row>
@@ -2630,13 +2699,16 @@
       <c r="I27" t="str">
         <v/>
       </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="str">
-        <v/>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
       </c>
       <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
         <v/>
       </c>
     </row>
@@ -2668,13 +2740,16 @@
       <c r="I28" t="str">
         <v/>
       </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="str">
-        <v/>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
       </c>
       <c r="L28" t="str">
+        <v/>
+      </c>
+      <c r="M28" t="str">
         <v/>
       </c>
     </row>
@@ -2706,13 +2781,16 @@
       <c r="I29" t="str">
         <v/>
       </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="str">
-        <v/>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
       </c>
       <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29" t="str">
         <v/>
       </c>
     </row>
@@ -2744,13 +2822,16 @@
       <c r="I30" t="str">
         <v/>
       </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="str">
-        <v/>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
       </c>
       <c r="L30" t="str">
+        <v/>
+      </c>
+      <c r="M30" t="str">
         <v/>
       </c>
     </row>
@@ -2782,13 +2863,16 @@
       <c r="I31" t="str">
         <v/>
       </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="str">
-        <v/>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
       </c>
       <c r="L31" t="str">
+        <v/>
+      </c>
+      <c r="M31" t="str">
         <v/>
       </c>
     </row>
@@ -2820,13 +2904,16 @@
       <c r="I32" t="str">
         <v/>
       </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="str">
-        <v/>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
       </c>
       <c r="L32" t="str">
+        <v/>
+      </c>
+      <c r="M32" t="str">
         <v/>
       </c>
     </row>
@@ -2858,13 +2945,16 @@
       <c r="I33" t="str">
         <v/>
       </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="str">
-        <v/>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
       </c>
       <c r="L33" t="str">
+        <v/>
+      </c>
+      <c r="M33" t="str">
         <v/>
       </c>
     </row>
@@ -2896,13 +2986,16 @@
       <c r="I34" t="str">
         <v/>
       </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="str">
-        <v/>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
       </c>
       <c r="L34" t="str">
+        <v/>
+      </c>
+      <c r="M34" t="str">
         <v/>
       </c>
     </row>
@@ -2934,13 +3027,16 @@
       <c r="I35" t="str">
         <v/>
       </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="str">
-        <v/>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
       </c>
       <c r="L35" t="str">
+        <v/>
+      </c>
+      <c r="M35" t="str">
         <v/>
       </c>
     </row>
@@ -2972,13 +3068,16 @@
       <c r="I36" t="str">
         <v/>
       </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="str">
-        <v/>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
       </c>
       <c r="L36" t="str">
+        <v/>
+      </c>
+      <c r="M36" t="str">
         <v/>
       </c>
     </row>
@@ -3010,13 +3109,16 @@
       <c r="I37" t="str">
         <v/>
       </c>
-      <c r="J37" t="b">
-        <v>0</v>
-      </c>
-      <c r="K37" t="str">
-        <v/>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
       </c>
       <c r="L37" t="str">
+        <v/>
+      </c>
+      <c r="M37" t="str">
         <v/>
       </c>
     </row>
@@ -3048,13 +3150,16 @@
       <c r="I38" t="str">
         <v/>
       </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="str">
-        <v/>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
       </c>
       <c r="L38" t="str">
+        <v/>
+      </c>
+      <c r="M38" t="str">
         <v/>
       </c>
     </row>
@@ -3086,13 +3191,16 @@
       <c r="I39" t="str">
         <v/>
       </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="str">
-        <v/>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
       </c>
       <c r="L39" t="str">
+        <v/>
+      </c>
+      <c r="M39" t="str">
         <v/>
       </c>
     </row>
@@ -3124,13 +3232,16 @@
       <c r="I40" t="str">
         <v/>
       </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="str">
-        <v/>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
       </c>
       <c r="L40" t="str">
+        <v/>
+      </c>
+      <c r="M40" t="str">
         <v/>
       </c>
     </row>
@@ -3162,13 +3273,16 @@
       <c r="I41" t="str">
         <v/>
       </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="str">
-        <v/>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
       </c>
       <c r="L41" t="str">
+        <v/>
+      </c>
+      <c r="M41" t="str">
         <v/>
       </c>
     </row>
@@ -3200,13 +3314,16 @@
       <c r="I42" t="str">
         <v/>
       </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="str">
-        <v/>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
       </c>
       <c r="L42" t="str">
+        <v/>
+      </c>
+      <c r="M42" t="str">
         <v/>
       </c>
     </row>
@@ -3238,13 +3355,16 @@
       <c r="I43" t="str">
         <v/>
       </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="str">
-        <v/>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
       </c>
       <c r="L43" t="str">
+        <v/>
+      </c>
+      <c r="M43" t="str">
         <v/>
       </c>
     </row>
@@ -3276,13 +3396,16 @@
       <c r="I44" t="str">
         <v/>
       </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="str">
-        <v/>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
       </c>
       <c r="L44" t="str">
+        <v/>
+      </c>
+      <c r="M44" t="str">
         <v/>
       </c>
     </row>
@@ -3314,13 +3437,16 @@
       <c r="I45" t="str">
         <v/>
       </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="str">
-        <v/>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
       </c>
       <c r="L45" t="str">
+        <v/>
+      </c>
+      <c r="M45" t="str">
         <v/>
       </c>
     </row>
@@ -3352,13 +3478,16 @@
       <c r="I46" t="str">
         <v/>
       </c>
-      <c r="J46" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" t="str">
-        <v/>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
       </c>
       <c r="L46" t="str">
+        <v/>
+      </c>
+      <c r="M46" t="str">
         <v/>
       </c>
     </row>
@@ -3390,13 +3519,16 @@
       <c r="I47" t="str">
         <v/>
       </c>
-      <c r="J47" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" t="str">
-        <v/>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
       </c>
       <c r="L47" t="str">
+        <v/>
+      </c>
+      <c r="M47" t="str">
         <v/>
       </c>
     </row>
@@ -3428,13 +3560,16 @@
       <c r="I48" t="str">
         <v/>
       </c>
-      <c r="J48" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" t="str">
-        <v/>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
       </c>
       <c r="L48" t="str">
+        <v/>
+      </c>
+      <c r="M48" t="str">
         <v/>
       </c>
     </row>
@@ -3466,13 +3601,16 @@
       <c r="I49" t="str">
         <v/>
       </c>
-      <c r="J49" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" t="str">
-        <v/>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
       </c>
       <c r="L49" t="str">
+        <v/>
+      </c>
+      <c r="M49" t="str">
         <v/>
       </c>
     </row>
@@ -3504,13 +3642,16 @@
       <c r="I50" t="str">
         <v/>
       </c>
-      <c r="J50" t="b">
-        <v>0</v>
-      </c>
-      <c r="K50" t="str">
-        <v/>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
       </c>
       <c r="L50" t="str">
+        <v/>
+      </c>
+      <c r="M50" t="str">
         <v/>
       </c>
     </row>
@@ -3542,13 +3683,16 @@
       <c r="I51" t="str">
         <v/>
       </c>
-      <c r="J51" t="b">
-        <v>0</v>
-      </c>
-      <c r="K51" t="str">
-        <v/>
+      <c r="J51" t="str">
+        <v/>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
       </c>
       <c r="L51" t="str">
+        <v/>
+      </c>
+      <c r="M51" t="str">
         <v/>
       </c>
     </row>
@@ -3580,13 +3724,16 @@
       <c r="I52" t="str">
         <v/>
       </c>
-      <c r="J52" t="b">
-        <v>0</v>
-      </c>
-      <c r="K52" t="str">
-        <v/>
+      <c r="J52" t="str">
+        <v/>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
       </c>
       <c r="L52" t="str">
+        <v/>
+      </c>
+      <c r="M52" t="str">
         <v/>
       </c>
     </row>
@@ -3618,13 +3765,16 @@
       <c r="I53" t="str">
         <v/>
       </c>
-      <c r="J53" t="b">
-        <v>0</v>
-      </c>
-      <c r="K53" t="str">
-        <v/>
+      <c r="J53" t="str">
+        <v/>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
       </c>
       <c r="L53" t="str">
+        <v/>
+      </c>
+      <c r="M53" t="str">
         <v/>
       </c>
     </row>
@@ -3656,13 +3806,16 @@
       <c r="I54" t="str">
         <v/>
       </c>
-      <c r="J54" t="b">
-        <v>0</v>
-      </c>
-      <c r="K54" t="str">
-        <v/>
+      <c r="J54" t="str">
+        <v/>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
       </c>
       <c r="L54" t="str">
+        <v/>
+      </c>
+      <c r="M54" t="str">
         <v/>
       </c>
     </row>
@@ -3694,13 +3847,16 @@
       <c r="I55" t="str">
         <v/>
       </c>
-      <c r="J55" t="b">
-        <v>0</v>
-      </c>
-      <c r="K55" t="str">
-        <v/>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
       </c>
       <c r="L55" t="str">
+        <v/>
+      </c>
+      <c r="M55" t="str">
         <v/>
       </c>
     </row>
@@ -3732,13 +3888,16 @@
       <c r="I56" t="str">
         <v/>
       </c>
-      <c r="J56" t="b">
-        <v>0</v>
-      </c>
-      <c r="K56" t="str">
-        <v/>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
       </c>
       <c r="L56" t="str">
+        <v/>
+      </c>
+      <c r="M56" t="str">
         <v/>
       </c>
     </row>
@@ -3770,13 +3929,16 @@
       <c r="I57" t="str">
         <v/>
       </c>
-      <c r="J57" t="b">
-        <v>0</v>
-      </c>
-      <c r="K57" t="str">
-        <v/>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
       </c>
       <c r="L57" t="str">
+        <v/>
+      </c>
+      <c r="M57" t="str">
         <v/>
       </c>
     </row>
@@ -3808,13 +3970,16 @@
       <c r="I58" t="str">
         <v/>
       </c>
-      <c r="J58" t="b">
-        <v>0</v>
-      </c>
-      <c r="K58" t="str">
-        <v/>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
       </c>
       <c r="L58" t="str">
+        <v/>
+      </c>
+      <c r="M58" t="str">
         <v/>
       </c>
     </row>
@@ -3846,13 +4011,16 @@
       <c r="I59" t="str">
         <v/>
       </c>
-      <c r="J59" t="b">
-        <v>0</v>
-      </c>
-      <c r="K59" t="str">
-        <v/>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
       </c>
       <c r="L59" t="str">
+        <v/>
+      </c>
+      <c r="M59" t="str">
         <v/>
       </c>
     </row>
@@ -3884,13 +4052,16 @@
       <c r="I60" t="str">
         <v/>
       </c>
-      <c r="J60" t="b">
-        <v>0</v>
-      </c>
-      <c r="K60" t="str">
-        <v/>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
       </c>
       <c r="L60" t="str">
+        <v/>
+      </c>
+      <c r="M60" t="str">
         <v/>
       </c>
     </row>
@@ -3922,13 +4093,16 @@
       <c r="I61" t="str">
         <v/>
       </c>
-      <c r="J61" t="b">
-        <v>0</v>
-      </c>
-      <c r="K61" t="str">
-        <v/>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
       </c>
       <c r="L61" t="str">
+        <v/>
+      </c>
+      <c r="M61" t="str">
         <v/>
       </c>
     </row>
@@ -3960,13 +4134,16 @@
       <c r="I62" t="str">
         <v/>
       </c>
-      <c r="J62" t="b">
-        <v>0</v>
-      </c>
-      <c r="K62" t="str">
-        <v/>
+      <c r="J62" t="str">
+        <v/>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
       </c>
       <c r="L62" t="str">
+        <v/>
+      </c>
+      <c r="M62" t="str">
         <v/>
       </c>
     </row>
@@ -3998,13 +4175,16 @@
       <c r="I63" t="str">
         <v/>
       </c>
-      <c r="J63" t="b">
-        <v>0</v>
-      </c>
-      <c r="K63" t="str">
-        <v/>
+      <c r="J63" t="str">
+        <v/>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
       </c>
       <c r="L63" t="str">
+        <v/>
+      </c>
+      <c r="M63" t="str">
         <v/>
       </c>
     </row>
@@ -4036,13 +4216,16 @@
       <c r="I64" t="str">
         <v/>
       </c>
-      <c r="J64" t="b">
-        <v>0</v>
-      </c>
-      <c r="K64" t="str">
-        <v/>
+      <c r="J64" t="str">
+        <v/>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
       </c>
       <c r="L64" t="str">
+        <v/>
+      </c>
+      <c r="M64" t="str">
         <v/>
       </c>
     </row>
@@ -4074,13 +4257,16 @@
       <c r="I65" t="str">
         <v/>
       </c>
-      <c r="J65" t="b">
-        <v>0</v>
-      </c>
-      <c r="K65" t="str">
-        <v/>
+      <c r="J65" t="str">
+        <v/>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
       </c>
       <c r="L65" t="str">
+        <v/>
+      </c>
+      <c r="M65" t="str">
         <v/>
       </c>
     </row>
@@ -4112,13 +4298,16 @@
       <c r="I66" t="str">
         <v/>
       </c>
-      <c r="J66" t="b">
-        <v>0</v>
-      </c>
-      <c r="K66" t="str">
-        <v/>
+      <c r="J66" t="str">
+        <v/>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
       </c>
       <c r="L66" t="str">
+        <v/>
+      </c>
+      <c r="M66" t="str">
         <v/>
       </c>
     </row>
@@ -4150,13 +4339,16 @@
       <c r="I67" t="str">
         <v/>
       </c>
-      <c r="J67" t="b">
-        <v>0</v>
-      </c>
-      <c r="K67" t="str">
-        <v/>
+      <c r="J67" t="str">
+        <v/>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
       </c>
       <c r="L67" t="str">
+        <v/>
+      </c>
+      <c r="M67" t="str">
         <v/>
       </c>
     </row>
@@ -4188,13 +4380,16 @@
       <c r="I68" t="str">
         <v/>
       </c>
-      <c r="J68" t="b">
-        <v>0</v>
-      </c>
-      <c r="K68" t="str">
-        <v/>
+      <c r="J68" t="str">
+        <v/>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
       </c>
       <c r="L68" t="str">
+        <v/>
+      </c>
+      <c r="M68" t="str">
         <v/>
       </c>
     </row>
@@ -4226,13 +4421,16 @@
       <c r="I69" t="str">
         <v/>
       </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" t="str">
-        <v/>
+      <c r="J69" t="str">
+        <v/>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
       </c>
       <c r="L69" t="str">
+        <v/>
+      </c>
+      <c r="M69" t="str">
         <v/>
       </c>
     </row>
@@ -4264,13 +4462,16 @@
       <c r="I70" t="str">
         <v/>
       </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" t="str">
-        <v/>
+      <c r="J70" t="str">
+        <v/>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
       </c>
       <c r="L70" t="str">
+        <v/>
+      </c>
+      <c r="M70" t="str">
         <v/>
       </c>
     </row>
@@ -4302,13 +4503,16 @@
       <c r="I71" t="str">
         <v/>
       </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" t="str">
-        <v/>
+      <c r="J71" t="str">
+        <v/>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
       </c>
       <c r="L71" t="str">
+        <v/>
+      </c>
+      <c r="M71" t="str">
         <v/>
       </c>
     </row>
@@ -4340,13 +4544,16 @@
       <c r="I72" t="str">
         <v/>
       </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" t="str">
-        <v/>
+      <c r="J72" t="str">
+        <v/>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
       </c>
       <c r="L72" t="str">
+        <v/>
+      </c>
+      <c r="M72" t="str">
         <v/>
       </c>
     </row>
@@ -4378,13 +4585,16 @@
       <c r="I73" t="str">
         <v/>
       </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" t="str">
-        <v/>
+      <c r="J73" t="str">
+        <v/>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
       </c>
       <c r="L73" t="str">
+        <v/>
+      </c>
+      <c r="M73" t="str">
         <v/>
       </c>
     </row>
@@ -4416,13 +4626,16 @@
       <c r="I74" t="str">
         <v/>
       </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" t="str">
-        <v/>
+      <c r="J74" t="str">
+        <v/>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
       </c>
       <c r="L74" t="str">
+        <v/>
+      </c>
+      <c r="M74" t="str">
         <v/>
       </c>
     </row>
@@ -4454,13 +4667,16 @@
       <c r="I75" t="str">
         <v/>
       </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="str">
-        <v/>
+      <c r="J75" t="str">
+        <v/>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
       </c>
       <c r="L75" t="str">
+        <v/>
+      </c>
+      <c r="M75" t="str">
         <v/>
       </c>
     </row>
@@ -4492,13 +4708,16 @@
       <c r="I76" t="str">
         <v/>
       </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" t="str">
-        <v/>
+      <c r="J76" t="str">
+        <v/>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
       </c>
       <c r="L76" t="str">
+        <v/>
+      </c>
+      <c r="M76" t="str">
         <v/>
       </c>
     </row>
@@ -4530,13 +4749,16 @@
       <c r="I77" t="str">
         <v/>
       </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="str">
-        <v/>
+      <c r="J77" t="str">
+        <v/>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
       </c>
       <c r="L77" t="str">
+        <v/>
+      </c>
+      <c r="M77" t="str">
         <v/>
       </c>
     </row>
@@ -4568,13 +4790,16 @@
       <c r="I78" t="str">
         <v/>
       </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" t="str">
-        <v/>
+      <c r="J78" t="str">
+        <v/>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
       </c>
       <c r="L78" t="str">
+        <v/>
+      </c>
+      <c r="M78" t="str">
         <v/>
       </c>
     </row>
@@ -4606,13 +4831,16 @@
       <c r="I79" t="str">
         <v/>
       </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" t="str">
-        <v/>
+      <c r="J79" t="str">
+        <v/>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
       </c>
       <c r="L79" t="str">
+        <v/>
+      </c>
+      <c r="M79" t="str">
         <v/>
       </c>
     </row>
@@ -4644,13 +4872,16 @@
       <c r="I80" t="str">
         <v/>
       </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" t="str">
-        <v/>
+      <c r="J80" t="str">
+        <v/>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
       </c>
       <c r="L80" t="str">
+        <v/>
+      </c>
+      <c r="M80" t="str">
         <v/>
       </c>
     </row>
@@ -4682,13 +4913,16 @@
       <c r="I81" t="str">
         <v/>
       </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
-      <c r="K81" t="str">
-        <v/>
+      <c r="J81" t="str">
+        <v/>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
       </c>
       <c r="L81" t="str">
+        <v/>
+      </c>
+      <c r="M81" t="str">
         <v/>
       </c>
     </row>
@@ -4720,13 +4954,16 @@
       <c r="I82" t="str">
         <v/>
       </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" t="str">
-        <v/>
+      <c r="J82" t="str">
+        <v/>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
       </c>
       <c r="L82" t="str">
+        <v/>
+      </c>
+      <c r="M82" t="str">
         <v/>
       </c>
     </row>
@@ -4758,13 +4995,16 @@
       <c r="I83" t="str">
         <v/>
       </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" t="str">
-        <v/>
+      <c r="J83" t="str">
+        <v/>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
       </c>
       <c r="L83" t="str">
+        <v/>
+      </c>
+      <c r="M83" t="str">
         <v/>
       </c>
     </row>
@@ -4796,13 +5036,16 @@
       <c r="I84" t="str">
         <v/>
       </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="str">
-        <v/>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
       </c>
       <c r="L84" t="str">
+        <v/>
+      </c>
+      <c r="M84" t="str">
         <v/>
       </c>
     </row>
@@ -4834,13 +5077,16 @@
       <c r="I85" t="str">
         <v/>
       </c>
-      <c r="J85" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" t="str">
-        <v/>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
       </c>
       <c r="L85" t="str">
+        <v/>
+      </c>
+      <c r="M85" t="str">
         <v/>
       </c>
     </row>
@@ -4872,13 +5118,16 @@
       <c r="I86" t="str">
         <v/>
       </c>
-      <c r="J86" t="b">
-        <v>0</v>
-      </c>
-      <c r="K86" t="str">
-        <v/>
+      <c r="J86" t="str">
+        <v/>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
       </c>
       <c r="L86" t="str">
+        <v/>
+      </c>
+      <c r="M86" t="str">
         <v/>
       </c>
     </row>
@@ -4910,13 +5159,16 @@
       <c r="I87" t="str">
         <v/>
       </c>
-      <c r="J87" t="b">
-        <v>0</v>
-      </c>
-      <c r="K87" t="str">
-        <v/>
+      <c r="J87" t="str">
+        <v/>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
       </c>
       <c r="L87" t="str">
+        <v/>
+      </c>
+      <c r="M87" t="str">
         <v/>
       </c>
     </row>
@@ -4948,13 +5200,16 @@
       <c r="I88" t="str">
         <v/>
       </c>
-      <c r="J88" t="b">
-        <v>0</v>
-      </c>
-      <c r="K88" t="str">
-        <v/>
+      <c r="J88" t="str">
+        <v/>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
       </c>
       <c r="L88" t="str">
+        <v/>
+      </c>
+      <c r="M88" t="str">
         <v/>
       </c>
     </row>
@@ -4986,13 +5241,16 @@
       <c r="I89" t="str">
         <v/>
       </c>
-      <c r="J89" t="b">
-        <v>0</v>
-      </c>
-      <c r="K89" t="str">
-        <v/>
+      <c r="J89" t="str">
+        <v/>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
       </c>
       <c r="L89" t="str">
+        <v/>
+      </c>
+      <c r="M89" t="str">
         <v/>
       </c>
     </row>
@@ -5024,13 +5282,16 @@
       <c r="I90" t="str">
         <v/>
       </c>
-      <c r="J90" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" t="str">
-        <v/>
+      <c r="J90" t="str">
+        <v/>
+      </c>
+      <c r="K90" t="b">
+        <v>0</v>
       </c>
       <c r="L90" t="str">
+        <v/>
+      </c>
+      <c r="M90" t="str">
         <v/>
       </c>
     </row>
@@ -5062,13 +5323,16 @@
       <c r="I91" t="str">
         <v/>
       </c>
-      <c r="J91" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" t="str">
-        <v/>
+      <c r="J91" t="str">
+        <v/>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
       </c>
       <c r="L91" t="str">
+        <v/>
+      </c>
+      <c r="M91" t="str">
         <v/>
       </c>
     </row>
@@ -5100,13 +5364,16 @@
       <c r="I92" t="str">
         <v/>
       </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="str">
-        <v/>
+      <c r="J92" t="str">
+        <v/>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
       </c>
       <c r="L92" t="str">
+        <v/>
+      </c>
+      <c r="M92" t="str">
         <v/>
       </c>
     </row>
@@ -5138,13 +5405,16 @@
       <c r="I93" t="str">
         <v/>
       </c>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="str">
-        <v/>
+      <c r="J93" t="str">
+        <v/>
+      </c>
+      <c r="K93" t="b">
+        <v>0</v>
       </c>
       <c r="L93" t="str">
+        <v/>
+      </c>
+      <c r="M93" t="str">
         <v/>
       </c>
     </row>
@@ -5176,13 +5446,16 @@
       <c r="I94" t="str">
         <v/>
       </c>
-      <c r="J94" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" t="str">
-        <v/>
+      <c r="J94" t="str">
+        <v/>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
       </c>
       <c r="L94" t="str">
+        <v/>
+      </c>
+      <c r="M94" t="str">
         <v/>
       </c>
     </row>
@@ -5214,13 +5487,16 @@
       <c r="I95" t="str">
         <v/>
       </c>
-      <c r="J95" t="b">
-        <v>0</v>
-      </c>
-      <c r="K95" t="str">
-        <v/>
+      <c r="J95" t="str">
+        <v/>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
       </c>
       <c r="L95" t="str">
+        <v/>
+      </c>
+      <c r="M95" t="str">
         <v/>
       </c>
     </row>
@@ -5252,13 +5528,16 @@
       <c r="I96" t="str">
         <v/>
       </c>
-      <c r="J96" t="b">
-        <v>0</v>
-      </c>
-      <c r="K96" t="str">
-        <v/>
+      <c r="J96" t="str">
+        <v/>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
       </c>
       <c r="L96" t="str">
+        <v/>
+      </c>
+      <c r="M96" t="str">
         <v/>
       </c>
     </row>
@@ -5290,13 +5569,16 @@
       <c r="I97" t="str">
         <v/>
       </c>
-      <c r="J97" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" t="str">
-        <v/>
+      <c r="J97" t="str">
+        <v/>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
       </c>
       <c r="L97" t="str">
+        <v/>
+      </c>
+      <c r="M97" t="str">
         <v/>
       </c>
     </row>
@@ -5328,13 +5610,16 @@
       <c r="I98" t="str">
         <v/>
       </c>
-      <c r="J98" t="b">
-        <v>0</v>
-      </c>
-      <c r="K98" t="str">
-        <v/>
+      <c r="J98" t="str">
+        <v/>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
       </c>
       <c r="L98" t="str">
+        <v/>
+      </c>
+      <c r="M98" t="str">
         <v/>
       </c>
     </row>
@@ -5366,13 +5651,16 @@
       <c r="I99" t="str">
         <v/>
       </c>
-      <c r="J99" t="b">
-        <v>0</v>
-      </c>
-      <c r="K99" t="str">
-        <v/>
+      <c r="J99" t="str">
+        <v/>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
       </c>
       <c r="L99" t="str">
+        <v/>
+      </c>
+      <c r="M99" t="str">
         <v/>
       </c>
     </row>
@@ -5404,13 +5692,16 @@
       <c r="I100" t="str">
         <v/>
       </c>
-      <c r="J100" t="b">
-        <v>0</v>
-      </c>
-      <c r="K100" t="str">
-        <v/>
+      <c r="J100" t="str">
+        <v/>
+      </c>
+      <c r="K100" t="b">
+        <v>0</v>
       </c>
       <c r="L100" t="str">
+        <v/>
+      </c>
+      <c r="M100" t="str">
         <v/>
       </c>
     </row>
@@ -5442,13 +5733,16 @@
       <c r="I101" t="str">
         <v/>
       </c>
-      <c r="J101" t="b">
-        <v>0</v>
-      </c>
-      <c r="K101" t="str">
-        <v/>
+      <c r="J101" t="str">
+        <v/>
+      </c>
+      <c r="K101" t="b">
+        <v>0</v>
       </c>
       <c r="L101" t="str">
+        <v/>
+      </c>
+      <c r="M101" t="str">
         <v/>
       </c>
     </row>
@@ -5480,13 +5774,16 @@
       <c r="I102" t="str">
         <v/>
       </c>
-      <c r="J102" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" t="str">
-        <v/>
+      <c r="J102" t="str">
+        <v/>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
       </c>
       <c r="L102" t="str">
+        <v/>
+      </c>
+      <c r="M102" t="str">
         <v/>
       </c>
     </row>
@@ -5518,13 +5815,16 @@
       <c r="I103" t="str">
         <v/>
       </c>
-      <c r="J103" t="b">
-        <v>0</v>
-      </c>
-      <c r="K103" t="str">
-        <v/>
+      <c r="J103" t="str">
+        <v/>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
       </c>
       <c r="L103" t="str">
+        <v/>
+      </c>
+      <c r="M103" t="str">
         <v/>
       </c>
     </row>
@@ -5556,13 +5856,16 @@
       <c r="I104" t="str">
         <v/>
       </c>
-      <c r="J104" t="b">
-        <v>0</v>
-      </c>
-      <c r="K104" t="str">
-        <v/>
+      <c r="J104" t="str">
+        <v/>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
       </c>
       <c r="L104" t="str">
+        <v/>
+      </c>
+      <c r="M104" t="str">
         <v/>
       </c>
     </row>
@@ -5594,13 +5897,16 @@
       <c r="I105" t="str">
         <v/>
       </c>
-      <c r="J105" t="b">
-        <v>0</v>
-      </c>
-      <c r="K105" t="str">
-        <v/>
+      <c r="J105" t="str">
+        <v/>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
       </c>
       <c r="L105" t="str">
+        <v/>
+      </c>
+      <c r="M105" t="str">
         <v/>
       </c>
     </row>
@@ -5632,13 +5938,16 @@
       <c r="I106" t="str">
         <v/>
       </c>
-      <c r="J106" t="b">
-        <v>0</v>
-      </c>
-      <c r="K106" t="str">
-        <v/>
+      <c r="J106" t="str">
+        <v/>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
       </c>
       <c r="L106" t="str">
+        <v/>
+      </c>
+      <c r="M106" t="str">
         <v/>
       </c>
     </row>
@@ -5670,13 +5979,16 @@
       <c r="I107" t="str">
         <v/>
       </c>
-      <c r="J107" t="b">
-        <v>0</v>
-      </c>
-      <c r="K107" t="str">
-        <v/>
+      <c r="J107" t="str">
+        <v/>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
       </c>
       <c r="L107" t="str">
+        <v/>
+      </c>
+      <c r="M107" t="str">
         <v/>
       </c>
     </row>
@@ -5708,13 +6020,16 @@
       <c r="I108" t="str">
         <v/>
       </c>
-      <c r="J108" t="b">
-        <v>0</v>
-      </c>
-      <c r="K108" t="str">
-        <v/>
+      <c r="J108" t="str">
+        <v/>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
       </c>
       <c r="L108" t="str">
+        <v/>
+      </c>
+      <c r="M108" t="str">
         <v/>
       </c>
     </row>
@@ -5746,13 +6061,16 @@
       <c r="I109" t="str">
         <v/>
       </c>
-      <c r="J109" t="b">
-        <v>0</v>
-      </c>
-      <c r="K109" t="str">
-        <v/>
+      <c r="J109" t="str">
+        <v/>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
       </c>
       <c r="L109" t="str">
+        <v/>
+      </c>
+      <c r="M109" t="str">
         <v/>
       </c>
     </row>
@@ -5784,13 +6102,16 @@
       <c r="I110" t="str">
         <v/>
       </c>
-      <c r="J110" t="b">
-        <v>0</v>
-      </c>
-      <c r="K110" t="str">
-        <v/>
+      <c r="J110" t="str">
+        <v/>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
       </c>
       <c r="L110" t="str">
+        <v/>
+      </c>
+      <c r="M110" t="str">
         <v/>
       </c>
     </row>
@@ -5822,13 +6143,16 @@
       <c r="I111" t="str">
         <v/>
       </c>
-      <c r="J111" t="b">
-        <v>0</v>
-      </c>
-      <c r="K111" t="str">
-        <v/>
+      <c r="J111" t="str">
+        <v/>
+      </c>
+      <c r="K111" t="b">
+        <v>0</v>
       </c>
       <c r="L111" t="str">
+        <v/>
+      </c>
+      <c r="M111" t="str">
         <v/>
       </c>
     </row>
@@ -5860,13 +6184,16 @@
       <c r="I112" t="str">
         <v/>
       </c>
-      <c r="J112" t="b">
-        <v>0</v>
-      </c>
-      <c r="K112" t="str">
-        <v/>
+      <c r="J112" t="str">
+        <v/>
+      </c>
+      <c r="K112" t="b">
+        <v>0</v>
       </c>
       <c r="L112" t="str">
+        <v/>
+      </c>
+      <c r="M112" t="str">
         <v/>
       </c>
     </row>
@@ -5898,13 +6225,16 @@
       <c r="I113" t="str">
         <v/>
       </c>
-      <c r="J113" t="b">
-        <v>0</v>
-      </c>
-      <c r="K113" t="str">
-        <v/>
+      <c r="J113" t="str">
+        <v/>
+      </c>
+      <c r="K113" t="b">
+        <v>0</v>
       </c>
       <c r="L113" t="str">
+        <v/>
+      </c>
+      <c r="M113" t="str">
         <v/>
       </c>
     </row>
@@ -5936,13 +6266,16 @@
       <c r="I114" t="str">
         <v/>
       </c>
-      <c r="J114" t="b">
-        <v>0</v>
-      </c>
-      <c r="K114" t="str">
-        <v/>
+      <c r="J114" t="str">
+        <v/>
+      </c>
+      <c r="K114" t="b">
+        <v>0</v>
       </c>
       <c r="L114" t="str">
+        <v/>
+      </c>
+      <c r="M114" t="str">
         <v/>
       </c>
     </row>
@@ -5974,13 +6307,16 @@
       <c r="I115" t="str">
         <v/>
       </c>
-      <c r="J115" t="b">
-        <v>0</v>
-      </c>
-      <c r="K115" t="str">
-        <v/>
+      <c r="J115" t="str">
+        <v/>
+      </c>
+      <c r="K115" t="b">
+        <v>0</v>
       </c>
       <c r="L115" t="str">
+        <v/>
+      </c>
+      <c r="M115" t="str">
         <v/>
       </c>
     </row>
@@ -6012,13 +6348,16 @@
       <c r="I116" t="str">
         <v/>
       </c>
-      <c r="J116" t="b">
-        <v>0</v>
-      </c>
-      <c r="K116" t="str">
-        <v/>
+      <c r="J116" t="str">
+        <v/>
+      </c>
+      <c r="K116" t="b">
+        <v>0</v>
       </c>
       <c r="L116" t="str">
+        <v/>
+      </c>
+      <c r="M116" t="str">
         <v/>
       </c>
     </row>
@@ -6050,13 +6389,16 @@
       <c r="I117" t="str">
         <v/>
       </c>
-      <c r="J117" t="b">
-        <v>0</v>
-      </c>
-      <c r="K117" t="str">
-        <v/>
+      <c r="J117" t="str">
+        <v/>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
       </c>
       <c r="L117" t="str">
+        <v/>
+      </c>
+      <c r="M117" t="str">
         <v/>
       </c>
     </row>
@@ -6088,13 +6430,16 @@
       <c r="I118" t="str">
         <v/>
       </c>
-      <c r="J118" t="b">
-        <v>0</v>
-      </c>
-      <c r="K118" t="str">
-        <v/>
+      <c r="J118" t="str">
+        <v/>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
       </c>
       <c r="L118" t="str">
+        <v/>
+      </c>
+      <c r="M118" t="str">
         <v/>
       </c>
     </row>
@@ -6126,13 +6471,16 @@
       <c r="I119" t="str">
         <v/>
       </c>
-      <c r="J119" t="b">
-        <v>0</v>
-      </c>
-      <c r="K119" t="str">
-        <v/>
+      <c r="J119" t="str">
+        <v/>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
       </c>
       <c r="L119" t="str">
+        <v/>
+      </c>
+      <c r="M119" t="str">
         <v/>
       </c>
     </row>
@@ -6164,13 +6512,16 @@
       <c r="I120" t="str">
         <v/>
       </c>
-      <c r="J120" t="b">
-        <v>0</v>
-      </c>
-      <c r="K120" t="str">
-        <v/>
+      <c r="J120" t="str">
+        <v/>
+      </c>
+      <c r="K120" t="b">
+        <v>0</v>
       </c>
       <c r="L120" t="str">
+        <v/>
+      </c>
+      <c r="M120" t="str">
         <v/>
       </c>
     </row>
@@ -6202,13 +6553,16 @@
       <c r="I121" t="str">
         <v/>
       </c>
-      <c r="J121" t="b">
-        <v>0</v>
-      </c>
-      <c r="K121" t="str">
-        <v/>
+      <c r="J121" t="str">
+        <v/>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
       </c>
       <c r="L121" t="str">
+        <v/>
+      </c>
+      <c r="M121" t="str">
         <v/>
       </c>
     </row>
@@ -6240,13 +6594,16 @@
       <c r="I122" t="str">
         <v/>
       </c>
-      <c r="J122" t="b">
-        <v>0</v>
-      </c>
-      <c r="K122" t="str">
-        <v/>
+      <c r="J122" t="str">
+        <v/>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
       </c>
       <c r="L122" t="str">
+        <v/>
+      </c>
+      <c r="M122" t="str">
         <v/>
       </c>
     </row>
@@ -6278,13 +6635,16 @@
       <c r="I123" t="str">
         <v/>
       </c>
-      <c r="J123" t="b">
-        <v>0</v>
-      </c>
-      <c r="K123" t="str">
-        <v/>
+      <c r="J123" t="str">
+        <v/>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
       </c>
       <c r="L123" t="str">
+        <v/>
+      </c>
+      <c r="M123" t="str">
         <v/>
       </c>
     </row>
@@ -6316,13 +6676,16 @@
       <c r="I124" t="str">
         <v/>
       </c>
-      <c r="J124" t="b">
-        <v>0</v>
-      </c>
-      <c r="K124" t="str">
-        <v/>
+      <c r="J124" t="str">
+        <v/>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
       </c>
       <c r="L124" t="str">
+        <v/>
+      </c>
+      <c r="M124" t="str">
         <v/>
       </c>
     </row>
@@ -6354,13 +6717,16 @@
       <c r="I125" t="str">
         <v/>
       </c>
-      <c r="J125" t="b">
-        <v>0</v>
-      </c>
-      <c r="K125" t="str">
-        <v/>
+      <c r="J125" t="str">
+        <v/>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
       </c>
       <c r="L125" t="str">
+        <v/>
+      </c>
+      <c r="M125" t="str">
         <v/>
       </c>
     </row>
@@ -6392,13 +6758,16 @@
       <c r="I126" t="str">
         <v/>
       </c>
-      <c r="J126" t="b">
-        <v>0</v>
-      </c>
-      <c r="K126" t="str">
-        <v/>
+      <c r="J126" t="str">
+        <v/>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
       </c>
       <c r="L126" t="str">
+        <v/>
+      </c>
+      <c r="M126" t="str">
         <v/>
       </c>
     </row>
@@ -6430,13 +6799,16 @@
       <c r="I127" t="str">
         <v/>
       </c>
-      <c r="J127" t="b">
-        <v>0</v>
-      </c>
-      <c r="K127" t="str">
-        <v/>
+      <c r="J127" t="str">
+        <v/>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
       </c>
       <c r="L127" t="str">
+        <v/>
+      </c>
+      <c r="M127" t="str">
         <v/>
       </c>
     </row>
@@ -6468,13 +6840,16 @@
       <c r="I128" t="str">
         <v/>
       </c>
-      <c r="J128" t="b">
-        <v>0</v>
-      </c>
-      <c r="K128" t="str">
-        <v/>
+      <c r="J128" t="str">
+        <v/>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
       </c>
       <c r="L128" t="str">
+        <v/>
+      </c>
+      <c r="M128" t="str">
         <v/>
       </c>
     </row>
@@ -6506,13 +6881,16 @@
       <c r="I129" t="str">
         <v/>
       </c>
-      <c r="J129" t="b">
-        <v>0</v>
-      </c>
-      <c r="K129" t="str">
-        <v/>
+      <c r="J129" t="str">
+        <v/>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
       </c>
       <c r="L129" t="str">
+        <v/>
+      </c>
+      <c r="M129" t="str">
         <v/>
       </c>
     </row>
@@ -6544,13 +6922,16 @@
       <c r="I130" t="str">
         <v/>
       </c>
-      <c r="J130" t="b">
-        <v>0</v>
-      </c>
-      <c r="K130" t="str">
-        <v/>
+      <c r="J130" t="str">
+        <v/>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
       </c>
       <c r="L130" t="str">
+        <v/>
+      </c>
+      <c r="M130" t="str">
         <v/>
       </c>
     </row>
@@ -6582,13 +6963,16 @@
       <c r="I131" t="str">
         <v/>
       </c>
-      <c r="J131" t="b">
-        <v>0</v>
-      </c>
-      <c r="K131" t="str">
-        <v/>
+      <c r="J131" t="str">
+        <v/>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
       </c>
       <c r="L131" t="str">
+        <v/>
+      </c>
+      <c r="M131" t="str">
         <v/>
       </c>
     </row>
@@ -6620,13 +7004,16 @@
       <c r="I132" t="str">
         <v/>
       </c>
-      <c r="J132" t="b">
-        <v>0</v>
-      </c>
-      <c r="K132" t="str">
-        <v/>
+      <c r="J132" t="str">
+        <v/>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
       </c>
       <c r="L132" t="str">
+        <v/>
+      </c>
+      <c r="M132" t="str">
         <v/>
       </c>
     </row>
@@ -6658,13 +7045,16 @@
       <c r="I133" t="str">
         <v/>
       </c>
-      <c r="J133" t="b">
-        <v>0</v>
-      </c>
-      <c r="K133" t="str">
-        <v/>
+      <c r="J133" t="str">
+        <v/>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
       </c>
       <c r="L133" t="str">
+        <v/>
+      </c>
+      <c r="M133" t="str">
         <v/>
       </c>
     </row>
@@ -6696,13 +7086,16 @@
       <c r="I134" t="str">
         <v/>
       </c>
-      <c r="J134" t="b">
-        <v>0</v>
-      </c>
-      <c r="K134" t="str">
-        <v/>
+      <c r="J134" t="str">
+        <v/>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
       </c>
       <c r="L134" t="str">
+        <v/>
+      </c>
+      <c r="M134" t="str">
         <v/>
       </c>
     </row>
@@ -6734,13 +7127,16 @@
       <c r="I135" t="str">
         <v/>
       </c>
-      <c r="J135" t="b">
-        <v>0</v>
-      </c>
-      <c r="K135" t="str">
-        <v/>
+      <c r="J135" t="str">
+        <v/>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
       </c>
       <c r="L135" t="str">
+        <v/>
+      </c>
+      <c r="M135" t="str">
         <v/>
       </c>
     </row>
@@ -6772,13 +7168,16 @@
       <c r="I136" t="str">
         <v/>
       </c>
-      <c r="J136" t="b">
-        <v>0</v>
-      </c>
-      <c r="K136" t="str">
-        <v/>
+      <c r="J136" t="str">
+        <v/>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
       </c>
       <c r="L136" t="str">
+        <v/>
+      </c>
+      <c r="M136" t="str">
         <v/>
       </c>
     </row>
@@ -6810,13 +7209,16 @@
       <c r="I137" t="str">
         <v/>
       </c>
-      <c r="J137" t="b">
-        <v>0</v>
-      </c>
-      <c r="K137" t="str">
-        <v/>
+      <c r="J137" t="str">
+        <v/>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
       </c>
       <c r="L137" t="str">
+        <v/>
+      </c>
+      <c r="M137" t="str">
         <v/>
       </c>
     </row>
@@ -6848,13 +7250,16 @@
       <c r="I138" t="str">
         <v/>
       </c>
-      <c r="J138" t="b">
-        <v>0</v>
-      </c>
-      <c r="K138" t="str">
-        <v/>
+      <c r="J138" t="str">
+        <v/>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
       </c>
       <c r="L138" t="str">
+        <v/>
+      </c>
+      <c r="M138" t="str">
         <v/>
       </c>
     </row>
@@ -6886,13 +7291,16 @@
       <c r="I139" t="str">
         <v/>
       </c>
-      <c r="J139" t="b">
-        <v>0</v>
-      </c>
-      <c r="K139" t="str">
-        <v/>
+      <c r="J139" t="str">
+        <v/>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
       </c>
       <c r="L139" t="str">
+        <v/>
+      </c>
+      <c r="M139" t="str">
         <v/>
       </c>
     </row>
@@ -6924,13 +7332,16 @@
       <c r="I140" t="str">
         <v/>
       </c>
-      <c r="J140" t="b">
-        <v>0</v>
-      </c>
-      <c r="K140" t="str">
-        <v/>
+      <c r="J140" t="str">
+        <v/>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
       </c>
       <c r="L140" t="str">
+        <v/>
+      </c>
+      <c r="M140" t="str">
         <v/>
       </c>
     </row>
@@ -6962,13 +7373,16 @@
       <c r="I141" t="str">
         <v/>
       </c>
-      <c r="J141" t="b">
-        <v>0</v>
-      </c>
-      <c r="K141" t="str">
-        <v/>
+      <c r="J141" t="str">
+        <v/>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
       </c>
       <c r="L141" t="str">
+        <v/>
+      </c>
+      <c r="M141" t="str">
         <v/>
       </c>
     </row>
@@ -7000,13 +7414,16 @@
       <c r="I142" t="str">
         <v/>
       </c>
-      <c r="J142" t="b">
-        <v>0</v>
-      </c>
-      <c r="K142" t="str">
-        <v/>
+      <c r="J142" t="str">
+        <v/>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
       </c>
       <c r="L142" t="str">
+        <v/>
+      </c>
+      <c r="M142" t="str">
         <v/>
       </c>
     </row>
@@ -7038,13 +7455,16 @@
       <c r="I143" t="str">
         <v/>
       </c>
-      <c r="J143" t="b">
-        <v>0</v>
-      </c>
-      <c r="K143" t="str">
-        <v/>
+      <c r="J143" t="str">
+        <v/>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
       </c>
       <c r="L143" t="str">
+        <v/>
+      </c>
+      <c r="M143" t="str">
         <v/>
       </c>
     </row>
@@ -7076,13 +7496,16 @@
       <c r="I144" t="str">
         <v/>
       </c>
-      <c r="J144" t="b">
-        <v>0</v>
-      </c>
-      <c r="K144" t="str">
-        <v/>
+      <c r="J144" t="str">
+        <v/>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
       </c>
       <c r="L144" t="str">
+        <v/>
+      </c>
+      <c r="M144" t="str">
         <v/>
       </c>
     </row>
@@ -7114,13 +7537,16 @@
       <c r="I145" t="str">
         <v/>
       </c>
-      <c r="J145" t="b">
-        <v>0</v>
-      </c>
-      <c r="K145" t="str">
-        <v/>
+      <c r="J145" t="str">
+        <v/>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
       </c>
       <c r="L145" t="str">
+        <v/>
+      </c>
+      <c r="M145" t="str">
         <v/>
       </c>
     </row>
@@ -7152,13 +7578,16 @@
       <c r="I146" t="str">
         <v/>
       </c>
-      <c r="J146" t="b">
-        <v>0</v>
-      </c>
-      <c r="K146" t="str">
-        <v/>
+      <c r="J146" t="str">
+        <v/>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
       </c>
       <c r="L146" t="str">
+        <v/>
+      </c>
+      <c r="M146" t="str">
         <v/>
       </c>
     </row>
@@ -7190,13 +7619,16 @@
       <c r="I147" t="str">
         <v/>
       </c>
-      <c r="J147" t="b">
-        <v>0</v>
-      </c>
-      <c r="K147" t="str">
-        <v/>
+      <c r="J147" t="str">
+        <v/>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
       </c>
       <c r="L147" t="str">
+        <v/>
+      </c>
+      <c r="M147" t="str">
         <v/>
       </c>
     </row>
@@ -7228,13 +7660,16 @@
       <c r="I148" t="str">
         <v/>
       </c>
-      <c r="J148" t="b">
-        <v>0</v>
-      </c>
-      <c r="K148" t="str">
-        <v/>
+      <c r="J148" t="str">
+        <v/>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
       </c>
       <c r="L148" t="str">
+        <v/>
+      </c>
+      <c r="M148" t="str">
         <v/>
       </c>
     </row>
@@ -7266,13 +7701,16 @@
       <c r="I149" t="str">
         <v/>
       </c>
-      <c r="J149" t="b">
-        <v>0</v>
-      </c>
-      <c r="K149" t="str">
-        <v/>
+      <c r="J149" t="str">
+        <v/>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
       </c>
       <c r="L149" t="str">
+        <v/>
+      </c>
+      <c r="M149" t="str">
         <v/>
       </c>
     </row>
@@ -7304,13 +7742,16 @@
       <c r="I150" t="str">
         <v/>
       </c>
-      <c r="J150" t="b">
-        <v>0</v>
-      </c>
-      <c r="K150" t="str">
-        <v/>
+      <c r="J150" t="str">
+        <v/>
+      </c>
+      <c r="K150" t="b">
+        <v>0</v>
       </c>
       <c r="L150" t="str">
+        <v/>
+      </c>
+      <c r="M150" t="str">
         <v/>
       </c>
     </row>
@@ -7342,13 +7783,16 @@
       <c r="I151" t="str">
         <v/>
       </c>
-      <c r="J151" t="b">
-        <v>0</v>
-      </c>
-      <c r="K151" t="str">
-        <v/>
+      <c r="J151" t="str">
+        <v/>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
       </c>
       <c r="L151" t="str">
+        <v/>
+      </c>
+      <c r="M151" t="str">
         <v/>
       </c>
     </row>
@@ -7380,13 +7824,16 @@
       <c r="I152" t="str">
         <v/>
       </c>
-      <c r="J152" t="b">
-        <v>0</v>
-      </c>
-      <c r="K152" t="str">
-        <v/>
+      <c r="J152" t="str">
+        <v/>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
       </c>
       <c r="L152" t="str">
+        <v/>
+      </c>
+      <c r="M152" t="str">
         <v/>
       </c>
     </row>
@@ -7418,13 +7865,16 @@
       <c r="I153" t="str">
         <v/>
       </c>
-      <c r="J153" t="b">
-        <v>0</v>
-      </c>
-      <c r="K153" t="str">
-        <v/>
+      <c r="J153" t="str">
+        <v/>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
       </c>
       <c r="L153" t="str">
+        <v/>
+      </c>
+      <c r="M153" t="str">
         <v/>
       </c>
     </row>
@@ -7456,13 +7906,16 @@
       <c r="I154" t="str">
         <v/>
       </c>
-      <c r="J154" t="b">
-        <v>0</v>
-      </c>
-      <c r="K154" t="str">
-        <v/>
+      <c r="J154" t="str">
+        <v/>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
       </c>
       <c r="L154" t="str">
+        <v/>
+      </c>
+      <c r="M154" t="str">
         <v/>
       </c>
     </row>
@@ -7494,13 +7947,16 @@
       <c r="I155" t="str">
         <v/>
       </c>
-      <c r="J155" t="b">
-        <v>0</v>
-      </c>
-      <c r="K155" t="str">
-        <v/>
+      <c r="J155" t="str">
+        <v/>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
       </c>
       <c r="L155" t="str">
+        <v/>
+      </c>
+      <c r="M155" t="str">
         <v/>
       </c>
     </row>
@@ -7532,13 +7988,16 @@
       <c r="I156" t="str">
         <v/>
       </c>
-      <c r="J156" t="b">
-        <v>0</v>
-      </c>
-      <c r="K156" t="str">
-        <v/>
+      <c r="J156" t="str">
+        <v/>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
       </c>
       <c r="L156" t="str">
+        <v/>
+      </c>
+      <c r="M156" t="str">
         <v/>
       </c>
     </row>
@@ -7570,13 +8029,16 @@
       <c r="I157" t="str">
         <v/>
       </c>
-      <c r="J157" t="b">
-        <v>0</v>
-      </c>
-      <c r="K157" t="str">
-        <v/>
+      <c r="J157" t="str">
+        <v/>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
       </c>
       <c r="L157" t="str">
+        <v/>
+      </c>
+      <c r="M157" t="str">
         <v/>
       </c>
     </row>
@@ -7608,13 +8070,16 @@
       <c r="I158" t="str">
         <v/>
       </c>
-      <c r="J158" t="b">
-        <v>0</v>
-      </c>
-      <c r="K158" t="str">
-        <v/>
+      <c r="J158" t="str">
+        <v/>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
       </c>
       <c r="L158" t="str">
+        <v/>
+      </c>
+      <c r="M158" t="str">
         <v/>
       </c>
     </row>
@@ -7646,13 +8111,16 @@
       <c r="I159" t="str">
         <v/>
       </c>
-      <c r="J159" t="b">
-        <v>0</v>
-      </c>
-      <c r="K159" t="str">
-        <v/>
+      <c r="J159" t="str">
+        <v/>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
       </c>
       <c r="L159" t="str">
+        <v/>
+      </c>
+      <c r="M159" t="str">
         <v/>
       </c>
     </row>
@@ -7684,13 +8152,16 @@
       <c r="I160" t="str">
         <v/>
       </c>
-      <c r="J160" t="b">
-        <v>0</v>
-      </c>
-      <c r="K160" t="str">
-        <v/>
+      <c r="J160" t="str">
+        <v/>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
       </c>
       <c r="L160" t="str">
+        <v/>
+      </c>
+      <c r="M160" t="str">
         <v/>
       </c>
     </row>
@@ -7722,13 +8193,16 @@
       <c r="I161" t="str">
         <v/>
       </c>
-      <c r="J161" t="b">
-        <v>0</v>
-      </c>
-      <c r="K161" t="str">
-        <v/>
+      <c r="J161" t="str">
+        <v/>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
       </c>
       <c r="L161" t="str">
+        <v/>
+      </c>
+      <c r="M161" t="str">
         <v/>
       </c>
     </row>
@@ -7760,13 +8234,16 @@
       <c r="I162" t="str">
         <v/>
       </c>
-      <c r="J162" t="b">
-        <v>0</v>
-      </c>
-      <c r="K162" t="str">
-        <v/>
+      <c r="J162" t="str">
+        <v/>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
       </c>
       <c r="L162" t="str">
+        <v/>
+      </c>
+      <c r="M162" t="str">
         <v/>
       </c>
     </row>
@@ -7798,13 +8275,16 @@
       <c r="I163" t="str">
         <v/>
       </c>
-      <c r="J163" t="b">
-        <v>0</v>
-      </c>
-      <c r="K163" t="str">
-        <v/>
+      <c r="J163" t="str">
+        <v/>
+      </c>
+      <c r="K163" t="b">
+        <v>0</v>
       </c>
       <c r="L163" t="str">
+        <v/>
+      </c>
+      <c r="M163" t="str">
         <v/>
       </c>
     </row>
@@ -7836,13 +8316,16 @@
       <c r="I164" t="str">
         <v/>
       </c>
-      <c r="J164" t="b">
-        <v>0</v>
-      </c>
-      <c r="K164" t="str">
-        <v/>
+      <c r="J164" t="str">
+        <v/>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
       </c>
       <c r="L164" t="str">
+        <v/>
+      </c>
+      <c r="M164" t="str">
         <v/>
       </c>
     </row>
@@ -7874,13 +8357,16 @@
       <c r="I165" t="str">
         <v/>
       </c>
-      <c r="J165" t="b">
-        <v>0</v>
-      </c>
-      <c r="K165" t="str">
-        <v/>
+      <c r="J165" t="str">
+        <v/>
+      </c>
+      <c r="K165" t="b">
+        <v>0</v>
       </c>
       <c r="L165" t="str">
+        <v/>
+      </c>
+      <c r="M165" t="str">
         <v/>
       </c>
     </row>
@@ -7912,13 +8398,16 @@
       <c r="I166" t="str">
         <v/>
       </c>
-      <c r="J166" t="b">
-        <v>0</v>
-      </c>
-      <c r="K166" t="str">
-        <v/>
+      <c r="J166" t="str">
+        <v/>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
       </c>
       <c r="L166" t="str">
+        <v/>
+      </c>
+      <c r="M166" t="str">
         <v/>
       </c>
     </row>
@@ -7950,13 +8439,16 @@
       <c r="I167" t="str">
         <v/>
       </c>
-      <c r="J167" t="b">
-        <v>0</v>
-      </c>
-      <c r="K167" t="str">
-        <v/>
+      <c r="J167" t="str">
+        <v/>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
       </c>
       <c r="L167" t="str">
+        <v/>
+      </c>
+      <c r="M167" t="str">
         <v/>
       </c>
     </row>
@@ -7988,13 +8480,16 @@
       <c r="I168" t="str">
         <v/>
       </c>
-      <c r="J168" t="b">
-        <v>0</v>
-      </c>
-      <c r="K168" t="str">
-        <v/>
+      <c r="J168" t="str">
+        <v/>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
       </c>
       <c r="L168" t="str">
+        <v/>
+      </c>
+      <c r="M168" t="str">
         <v/>
       </c>
     </row>
@@ -8026,13 +8521,16 @@
       <c r="I169" t="str">
         <v/>
       </c>
-      <c r="J169" t="b">
-        <v>0</v>
-      </c>
-      <c r="K169" t="str">
-        <v/>
+      <c r="J169" t="str">
+        <v/>
+      </c>
+      <c r="K169" t="b">
+        <v>0</v>
       </c>
       <c r="L169" t="str">
+        <v/>
+      </c>
+      <c r="M169" t="str">
         <v/>
       </c>
     </row>
@@ -8064,13 +8562,16 @@
       <c r="I170" t="str">
         <v/>
       </c>
-      <c r="J170" t="b">
-        <v>0</v>
-      </c>
-      <c r="K170" t="str">
-        <v/>
+      <c r="J170" t="str">
+        <v/>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
       </c>
       <c r="L170" t="str">
+        <v/>
+      </c>
+      <c r="M170" t="str">
         <v/>
       </c>
     </row>
@@ -8102,13 +8603,16 @@
       <c r="I171" t="str">
         <v/>
       </c>
-      <c r="J171" t="b">
-        <v>0</v>
-      </c>
-      <c r="K171" t="str">
-        <v/>
+      <c r="J171" t="str">
+        <v/>
+      </c>
+      <c r="K171" t="b">
+        <v>0</v>
       </c>
       <c r="L171" t="str">
+        <v/>
+      </c>
+      <c r="M171" t="str">
         <v/>
       </c>
     </row>
@@ -8140,13 +8644,16 @@
       <c r="I172" t="str">
         <v/>
       </c>
-      <c r="J172" t="b">
-        <v>0</v>
-      </c>
-      <c r="K172" t="str">
-        <v/>
+      <c r="J172" t="str">
+        <v/>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
       </c>
       <c r="L172" t="str">
+        <v/>
+      </c>
+      <c r="M172" t="str">
         <v/>
       </c>
     </row>
@@ -8178,13 +8685,16 @@
       <c r="I173" t="str">
         <v/>
       </c>
-      <c r="J173" t="b">
-        <v>0</v>
-      </c>
-      <c r="K173" t="str">
-        <v/>
+      <c r="J173" t="str">
+        <v/>
+      </c>
+      <c r="K173" t="b">
+        <v>0</v>
       </c>
       <c r="L173" t="str">
+        <v/>
+      </c>
+      <c r="M173" t="str">
         <v/>
       </c>
     </row>
@@ -8216,13 +8726,16 @@
       <c r="I174" t="str">
         <v/>
       </c>
-      <c r="J174" t="b">
-        <v>0</v>
-      </c>
-      <c r="K174" t="str">
-        <v/>
+      <c r="J174" t="str">
+        <v/>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
       </c>
       <c r="L174" t="str">
+        <v/>
+      </c>
+      <c r="M174" t="str">
         <v/>
       </c>
     </row>
@@ -8254,13 +8767,16 @@
       <c r="I175" t="str">
         <v/>
       </c>
-      <c r="J175" t="b">
-        <v>0</v>
-      </c>
-      <c r="K175" t="str">
-        <v/>
+      <c r="J175" t="str">
+        <v/>
+      </c>
+      <c r="K175" t="b">
+        <v>0</v>
       </c>
       <c r="L175" t="str">
+        <v/>
+      </c>
+      <c r="M175" t="str">
         <v/>
       </c>
     </row>
@@ -8292,13 +8808,16 @@
       <c r="I176" t="str">
         <v/>
       </c>
-      <c r="J176" t="b">
-        <v>0</v>
-      </c>
-      <c r="K176" t="str">
-        <v/>
+      <c r="J176" t="str">
+        <v/>
+      </c>
+      <c r="K176" t="b">
+        <v>0</v>
       </c>
       <c r="L176" t="str">
+        <v/>
+      </c>
+      <c r="M176" t="str">
         <v/>
       </c>
     </row>
@@ -8330,13 +8849,16 @@
       <c r="I177" t="str">
         <v/>
       </c>
-      <c r="J177" t="b">
-        <v>0</v>
-      </c>
-      <c r="K177" t="str">
-        <v/>
+      <c r="J177" t="str">
+        <v/>
+      </c>
+      <c r="K177" t="b">
+        <v>0</v>
       </c>
       <c r="L177" t="str">
+        <v/>
+      </c>
+      <c r="M177" t="str">
         <v/>
       </c>
     </row>
@@ -8368,13 +8890,16 @@
       <c r="I178" t="str">
         <v/>
       </c>
-      <c r="J178" t="b">
-        <v>0</v>
-      </c>
-      <c r="K178" t="str">
-        <v/>
+      <c r="J178" t="str">
+        <v/>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
       </c>
       <c r="L178" t="str">
+        <v/>
+      </c>
+      <c r="M178" t="str">
         <v/>
       </c>
     </row>
@@ -8406,13 +8931,16 @@
       <c r="I179" t="str">
         <v/>
       </c>
-      <c r="J179" t="b">
-        <v>0</v>
-      </c>
-      <c r="K179" t="str">
-        <v/>
+      <c r="J179" t="str">
+        <v/>
+      </c>
+      <c r="K179" t="b">
+        <v>0</v>
       </c>
       <c r="L179" t="str">
+        <v/>
+      </c>
+      <c r="M179" t="str">
         <v/>
       </c>
     </row>
@@ -8444,13 +8972,16 @@
       <c r="I180" t="str">
         <v/>
       </c>
-      <c r="J180" t="b">
-        <v>0</v>
-      </c>
-      <c r="K180" t="str">
-        <v/>
+      <c r="J180" t="str">
+        <v/>
+      </c>
+      <c r="K180" t="b">
+        <v>0</v>
       </c>
       <c r="L180" t="str">
+        <v/>
+      </c>
+      <c r="M180" t="str">
         <v/>
       </c>
     </row>
@@ -8482,13 +9013,16 @@
       <c r="I181" t="str">
         <v/>
       </c>
-      <c r="J181" t="b">
-        <v>0</v>
-      </c>
-      <c r="K181" t="str">
-        <v/>
+      <c r="J181" t="str">
+        <v/>
+      </c>
+      <c r="K181" t="b">
+        <v>0</v>
       </c>
       <c r="L181" t="str">
+        <v/>
+      </c>
+      <c r="M181" t="str">
         <v/>
       </c>
     </row>
@@ -8520,13 +9054,16 @@
       <c r="I182" t="str">
         <v/>
       </c>
-      <c r="J182" t="b">
-        <v>0</v>
-      </c>
-      <c r="K182" t="str">
-        <v/>
+      <c r="J182" t="str">
+        <v/>
+      </c>
+      <c r="K182" t="b">
+        <v>0</v>
       </c>
       <c r="L182" t="str">
+        <v/>
+      </c>
+      <c r="M182" t="str">
         <v/>
       </c>
     </row>
@@ -8558,13 +9095,16 @@
       <c r="I183" t="str">
         <v/>
       </c>
-      <c r="J183" t="b">
-        <v>0</v>
-      </c>
-      <c r="K183" t="str">
-        <v/>
+      <c r="J183" t="str">
+        <v/>
+      </c>
+      <c r="K183" t="b">
+        <v>0</v>
       </c>
       <c r="L183" t="str">
+        <v/>
+      </c>
+      <c r="M183" t="str">
         <v/>
       </c>
     </row>
@@ -8596,13 +9136,16 @@
       <c r="I184" t="str">
         <v/>
       </c>
-      <c r="J184" t="b">
-        <v>0</v>
-      </c>
-      <c r="K184" t="str">
-        <v/>
+      <c r="J184" t="str">
+        <v/>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
       </c>
       <c r="L184" t="str">
+        <v/>
+      </c>
+      <c r="M184" t="str">
         <v/>
       </c>
     </row>
@@ -8634,13 +9177,16 @@
       <c r="I185" t="str">
         <v/>
       </c>
-      <c r="J185" t="b">
-        <v>0</v>
-      </c>
-      <c r="K185" t="str">
-        <v/>
+      <c r="J185" t="str">
+        <v/>
+      </c>
+      <c r="K185" t="b">
+        <v>0</v>
       </c>
       <c r="L185" t="str">
+        <v/>
+      </c>
+      <c r="M185" t="str">
         <v/>
       </c>
     </row>
@@ -8672,13 +9218,16 @@
       <c r="I186" t="str">
         <v/>
       </c>
-      <c r="J186" t="b">
-        <v>0</v>
-      </c>
-      <c r="K186" t="str">
-        <v/>
+      <c r="J186" t="str">
+        <v/>
+      </c>
+      <c r="K186" t="b">
+        <v>0</v>
       </c>
       <c r="L186" t="str">
+        <v/>
+      </c>
+      <c r="M186" t="str">
         <v/>
       </c>
     </row>
@@ -8710,13 +9259,16 @@
       <c r="I187" t="str">
         <v/>
       </c>
-      <c r="J187" t="b">
-        <v>0</v>
-      </c>
-      <c r="K187" t="str">
-        <v/>
+      <c r="J187" t="str">
+        <v/>
+      </c>
+      <c r="K187" t="b">
+        <v>0</v>
       </c>
       <c r="L187" t="str">
+        <v/>
+      </c>
+      <c r="M187" t="str">
         <v/>
       </c>
     </row>
@@ -8748,13 +9300,16 @@
       <c r="I188" t="str">
         <v/>
       </c>
-      <c r="J188" t="b">
-        <v>0</v>
-      </c>
-      <c r="K188" t="str">
-        <v/>
+      <c r="J188" t="str">
+        <v/>
+      </c>
+      <c r="K188" t="b">
+        <v>0</v>
       </c>
       <c r="L188" t="str">
+        <v/>
+      </c>
+      <c r="M188" t="str">
         <v/>
       </c>
     </row>
@@ -8786,13 +9341,16 @@
       <c r="I189" t="str">
         <v/>
       </c>
-      <c r="J189" t="b">
-        <v>0</v>
-      </c>
-      <c r="K189" t="str">
-        <v/>
+      <c r="J189" t="str">
+        <v/>
+      </c>
+      <c r="K189" t="b">
+        <v>0</v>
       </c>
       <c r="L189" t="str">
+        <v/>
+      </c>
+      <c r="M189" t="str">
         <v/>
       </c>
     </row>
@@ -8824,13 +9382,16 @@
       <c r="I190" t="str">
         <v/>
       </c>
-      <c r="J190" t="b">
-        <v>0</v>
-      </c>
-      <c r="K190" t="str">
-        <v/>
+      <c r="J190" t="str">
+        <v/>
+      </c>
+      <c r="K190" t="b">
+        <v>0</v>
       </c>
       <c r="L190" t="str">
+        <v/>
+      </c>
+      <c r="M190" t="str">
         <v/>
       </c>
     </row>
@@ -8862,13 +9423,16 @@
       <c r="I191" t="str">
         <v/>
       </c>
-      <c r="J191" t="b">
-        <v>0</v>
-      </c>
-      <c r="K191" t="str">
-        <v/>
+      <c r="J191" t="str">
+        <v/>
+      </c>
+      <c r="K191" t="b">
+        <v>0</v>
       </c>
       <c r="L191" t="str">
+        <v/>
+      </c>
+      <c r="M191" t="str">
         <v/>
       </c>
     </row>
@@ -8900,13 +9464,16 @@
       <c r="I192" t="str">
         <v/>
       </c>
-      <c r="J192" t="b">
-        <v>0</v>
-      </c>
-      <c r="K192" t="str">
-        <v/>
+      <c r="J192" t="str">
+        <v/>
+      </c>
+      <c r="K192" t="b">
+        <v>0</v>
       </c>
       <c r="L192" t="str">
+        <v/>
+      </c>
+      <c r="M192" t="str">
         <v/>
       </c>
     </row>
@@ -8938,13 +9505,16 @@
       <c r="I193" t="str">
         <v/>
       </c>
-      <c r="J193" t="b">
-        <v>0</v>
-      </c>
-      <c r="K193" t="str">
-        <v/>
+      <c r="J193" t="str">
+        <v/>
+      </c>
+      <c r="K193" t="b">
+        <v>0</v>
       </c>
       <c r="L193" t="str">
+        <v/>
+      </c>
+      <c r="M193" t="str">
         <v/>
       </c>
     </row>
@@ -8976,13 +9546,16 @@
       <c r="I194" t="str">
         <v/>
       </c>
-      <c r="J194" t="b">
-        <v>0</v>
-      </c>
-      <c r="K194" t="str">
-        <v/>
+      <c r="J194" t="str">
+        <v/>
+      </c>
+      <c r="K194" t="b">
+        <v>0</v>
       </c>
       <c r="L194" t="str">
+        <v/>
+      </c>
+      <c r="M194" t="str">
         <v/>
       </c>
     </row>
@@ -9014,13 +9587,16 @@
       <c r="I195" t="str">
         <v/>
       </c>
-      <c r="J195" t="b">
-        <v>0</v>
-      </c>
-      <c r="K195" t="str">
-        <v/>
+      <c r="J195" t="str">
+        <v/>
+      </c>
+      <c r="K195" t="b">
+        <v>0</v>
       </c>
       <c r="L195" t="str">
+        <v/>
+      </c>
+      <c r="M195" t="str">
         <v/>
       </c>
     </row>
@@ -9052,13 +9628,16 @@
       <c r="I196" t="str">
         <v/>
       </c>
-      <c r="J196" t="b">
-        <v>0</v>
-      </c>
-      <c r="K196" t="str">
-        <v/>
+      <c r="J196" t="str">
+        <v/>
+      </c>
+      <c r="K196" t="b">
+        <v>0</v>
       </c>
       <c r="L196" t="str">
+        <v/>
+      </c>
+      <c r="M196" t="str">
         <v/>
       </c>
     </row>
@@ -9090,13 +9669,16 @@
       <c r="I197" t="str">
         <v/>
       </c>
-      <c r="J197" t="b">
-        <v>0</v>
-      </c>
-      <c r="K197" t="str">
-        <v/>
+      <c r="J197" t="str">
+        <v/>
+      </c>
+      <c r="K197" t="b">
+        <v>0</v>
       </c>
       <c r="L197" t="str">
+        <v/>
+      </c>
+      <c r="M197" t="str">
         <v/>
       </c>
     </row>
@@ -9128,13 +9710,16 @@
       <c r="I198" t="str">
         <v/>
       </c>
-      <c r="J198" t="b">
-        <v>0</v>
-      </c>
-      <c r="K198" t="str">
-        <v/>
+      <c r="J198" t="str">
+        <v/>
+      </c>
+      <c r="K198" t="b">
+        <v>0</v>
       </c>
       <c r="L198" t="str">
+        <v/>
+      </c>
+      <c r="M198" t="str">
         <v/>
       </c>
     </row>
@@ -9166,13 +9751,16 @@
       <c r="I199" t="str">
         <v/>
       </c>
-      <c r="J199" t="b">
-        <v>0</v>
-      </c>
-      <c r="K199" t="str">
-        <v/>
+      <c r="J199" t="str">
+        <v/>
+      </c>
+      <c r="K199" t="b">
+        <v>0</v>
       </c>
       <c r="L199" t="str">
+        <v/>
+      </c>
+      <c r="M199" t="str">
         <v/>
       </c>
     </row>
@@ -9204,13 +9792,16 @@
       <c r="I200" t="str">
         <v/>
       </c>
-      <c r="J200" t="b">
-        <v>0</v>
-      </c>
-      <c r="K200" t="str">
-        <v/>
+      <c r="J200" t="str">
+        <v/>
+      </c>
+      <c r="K200" t="b">
+        <v>0</v>
       </c>
       <c r="L200" t="str">
+        <v/>
+      </c>
+      <c r="M200" t="str">
         <v/>
       </c>
     </row>
@@ -9242,13 +9833,16 @@
       <c r="I201" t="str">
         <v/>
       </c>
-      <c r="J201" t="b">
-        <v>0</v>
-      </c>
-      <c r="K201" t="str">
-        <v/>
+      <c r="J201" t="str">
+        <v/>
+      </c>
+      <c r="K201" t="b">
+        <v>0</v>
       </c>
       <c r="L201" t="str">
+        <v/>
+      </c>
+      <c r="M201" t="str">
         <v/>
       </c>
     </row>
@@ -9280,13 +9874,16 @@
       <c r="I202" t="str">
         <v/>
       </c>
-      <c r="J202" t="b">
-        <v>0</v>
-      </c>
-      <c r="K202" t="str">
-        <v/>
+      <c r="J202" t="str">
+        <v/>
+      </c>
+      <c r="K202" t="b">
+        <v>0</v>
       </c>
       <c r="L202" t="str">
+        <v/>
+      </c>
+      <c r="M202" t="str">
         <v/>
       </c>
     </row>
@@ -9318,13 +9915,16 @@
       <c r="I203" t="str">
         <v/>
       </c>
-      <c r="J203" t="b">
-        <v>0</v>
-      </c>
-      <c r="K203" t="str">
-        <v/>
+      <c r="J203" t="str">
+        <v/>
+      </c>
+      <c r="K203" t="b">
+        <v>0</v>
       </c>
       <c r="L203" t="str">
+        <v/>
+      </c>
+      <c r="M203" t="str">
         <v/>
       </c>
     </row>
@@ -9356,13 +9956,16 @@
       <c r="I204" t="str">
         <v/>
       </c>
-      <c r="J204" t="b">
-        <v>0</v>
-      </c>
-      <c r="K204" t="str">
-        <v/>
+      <c r="J204" t="str">
+        <v/>
+      </c>
+      <c r="K204" t="b">
+        <v>0</v>
       </c>
       <c r="L204" t="str">
+        <v/>
+      </c>
+      <c r="M204" t="str">
         <v/>
       </c>
     </row>
@@ -9394,13 +9997,16 @@
       <c r="I205" t="str">
         <v/>
       </c>
-      <c r="J205" t="b">
-        <v>0</v>
-      </c>
-      <c r="K205" t="str">
-        <v/>
+      <c r="J205" t="str">
+        <v/>
+      </c>
+      <c r="K205" t="b">
+        <v>0</v>
       </c>
       <c r="L205" t="str">
+        <v/>
+      </c>
+      <c r="M205" t="str">
         <v/>
       </c>
     </row>
@@ -9432,13 +10038,16 @@
       <c r="I206" t="str">
         <v/>
       </c>
-      <c r="J206" t="b">
-        <v>0</v>
-      </c>
-      <c r="K206" t="str">
-        <v/>
+      <c r="J206" t="str">
+        <v/>
+      </c>
+      <c r="K206" t="b">
+        <v>0</v>
       </c>
       <c r="L206" t="str">
+        <v/>
+      </c>
+      <c r="M206" t="str">
         <v/>
       </c>
     </row>
@@ -9470,13 +10079,16 @@
       <c r="I207" t="str">
         <v/>
       </c>
-      <c r="J207" t="b">
-        <v>0</v>
-      </c>
-      <c r="K207" t="str">
-        <v/>
+      <c r="J207" t="str">
+        <v/>
+      </c>
+      <c r="K207" t="b">
+        <v>0</v>
       </c>
       <c r="L207" t="str">
+        <v/>
+      </c>
+      <c r="M207" t="str">
         <v/>
       </c>
     </row>
@@ -9508,13 +10120,16 @@
       <c r="I208" t="str">
         <v/>
       </c>
-      <c r="J208" t="b">
-        <v>0</v>
-      </c>
-      <c r="K208" t="str">
-        <v/>
+      <c r="J208" t="str">
+        <v/>
+      </c>
+      <c r="K208" t="b">
+        <v>0</v>
       </c>
       <c r="L208" t="str">
+        <v/>
+      </c>
+      <c r="M208" t="str">
         <v/>
       </c>
     </row>
@@ -9546,13 +10161,16 @@
       <c r="I209" t="str">
         <v/>
       </c>
-      <c r="J209" t="b">
-        <v>0</v>
-      </c>
-      <c r="K209" t="str">
-        <v/>
+      <c r="J209" t="str">
+        <v/>
+      </c>
+      <c r="K209" t="b">
+        <v>0</v>
       </c>
       <c r="L209" t="str">
+        <v/>
+      </c>
+      <c r="M209" t="str">
         <v/>
       </c>
     </row>
@@ -9584,13 +10202,16 @@
       <c r="I210" t="str">
         <v/>
       </c>
-      <c r="J210" t="b">
-        <v>0</v>
-      </c>
-      <c r="K210" t="str">
-        <v/>
+      <c r="J210" t="str">
+        <v/>
+      </c>
+      <c r="K210" t="b">
+        <v>0</v>
       </c>
       <c r="L210" t="str">
+        <v/>
+      </c>
+      <c r="M210" t="str">
         <v/>
       </c>
     </row>
@@ -9622,13 +10243,16 @@
       <c r="I211" t="str">
         <v/>
       </c>
-      <c r="J211" t="b">
-        <v>0</v>
-      </c>
-      <c r="K211" t="str">
-        <v/>
+      <c r="J211" t="str">
+        <v/>
+      </c>
+      <c r="K211" t="b">
+        <v>0</v>
       </c>
       <c r="L211" t="str">
+        <v/>
+      </c>
+      <c r="M211" t="str">
         <v/>
       </c>
     </row>
@@ -9660,13 +10284,16 @@
       <c r="I212" t="str">
         <v/>
       </c>
-      <c r="J212" t="b">
-        <v>0</v>
-      </c>
-      <c r="K212" t="str">
-        <v/>
+      <c r="J212" t="str">
+        <v/>
+      </c>
+      <c r="K212" t="b">
+        <v>0</v>
       </c>
       <c r="L212" t="str">
+        <v/>
+      </c>
+      <c r="M212" t="str">
         <v/>
       </c>
     </row>
@@ -9698,13 +10325,16 @@
       <c r="I213" t="str">
         <v/>
       </c>
-      <c r="J213" t="b">
-        <v>0</v>
-      </c>
-      <c r="K213" t="str">
-        <v/>
+      <c r="J213" t="str">
+        <v/>
+      </c>
+      <c r="K213" t="b">
+        <v>0</v>
       </c>
       <c r="L213" t="str">
+        <v/>
+      </c>
+      <c r="M213" t="str">
         <v/>
       </c>
     </row>
@@ -9736,13 +10366,16 @@
       <c r="I214" t="str">
         <v/>
       </c>
-      <c r="J214" t="b">
-        <v>0</v>
-      </c>
-      <c r="K214" t="str">
-        <v/>
+      <c r="J214" t="str">
+        <v/>
+      </c>
+      <c r="K214" t="b">
+        <v>0</v>
       </c>
       <c r="L214" t="str">
+        <v/>
+      </c>
+      <c r="M214" t="str">
         <v/>
       </c>
     </row>
@@ -9774,13 +10407,16 @@
       <c r="I215" t="str">
         <v/>
       </c>
-      <c r="J215" t="b">
-        <v>0</v>
-      </c>
-      <c r="K215" t="str">
-        <v/>
+      <c r="J215" t="str">
+        <v/>
+      </c>
+      <c r="K215" t="b">
+        <v>0</v>
       </c>
       <c r="L215" t="str">
+        <v/>
+      </c>
+      <c r="M215" t="str">
         <v/>
       </c>
     </row>
@@ -9812,13 +10448,16 @@
       <c r="I216" t="str">
         <v/>
       </c>
-      <c r="J216" t="b">
-        <v>0</v>
-      </c>
-      <c r="K216" t="str">
-        <v/>
+      <c r="J216" t="str">
+        <v/>
+      </c>
+      <c r="K216" t="b">
+        <v>0</v>
       </c>
       <c r="L216" t="str">
+        <v/>
+      </c>
+      <c r="M216" t="str">
         <v/>
       </c>
     </row>
@@ -9850,13 +10489,16 @@
       <c r="I217" t="str">
         <v/>
       </c>
-      <c r="J217" t="b">
-        <v>0</v>
-      </c>
-      <c r="K217" t="str">
-        <v/>
+      <c r="J217" t="str">
+        <v/>
+      </c>
+      <c r="K217" t="b">
+        <v>0</v>
       </c>
       <c r="L217" t="str">
+        <v/>
+      </c>
+      <c r="M217" t="str">
         <v/>
       </c>
     </row>
@@ -9888,13 +10530,16 @@
       <c r="I218" t="str">
         <v/>
       </c>
-      <c r="J218" t="b">
-        <v>0</v>
-      </c>
-      <c r="K218" t="str">
-        <v/>
+      <c r="J218" t="str">
+        <v/>
+      </c>
+      <c r="K218" t="b">
+        <v>0</v>
       </c>
       <c r="L218" t="str">
+        <v/>
+      </c>
+      <c r="M218" t="str">
         <v/>
       </c>
     </row>
@@ -9926,13 +10571,16 @@
       <c r="I219" t="str">
         <v/>
       </c>
-      <c r="J219" t="b">
-        <v>0</v>
-      </c>
-      <c r="K219" t="str">
-        <v/>
+      <c r="J219" t="str">
+        <v/>
+      </c>
+      <c r="K219" t="b">
+        <v>0</v>
       </c>
       <c r="L219" t="str">
+        <v/>
+      </c>
+      <c r="M219" t="str">
         <v/>
       </c>
     </row>
@@ -9964,13 +10612,16 @@
       <c r="I220" t="str">
         <v/>
       </c>
-      <c r="J220" t="b">
-        <v>0</v>
-      </c>
-      <c r="K220" t="str">
-        <v/>
+      <c r="J220" t="str">
+        <v/>
+      </c>
+      <c r="K220" t="b">
+        <v>0</v>
       </c>
       <c r="L220" t="str">
+        <v/>
+      </c>
+      <c r="M220" t="str">
         <v/>
       </c>
     </row>
@@ -10002,13 +10653,16 @@
       <c r="I221" t="str">
         <v/>
       </c>
-      <c r="J221" t="b">
-        <v>0</v>
-      </c>
-      <c r="K221" t="str">
-        <v/>
+      <c r="J221" t="str">
+        <v/>
+      </c>
+      <c r="K221" t="b">
+        <v>0</v>
       </c>
       <c r="L221" t="str">
+        <v/>
+      </c>
+      <c r="M221" t="str">
         <v/>
       </c>
     </row>
@@ -10040,13 +10694,16 @@
       <c r="I222" t="str">
         <v/>
       </c>
-      <c r="J222" t="b">
-        <v>0</v>
-      </c>
-      <c r="K222" t="str">
-        <v/>
+      <c r="J222" t="str">
+        <v/>
+      </c>
+      <c r="K222" t="b">
+        <v>0</v>
       </c>
       <c r="L222" t="str">
+        <v/>
+      </c>
+      <c r="M222" t="str">
         <v/>
       </c>
     </row>
@@ -10078,13 +10735,16 @@
       <c r="I223" t="str">
         <v/>
       </c>
-      <c r="J223" t="b">
-        <v>0</v>
-      </c>
-      <c r="K223" t="str">
-        <v/>
+      <c r="J223" t="str">
+        <v/>
+      </c>
+      <c r="K223" t="b">
+        <v>0</v>
       </c>
       <c r="L223" t="str">
+        <v/>
+      </c>
+      <c r="M223" t="str">
         <v/>
       </c>
     </row>
@@ -10116,13 +10776,16 @@
       <c r="I224" t="str">
         <v/>
       </c>
-      <c r="J224" t="b">
-        <v>0</v>
-      </c>
-      <c r="K224" t="str">
-        <v/>
+      <c r="J224" t="str">
+        <v/>
+      </c>
+      <c r="K224" t="b">
+        <v>0</v>
       </c>
       <c r="L224" t="str">
+        <v/>
+      </c>
+      <c r="M224" t="str">
         <v/>
       </c>
     </row>
@@ -10154,13 +10817,16 @@
       <c r="I225" t="str">
         <v/>
       </c>
-      <c r="J225" t="b">
-        <v>0</v>
-      </c>
-      <c r="K225" t="str">
-        <v/>
+      <c r="J225" t="str">
+        <v/>
+      </c>
+      <c r="K225" t="b">
+        <v>0</v>
       </c>
       <c r="L225" t="str">
+        <v/>
+      </c>
+      <c r="M225" t="str">
         <v/>
       </c>
     </row>
@@ -10192,13 +10858,16 @@
       <c r="I226" t="str">
         <v/>
       </c>
-      <c r="J226" t="b">
-        <v>0</v>
-      </c>
-      <c r="K226" t="str">
-        <v/>
+      <c r="J226" t="str">
+        <v/>
+      </c>
+      <c r="K226" t="b">
+        <v>0</v>
       </c>
       <c r="L226" t="str">
+        <v/>
+      </c>
+      <c r="M226" t="str">
         <v/>
       </c>
     </row>
@@ -10230,13 +10899,16 @@
       <c r="I227" t="str">
         <v/>
       </c>
-      <c r="J227" t="b">
-        <v>0</v>
-      </c>
-      <c r="K227" t="str">
-        <v/>
+      <c r="J227" t="str">
+        <v/>
+      </c>
+      <c r="K227" t="b">
+        <v>0</v>
       </c>
       <c r="L227" t="str">
+        <v/>
+      </c>
+      <c r="M227" t="str">
         <v/>
       </c>
     </row>
@@ -10268,13 +10940,16 @@
       <c r="I228" t="str">
         <v/>
       </c>
-      <c r="J228" t="b">
-        <v>0</v>
-      </c>
-      <c r="K228" t="str">
-        <v/>
+      <c r="J228" t="str">
+        <v/>
+      </c>
+      <c r="K228" t="b">
+        <v>0</v>
       </c>
       <c r="L228" t="str">
+        <v/>
+      </c>
+      <c r="M228" t="str">
         <v/>
       </c>
     </row>
@@ -10306,13 +10981,16 @@
       <c r="I229" t="str">
         <v/>
       </c>
-      <c r="J229" t="b">
-        <v>0</v>
-      </c>
-      <c r="K229" t="str">
-        <v/>
+      <c r="J229" t="str">
+        <v/>
+      </c>
+      <c r="K229" t="b">
+        <v>0</v>
       </c>
       <c r="L229" t="str">
+        <v/>
+      </c>
+      <c r="M229" t="str">
         <v/>
       </c>
     </row>
@@ -10344,13 +11022,16 @@
       <c r="I230" t="str">
         <v/>
       </c>
-      <c r="J230" t="b">
-        <v>0</v>
-      </c>
-      <c r="K230" t="str">
-        <v/>
+      <c r="J230" t="str">
+        <v/>
+      </c>
+      <c r="K230" t="b">
+        <v>0</v>
       </c>
       <c r="L230" t="str">
+        <v/>
+      </c>
+      <c r="M230" t="str">
         <v/>
       </c>
     </row>
@@ -10382,13 +11063,16 @@
       <c r="I231" t="str">
         <v/>
       </c>
-      <c r="J231" t="b">
-        <v>0</v>
-      </c>
-      <c r="K231" t="str">
-        <v/>
+      <c r="J231" t="str">
+        <v/>
+      </c>
+      <c r="K231" t="b">
+        <v>0</v>
       </c>
       <c r="L231" t="str">
+        <v/>
+      </c>
+      <c r="M231" t="str">
         <v/>
       </c>
     </row>
@@ -10420,13 +11104,16 @@
       <c r="I232" t="str">
         <v/>
       </c>
-      <c r="J232" t="b">
-        <v>0</v>
-      </c>
-      <c r="K232" t="str">
-        <v/>
+      <c r="J232" t="str">
+        <v/>
+      </c>
+      <c r="K232" t="b">
+        <v>0</v>
       </c>
       <c r="L232" t="str">
+        <v/>
+      </c>
+      <c r="M232" t="str">
         <v/>
       </c>
     </row>
@@ -10458,13 +11145,16 @@
       <c r="I233" t="str">
         <v/>
       </c>
-      <c r="J233" t="b">
-        <v>0</v>
-      </c>
-      <c r="K233" t="str">
-        <v/>
+      <c r="J233" t="str">
+        <v/>
+      </c>
+      <c r="K233" t="b">
+        <v>0</v>
       </c>
       <c r="L233" t="str">
+        <v/>
+      </c>
+      <c r="M233" t="str">
         <v/>
       </c>
     </row>
@@ -10496,13 +11186,16 @@
       <c r="I234" t="str">
         <v/>
       </c>
-      <c r="J234" t="b">
-        <v>0</v>
-      </c>
-      <c r="K234" t="str">
-        <v/>
+      <c r="J234" t="str">
+        <v/>
+      </c>
+      <c r="K234" t="b">
+        <v>0</v>
       </c>
       <c r="L234" t="str">
+        <v/>
+      </c>
+      <c r="M234" t="str">
         <v/>
       </c>
     </row>
@@ -10534,13 +11227,16 @@
       <c r="I235" t="str">
         <v/>
       </c>
-      <c r="J235" t="b">
-        <v>0</v>
-      </c>
-      <c r="K235" t="str">
-        <v/>
+      <c r="J235" t="str">
+        <v/>
+      </c>
+      <c r="K235" t="b">
+        <v>0</v>
       </c>
       <c r="L235" t="str">
+        <v/>
+      </c>
+      <c r="M235" t="str">
         <v/>
       </c>
     </row>
@@ -10572,13 +11268,16 @@
       <c r="I236" t="str">
         <v/>
       </c>
-      <c r="J236" t="b">
-        <v>0</v>
-      </c>
-      <c r="K236" t="str">
-        <v/>
+      <c r="J236" t="str">
+        <v/>
+      </c>
+      <c r="K236" t="b">
+        <v>0</v>
       </c>
       <c r="L236" t="str">
+        <v/>
+      </c>
+      <c r="M236" t="str">
         <v/>
       </c>
     </row>
@@ -10610,13 +11309,16 @@
       <c r="I237" t="str">
         <v/>
       </c>
-      <c r="J237" t="b">
-        <v>0</v>
-      </c>
-      <c r="K237" t="str">
-        <v/>
+      <c r="J237" t="str">
+        <v/>
+      </c>
+      <c r="K237" t="b">
+        <v>0</v>
       </c>
       <c r="L237" t="str">
+        <v/>
+      </c>
+      <c r="M237" t="str">
         <v/>
       </c>
     </row>
@@ -10648,13 +11350,16 @@
       <c r="I238" t="str">
         <v/>
       </c>
-      <c r="J238" t="b">
-        <v>0</v>
-      </c>
-      <c r="K238" t="str">
-        <v/>
+      <c r="J238" t="str">
+        <v/>
+      </c>
+      <c r="K238" t="b">
+        <v>0</v>
       </c>
       <c r="L238" t="str">
+        <v/>
+      </c>
+      <c r="M238" t="str">
         <v/>
       </c>
     </row>
@@ -10686,13 +11391,16 @@
       <c r="I239" t="str">
         <v/>
       </c>
-      <c r="J239" t="b">
-        <v>0</v>
-      </c>
-      <c r="K239" t="str">
-        <v/>
+      <c r="J239" t="str">
+        <v/>
+      </c>
+      <c r="K239" t="b">
+        <v>0</v>
       </c>
       <c r="L239" t="str">
+        <v/>
+      </c>
+      <c r="M239" t="str">
         <v/>
       </c>
     </row>
@@ -10724,13 +11432,16 @@
       <c r="I240" t="str">
         <v/>
       </c>
-      <c r="J240" t="b">
-        <v>0</v>
-      </c>
-      <c r="K240" t="str">
-        <v/>
+      <c r="J240" t="str">
+        <v/>
+      </c>
+      <c r="K240" t="b">
+        <v>0</v>
       </c>
       <c r="L240" t="str">
+        <v/>
+      </c>
+      <c r="M240" t="str">
         <v/>
       </c>
     </row>
@@ -10762,13 +11473,16 @@
       <c r="I241" t="str">
         <v/>
       </c>
-      <c r="J241" t="b">
-        <v>0</v>
-      </c>
-      <c r="K241" t="str">
-        <v/>
+      <c r="J241" t="str">
+        <v/>
+      </c>
+      <c r="K241" t="b">
+        <v>0</v>
       </c>
       <c r="L241" t="str">
+        <v/>
+      </c>
+      <c r="M241" t="str">
         <v/>
       </c>
     </row>
@@ -10800,13 +11514,16 @@
       <c r="I242" t="str">
         <v/>
       </c>
-      <c r="J242" t="b">
-        <v>0</v>
-      </c>
-      <c r="K242" t="str">
-        <v/>
+      <c r="J242" t="str">
+        <v/>
+      </c>
+      <c r="K242" t="b">
+        <v>0</v>
       </c>
       <c r="L242" t="str">
+        <v/>
+      </c>
+      <c r="M242" t="str">
         <v/>
       </c>
     </row>
@@ -10838,13 +11555,16 @@
       <c r="I243" t="str">
         <v/>
       </c>
-      <c r="J243" t="b">
-        <v>0</v>
-      </c>
-      <c r="K243" t="str">
-        <v/>
+      <c r="J243" t="str">
+        <v/>
+      </c>
+      <c r="K243" t="b">
+        <v>0</v>
       </c>
       <c r="L243" t="str">
+        <v/>
+      </c>
+      <c r="M243" t="str">
         <v/>
       </c>
     </row>
@@ -10876,13 +11596,16 @@
       <c r="I244" t="str">
         <v/>
       </c>
-      <c r="J244" t="b">
-        <v>0</v>
-      </c>
-      <c r="K244" t="str">
-        <v/>
+      <c r="J244" t="str">
+        <v/>
+      </c>
+      <c r="K244" t="b">
+        <v>0</v>
       </c>
       <c r="L244" t="str">
+        <v/>
+      </c>
+      <c r="M244" t="str">
         <v/>
       </c>
     </row>
@@ -10914,13 +11637,16 @@
       <c r="I245" t="str">
         <v/>
       </c>
-      <c r="J245" t="b">
-        <v>0</v>
-      </c>
-      <c r="K245" t="str">
-        <v/>
+      <c r="J245" t="str">
+        <v/>
+      </c>
+      <c r="K245" t="b">
+        <v>0</v>
       </c>
       <c r="L245" t="str">
+        <v/>
+      </c>
+      <c r="M245" t="str">
         <v/>
       </c>
     </row>
@@ -10952,13 +11678,16 @@
       <c r="I246" t="str">
         <v/>
       </c>
-      <c r="J246" t="b">
-        <v>0</v>
-      </c>
-      <c r="K246" t="str">
-        <v/>
+      <c r="J246" t="str">
+        <v/>
+      </c>
+      <c r="K246" t="b">
+        <v>0</v>
       </c>
       <c r="L246" t="str">
+        <v/>
+      </c>
+      <c r="M246" t="str">
         <v/>
       </c>
     </row>
@@ -10990,13 +11719,16 @@
       <c r="I247" t="str">
         <v/>
       </c>
-      <c r="J247" t="b">
-        <v>0</v>
-      </c>
-      <c r="K247" t="str">
-        <v/>
+      <c r="J247" t="str">
+        <v/>
+      </c>
+      <c r="K247" t="b">
+        <v>0</v>
       </c>
       <c r="L247" t="str">
+        <v/>
+      </c>
+      <c r="M247" t="str">
         <v/>
       </c>
     </row>
@@ -11028,13 +11760,16 @@
       <c r="I248" t="str">
         <v/>
       </c>
-      <c r="J248" t="b">
-        <v>0</v>
-      </c>
-      <c r="K248" t="str">
-        <v/>
+      <c r="J248" t="str">
+        <v/>
+      </c>
+      <c r="K248" t="b">
+        <v>0</v>
       </c>
       <c r="L248" t="str">
+        <v/>
+      </c>
+      <c r="M248" t="str">
         <v/>
       </c>
     </row>
@@ -11066,13 +11801,16 @@
       <c r="I249" t="str">
         <v/>
       </c>
-      <c r="J249" t="b">
-        <v>0</v>
-      </c>
-      <c r="K249" t="str">
-        <v/>
+      <c r="J249" t="str">
+        <v/>
+      </c>
+      <c r="K249" t="b">
+        <v>0</v>
       </c>
       <c r="L249" t="str">
+        <v/>
+      </c>
+      <c r="M249" t="str">
         <v/>
       </c>
     </row>
@@ -11104,13 +11842,16 @@
       <c r="I250" t="str">
         <v/>
       </c>
-      <c r="J250" t="b">
-        <v>0</v>
-      </c>
-      <c r="K250" t="str">
-        <v/>
+      <c r="J250" t="str">
+        <v/>
+      </c>
+      <c r="K250" t="b">
+        <v>0</v>
       </c>
       <c r="L250" t="str">
+        <v/>
+      </c>
+      <c r="M250" t="str">
         <v/>
       </c>
     </row>
@@ -11142,13 +11883,16 @@
       <c r="I251" t="str">
         <v/>
       </c>
-      <c r="J251" t="b">
-        <v>0</v>
-      </c>
-      <c r="K251" t="str">
-        <v/>
+      <c r="J251" t="str">
+        <v/>
+      </c>
+      <c r="K251" t="b">
+        <v>0</v>
       </c>
       <c r="L251" t="str">
+        <v/>
+      </c>
+      <c r="M251" t="str">
         <v/>
       </c>
     </row>
@@ -11180,13 +11924,16 @@
       <c r="I252" t="str">
         <v/>
       </c>
-      <c r="J252" t="b">
-        <v>0</v>
-      </c>
-      <c r="K252" t="str">
-        <v/>
+      <c r="J252" t="str">
+        <v/>
+      </c>
+      <c r="K252" t="b">
+        <v>0</v>
       </c>
       <c r="L252" t="str">
+        <v/>
+      </c>
+      <c r="M252" t="str">
         <v/>
       </c>
     </row>
@@ -11218,13 +11965,16 @@
       <c r="I253" t="str">
         <v/>
       </c>
-      <c r="J253" t="b">
-        <v>0</v>
-      </c>
-      <c r="K253" t="str">
-        <v/>
+      <c r="J253" t="str">
+        <v/>
+      </c>
+      <c r="K253" t="b">
+        <v>0</v>
       </c>
       <c r="L253" t="str">
+        <v/>
+      </c>
+      <c r="M253" t="str">
         <v/>
       </c>
     </row>
@@ -11256,13 +12006,16 @@
       <c r="I254" t="str">
         <v/>
       </c>
-      <c r="J254" t="b">
-        <v>0</v>
-      </c>
-      <c r="K254" t="str">
-        <v/>
+      <c r="J254" t="str">
+        <v/>
+      </c>
+      <c r="K254" t="b">
+        <v>0</v>
       </c>
       <c r="L254" t="str">
+        <v/>
+      </c>
+      <c r="M254" t="str">
         <v/>
       </c>
     </row>
@@ -11294,13 +12047,16 @@
       <c r="I255" t="str">
         <v/>
       </c>
-      <c r="J255" t="b">
-        <v>0</v>
-      </c>
-      <c r="K255" t="str">
-        <v/>
+      <c r="J255" t="str">
+        <v/>
+      </c>
+      <c r="K255" t="b">
+        <v>0</v>
       </c>
       <c r="L255" t="str">
+        <v/>
+      </c>
+      <c r="M255" t="str">
         <v/>
       </c>
     </row>
@@ -11332,13 +12088,16 @@
       <c r="I256" t="str">
         <v/>
       </c>
-      <c r="J256" t="b">
-        <v>0</v>
-      </c>
-      <c r="K256" t="str">
-        <v/>
+      <c r="J256" t="str">
+        <v/>
+      </c>
+      <c r="K256" t="b">
+        <v>0</v>
       </c>
       <c r="L256" t="str">
+        <v/>
+      </c>
+      <c r="M256" t="str">
         <v/>
       </c>
     </row>
@@ -11370,19 +12129,22 @@
       <c r="I257" t="str">
         <v/>
       </c>
-      <c r="J257" t="b">
-        <v>0</v>
-      </c>
-      <c r="K257" t="str">
-        <v/>
+      <c r="J257" t="str">
+        <v/>
+      </c>
+      <c r="K257" t="b">
+        <v>0</v>
       </c>
       <c r="L257" t="str">
+        <v/>
+      </c>
+      <c r="M257" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L257"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M257"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -598,7 +598,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -669,6 +669,9 @@
       <c r="H2" t="str">
         <v>equal</v>
       </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
       <c r="J2" t="str">
         <v/>
       </c>
@@ -682,9 +685,44 @@
         <v/>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>bazar</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Ammu</v>
+      </c>
+      <c r="C3">
+        <v>9.99</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-12-28</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Hand Cash</v>
+      </c>
+      <c r="G3" t="str">
+        <v>["me"]</v>
+      </c>
+      <c r="H3" t="str">
+        <v>equal</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M3"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Accounts" sheetId="9" r:id="rId9"/>
     <sheet name="Transfers" sheetId="10" r:id="rId10"/>
     <sheet name="FamilyMembers" sheetId="11" r:id="rId11"/>
+    <sheet name="Debts" sheetId="12" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
@@ -596,6 +597,66 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" t="str">
+        <v>principal</v>
+      </c>
+      <c r="D1" t="str">
+        <v>paid</v>
+      </c>
+      <c r="E1" t="str">
+        <v>creditor</v>
+      </c>
+      <c r="F1" t="str">
+        <v>dueDate</v>
+      </c>
+      <c r="G1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>HOme</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Loan</v>
+      </c>
+      <c r="C2">
+        <v>50000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="str">
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <v>2026-01-02</v>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
@@ -701,11 +762,17 @@
       <c r="E3" t="str">
         <v>Hand Cash</v>
       </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
       <c r="G3" t="str">
         <v>["me"]</v>
       </c>
       <c r="H3" t="str">
         <v>equal</v>
+      </c>
+      <c r="I3" t="str">
+        <v/>
       </c>
       <c r="J3" t="str">
         <v/>

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -15,6 +15,8 @@
     <sheet name="Transfers" sheetId="10" r:id="rId10"/>
     <sheet name="FamilyMembers" sheetId="11" r:id="rId11"/>
     <sheet name="Debts" sheetId="12" r:id="rId12"/>
+    <sheet name="Properties" sheetId="13" r:id="rId13"/>
+    <sheet name="Islamic" sheetId="14" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
@@ -599,7 +601,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -615,16 +617,22 @@
         <v>principal</v>
       </c>
       <c r="D1" t="str">
+        <v>paymentHistory</v>
+      </c>
+      <c r="E1" t="str">
+        <v>historicalPaid</v>
+      </c>
+      <c r="F1" t="str">
+        <v>creditor</v>
+      </c>
+      <c r="G1" t="str">
+        <v>dueDate</v>
+      </c>
+      <c r="H1" t="str">
+        <v>description</v>
+      </c>
+      <c r="I1" t="str">
         <v>paid</v>
-      </c>
-      <c r="E1" t="str">
-        <v>creditor</v>
-      </c>
-      <c r="F1" t="str">
-        <v>dueDate</v>
-      </c>
-      <c r="G1" t="str">
-        <v>description</v>
       </c>
     </row>
     <row r="2">
@@ -637,29 +645,120 @@
       <c r="C2">
         <v>50000</v>
       </c>
+      <c r="D2" t="str">
+        <v>[{"amount":5000,"date":"2026-01-02","note":"","method":"Cash","recordedAt":"2026-01-02T06:58:03.990Z"}]</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v>2026-01-02</v>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2">
+        <v>5000</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" t="str">
+        <v>value</v>
+      </c>
+      <c r="D1" t="str">
+        <v>estimatedValue</v>
+      </c>
+      <c r="E1" t="str">
+        <v>location</v>
+      </c>
+      <c r="F1" t="str">
+        <v>area</v>
+      </c>
+      <c r="G1" t="str">
+        <v>acquiredDate</v>
+      </c>
+      <c r="H1" t="str">
+        <v>zakatEligible</v>
+      </c>
+      <c r="I1" t="str">
+        <v>notes</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>gold</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Gold</v>
+      </c>
+      <c r="C2">
+        <v>50000</v>
+      </c>
       <c r="D2">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
-      <c r="F2" t="str">
-        <v>2026-01-02</v>
+      <c r="F2">
+        <v>-0.01</v>
       </c>
       <c r="G2" t="str">
+        <v>2026-01-01</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,13 +836,13 @@
         <v/>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>monthly</v>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>2026-01-31</v>
       </c>
     </row>
     <row r="3">
@@ -787,9 +886,50 @@
         <v/>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>office ar chele</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Other</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2026-01-01</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Hand Cash</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Husna</v>
+      </c>
+      <c r="G4" t="str">
+        <v>["vaiya","me"]</v>
+      </c>
+      <c r="H4" t="str">
+        <v>equal</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="str">
+        <v>monthly</v>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/finance_data.xlsx
+++ b/finance_data.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,9 +485,41 @@
         <v/>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Giant Marketers</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Salary</v>
+      </c>
+      <c r="C3" t="str">
+        <v>25000+5000</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2026-02-01</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Dutch Bangla Bank</v>
+      </c>
+      <c r="F3" t="str">
+        <v>me</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
